--- a/GK_Data_M1_filled.xlsx
+++ b/GK_Data_M1_filled.xlsx
@@ -529,16 +529,16 @@
         <v>0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0136138275</v>
+        <v>0.00136138275</v>
       </c>
       <c r="F2" t="n">
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07684181716202555</v>
+        <v>0.007684181716202553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1707595936933901</v>
+        <v>0.01707595936933901</v>
       </c>
       <c r="I2" t="n">
         <v>14.1</v>
@@ -556,7 +556,7 @@
         <v>0.02500404967200313</v>
       </c>
       <c r="N2" t="n">
-        <v>3.302854366862582e-05</v>
+        <v>3.302854366862581e-06</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -581,16 +581,16 @@
         <v>0.38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19388484</v>
+        <v>0.019388484</v>
       </c>
       <c r="F3" t="n">
         <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2659768058574089</v>
+        <v>0.02659768058574088</v>
       </c>
       <c r="H3" t="n">
-        <v>0.139987792556531</v>
+        <v>0.0139987792556531</v>
       </c>
       <c r="I3" t="n">
         <v>14.1</v>
@@ -608,7 +608,7 @@
         <v>0.02507209604321107</v>
       </c>
       <c r="N3" t="n">
-        <v>9.353065580141351e-05</v>
+        <v>9.353065580141349e-06</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
@@ -629,16 +629,16 @@
         <v>0.22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09589520250000001</v>
+        <v>0.009589520249999999</v>
       </c>
       <c r="F4" t="n">
         <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3635248208507968</v>
+        <v>0.03635248208507967</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3304771098643607</v>
+        <v>0.03304771098643606</v>
       </c>
       <c r="I4" t="n">
         <v>14.1</v>
@@ -656,7 +656,7 @@
         <v>0.02502418829852429</v>
       </c>
       <c r="N4" t="n">
-        <v>7.06384215410706e-05</v>
+        <v>7.063842154107058e-06</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
@@ -677,16 +677,16 @@
         <v>0.13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03336135750000001</v>
+        <v>0.00333613575</v>
       </c>
       <c r="F5" t="n">
         <v>0.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1669937543796806</v>
+        <v>0.01669937543796805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2569134682764316</v>
+        <v>0.02569134682764316</v>
       </c>
       <c r="I5" t="n">
         <v>14.1</v>
@@ -704,7 +704,7 @@
         <v>0.02500844857243248</v>
       </c>
       <c r="N5" t="n">
-        <v>5.026536750154372e-05</v>
+        <v>5.026536750154372e-06</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
@@ -725,16 +725,16 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.019448325</v>
+        <v>0.0019448325</v>
       </c>
       <c r="F6" t="n">
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1057007768542042</v>
+        <v>0.01057007768542042</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2114015537084084</v>
+        <v>0.02114015537084084</v>
       </c>
       <c r="I6" t="n">
         <v>14.1</v>
@@ -752,7 +752,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N6" t="n">
-        <v>3.988212794490945e-05</v>
+        <v>3.988212794490943e-06</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
@@ -773,16 +773,16 @@
         <v>0.23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09035991</v>
+        <v>0.009035990999999998</v>
       </c>
       <c r="F7" t="n">
         <v>1.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2375079379606459</v>
+        <v>0.02375079379606458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2065286417049094</v>
+        <v>0.02065286417049094</v>
       </c>
       <c r="I7" t="n">
         <v>14.1</v>
@@ -800,7 +800,7 @@
         <v>0.02502643602273404</v>
       </c>
       <c r="N7" t="n">
-        <v>6.931342925812443e-05</v>
+        <v>6.931342925812441e-06</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
@@ -821,16 +821,16 @@
         <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1617203025</v>
+        <v>0.01617203025</v>
       </c>
       <c r="F8" t="n">
         <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3149967748475978</v>
+        <v>0.03149967748475978</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1852922204985869</v>
+        <v>0.0185292220498587</v>
       </c>
       <c r="I8" t="n">
         <v>14.1</v>
@@ -848,7 +848,7 @@
         <v>0.02505773333723544</v>
       </c>
       <c r="N8" t="n">
-        <v>8.58320887119166e-05</v>
+        <v>8.58320887119166e-06</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
@@ -869,16 +869,16 @@
         <v>0.35</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1677044025</v>
+        <v>0.01677044025</v>
       </c>
       <c r="F9" t="n">
         <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3126029585287417</v>
+        <v>0.03126029585287416</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1786302620164238</v>
+        <v>0.01786302620164238</v>
       </c>
       <c r="I9" t="n">
         <v>14.1</v>
@@ -896,7 +896,7 @@
         <v>0.02506117515201552</v>
       </c>
       <c r="N9" t="n">
-        <v>8.724091891729097e-05</v>
+        <v>8.724091891729096e-06</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
@@ -917,16 +917,16 @@
         <v>0.18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06791953500000002</v>
+        <v>0.006791953500000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2923244517019918</v>
+        <v>0.02923244517019918</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3248049463355465</v>
+        <v>0.03248049463355464</v>
       </c>
       <c r="I10" t="n">
         <v>14.1</v>
@@ -944,7 +944,7 @@
         <v>0.02501619475459847</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350649824631214e-05</v>
+        <v>6.350649824631214e-06</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
@@ -965,16 +965,16 @@
         <v>0.41</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1943336475</v>
+        <v>0.01943336475</v>
       </c>
       <c r="F11" t="n">
         <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2442068637325234</v>
+        <v>0.02442068637325234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1191252993817187</v>
+        <v>0.01191252993817187</v>
       </c>
       <c r="I11" t="n">
         <v>14.1</v>
@@ -992,7 +992,7 @@
         <v>0.02508390918497354</v>
       </c>
       <c r="N11" t="n">
-        <v>9.364034534898302e-05</v>
+        <v>9.364034534898301e-06</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
@@ -1013,16 +1013,16 @@
         <v>0.45</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2039082075</v>
+        <v>0.02039082075</v>
       </c>
       <c r="F12" t="n">
         <v>2.25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2071262102960011</v>
+        <v>0.0207126210296001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0920560934648894</v>
+        <v>0.009205609346488935</v>
       </c>
       <c r="I12" t="n">
         <v>14.1</v>
@@ -1040,7 +1040,7 @@
         <v>0.02510104579494647</v>
       </c>
       <c r="N12" t="n">
-        <v>9.599559855410409e-05</v>
+        <v>9.599559855410405e-06</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
@@ -1061,16 +1061,16 @@
         <v>0.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09050951250000001</v>
+        <v>0.00905095125</v>
       </c>
       <c r="F13" t="n">
         <v>1.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5743749194909871</v>
+        <v>0.05743749194909869</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5221590177190791</v>
+        <v>0.05221590177190789</v>
       </c>
       <c r="I13" t="n">
         <v>14.1</v>
@@ -1088,7 +1088,7 @@
         <v>0.02502418829852429</v>
       </c>
       <c r="N13" t="n">
-        <v>6.934960335699357e-05</v>
+        <v>6.934960335699356e-06</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
@@ -1109,16 +1109,16 @@
         <v>0.18</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05909298750000001</v>
+        <v>0.005909298749999999</v>
       </c>
       <c r="F14" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2648550961163741</v>
+        <v>0.02648550961163741</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2942834401293046</v>
+        <v>0.02942834401293046</v>
       </c>
       <c r="I14" t="n">
         <v>14.1</v>
@@ -1136,7 +1136,7 @@
         <v>0.02501619475459847</v>
       </c>
       <c r="N14" t="n">
-        <v>6.087358782233311e-05</v>
+        <v>6.087358782233309e-06</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
@@ -1157,16 +1157,16 @@
         <v>0.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0417390975</v>
+        <v>0.00417390975</v>
       </c>
       <c r="F15" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2019359527931409</v>
+        <v>0.02019359527931409</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2884799325616298</v>
+        <v>0.02884799325616299</v>
       </c>
       <c r="I15" t="n">
         <v>14.1</v>
@@ -1184,7 +1184,7 @@
         <v>0.02500979807995259</v>
       </c>
       <c r="N15" t="n">
-        <v>5.444869769922636e-05</v>
+        <v>5.444869769922636e-06</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -1205,16 +1205,16 @@
         <v>0.12</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03021970500000001</v>
+        <v>0.0030219705</v>
       </c>
       <c r="F16" t="n">
         <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1531666451975965</v>
+        <v>0.01531666451975965</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2552777419959942</v>
+        <v>0.02552777419959942</v>
       </c>
       <c r="I16" t="n">
         <v>14.1</v>
@@ -1232,7 +1232,7 @@
         <v>0.02500719896349849</v>
       </c>
       <c r="N16" t="n">
-        <v>4.839150393208288e-05</v>
+        <v>4.839150393208287e-06</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
@@ -1253,16 +1253,16 @@
         <v>0.11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02528282250000001</v>
+        <v>0.00252828225</v>
       </c>
       <c r="F17" t="n">
         <v>0.55</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1323805490466912</v>
+        <v>0.01323805490466913</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2406919073576204</v>
+        <v>0.02406919073576204</v>
       </c>
       <c r="I17" t="n">
         <v>14.1</v>
@@ -1280,7 +1280,7 @@
         <v>0.02500604926812711</v>
       </c>
       <c r="N17" t="n">
-        <v>4.497132727975271e-05</v>
+        <v>4.497132727975271e-06</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
@@ -1301,16 +1301,16 @@
         <v>0.11</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02094435</v>
+        <v>0.002094435</v>
       </c>
       <c r="F18" t="n">
         <v>0.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1114189899195347</v>
+        <v>0.01114189899195346</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2025799816718812</v>
+        <v>0.02025799816718812</v>
       </c>
       <c r="I18" t="n">
         <v>14.1</v>
@@ -1328,7 +1328,7 @@
         <v>0.02500604926812711</v>
       </c>
       <c r="N18" t="n">
-        <v>4.132234080552283e-05</v>
+        <v>4.132234080552282e-06</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1349,16 +1349,16 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0184011075</v>
+        <v>0.00184011075</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1316113318918755</v>
+        <v>0.01316113318918755</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2632226637837511</v>
+        <v>0.0263222663783751</v>
       </c>
       <c r="I19" t="n">
         <v>14.1</v>
@@ -1376,7 +1376,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N19" t="n">
-        <v>3.880747661278238e-05</v>
+        <v>3.880747661278237e-06</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1397,16 +1397,16 @@
         <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01735389</v>
+        <v>0.001735389</v>
       </c>
       <c r="F20" t="n">
         <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09468107529214004</v>
+        <v>0.009468107529214002</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1893621505842801</v>
+        <v>0.018936215058428</v>
       </c>
       <c r="I20" t="n">
         <v>14.1</v>
@@ -1424,7 +1424,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N20" t="n">
-        <v>3.767226321138434e-05</v>
+        <v>3.767226321138433e-06</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
@@ -1445,16 +1445,16 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01585786500000001</v>
+        <v>0.0015857865</v>
       </c>
       <c r="F21" t="n">
         <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08718316632483276</v>
+        <v>0.008718316632483274</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1743663326496655</v>
+        <v>0.01743663326496655</v>
       </c>
       <c r="I21" t="n">
         <v>14.1</v>
@@ -1472,7 +1472,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N21" t="n">
-        <v>3.593388593339043e-05</v>
+        <v>3.593388593339042e-06</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1493,16 +1493,16 @@
         <v>0.09</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01436184</v>
+        <v>0.001436184</v>
       </c>
       <c r="F22" t="n">
         <v>0.45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07775516461876189</v>
+        <v>0.007775516461876189</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1727892547083598</v>
+        <v>0.01727892547083598</v>
       </c>
       <c r="I22" t="n">
         <v>14.1</v>
@@ -1520,7 +1520,7 @@
         <v>0.02500404967200313</v>
       </c>
       <c r="N22" t="n">
-        <v>3.404049516018901e-05</v>
+        <v>3.404049516018901e-06</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
@@ -1541,16 +1541,16 @@
         <v>0.11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01121283</v>
+        <v>0.001121283</v>
       </c>
       <c r="F23" t="n">
         <v>0.88</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05730119481576068</v>
+        <v>0.005730119481576068</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06511499410881895</v>
+        <v>0.006511499410881895</v>
       </c>
       <c r="I23" t="n">
         <v>27</v>
@@ -1568,7 +1568,7 @@
         <v>0.04000378107129374</v>
       </c>
       <c r="N23" t="n">
-        <v>1.539639106271662e-05</v>
+        <v>1.539639106271661e-06</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>0.158474664</v>
+        <v>0.0158474664</v>
       </c>
       <c r="F24" t="n">
         <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2804627333140812</v>
+        <v>0.02804627333140812</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1031112990125298</v>
+        <v>0.01031112990125298</v>
       </c>
       <c r="I24" t="n">
         <v>27</v>
@@ -1620,7 +1620,7 @@
         <v>0.04003610870202048</v>
       </c>
       <c r="N24" t="n">
-        <v>7.808853565740887e-05</v>
+        <v>7.808853565740889e-06</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
@@ -1641,16 +1641,16 @@
         <v>0.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05980176000000001</v>
+        <v>0.005980176</v>
       </c>
       <c r="F25" t="n">
         <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.224194838732703</v>
+        <v>0.0224194838732703</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1401217742079394</v>
+        <v>0.01401217742079394</v>
       </c>
       <c r="I25" t="n">
         <v>27</v>
@@ -1668,7 +1668,7 @@
         <v>0.04001249804748511</v>
       </c>
       <c r="N25" t="n">
-        <v>4.700597835999596e-05</v>
+        <v>4.700597835999596e-06</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
@@ -1689,16 +1689,16 @@
         <v>0.16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.043356276</v>
+        <v>0.0043356276</v>
       </c>
       <c r="F26" t="n">
         <v>1.28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.189782809714932</v>
+        <v>0.0189782809714932</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1482678200897906</v>
+        <v>0.01482678200897906</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
@@ -1716,7 +1716,7 @@
         <v>0.04000799920015995</v>
       </c>
       <c r="N26" t="n">
-        <v>3.939994356867522e-05</v>
+        <v>3.939994356867522e-06</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -1737,16 +1737,16 @@
         <v>0.15</v>
       </c>
       <c r="E27" t="n">
-        <v>0.040366188</v>
+        <v>0.0040366188</v>
       </c>
       <c r="F27" t="n">
         <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1809214774018936</v>
+        <v>0.01809214774018936</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1507678978349113</v>
+        <v>0.01507678978349113</v>
       </c>
       <c r="I27" t="n">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>0.04000703063212765</v>
       </c>
       <c r="N27" t="n">
-        <v>3.780453809449601e-05</v>
+        <v>3.780453809449601e-06</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
@@ -1785,16 +1785,16 @@
         <v>0.13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.035881056</v>
+        <v>0.0035881056</v>
       </c>
       <c r="F28" t="n">
         <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1660795285807621</v>
+        <v>0.01660795285807621</v>
       </c>
       <c r="H28" t="n">
-        <v>0.159691854404579</v>
+        <v>0.0159691854404579</v>
       </c>
       <c r="I28" t="n">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>0.04000528090140101</v>
       </c>
       <c r="N28" t="n">
-        <v>3.524714175986473e-05</v>
+        <v>3.524714175986473e-06</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
@@ -1833,16 +1833,16 @@
         <v>0.12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.028405836</v>
+        <v>0.0028405836</v>
       </c>
       <c r="F29" t="n">
         <v>0.96</v>
       </c>
       <c r="G29" t="n">
-        <v>0.136536535515915</v>
+        <v>0.0136536535515915</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1422255578290781</v>
+        <v>0.01422255578290781</v>
       </c>
       <c r="I29" t="n">
         <v>27</v>
@@ -1860,7 +1860,7 @@
         <v>0.04000449974690348</v>
       </c>
       <c r="N29" t="n">
-        <v>3.044692121693027e-05</v>
+        <v>3.044692121693027e-06</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
@@ -1881,16 +1881,16 @@
         <v>0.11</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02242566</v>
+        <v>0.002242566</v>
       </c>
       <c r="F30" t="n">
         <v>0.88</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1117842980832053</v>
+        <v>0.01117842980832053</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1270276114581878</v>
+        <v>0.01270276114581878</v>
       </c>
       <c r="I30" t="n">
         <v>27</v>
@@ -1908,7 +1908,7 @@
         <v>0.04000378107129374</v>
       </c>
       <c r="N30" t="n">
-        <v>2.598094742325615e-05</v>
+        <v>2.598094742325614e-06</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -1929,16 +1929,16 @@
         <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01495044</v>
+        <v>0.001495044</v>
       </c>
       <c r="F31" t="n">
         <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07655815372925405</v>
+        <v>0.007655815372925404</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09569769216156755</v>
+        <v>0.009569769216156754</v>
       </c>
       <c r="I31" t="n">
         <v>27</v>
@@ -1956,7 +1956,7 @@
         <v>0.04000312487793922</v>
       </c>
       <c r="N31" t="n">
-        <v>1.932103097152168e-05</v>
+        <v>1.932103097152168e-06</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
@@ -1977,16 +1977,16 @@
         <v>0.46</v>
       </c>
       <c r="E32" t="n">
-        <v>0.17193006</v>
+        <v>0.017193006</v>
       </c>
       <c r="F32" t="n">
         <v>3.68</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2142532379928102</v>
+        <v>0.02142532379928101</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05822098858500276</v>
+        <v>0.005822098858500275</v>
       </c>
       <c r="I32" t="n">
         <v>27</v>
@@ -2004,7 +2004,7 @@
         <v>0.04006607043372235</v>
       </c>
       <c r="N32" t="n">
-        <v>8.183314021625666e-05</v>
+        <v>8.183314021625664e-06</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -2025,16 +2025,16 @@
         <v>0.25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.103158036</v>
+        <v>0.0103158036</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3013948910924069</v>
+        <v>0.03013948910924068</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1506974455462034</v>
+        <v>0.01506974455462034</v>
       </c>
       <c r="I33" t="n">
         <v>27</v>
@@ -2052,7 +2052,7 @@
         <v>0.04001952648395531</v>
       </c>
       <c r="N33" t="n">
-        <v>6.212778826576547e-05</v>
+        <v>6.212778826576547e-06</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
@@ -2073,16 +2073,16 @@
         <v>0.23</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08970264000000001</v>
+        <v>0.008970264</v>
       </c>
       <c r="F34" t="n">
         <v>1.84</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2836878825304874</v>
+        <v>0.02836878825304873</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1541781970274388</v>
+        <v>0.01541781970274387</v>
       </c>
       <c r="I34" t="n">
         <v>27</v>
@@ -2100,7 +2100,7 @@
         <v>0.04001652783538322</v>
       </c>
       <c r="N34" t="n">
-        <v>5.787600704126021e-05</v>
+        <v>5.78760070412602e-06</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2121,16 +2121,16 @@
         <v>0.21</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07774228800000001</v>
+        <v>0.007774228799999998</v>
       </c>
       <c r="F35" t="n">
         <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2686580609394681</v>
+        <v>0.0268658060939468</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1599155124639692</v>
+        <v>0.01599155124639691</v>
       </c>
       <c r="I35" t="n">
         <v>27</v>
@@ -2148,7 +2148,7 @@
         <v>0.04001377887678193</v>
       </c>
       <c r="N35" t="n">
-        <v>5.383009871599578e-05</v>
+        <v>5.383009871599576e-06</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
@@ -2169,16 +2169,16 @@
         <v>0.2</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06578193600000001</v>
+        <v>0.0065781936</v>
       </c>
       <c r="F36" t="n">
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2445477221372082</v>
+        <v>0.02445477221372081</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1528423263357551</v>
+        <v>0.01528423263357551</v>
       </c>
       <c r="I36" t="n">
         <v>27</v>
@@ -2196,7 +2196,7 @@
         <v>0.04001249804748511</v>
       </c>
       <c r="N36" t="n">
-        <v>4.9409929335566e-05</v>
+        <v>4.940992933556599e-06</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2217,16 +2217,16 @@
         <v>0.17</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05232654</v>
+        <v>0.005232654</v>
       </c>
       <c r="F37" t="n">
         <v>1.36</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2186369359568574</v>
+        <v>0.02186369359568574</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1607624529094539</v>
+        <v>0.01607624529094539</v>
       </c>
       <c r="I37" t="n">
         <v>27</v>
@@ -2244,7 +2244,7 @@
         <v>0.04000903023068668</v>
       </c>
       <c r="N37" t="n">
-        <v>4.375935236257245e-05</v>
+        <v>4.375935236257245e-06</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2265,16 +2265,16 @@
         <v>0.16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04485132000000001</v>
+        <v>0.004485132</v>
       </c>
       <c r="F38" t="n">
         <v>1.28</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1925695891349335</v>
+        <v>0.01925695891349334</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1504449915116668</v>
+        <v>0.01504449915116668</v>
       </c>
       <c r="I38" t="n">
         <v>27</v>
@@ -2292,7 +2292,7 @@
         <v>0.04000799920015995</v>
       </c>
       <c r="N38" t="n">
-        <v>4.016844627577722e-05</v>
+        <v>4.016844627577722e-06</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
@@ -2313,16 +2313,16 @@
         <v>0.15</v>
       </c>
       <c r="E39" t="n">
-        <v>0.040366188</v>
+        <v>0.0040366188</v>
       </c>
       <c r="F39" t="n">
         <v>1.2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1809214774018936</v>
+        <v>0.01809214774018936</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1507678978349113</v>
+        <v>0.01507678978349113</v>
       </c>
       <c r="I39" t="n">
         <v>27</v>
@@ -2340,7 +2340,7 @@
         <v>0.04000703063212765</v>
       </c>
       <c r="N39" t="n">
-        <v>3.780453809449601e-05</v>
+        <v>3.780453809449601e-06</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
@@ -2361,16 +2361,16 @@
         <v>0.31</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137544048</v>
+        <v>0.0137544048</v>
       </c>
       <c r="F40" t="n">
         <v>2.48</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2621451382500264</v>
+        <v>0.02621451382500264</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1057036847782365</v>
+        <v>0.01057036847782365</v>
       </c>
       <c r="I40" t="n">
         <v>27</v>
@@ -2388,7 +2388,7 @@
         <v>0.04003001998500625</v>
       </c>
       <c r="N40" t="n">
-        <v>7.220796659648651e-05</v>
+        <v>7.220796659648651e-06</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
@@ -2409,16 +2409,16 @@
         <v>0.27</v>
       </c>
       <c r="E41" t="n">
-        <v>0.118108476</v>
+        <v>0.0118108476</v>
       </c>
       <c r="F41" t="n">
         <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2795233694646425</v>
+        <v>0.02795233694646424</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1294089673447419</v>
+        <v>0.01294089673447418</v>
       </c>
       <c r="I41" t="n">
         <v>27</v>
@@ -2436,7 +2436,7 @@
         <v>0.0400227747663752</v>
       </c>
       <c r="N41" t="n">
-        <v>6.660931695708943e-05</v>
+        <v>6.660931695708942e-06</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -2457,16 +2457,16 @@
         <v>0.35</v>
       </c>
       <c r="E42" t="n">
-        <v>0.168939972</v>
+        <v>0.0168939972</v>
       </c>
       <c r="F42" t="n">
         <v>2.8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2264493119713559</v>
+        <v>0.02264493119713559</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08087475427548427</v>
+        <v>0.008087475427548424</v>
       </c>
       <c r="I42" t="n">
         <v>27</v>
@@ -2484,7 +2484,7 @@
         <v>0.04003826294933385</v>
       </c>
       <c r="N42" t="n">
-        <v>8.100217518130307e-05</v>
+        <v>8.100217518130305e-06</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
@@ -2505,16 +2505,16 @@
         <v>0.51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.228329712</v>
+        <v>0.0228329712</v>
       </c>
       <c r="F43" t="n">
         <v>4.335</v>
       </c>
       <c r="G43" t="n">
-        <v>1.128581808083011</v>
+        <v>0.1128581808083011</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2603418242406024</v>
+        <v>0.02603418242406024</v>
       </c>
       <c r="I43" t="n">
         <v>20</v>
@@ -2532,7 +2532,7 @@
         <v>0.04257643127365186</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0001024721135375306</v>
+        <v>1.024721135375306e-05</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>0.43</v>
       </c>
       <c r="E44" t="n">
-        <v>0.198324846</v>
+        <v>0.0198324846</v>
       </c>
       <c r="F44" t="n">
         <v>3.655</v>
       </c>
       <c r="G44" t="n">
-        <v>1.221189523267137</v>
+        <v>0.1221189523267137</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3341147806476436</v>
+        <v>0.03341147806476435</v>
       </c>
       <c r="I44" t="n">
         <v>20</v>
@@ -2584,7 +2584,7 @@
         <v>0.04255434760397578</v>
       </c>
       <c r="N44" t="n">
-        <v>9.469847983134858e-05</v>
+        <v>9.469847983134859e-06</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
@@ -2605,16 +2605,16 @@
         <v>0.39</v>
       </c>
       <c r="E45" t="n">
-        <v>0.17929737</v>
+        <v>0.017929737</v>
       </c>
       <c r="F45" t="n">
         <v>3.315</v>
       </c>
       <c r="G45" t="n">
-        <v>1.16786574949594</v>
+        <v>0.116786574949594</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3522973603306003</v>
+        <v>0.03522973603306002</v>
       </c>
       <c r="I45" t="n">
         <v>20</v>
@@ -2632,7 +2632,7 @@
         <v>0.04254471177479053</v>
       </c>
       <c r="N45" t="n">
-        <v>8.992349827676397e-05</v>
+        <v>8.992349827676395e-06</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
@@ -2653,16 +2653,16 @@
         <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>0.147097026</v>
+        <v>0.0147097026</v>
       </c>
       <c r="F46" t="n">
         <v>2.89</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9411822334887189</v>
+        <v>0.09411822334887189</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3256685929026709</v>
+        <v>0.03256685929026709</v>
       </c>
       <c r="I46" t="n">
         <v>20</v>
@@ -2680,7 +2680,7 @@
         <v>0.04253398641086913</v>
       </c>
       <c r="N46" t="n">
-        <v>8.211180969236212e-05</v>
+        <v>8.211180969236214e-06</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
@@ -2701,16 +2701,16 @@
         <v>0.33</v>
       </c>
       <c r="E47" t="n">
-        <v>0.141242418</v>
+        <v>0.0141242418</v>
       </c>
       <c r="F47" t="n">
         <v>2.805</v>
       </c>
       <c r="G47" t="n">
-        <v>1.041277348352992</v>
+        <v>0.1041277348352991</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3712218710705852</v>
+        <v>0.03712218710705852</v>
       </c>
       <c r="I47" t="n">
         <v>20</v>
@@ -2728,7 +2728,7 @@
         <v>0.04253201735163758</v>
       </c>
       <c r="N47" t="n">
-        <v>8.07235389796304e-05</v>
+        <v>8.072353897963037e-06</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
@@ -2749,16 +2749,16 @@
         <v>0.27</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1097739</v>
+        <v>0.01097739</v>
       </c>
       <c r="F48" t="n">
         <v>2.295</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8932000334913828</v>
+        <v>0.08932000334913827</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3891939143753302</v>
+        <v>0.03891939143753301</v>
       </c>
       <c r="I48" t="n">
         <v>20</v>
@@ -2776,7 +2776,7 @@
         <v>0.04252143577067924</v>
       </c>
       <c r="N48" t="n">
-        <v>7.334588447922148e-05</v>
+        <v>7.334588447922147e-06</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
@@ -2797,16 +2797,16 @@
         <v>0.23</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08050086000000001</v>
+        <v>0.008050086</v>
       </c>
       <c r="F49" t="n">
         <v>1.955</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7249826097664934</v>
+        <v>0.07249826097664933</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3708350945097153</v>
+        <v>0.03708350945097152</v>
       </c>
       <c r="I49" t="n">
         <v>20</v>
@@ -2824,7 +2824,7 @@
         <v>0.04251555597660696</v>
       </c>
       <c r="N49" t="n">
-        <v>6.626687471391086e-05</v>
+        <v>6.626687471391086e-06</v>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
@@ -2845,16 +2845,16 @@
         <v>0.21</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07171894800000002</v>
+        <v>0.007171894799999999</v>
       </c>
       <c r="F50" t="n">
         <v>1.785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6691758088751656</v>
+        <v>0.06691758088751655</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3748884083334261</v>
+        <v>0.03748884083334261</v>
       </c>
       <c r="I50" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         <v>0.04251296860959019</v>
       </c>
       <c r="N50" t="n">
-        <v>6.395944280079029e-05</v>
+        <v>6.395944280079026e-06</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -2893,16 +2893,16 @@
         <v>0.19</v>
       </c>
       <c r="E51" t="n">
-        <v>0.060009732</v>
+        <v>0.0060009732</v>
       </c>
       <c r="F51" t="n">
         <v>1.615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5819173311288515</v>
+        <v>0.05819173311288516</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3603203288723539</v>
+        <v>0.03603203288723539</v>
       </c>
       <c r="I51" t="n">
         <v>20</v>
@@ -2920,7 +2920,7 @@
         <v>0.04251061632110266</v>
       </c>
       <c r="N51" t="n">
-        <v>6.058710823196233e-05</v>
+        <v>6.058710823196233e-06</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
@@ -2941,16 +2941,16 @@
         <v>0.16</v>
       </c>
       <c r="E52" t="n">
-        <v>0.04903234200000001</v>
+        <v>0.004903234199999999</v>
       </c>
       <c r="F52" t="n">
         <v>1.36</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4857383485435506</v>
+        <v>0.04857383485435504</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3571605503996695</v>
+        <v>0.03571605503996694</v>
       </c>
       <c r="I52" t="n">
         <v>20</v>
@@ -2968,7 +2968,7 @@
         <v>0.04250752874491764</v>
       </c>
       <c r="N52" t="n">
-        <v>5.690443052176958e-05</v>
+        <v>5.690443052176956e-06</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
@@ -2989,16 +2989,16 @@
         <v>0.15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04025043</v>
+        <v>0.004025043</v>
       </c>
       <c r="F53" t="n">
         <v>1.275</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4075919672349995</v>
+        <v>0.04075919672349994</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3196799743019604</v>
+        <v>0.03196799743019603</v>
       </c>
       <c r="I53" t="n">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>0.04250661713192429</v>
       </c>
       <c r="N53" t="n">
-        <v>5.333692805140196e-05</v>
+        <v>5.333692805140195e-06</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
@@ -3037,16 +3037,16 @@
         <v>0.13</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02854121400000001</v>
+        <v>0.0028541214</v>
       </c>
       <c r="F54" t="n">
         <v>1.105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3018717230306783</v>
+        <v>0.03018717230306783</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2731870796657723</v>
+        <v>0.02731870796657723</v>
       </c>
       <c r="I54" t="n">
         <v>20</v>
@@ -3064,7 +3064,7 @@
         <v>0.04250497029760167</v>
       </c>
       <c r="N54" t="n">
-        <v>4.701737441815477e-05</v>
+        <v>4.701737441815476e-06</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
@@ -3085,16 +3085,16 @@
         <v>0.1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.013904694</v>
+        <v>0.0013904694</v>
       </c>
       <c r="F55" t="n">
         <v>0.8500000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1518708285173636</v>
+        <v>0.01518708285173636</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1786715629616042</v>
+        <v>0.01786715629616042</v>
       </c>
       <c r="I55" t="n">
         <v>20</v>
@@ -3112,7 +3112,7 @@
         <v>0.04250294107470682</v>
       </c>
       <c r="N55" t="n">
-        <v>3.343273750263127e-05</v>
+        <v>3.343273750263127e-06</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -3133,16 +3133,16 @@
         <v>0.1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.012441042</v>
+        <v>0.0012441042</v>
       </c>
       <c r="F56" t="n">
         <v>0.8500000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1360147078027032</v>
+        <v>0.01360147078027032</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1600173032972979</v>
+        <v>0.01600173032972978</v>
       </c>
       <c r="I56" t="n">
         <v>20</v>
@@ -3160,7 +3160,7 @@
         <v>0.04250294107470682</v>
       </c>
       <c r="N56" t="n">
-        <v>3.138080119035403e-05</v>
+        <v>3.138080119035403e-06</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
@@ -3181,16 +3181,16 @@
         <v>0.66</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3241989180000001</v>
+        <v>0.0324198918</v>
       </c>
       <c r="F57" t="n">
         <v>5.61</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8860958170087873</v>
+        <v>0.0886095817008787</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1579493434953275</v>
+        <v>0.01579493434953274</v>
       </c>
       <c r="I57" t="n">
         <v>20</v>
@@ -3208,7 +3208,7 @@
         <v>0.04262792511957391</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0001290114919239752</v>
+        <v>1.290114919239751e-05</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
@@ -3229,16 +3229,16 @@
         <v>0.57</v>
       </c>
       <c r="E58" t="n">
-        <v>0.283216662</v>
+        <v>0.0283216662</v>
       </c>
       <c r="F58" t="n">
         <v>4.845</v>
       </c>
       <c r="G58" t="n">
-        <v>1.144813448331272</v>
+        <v>0.1144813448331271</v>
       </c>
       <c r="H58" t="n">
-        <v>0.236287605434731</v>
+        <v>0.0236287605434731</v>
       </c>
       <c r="I58" t="n">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>0.0425954516351218</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001173878385215581</v>
+        <v>1.173878385215581e-05</v>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
@@ -3277,16 +3277,16 @@
         <v>0.52</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2524799700000001</v>
+        <v>0.025247997</v>
       </c>
       <c r="F59" t="n">
         <v>4.42</v>
       </c>
       <c r="G59" t="n">
-        <v>1.205647612774469</v>
+        <v>0.1205647612774468</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2727709531163957</v>
+        <v>0.02727709531163956</v>
       </c>
       <c r="I59" t="n">
         <v>20</v>
@@ -3304,7 +3304,7 @@
         <v>0.04257945513977369</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0001089321606644941</v>
+        <v>1.089321606644941e-05</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
@@ -3325,16 +3325,16 @@
         <v>0.49</v>
       </c>
       <c r="E60" t="n">
-        <v>0.236379798</v>
+        <v>0.0236379798</v>
       </c>
       <c r="F60" t="n">
         <v>4.165</v>
       </c>
       <c r="G60" t="n">
-        <v>1.242632455002091</v>
+        <v>0.1242632455002091</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2983511296523628</v>
+        <v>0.02983511296523628</v>
       </c>
       <c r="I60" t="n">
         <v>20</v>
@@ -3352,7 +3352,7 @@
         <v>0.04257055907549254</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0001046062385224625</v>
+        <v>1.046062385224625e-05</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
@@ -3373,16 +3373,16 @@
         <v>0.26</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09074642400000001</v>
+        <v>0.009074642400000001</v>
       </c>
       <c r="F61" t="n">
         <v>2.21</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7925454711586858</v>
+        <v>0.07925454711586857</v>
       </c>
       <c r="H61" t="n">
-        <v>0.358617860252799</v>
+        <v>0.0358617860252799</v>
       </c>
       <c r="I61" t="n">
         <v>20</v>
@@ -3400,7 +3400,7 @@
         <v>0.04251987770443372</v>
       </c>
       <c r="N61" t="n">
-        <v>6.881642970169731e-05</v>
+        <v>6.881642970169731e-06</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -3421,16 +3421,16 @@
         <v>0.22</v>
       </c>
       <c r="E62" t="n">
-        <v>0.079769034</v>
+        <v>0.007976903399999999</v>
       </c>
       <c r="F62" t="n">
         <v>1.87</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6782955689768794</v>
+        <v>0.06782955689768792</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3627249031961922</v>
+        <v>0.03627249031961921</v>
       </c>
       <c r="I62" t="n">
         <v>20</v>
@@ -3448,7 +3448,7 @@
         <v>0.04251423291087351</v>
       </c>
       <c r="N62" t="n">
-        <v>6.607971995364218e-05</v>
+        <v>6.607971995364218e-06</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
@@ -3469,16 +3469,16 @@
         <v>0.12</v>
       </c>
       <c r="E63" t="n">
-        <v>0.019455192</v>
+        <v>0.0019455192</v>
       </c>
       <c r="F63" t="n">
         <v>1.08</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2159583518568722</v>
+        <v>0.02159583518568721</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1999614369045113</v>
+        <v>0.01999614369045112</v>
       </c>
       <c r="I63" t="n">
         <v>26.1</v>
@@ -3496,7 +3496,7 @@
         <v>0.04500399982223803</v>
       </c>
       <c r="N63" t="n">
-        <v>2.51915394509764e-05</v>
+        <v>2.519153945097639e-06</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3521,16 +3521,16 @@
         <v>0.73</v>
       </c>
       <c r="E64" t="n">
-        <v>0.373713912</v>
+        <v>0.0373713912</v>
       </c>
       <c r="F64" t="n">
         <v>6.57</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7827045869890017</v>
+        <v>0.07827045869890016</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1191331182631662</v>
+        <v>0.01191331182631662</v>
       </c>
       <c r="I64" t="n">
         <v>26.1</v>
@@ -3548,7 +3548,7 @@
         <v>0.04514778510624858</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0001423699132220511</v>
+        <v>1.423699132220511e-05</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -3569,16 +3569,16 @@
         <v>0.63</v>
       </c>
       <c r="E65" t="n">
-        <v>0.309831192</v>
+        <v>0.0309831192</v>
       </c>
       <c r="F65" t="n">
         <v>5.67</v>
       </c>
       <c r="G65" t="n">
-        <v>1.116123361480727</v>
+        <v>0.1116123361480727</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1968471537003046</v>
+        <v>0.01968471537003045</v>
       </c>
       <c r="I65" t="n">
         <v>26.1</v>
@@ -3596,7 +3596,7 @@
         <v>0.04511011527362793</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0001229749557030098</v>
+        <v>1.229749557030098e-05</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -3617,16 +3617,16 @@
         <v>0.13</v>
       </c>
       <c r="E66" t="n">
-        <v>0.021342636</v>
+        <v>0.002134263599999999</v>
       </c>
       <c r="F66" t="n">
         <v>1.17</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2378035334921829</v>
+        <v>0.02378035334921829</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2032508833266521</v>
+        <v>0.0203250883326652</v>
       </c>
       <c r="I66" t="n">
         <v>26.1</v>
@@ -3644,7 +3644,7 @@
         <v>0.04500469419960545</v>
       </c>
       <c r="N66" t="n">
-        <v>2.682572308583098e-05</v>
+        <v>2.682572308583097e-06</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
@@ -3665,16 +3665,16 @@
         <v>0.26</v>
       </c>
       <c r="E67" t="n">
-        <v>0.106858368</v>
+        <v>0.0106858368</v>
       </c>
       <c r="F67" t="n">
         <v>2.34</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9657127177712319</v>
+        <v>0.09657127177712319</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4126977426372786</v>
+        <v>0.04126977426372786</v>
       </c>
       <c r="I67" t="n">
         <v>26.1</v>
@@ -3692,7 +3692,7 @@
         <v>0.04501877386157913</v>
       </c>
       <c r="N67" t="n">
-        <v>6.439379564635718e-05</v>
+        <v>6.439379564635718e-06</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
@@ -3713,16 +3713,16 @@
         <v>0.35</v>
       </c>
       <c r="E68" t="n">
-        <v>0.146204316</v>
+        <v>0.0146204316</v>
       </c>
       <c r="F68" t="n">
         <v>3.15</v>
       </c>
       <c r="G68" t="n">
-        <v>1.146754964654906</v>
+        <v>0.1146754964654906</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3640491951285416</v>
+        <v>0.03640491951285416</v>
       </c>
       <c r="I68" t="n">
         <v>26.1</v>
@@ -3740,7 +3740,7 @@
         <v>0.04503401492205642</v>
       </c>
       <c r="N68" t="n">
-        <v>7.574526815905497e-05</v>
+        <v>7.574526815905496e-06</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
@@ -3761,16 +3761,16 @@
         <v>0.41</v>
       </c>
       <c r="E69" t="n">
-        <v>0.185695452</v>
+        <v>0.0185695452</v>
       </c>
       <c r="F69" t="n">
         <v>3.69</v>
       </c>
       <c r="G69" t="n">
-        <v>1.285379427404147</v>
+        <v>0.1285379427404147</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3483413082396062</v>
+        <v>0.03483413082396061</v>
       </c>
       <c r="I69" t="n">
         <v>26.1</v>
@@ -3788,7 +3788,7 @@
         <v>0.04504667024320443</v>
       </c>
       <c r="N69" t="n">
-        <v>8.687437457565096e-05</v>
+        <v>8.687437457565094e-06</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
@@ -3809,16 +3809,16 @@
         <v>0.49</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2267836560000001</v>
+        <v>0.0226783656</v>
       </c>
       <c r="F70" t="n">
         <v>4.41</v>
       </c>
       <c r="G70" t="n">
-        <v>1.327553946709679</v>
+        <v>0.1327553946709679</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3010326409772515</v>
+        <v>0.03010326409772515</v>
       </c>
       <c r="I70" t="n">
         <v>26.1</v>
@@ -3836,7 +3836,7 @@
         <v>0.0450666450936832</v>
       </c>
       <c r="N70" t="n">
-        <v>9.857897712811115e-05</v>
+        <v>9.857897712811111e-06</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
@@ -3857,16 +3857,16 @@
         <v>0.53</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2520463680000001</v>
+        <v>0.0252046368</v>
       </c>
       <c r="F71" t="n">
         <v>4.77</v>
       </c>
       <c r="G71" t="n">
-        <v>1.375139588053078</v>
+        <v>0.1375139588053078</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2882892218140625</v>
+        <v>0.02882892218140624</v>
       </c>
       <c r="I71" t="n">
         <v>26.1</v>
@@ -3884,7 +3884,7 @@
         <v>0.045077960246666</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0001058923530812395</v>
+        <v>1.058923530812394e-05</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
@@ -3905,16 +3905,16 @@
         <v>0.55</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2603220840000001</v>
+        <v>0.0260322084</v>
       </c>
       <c r="F72" t="n">
         <v>4.95</v>
       </c>
       <c r="G72" t="n">
-        <v>1.343960639013872</v>
+        <v>0.1343960639013871</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2715071998007821</v>
+        <v>0.02715071998007821</v>
       </c>
       <c r="I72" t="n">
         <v>26.1</v>
@@ -3932,7 +3932,7 @@
         <v>0.04508394947206822</v>
       </c>
       <c r="N72" t="n">
-        <v>0.000108308969140759</v>
+        <v>1.08308969140759e-05</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
@@ -3953,16 +3953,16 @@
         <v>0.58</v>
       </c>
       <c r="E73" t="n">
-        <v>0.266565168</v>
+        <v>0.0266565168</v>
       </c>
       <c r="F73" t="n">
         <v>5.22</v>
       </c>
       <c r="G73" t="n">
-        <v>1.261741688060872</v>
+        <v>0.1261741688060872</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2417129670614697</v>
+        <v>0.02417129670614697</v>
       </c>
       <c r="I73" t="n">
         <v>26.1</v>
@@ -3980,7 +3980,7 @@
         <v>0.04509334762467742</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0001101388183892137</v>
+        <v>1.101388183892137e-05</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
@@ -4001,16 +4001,16 @@
         <v>0.61</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2982161520000001</v>
+        <v>0.0298216152</v>
       </c>
       <c r="F74" t="n">
         <v>5.49</v>
       </c>
       <c r="G74" t="n">
-        <v>1.233550335201606</v>
+        <v>0.1233550335201606</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2246904071405476</v>
+        <v>0.02246904071405475</v>
       </c>
       <c r="I74" t="n">
         <v>26.1</v>
@@ -4028,7 +4028,7 @@
         <v>0.04510324267721779</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0001195032481202116</v>
+        <v>1.195032481202116e-05</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
@@ -4049,16 +4049,16 @@
         <v>0.64</v>
       </c>
       <c r="E75" t="n">
-        <v>0.316074276</v>
+        <v>0.0316074276</v>
       </c>
       <c r="F75" t="n">
         <v>5.76</v>
       </c>
       <c r="G75" t="n">
-        <v>1.11213381828675</v>
+        <v>0.111213381828675</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1930787878970053</v>
+        <v>0.01930787878970053</v>
       </c>
       <c r="I75" t="n">
         <v>26.1</v>
@@ -4076,7 +4076,7 @@
         <v>0.04511363430272494</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0001248484337708273</v>
+        <v>1.248484337708273e-05</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -4097,16 +4097,16 @@
         <v>0.71</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3446763120000001</v>
+        <v>0.0344676312</v>
       </c>
       <c r="F76" t="n">
         <v>6.39</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7543733568531178</v>
+        <v>0.07543733568531177</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1180552984120685</v>
+        <v>0.01180552984120685</v>
       </c>
       <c r="I76" t="n">
         <v>26.1</v>
@@ -4124,7 +4124,7 @@
         <v>0.04513981058888041</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0001334945501797768</v>
+        <v>1.334945501797767e-05</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
@@ -4145,16 +4145,16 @@
         <v>0.23</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07753039200000002</v>
+        <v>0.007753039199999999</v>
       </c>
       <c r="F77" t="n">
         <v>2.07</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7794205117988382</v>
+        <v>0.07794205117988379</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3765316482119991</v>
+        <v>0.03765316482119989</v>
       </c>
       <c r="I77" t="n">
         <v>26.1</v>
@@ -4172,7 +4172,7 @@
         <v>0.04501469204604204</v>
       </c>
       <c r="N77" t="n">
-        <v>5.508256930259359e-05</v>
+        <v>5.508256930259358e-06</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -4193,16 +4193,16 @@
         <v>0.33</v>
       </c>
       <c r="E78" t="n">
-        <v>0.13938048</v>
+        <v>0.013938048</v>
       </c>
       <c r="F78" t="n">
         <v>2.97</v>
       </c>
       <c r="G78" t="n">
-        <v>1.139938988230136</v>
+        <v>0.1139938988230136</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3838178411549278</v>
+        <v>0.03838178411549278</v>
       </c>
       <c r="I78" t="n">
         <v>26.1</v>
@@ -4220,7 +4220,7 @@
         <v>0.04503023983946788</v>
       </c>
       <c r="N78" t="n">
-        <v>7.381377475667859e-05</v>
+        <v>7.381377475667859e-06</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -4293,16 +4293,16 @@
         <v>0.13</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0337609188</v>
+        <v>0.00337609188</v>
       </c>
       <c r="F80" t="n">
         <v>1.2389</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4048073246006572</v>
+        <v>0.04048073246006571</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3267473763828051</v>
+        <v>0.03267473763828051</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
@@ -4320,7 +4320,7 @@
         <v>0.04765443316208891</v>
       </c>
       <c r="N80" t="n">
-        <v>3.59630163858457e-05</v>
+        <v>3.596301638584569e-06</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -4341,16 +4341,16 @@
         <v>0.16</v>
       </c>
       <c r="E81" t="n">
-        <v>0.048329946</v>
+        <v>0.0048329946</v>
       </c>
       <c r="F81" t="n">
         <v>1.5248</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5572271221183084</v>
+        <v>0.05572271221183083</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3654427610954278</v>
+        <v>0.03654427610954279</v>
       </c>
       <c r="I81" t="n">
         <v>25</v>
@@ -4368,7 +4368,7 @@
         <v>0.04765671516166426</v>
       </c>
       <c r="N81" t="n">
-        <v>4.362385959469624e-05</v>
+        <v>4.362385959469624e-06</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
@@ -4389,16 +4389,16 @@
         <v>0.21</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07410591720000001</v>
+        <v>0.00741059172</v>
       </c>
       <c r="F82" t="n">
         <v>2.0013</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7853477744127006</v>
+        <v>0.07853477744127005</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3924188149766156</v>
+        <v>0.03924188149766155</v>
       </c>
       <c r="I82" t="n">
         <v>25</v>
@@ -4416,7 +4416,7 @@
         <v>0.047661567326306</v>
       </c>
       <c r="N82" t="n">
-        <v>5.386302478716731e-05</v>
+        <v>5.38630247871673e-06</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -4437,16 +4437,16 @@
         <v>0.25</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09399824280000001</v>
+        <v>0.009399824279999998</v>
       </c>
       <c r="F83" t="n">
         <v>2.3825</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9351299319309606</v>
+        <v>0.09351299319309604</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3924994467706026</v>
+        <v>0.03924994467706025</v>
       </c>
       <c r="I83" t="n">
         <v>25</v>
@@ -4464,7 +4464,7 @@
         <v>0.04766639277310587</v>
       </c>
       <c r="N83" t="n">
-        <v>6.044625848986537e-05</v>
+        <v>6.044625848986535e-06</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -4485,16 +4485,16 @@
         <v>0.28</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1510135704</v>
+        <v>0.01510135704</v>
       </c>
       <c r="F84" t="n">
         <v>2.6684</v>
       </c>
       <c r="G84" t="n">
-        <v>1.429595011727829</v>
+        <v>0.1429595011727828</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5357498919681565</v>
+        <v>0.05357498919681563</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -4512,7 +4512,7 @@
         <v>0.04767056219513254</v>
       </c>
       <c r="N84" t="n">
-        <v>7.745723469299576e-05</v>
+        <v>7.745723469299574e-06</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
@@ -4533,16 +4533,16 @@
         <v>0.34</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1361643696</v>
+        <v>0.01361643696</v>
       </c>
       <c r="F85" t="n">
         <v>3.2402</v>
       </c>
       <c r="G85" t="n">
-        <v>1.160690694459536</v>
+        <v>0.1160690694459536</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3582157565766113</v>
+        <v>0.03582157565766114</v>
       </c>
       <c r="I85" t="n">
         <v>25</v>
@@ -4560,7 +4560,7 @@
         <v>0.04768031564492836</v>
       </c>
       <c r="N85" t="n">
-        <v>7.312195408049543e-05</v>
+        <v>7.312195408049542e-06</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
@@ -4581,16 +4581,16 @@
         <v>0.38</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1633412088</v>
+        <v>0.01633412088</v>
       </c>
       <c r="F86" t="n">
         <v>3.6214</v>
       </c>
       <c r="G86" t="n">
-        <v>1.289720874540985</v>
+        <v>0.1289720874540985</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3561387514610331</v>
+        <v>0.03561387514610332</v>
       </c>
       <c r="I86" t="n">
         <v>25</v>
@@ -4608,7 +4608,7 @@
         <v>0.04768786533280767</v>
       </c>
       <c r="N86" t="n">
-        <v>8.105294333873128e-05</v>
+        <v>8.105294333873129e-06</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -4629,16 +4629,16 @@
         <v>0.43</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1867357044</v>
+        <v>0.01867357044</v>
       </c>
       <c r="F87" t="n">
         <v>4.0979</v>
       </c>
       <c r="G87" t="n">
-        <v>1.331689863830518</v>
+        <v>0.1331689863830518</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3249688532737545</v>
+        <v>0.03249688532737544</v>
       </c>
       <c r="I87" t="n">
         <v>25</v>
@@ -4656,7 +4656,7 @@
         <v>0.04769848005964131</v>
       </c>
       <c r="N87" t="n">
-        <v>8.790692274016674e-05</v>
+        <v>8.790692274016673e-06</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -4677,16 +4677,16 @@
         <v>0.47</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1986430824</v>
+        <v>0.01986430824</v>
       </c>
       <c r="F88" t="n">
         <v>4.4791</v>
       </c>
       <c r="G88" t="n">
-        <v>1.316757418027514</v>
+        <v>0.1316757418027514</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2939781246293929</v>
+        <v>0.02939781246293929</v>
       </c>
       <c r="I88" t="n">
         <v>25</v>
@@ -4704,7 +4704,7 @@
         <v>0.04770791338970926</v>
       </c>
       <c r="N88" t="n">
-        <v>9.142142005772113e-05</v>
+        <v>9.142142005772111e-06</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -4725,16 +4725,16 @@
         <v>0.52</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2394083412</v>
+        <v>0.02394083412</v>
       </c>
       <c r="F89" t="n">
         <v>4.9556</v>
       </c>
       <c r="G89" t="n">
-        <v>1.388921370669365</v>
+        <v>0.1388921370669364</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2802730992552597</v>
+        <v>0.02802730992552596</v>
       </c>
       <c r="I89" t="n">
         <v>25</v>
@@ -4752,7 +4752,7 @@
         <v>0.04772088117375872</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0001036238152248013</v>
+        <v>1.036238152248013e-05</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
@@ -4773,16 +4773,16 @@
         <v>0.57</v>
       </c>
       <c r="E90" t="n">
-        <v>0.252856674</v>
+        <v>0.0252856674</v>
       </c>
       <c r="F90" t="n">
         <v>5.432099999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>1.270996271119279</v>
+        <v>0.1270996271119279</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2339788058245023</v>
+        <v>0.02339788058245023</v>
       </c>
       <c r="I90" t="n">
         <v>25</v>
@@ -4800,7 +4800,7 @@
         <v>0.04773515476040693</v>
       </c>
       <c r="N90" t="n">
-        <v>0.000107710161015348</v>
+        <v>1.07710161015348e-05</v>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
@@ -4821,16 +4821,16 @@
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2640636180000001</v>
+        <v>0.0264063618</v>
       </c>
       <c r="F91" t="n">
         <v>5.717999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>1.194595664240364</v>
+        <v>0.1194595664240364</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2089184442532991</v>
+        <v>0.0208918444253299</v>
       </c>
       <c r="I91" t="n">
         <v>25</v>
@@ -4848,7 +4848,7 @@
         <v>0.04774434521490476</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0001111381613507412</v>
+        <v>1.111381613507411e-05</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -4869,16 +4869,16 @@
         <v>0.61</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2807339472</v>
+        <v>0.02807339472</v>
       </c>
       <c r="F92" t="n">
         <v>5.8133</v>
       </c>
       <c r="G92" t="n">
-        <v>1.170055930141468</v>
+        <v>0.1170055930141468</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2012722429844439</v>
+        <v>0.02012722429844439</v>
       </c>
       <c r="I92" t="n">
         <v>25</v>
@@ -4896,7 +4896,7 @@
         <v>0.04774751302424034</v>
       </c>
       <c r="N92" t="n">
-        <v>0.000116274269038896</v>
+        <v>1.16274269038896e-05</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -4917,16 +4917,16 @@
         <v>0.63</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2922210648</v>
+        <v>0.02922210648</v>
       </c>
       <c r="F93" t="n">
         <v>6.0039</v>
       </c>
       <c r="G93" t="n">
-        <v>1.113887987818505</v>
+        <v>0.1113887987818505</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1855274051563992</v>
+        <v>0.01855274051563992</v>
       </c>
       <c r="I93" t="n">
         <v>25</v>
@@ -4944,7 +4944,7 @@
         <v>0.04775400506763804</v>
       </c>
       <c r="N93" t="n">
-        <v>0.000119838148302019</v>
+        <v>1.19838148302019e-05</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -4965,16 +4965,16 @@
         <v>0.64</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3017469672</v>
+        <v>0.03017469672</v>
       </c>
       <c r="F94" t="n">
         <v>6.0992</v>
       </c>
       <c r="G94" t="n">
-        <v>1.058562095195014</v>
+        <v>0.1058562095195015</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1735575313475561</v>
+        <v>0.01735575313475562</v>
       </c>
       <c r="I94" t="n">
         <v>25</v>
@@ -4992,7 +4992,7 @@
         <v>0.04775732928043611</v>
       </c>
       <c r="N94" t="n">
-        <v>0.000122808196419885</v>
+        <v>1.22808196419885e-05</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
@@ -5013,16 +5013,16 @@
         <v>0.65</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3196780776000001</v>
+        <v>0.03196780775999999</v>
       </c>
       <c r="F95" t="n">
         <v>6.1945</v>
       </c>
       <c r="G95" t="n">
-        <v>1.014341283102887</v>
+        <v>0.1014341283102886</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1637486936964867</v>
+        <v>0.01637486936964866</v>
       </c>
       <c r="I95" t="n">
         <v>25</v>
@@ -5040,7 +5040,7 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0001284331223211134</v>
+        <v>1.284331223211134e-05</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
@@ -5061,16 +5061,16 @@
         <v>0.65</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3171565152</v>
+        <v>0.03171565152</v>
       </c>
       <c r="F96" t="n">
         <v>6.1945</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9532002598022065</v>
+        <v>0.09532002598022063</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1538784824928899</v>
+        <v>0.01538784824928899</v>
       </c>
       <c r="I96" t="n">
         <v>25</v>
@@ -5088,7 +5088,7 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0001276395036888439</v>
+        <v>1.276395036888439e-05</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
@@ -5109,16 +5109,16 @@
         <v>0.67</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3196780776000001</v>
+        <v>0.03196780775999999</v>
       </c>
       <c r="F97" t="n">
         <v>6.3851</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8670441990879461</v>
+        <v>0.08670441990879457</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1357917963834468</v>
+        <v>0.01357917963834467</v>
       </c>
       <c r="I97" t="n">
         <v>25</v>
@@ -5136,7 +5136,7 @@
         <v>0.04776761455212097</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0001284331223211134</v>
+        <v>1.284331223211134e-05</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
@@ -5157,16 +5157,16 @@
         <v>0.67</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3219194664</v>
+        <v>0.03219194664</v>
       </c>
       <c r="F98" t="n">
         <v>6.3851</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7180512797897483</v>
+        <v>0.07180512797897483</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1124573271819937</v>
+        <v>0.01124573271819938</v>
       </c>
       <c r="I98" t="n">
         <v>25</v>
@@ -5184,7 +5184,7 @@
         <v>0.04776761455212097</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0001291392592826697</v>
+        <v>1.291392592826697e-05</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -5205,16 +5205,16 @@
         <v>0.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.373925808</v>
+        <v>0.0373925808</v>
       </c>
       <c r="F99" t="n">
         <v>8</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8223057999802993</v>
+        <v>0.08223057999802992</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1027882249975374</v>
+        <v>0.01027882249975374</v>
       </c>
       <c r="I99" t="n">
         <v>26.1</v>
@@ -5232,7 +5232,7 @@
         <v>0.0501597448159378</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0001444780074480226</v>
+        <v>1.444780074480226e-05</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5257,16 +5257,16 @@
         <v>0.63</v>
       </c>
       <c r="E100" t="n">
-        <v>0.289167408</v>
+        <v>0.0289167408</v>
       </c>
       <c r="F100" t="n">
         <v>6.3</v>
       </c>
       <c r="G100" t="n">
-        <v>1.362669306945604</v>
+        <v>0.1362669306945604</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2162967153881911</v>
+        <v>0.02162967153881911</v>
       </c>
       <c r="I100" t="n">
         <v>26.1</v>
@@ -5284,7 +5284,7 @@
         <v>0.05009912673889635</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0001177563481303008</v>
+        <v>1.177563481303008e-05</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
@@ -5305,16 +5305,16 @@
         <v>0.57</v>
       </c>
       <c r="E101" t="n">
-        <v>0.248200848</v>
+        <v>0.0248200848</v>
       </c>
       <c r="F101" t="n">
         <v>5.699999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>1.429534261267855</v>
+        <v>0.1429534261267854</v>
       </c>
       <c r="H101" t="n">
-        <v>0.250795484432957</v>
+        <v>0.02507954844329569</v>
       </c>
       <c r="I101" t="n">
         <v>26.1</v>
@@ -5332,7 +5332,7 @@
         <v>0.05008115913195301</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0001051491741838504</v>
+        <v>1.051491741838504e-05</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
@@ -5353,16 +5353,16 @@
         <v>0.52</v>
       </c>
       <c r="E102" t="n">
-        <v>0.225598608</v>
+        <v>0.0225598608</v>
       </c>
       <c r="F102" t="n">
         <v>5.2</v>
       </c>
       <c r="G102" t="n">
-        <v>1.441102490090863</v>
+        <v>0.1441102490090863</v>
       </c>
       <c r="H102" t="n">
-        <v>0.277135094248243</v>
+        <v>0.02771350942482428</v>
       </c>
       <c r="I102" t="n">
         <v>26.1</v>
@@ -5380,7 +5380,7 @@
         <v>0.05006755436407894</v>
       </c>
       <c r="N102" t="n">
-        <v>9.828835796959466e-05</v>
+        <v>9.828835796959464e-06</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
@@ -5401,16 +5401,16 @@
         <v>0.5</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3569741280000001</v>
+        <v>0.03569741279999999</v>
       </c>
       <c r="F103" t="n">
         <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>2.429845812433916</v>
+        <v>0.2429845812433915</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4859691624867832</v>
+        <v>0.0485969162486783</v>
       </c>
       <c r="I103" t="n">
         <v>26.1</v>
@@ -5428,7 +5428,7 @@
         <v>0.05006246098625197</v>
       </c>
       <c r="N103" t="n">
-        <v>0.000139072715111594</v>
+        <v>1.390727151115939e-05</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
@@ -5449,16 +5449,16 @@
         <v>0.49</v>
       </c>
       <c r="E104" t="n">
-        <v>0.204409008</v>
+        <v>0.0204409008</v>
       </c>
       <c r="F104" t="n">
         <v>4.9</v>
       </c>
       <c r="G104" t="n">
-        <v>1.434179304554842</v>
+        <v>0.1434179304554843</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2926896539907841</v>
+        <v>0.02926896539907842</v>
       </c>
       <c r="I104" t="n">
         <v>26.1</v>
@@ -5476,7 +5476,7 @@
         <v>0.05005998901318298</v>
       </c>
       <c r="N104" t="n">
-        <v>9.191496572416854e-05</v>
+        <v>9.191496572416855e-06</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
@@ -5497,16 +5497,16 @@
         <v>0.48</v>
       </c>
       <c r="E105" t="n">
-        <v>0.198758448</v>
+        <v>0.0198758448</v>
       </c>
       <c r="F105" t="n">
         <v>4.8</v>
       </c>
       <c r="G105" t="n">
-        <v>1.43616158417413</v>
+        <v>0.143616158417413</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2992003300362772</v>
+        <v>0.02992003300362772</v>
       </c>
       <c r="I105" t="n">
         <v>26.1</v>
@@ -5524,7 +5524,7 @@
         <v>0.05005756686056565</v>
       </c>
       <c r="N105" t="n">
-        <v>9.022400269454443e-05</v>
+        <v>9.022400269454442e-06</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
@@ -5545,16 +5545,16 @@
         <v>0.47</v>
       </c>
       <c r="E106" t="n">
-        <v>0.191695248</v>
+        <v>0.0191695248</v>
       </c>
       <c r="F106" t="n">
         <v>4.699999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>1.425273839399534</v>
+        <v>0.1425273839399534</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3032497530637306</v>
+        <v>0.03032497530637307</v>
       </c>
       <c r="I106" t="n">
         <v>26.1</v>
@@ -5572,7 +5572,7 @@
         <v>0.05005519453563236</v>
       </c>
       <c r="N106" t="n">
-        <v>8.811470007620376e-05</v>
+        <v>8.811470007620376e-06</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
@@ -5593,16 +5593,16 @@
         <v>0.45</v>
       </c>
       <c r="E107" t="n">
-        <v>0.184632048</v>
+        <v>0.0184632048</v>
       </c>
       <c r="F107" t="n">
         <v>4.5</v>
       </c>
       <c r="G107" t="n">
-        <v>1.392092845473692</v>
+        <v>0.1392092845473691</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3093539656608204</v>
+        <v>0.03093539656608203</v>
       </c>
       <c r="I107" t="n">
         <v>26.1</v>
@@ -5620,7 +5620,7 @@
         <v>0.05005059939701022</v>
       </c>
       <c r="N107" t="n">
-        <v>8.60096397401439e-05</v>
+        <v>8.600963974014387e-06</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -5641,16 +5641,16 @@
         <v>0.44</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174743568</v>
+        <v>0.0174743568</v>
       </c>
       <c r="F108" t="n">
         <v>4.4</v>
       </c>
       <c r="G108" t="n">
-        <v>1.390731877376867</v>
+        <v>0.1390731877376867</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3160754266765607</v>
+        <v>0.03160754266765606</v>
       </c>
       <c r="I108" t="n">
         <v>26.1</v>
@@ -5668,7 +5668,7 @@
         <v>0.05004837659704858</v>
       </c>
       <c r="N108" t="n">
-        <v>8.306797879109175e-05</v>
+        <v>8.306797879109174e-06</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -5689,16 +5689,16 @@
         <v>0.43</v>
       </c>
       <c r="E109" t="n">
-        <v>0.171918288</v>
+        <v>0.0171918288</v>
       </c>
       <c r="F109" t="n">
         <v>4.3</v>
       </c>
       <c r="G109" t="n">
-        <v>1.386249558536238</v>
+        <v>0.1386249558536238</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3223836182642414</v>
+        <v>0.03223836182642414</v>
       </c>
       <c r="I109" t="n">
         <v>26.1</v>
@@ -5716,7 +5716,7 @@
         <v>0.0500462036522252</v>
       </c>
       <c r="N109" t="n">
-        <v>8.222829300503519e-05</v>
+        <v>8.222829300503518e-06</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
@@ -5737,16 +5737,16 @@
         <v>0.42</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166267728</v>
+        <v>0.0166267728</v>
       </c>
       <c r="F110" t="n">
         <v>4.2</v>
       </c>
       <c r="G110" t="n">
-        <v>1.358098229316052</v>
+        <v>0.1358098229316052</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3233567212657266</v>
+        <v>0.03233567212657266</v>
       </c>
       <c r="I110" t="n">
         <v>26.1</v>
@@ -5764,7 +5764,7 @@
         <v>0.05004408056903435</v>
       </c>
       <c r="N110" t="n">
-        <v>8.054940879112903e-05</v>
+        <v>8.054940879112901e-06</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -5785,16 +5785,16 @@
         <v>0.39</v>
       </c>
       <c r="E111" t="n">
-        <v>0.146490768</v>
+        <v>0.0146490768</v>
       </c>
       <c r="F111" t="n">
         <v>3.9</v>
       </c>
       <c r="G111" t="n">
-        <v>1.257919142884573</v>
+        <v>0.1257919142884573</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3225433699704034</v>
+        <v>0.03225433699704033</v>
       </c>
       <c r="I111" t="n">
         <v>26.1</v>
@@ -5812,7 +5812,7 @@
         <v>0.05003801055197939</v>
       </c>
       <c r="N111" t="n">
-        <v>7.466611576101879e-05</v>
+        <v>7.466611576101878e-06</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -5833,16 +5833,16 @@
         <v>0.28</v>
       </c>
       <c r="E112" t="n">
-        <v>0.08292196800000001</v>
+        <v>0.0082921968</v>
       </c>
       <c r="F112" t="n">
         <v>2.8</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8509896819340259</v>
+        <v>0.0850989681934026</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3039248864050092</v>
+        <v>0.03039248864050093</v>
       </c>
       <c r="I112" t="n">
         <v>26.1</v>
@@ -5860,7 +5860,7 @@
         <v>0.05001959615990517</v>
       </c>
       <c r="N112" t="n">
-        <v>5.476492133277181e-05</v>
+        <v>5.476492133277181e-06</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
@@ -5881,16 +5881,16 @@
         <v>0.17</v>
       </c>
       <c r="E113" t="n">
-        <v>0.029241648</v>
+        <v>0.0029241648</v>
       </c>
       <c r="F113" t="n">
         <v>1.7</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3552126732712136</v>
+        <v>0.03552126732712135</v>
       </c>
       <c r="H113" t="n">
-        <v>0.208948631336008</v>
+        <v>0.02089486313360079</v>
       </c>
       <c r="I113" t="n">
         <v>26.1</v>
@@ -5908,7 +5908,7 @@
         <v>0.05000722447806917</v>
       </c>
       <c r="N113" t="n">
-        <v>3.041317032620011e-05</v>
+        <v>3.04131703262001e-06</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -5929,16 +5929,16 @@
         <v>0.13</v>
       </c>
       <c r="E114" t="n">
-        <v>0.012289968</v>
+        <v>0.0012289968</v>
       </c>
       <c r="F114" t="n">
         <v>1.3</v>
       </c>
       <c r="G114" t="n">
-        <v>0.155727295166003</v>
+        <v>0.0155727295166003</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1197902270507716</v>
+        <v>0.01197902270507716</v>
       </c>
       <c r="I114" t="n">
         <v>26.1</v>
@@ -5956,7 +5956,7 @@
         <v>0.05000422482150884</v>
       </c>
       <c r="N114" t="n">
-        <v>1.632401443759565e-05</v>
+        <v>1.632401443759565e-06</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
@@ -5977,16 +5977,16 @@
         <v>0.12</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003814128</v>
+        <v>0.0003814127999999999</v>
       </c>
       <c r="F115" t="n">
         <v>1.2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04912798966906963</v>
+        <v>0.004912798966906962</v>
       </c>
       <c r="H115" t="n">
-        <v>0.04093999139089136</v>
+        <v>0.004093999139089135</v>
       </c>
       <c r="I115" t="n">
         <v>26.1</v>
@@ -6004,7 +6004,7 @@
         <v>0.05000359987040934</v>
       </c>
       <c r="N115" t="n">
-        <v>5.928788559003941e-06</v>
+        <v>5.928788559003939e-07</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
@@ -6025,16 +6025,16 @@
         <v>0.11</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0004237920000000011</v>
+        <v>-4.23792000000001e-05</v>
       </c>
       <c r="F116" t="n">
         <v>1.1</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.0055030449132472</v>
+        <v>-0.0005503044913247199</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.005002768102951999</v>
+        <v>-0.0005002768102951999</v>
       </c>
       <c r="I116" t="n">
         <v>26.1</v>
@@ -6052,7 +6052,7 @@
         <v>0.05000302490849928</v>
       </c>
       <c r="N116" t="n">
-        <v>-7.21485318561648e-07</v>
+        <v>-7.214853185616478e-08</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
@@ -6073,16 +6073,16 @@
         <v>0.1</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.006074352000000002</v>
+        <v>-0.0006074352000000001</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.07951308174382697</v>
+        <v>-0.007951308174382696</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.07951308174382697</v>
+        <v>-0.007951308174382696</v>
       </c>
       <c r="I117" t="n">
         <v>26.1</v>
@@ -6100,7 +6100,7 @@
         <v>0.05000249993750312</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.187032846924243e-05</v>
+        <v>-1.187032846924242e-06</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -6121,16 +6121,16 @@
         <v>0.24</v>
       </c>
       <c r="E118" t="n">
-        <v>0.07020820800000002</v>
+        <v>0.0070208208</v>
       </c>
       <c r="F118" t="n">
         <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7719795666607647</v>
+        <v>0.07719795666607646</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3216581527753187</v>
+        <v>0.03216581527753186</v>
       </c>
       <c r="I118" t="n">
         <v>26.1</v>
@@ -6148,7 +6148,7 @@
         <v>0.05001439792699698</v>
       </c>
       <c r="N118" t="n">
-        <v>5.019706544649201e-05</v>
+        <v>5.0197065446492e-06</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
@@ -6169,16 +6169,16 @@
         <v>0.11</v>
       </c>
       <c r="E119" t="n">
-        <v>0.025461855</v>
+        <v>0.0025461855</v>
       </c>
       <c r="F119" t="n">
         <v>1.155</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3412939802230124</v>
+        <v>0.03412939802230124</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2954926235697077</v>
+        <v>0.02954926235697077</v>
       </c>
       <c r="I119" t="n">
         <v>26.1</v>
@@ -6196,7 +6196,7 @@
         <v>0.05250288087333875</v>
       </c>
       <c r="N119" t="n">
-        <v>3.340468633674301e-05</v>
+        <v>3.340468633674301e-06</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -6221,16 +6221,16 @@
         <v>0.52</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.002987145000000003</v>
+        <v>-0.0002987145000000002</v>
       </c>
       <c r="F120" t="n">
         <v>5.46</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.0224286987614259</v>
+        <v>-0.00224286987614259</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.00410782028597544</v>
+        <v>-0.0004107820285975439</v>
       </c>
       <c r="I120" t="n">
         <v>26.1</v>
@@ -6248,7 +6248,7 @@
         <v>0.05256434152541056</v>
       </c>
       <c r="N120" t="n">
-        <v>-7.72829777550904e-06</v>
+        <v>-7.728297775509037e-07</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
@@ -6269,16 +6269,16 @@
         <v>0.58</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0005689799999999981</v>
+        <v>5.689799999999979e-05</v>
       </c>
       <c r="F121" t="n">
         <v>6.09</v>
       </c>
       <c r="G121" t="n">
-        <v>0.003831215595031359</v>
+        <v>0.0003831215595031358</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0006290994408918489</v>
+        <v>6.290994408918487e-05</v>
       </c>
       <c r="I121" t="n">
         <v>26.1</v>
@@ -6296,7 +6296,7 @@
         <v>0.05258003423353774</v>
       </c>
       <c r="N121" t="n">
-        <v>1.307935814540861e-06</v>
+        <v>1.307935814540861e-07</v>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -6317,16 +6317,16 @@
         <v>0.67</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004836329999999999</v>
+        <v>0.0004836329999999997</v>
       </c>
       <c r="F122" t="n">
         <v>7.035</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02547490245187656</v>
+        <v>0.002547490245187655</v>
       </c>
       <c r="H122" t="n">
-        <v>0.003621165949094039</v>
+        <v>0.0003621165949094036</v>
       </c>
       <c r="I122" t="n">
         <v>26.1</v>
@@ -6344,7 +6344,7 @@
         <v>0.05260677237770817</v>
       </c>
       <c r="N122" t="n">
-        <v>9.815374407815523e-06</v>
+        <v>9.815374407815519e-07</v>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
@@ -6365,16 +6365,16 @@
         <v>0.73</v>
       </c>
       <c r="E123" t="n">
-        <v>0.007681229999999999</v>
+        <v>0.0007681229999999997</v>
       </c>
       <c r="F123" t="n">
         <v>7.665</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03314031281425271</v>
+        <v>0.00331403128142527</v>
       </c>
       <c r="H123" t="n">
-        <v>0.004323589408252147</v>
+        <v>0.0004323589408252145</v>
       </c>
       <c r="I123" t="n">
         <v>26.1</v>
@@ -6392,7 +6392,7 @@
         <v>0.05262672800013317</v>
       </c>
       <c r="N123" t="n">
-        <v>1.446900176031505e-05</v>
+        <v>1.446900176031504e-06</v>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -6413,16 +6413,16 @@
         <v>0.23</v>
       </c>
       <c r="E124" t="n">
-        <v>0.083782305</v>
+        <v>0.008378230499999998</v>
       </c>
       <c r="F124" t="n">
         <v>2.415</v>
       </c>
       <c r="G124" t="n">
-        <v>1.007216450747882</v>
+        <v>0.1007216450747882</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4170668533117525</v>
+        <v>0.04170668533117523</v>
       </c>
       <c r="I124" t="n">
         <v>26.1</v>
@@ -6440,7 +6440,7 @@
         <v>0.05251259372760023</v>
       </c>
       <c r="N124" t="n">
-        <v>5.952045253191382e-05</v>
+        <v>5.952045253191382e-06</v>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
@@ -6461,16 +6461,16 @@
         <v>0.29</v>
       </c>
       <c r="E125" t="n">
-        <v>0.11863233</v>
+        <v>0.011863233</v>
       </c>
       <c r="F125" t="n">
         <v>3.045</v>
       </c>
       <c r="G125" t="n">
-        <v>1.269645781490591</v>
+        <v>0.1269645781490591</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4169608477801614</v>
+        <v>0.04169608477801613</v>
       </c>
       <c r="I125" t="n">
         <v>26.1</v>
@@ -6488,7 +6488,7 @@
         <v>0.05252001999238005</v>
       </c>
       <c r="N125" t="n">
-        <v>6.974768222532195e-05</v>
+        <v>6.974768222532194e-06</v>
       </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -6509,16 +6509,16 @@
         <v>0.35</v>
       </c>
       <c r="E126" t="n">
-        <v>0.14992623</v>
+        <v>0.014992623</v>
       </c>
       <c r="F126" t="n">
         <v>3.675</v>
       </c>
       <c r="G126" t="n">
-        <v>1.466402237756728</v>
+        <v>0.1466402237756728</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3990210170766607</v>
+        <v>0.03990210170766607</v>
       </c>
       <c r="I126" t="n">
         <v>26.1</v>
@@ -6536,7 +6536,7 @@
         <v>0.05252915856931273</v>
       </c>
       <c r="N126" t="n">
-        <v>7.846548979237317e-05</v>
+        <v>7.846548979237314e-06</v>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
@@ -6557,16 +6557,16 @@
         <v>0.41</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1826425800000001</v>
+        <v>0.018264258</v>
       </c>
       <c r="F127" t="n">
         <v>4.305</v>
       </c>
       <c r="G127" t="n">
-        <v>1.673550047052001</v>
+        <v>0.1673550047052001</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3887456555289202</v>
+        <v>0.03887456555289201</v>
       </c>
       <c r="I127" t="n">
         <v>26.1</v>
@@ -6584,7 +6584,7 @@
         <v>0.05254000856490224</v>
       </c>
       <c r="N127" t="n">
-        <v>8.759557469632588e-05</v>
+        <v>8.759557469632585e-06</v>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
@@ -6605,16 +6605,16 @@
         <v>0.44</v>
       </c>
       <c r="E128" t="n">
-        <v>0.19828953</v>
+        <v>0.019828953</v>
       </c>
       <c r="F128" t="n">
         <v>4.62</v>
       </c>
       <c r="G128" t="n">
-        <v>1.758781187766039</v>
+        <v>0.1758781187766039</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3806885687805279</v>
+        <v>0.03806885687805279</v>
       </c>
       <c r="I128" t="n">
         <v>26.1</v>
@@ -6632,7 +6632,7 @@
         <v>0.05254607501992894</v>
       </c>
       <c r="N128" t="n">
-        <v>9.201851210681665e-05</v>
+        <v>9.201851210681665e-06</v>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -6653,16 +6653,16 @@
         <v>0.6</v>
       </c>
       <c r="E129" t="n">
-        <v>0.297149805</v>
+        <v>0.0297149805</v>
       </c>
       <c r="F129" t="n">
         <v>6.3</v>
       </c>
       <c r="G129" t="n">
-        <v>1.829706343031134</v>
+        <v>0.1829706343031133</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2904295782589102</v>
+        <v>0.02904295782589101</v>
       </c>
       <c r="I129" t="n">
         <v>26.1</v>
@@ -6680,7 +6680,7 @@
         <v>0.0525856444288743</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0001210535342889649</v>
+        <v>1.210535342889649e-05</v>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.44152848</v>
+        <v>0.044152848</v>
       </c>
       <c r="F130" t="n">
         <v>10.5</v>
@@ -6728,7 +6728,7 @@
         <v>0.05273755777432246</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0001661386366098395</v>
+        <v>1.661386366098395e-05</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -6749,16 +6749,16 @@
         <v>0.8</v>
       </c>
       <c r="E131" t="n">
-        <v>0.39601008</v>
+        <v>0.039601008</v>
       </c>
       <c r="F131" t="n">
         <v>8.4</v>
       </c>
       <c r="G131" t="n">
-        <v>1.098957082966697</v>
+        <v>0.1098957082966697</v>
       </c>
       <c r="H131" t="n">
-        <v>0.130828224162702</v>
+        <v>0.0130828224162702</v>
       </c>
       <c r="I131" t="n">
         <v>26.1</v>
@@ -6776,7 +6776,7 @@
         <v>0.05265216044950102</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0001516691940041299</v>
+        <v>1.516691940041299e-05</v>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
@@ -6797,16 +6797,16 @@
         <v>0.15</v>
       </c>
       <c r="E132" t="n">
-        <v>0.045945135</v>
+        <v>0.004594513499999999</v>
       </c>
       <c r="F132" t="n">
         <v>1.575</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6033449560819195</v>
+        <v>0.06033449560819195</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3830761625916949</v>
+        <v>0.03830761625916949</v>
       </c>
       <c r="I132" t="n">
         <v>26.1</v>
@@ -6824,7 +6824,7 @@
         <v>0.05250535686956141</v>
       </c>
       <c r="N132" t="n">
-        <v>4.547011198045832e-05</v>
+        <v>4.547011198045831e-06</v>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -6845,16 +6845,16 @@
         <v>0.31</v>
       </c>
       <c r="E133" t="n">
-        <v>0.13285683</v>
+        <v>0.013285683</v>
       </c>
       <c r="F133" t="n">
         <v>3.255</v>
       </c>
       <c r="G133" t="n">
-        <v>1.360665454009564</v>
+        <v>0.1360665454009563</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4180231809553192</v>
+        <v>0.0418023180955319</v>
       </c>
       <c r="I133" t="n">
         <v>26.1</v>
@@ -6872,7 +6872,7 @@
         <v>0.05252287596847682</v>
       </c>
       <c r="N133" t="n">
-        <v>7.372560337072021e-05</v>
+        <v>7.372560337072019e-06</v>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
@@ -6893,16 +6893,16 @@
         <v>0.61</v>
       </c>
       <c r="E134" t="n">
-        <v>0.31066308</v>
+        <v>0.031066308</v>
       </c>
       <c r="F134" t="n">
         <v>6.405</v>
       </c>
       <c r="G134" t="n">
-        <v>1.753505073599009</v>
+        <v>0.1753505073599008</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2737712839342715</v>
+        <v>0.02737712839342714</v>
       </c>
       <c r="I134" t="n">
         <v>26.1</v>
@@ -6920,7 +6920,7 @@
         <v>0.05258852061049066</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0001251586105756037</v>
+        <v>1.251586105756037e-05</v>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
@@ -6941,16 +6941,16 @@
         <v>0.85</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01479348</v>
+        <v>0.001479348</v>
       </c>
       <c r="F135" t="n">
         <v>8.924999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03872924007418961</v>
+        <v>0.003872924007418961</v>
       </c>
       <c r="H135" t="n">
-        <v>0.004339410652570265</v>
+        <v>0.0004339410652570265</v>
       </c>
       <c r="I135" t="n">
         <v>26.1</v>
@@ -6968,7 +6968,7 @@
         <v>0.05267174289882574</v>
       </c>
       <c r="N135" t="n">
-        <v>2.367101177284478e-05</v>
+        <v>2.367101177284478e-06</v>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
@@ -6989,16 +6989,16 @@
         <v>0.12</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.0100292535</v>
+        <v>-0.00100292535</v>
       </c>
       <c r="F136" t="n">
         <v>1.32</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.1412601005393773</v>
+        <v>-0.01412601005393772</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.1070152276813464</v>
+        <v>-0.01070152276813464</v>
       </c>
       <c r="I136" t="n">
         <v>25.8</v>
@@ -7016,7 +7016,7 @@
         <v>0.05500327262990812</v>
       </c>
       <c r="N136" t="n">
-        <v>-1.461478750632609e-05</v>
+        <v>-1.461478750632609e-06</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -7041,16 +7041,16 @@
         <v>0.73</v>
       </c>
       <c r="E137" t="n">
-        <v>0.33053554035</v>
+        <v>0.033053554035</v>
       </c>
       <c r="F137" t="n">
         <v>8.029999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>1.533382517380181</v>
+        <v>0.1533382517380181</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1909567269464734</v>
+        <v>0.01909567269464734</v>
       </c>
       <c r="I137" t="n">
         <v>25.8</v>
@@ -7068,7 +7068,7 @@
         <v>0.05512098057908622</v>
       </c>
       <c r="N137" t="n">
-        <v>0.000128334011886687</v>
+        <v>1.28334011886687e-05</v>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
@@ -7089,16 +7089,16 @@
         <v>0.145</v>
       </c>
       <c r="E138" t="n">
-        <v>0.003438601200000009</v>
+        <v>0.0003438601200000008</v>
       </c>
       <c r="F138" t="n">
         <v>1.595</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04695566762060926</v>
+        <v>0.004695566762060925</v>
       </c>
       <c r="H138" t="n">
-        <v>0.02943929004426913</v>
+        <v>0.002943929004426912</v>
       </c>
       <c r="I138" t="n">
         <v>25.8</v>
@@ -7116,7 +7116,7 @@
         <v>0.05500477820153447</v>
       </c>
       <c r="N138" t="n">
-        <v>4.022424762799586e-06</v>
+        <v>4.022424762799585e-07</v>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
@@ -7137,16 +7137,16 @@
         <v>0.18</v>
       </c>
       <c r="E139" t="n">
-        <v>0.013539492225</v>
+        <v>0.0013539492225</v>
       </c>
       <c r="F139" t="n">
         <v>1.98</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1758136864705707</v>
+        <v>0.01758136864705707</v>
       </c>
       <c r="H139" t="n">
-        <v>0.08879479114675289</v>
+        <v>0.008879479114675288</v>
       </c>
       <c r="I139" t="n">
         <v>25.8</v>
@@ -7164,7 +7164,7 @@
         <v>0.05500736314349198</v>
       </c>
       <c r="N139" t="n">
-        <v>1.387856206794674e-05</v>
+        <v>1.387856206794674e-06</v>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
@@ -7185,16 +7185,16 @@
         <v>0.21</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02851173495000001</v>
+        <v>0.002851173495</v>
       </c>
       <c r="F140" t="n">
         <v>2.31</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3582890282400776</v>
+        <v>0.03582890282400775</v>
       </c>
       <c r="H140" t="n">
-        <v>0.155103475428605</v>
+        <v>0.0155103475428605</v>
       </c>
       <c r="I140" t="n">
         <v>25.8</v>
@@ -7212,7 +7212,7 @@
         <v>0.05501002181421128</v>
       </c>
       <c r="N140" t="n">
-        <v>2.491134462463197e-05</v>
+        <v>2.491134462463196e-06</v>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -7233,16 +7233,16 @@
         <v>0.27</v>
       </c>
       <c r="E141" t="n">
-        <v>0.06289774695000001</v>
+        <v>0.006289774695</v>
       </c>
       <c r="F141" t="n">
         <v>2.97</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7278233507291474</v>
+        <v>0.07278233507291472</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2450583672488711</v>
+        <v>0.02450583672488711</v>
       </c>
       <c r="I141" t="n">
         <v>25.8</v>
@@ -7260,7 +7260,7 @@
         <v>0.05501656568707283</v>
       </c>
       <c r="N141" t="n">
-        <v>4.236415789825499e-05</v>
+        <v>4.236415789825498e-06</v>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
@@ -7281,16 +7281,16 @@
         <v>0.34</v>
       </c>
       <c r="E142" t="n">
-        <v>0.10272821085</v>
+        <v>0.010272821085</v>
       </c>
       <c r="F142" t="n">
         <v>3.74</v>
       </c>
       <c r="G142" t="n">
-        <v>1.066085402633594</v>
+        <v>0.1066085402633594</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2850495728966829</v>
+        <v>0.02850495728966829</v>
       </c>
       <c r="I142" t="n">
         <v>25.8</v>
@@ -7308,7 +7308,7 @@
         <v>0.0550262664552121</v>
       </c>
       <c r="N142" t="n">
-        <v>5.715690795572146e-05</v>
+        <v>5.715690795572146e-06</v>
       </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
@@ -7329,16 +7329,16 @@
         <v>0.39</v>
       </c>
       <c r="E143" t="n">
-        <v>0.12995047035</v>
+        <v>0.012995047035</v>
       </c>
       <c r="F143" t="n">
         <v>4.29</v>
       </c>
       <c r="G143" t="n">
-        <v>1.242445224808853</v>
+        <v>0.1242445224808852</v>
       </c>
       <c r="H143" t="n">
-        <v>0.2896142715172151</v>
+        <v>0.0289614271517215</v>
       </c>
       <c r="I143" t="n">
         <v>25.8</v>
@@ -7356,7 +7356,7 @@
         <v>0.05503455732537511</v>
       </c>
       <c r="N143" t="n">
-        <v>6.607483362026046e-05</v>
+        <v>6.607483362026044e-06</v>
       </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
@@ -7377,16 +7377,16 @@
         <v>0.46</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1621873566000001</v>
+        <v>0.01621873566</v>
       </c>
       <c r="F144" t="n">
         <v>5.06</v>
       </c>
       <c r="G144" t="n">
-        <v>1.41988081429252</v>
+        <v>0.141988081429252</v>
       </c>
       <c r="H144" t="n">
-        <v>0.2806088565795494</v>
+        <v>0.02806088565795493</v>
       </c>
       <c r="I144" t="n">
         <v>25.8</v>
@@ -7404,7 +7404,7 @@
         <v>0.05504806990258605</v>
       </c>
       <c r="N144" t="n">
-        <v>7.617501186748045e-05</v>
+        <v>7.617501186748042e-06</v>
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
@@ -7425,16 +7425,16 @@
         <v>0.49</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1836786141</v>
+        <v>0.01836786141</v>
       </c>
       <c r="F145" t="n">
         <v>5.39</v>
       </c>
       <c r="G145" t="n">
-        <v>1.513777145805588</v>
+        <v>0.1513777145805587</v>
       </c>
       <c r="H145" t="n">
-        <v>0.2808491921717231</v>
+        <v>0.02808491921717231</v>
       </c>
       <c r="I145" t="n">
         <v>25.8</v>
@@ -7452,7 +7452,7 @@
         <v>0.0550545411387653</v>
       </c>
       <c r="N145" t="n">
-        <v>8.279833331028253e-05</v>
+        <v>8.279833331028252e-06</v>
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
@@ -7473,16 +7473,16 @@
         <v>0.52</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1922751171</v>
+        <v>0.01922751171</v>
       </c>
       <c r="F146" t="n">
         <v>5.720000000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>1.540327743141167</v>
+        <v>0.1540327743141167</v>
       </c>
       <c r="H146" t="n">
-        <v>0.2692880669827215</v>
+        <v>0.02692880669827214</v>
       </c>
       <c r="I146" t="n">
         <v>25.8</v>
@@ -7500,7 +7500,7 @@
         <v>0.0550614202504803</v>
       </c>
       <c r="N146" t="n">
-        <v>8.543887741684228e-05</v>
+        <v>8.543887741684226e-06</v>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="n">
@@ -7521,16 +7521,16 @@
         <v>0.54</v>
       </c>
       <c r="E147" t="n">
-        <v>0.21591550035</v>
+        <v>0.021591550035</v>
       </c>
       <c r="F147" t="n">
         <v>5.94</v>
       </c>
       <c r="G147" t="n">
-        <v>1.594048591784953</v>
+        <v>0.1594048591784952</v>
       </c>
       <c r="H147" t="n">
-        <v>0.2683583487853455</v>
+        <v>0.02683583487853455</v>
       </c>
       <c r="I147" t="n">
         <v>25.8</v>
@@ -7548,7 +7548,7 @@
         <v>0.05506623284736301</v>
       </c>
       <c r="N147" t="n">
-        <v>9.269753064970686e-05</v>
+        <v>9.269753064970685e-06</v>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="n">
@@ -7569,16 +7569,16 @@
         <v>0.57</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2223628776</v>
+        <v>0.02223628776</v>
       </c>
       <c r="F148" t="n">
         <v>6.27</v>
       </c>
       <c r="G148" t="n">
-        <v>1.588090611336287</v>
+        <v>0.1588090611336287</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2532839890488496</v>
+        <v>0.02532839890488496</v>
       </c>
       <c r="I148" t="n">
         <v>25.8</v>
@@ -7596,7 +7596,7 @@
         <v>0.05507379140752887</v>
       </c>
       <c r="N148" t="n">
-        <v>9.467928167403688e-05</v>
+        <v>9.467928167403688e-06</v>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
@@ -7617,16 +7617,16 @@
         <v>0.6</v>
       </c>
       <c r="E149" t="n">
-        <v>0.27752377185</v>
+        <v>0.027752377185</v>
       </c>
       <c r="F149" t="n">
         <v>6.6</v>
       </c>
       <c r="G149" t="n">
-        <v>1.819295061393822</v>
+        <v>0.1819295061393822</v>
       </c>
       <c r="H149" t="n">
-        <v>0.2756507668778518</v>
+        <v>0.02756507668778518</v>
       </c>
       <c r="I149" t="n">
         <v>25.8</v>
@@ -7644,7 +7644,7 @@
         <v>0.05508175741568164</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0001117318528275092</v>
+        <v>1.117318528275092e-05</v>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
@@ -7665,16 +7665,16 @@
         <v>0.62</v>
       </c>
       <c r="E150" t="n">
-        <v>0.24170500935</v>
+        <v>0.024170500935</v>
       </c>
       <c r="F150" t="n">
         <v>6.82</v>
       </c>
       <c r="G150" t="n">
-        <v>1.478179300395101</v>
+        <v>0.1478179300395101</v>
       </c>
       <c r="H150" t="n">
-        <v>0.2167418329025075</v>
+        <v>0.02167418329025074</v>
       </c>
       <c r="I150" t="n">
         <v>25.8</v>
@@ -7692,7 +7692,7 @@
         <v>0.05508729436085966</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0001006363351997667</v>
+        <v>1.006363351997667e-05</v>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
@@ -7713,16 +7713,16 @@
         <v>0.66</v>
       </c>
       <c r="E151" t="n">
-        <v>0.25889801535</v>
+        <v>0.025889801535</v>
       </c>
       <c r="F151" t="n">
         <v>7.260000000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>1.426077354018783</v>
+        <v>0.1426077354018782</v>
       </c>
       <c r="H151" t="n">
-        <v>0.1964293876058929</v>
+        <v>0.01964293876058929</v>
       </c>
       <c r="I151" t="n">
         <v>25.8</v>
@@ -7740,7 +7740,7 @@
         <v>0.05509891106002006</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0001059506652933467</v>
+        <v>1.059506652933466e-05</v>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -7761,16 +7761,16 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.28038927285</v>
+        <v>0.028038927285</v>
       </c>
       <c r="F152" t="n">
         <v>7.59</v>
       </c>
       <c r="G152" t="n">
-        <v>1.388836600375789</v>
+        <v>0.1388836600375788</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1829824242919353</v>
+        <v>0.01829824242919352</v>
       </c>
       <c r="I152" t="n">
         <v>25.8</v>
@@ -7788,7 +7788,7 @@
         <v>0.05510809831594628</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0001126236154714265</v>
+        <v>1.126236154714265e-05</v>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
@@ -7809,16 +7809,16 @@
         <v>0.72</v>
       </c>
       <c r="E153" t="n">
-        <v>0.29328402735</v>
+        <v>0.029328402735</v>
       </c>
       <c r="F153" t="n">
         <v>7.92</v>
       </c>
       <c r="G153" t="n">
-        <v>1.243861576746284</v>
+        <v>0.1243861576746284</v>
       </c>
       <c r="H153" t="n">
-        <v>0.157053229387157</v>
+        <v>0.0157053229387157</v>
       </c>
       <c r="I153" t="n">
         <v>25.8</v>
@@ -7836,7 +7836,7 @@
         <v>0.05511769225938256</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0001166445049204666</v>
+        <v>1.166445049204665e-05</v>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
@@ -7857,16 +7857,16 @@
         <v>0.79</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3140589096</v>
+        <v>0.03140589096</v>
       </c>
       <c r="F154" t="n">
         <v>8.690000000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>1.14121957209414</v>
+        <v>0.114121957209414</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1313256124389114</v>
+        <v>0.01313256124389114</v>
       </c>
       <c r="I154" t="n">
         <v>25.8</v>
@@ -7884,7 +7884,7 @@
         <v>0.05514165848068047</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0001231502225938371</v>
+        <v>1.231502225938371e-05</v>
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -7905,16 +7905,16 @@
         <v>0.67</v>
       </c>
       <c r="E155" t="n">
-        <v>0.27036001935</v>
+        <v>0.02703600193499999</v>
       </c>
       <c r="F155" t="n">
         <v>7.37</v>
       </c>
       <c r="G155" t="n">
-        <v>1.319340831954297</v>
+        <v>0.1319340831954297</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1790150382570281</v>
+        <v>0.01790150382570281</v>
       </c>
       <c r="I155" t="n">
         <v>25.8</v>
@@ -7932,7 +7932,7 @@
         <v>0.05510192827841871</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0001095052196449467</v>
+        <v>1.095052196449467e-05</v>
       </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">

--- a/GK_Data_M1_filled.xlsx
+++ b/GK_Data_M1_filled.xlsx
@@ -529,16 +529,16 @@
         <v>0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00136138275</v>
+        <v>0.0136138275</v>
       </c>
       <c r="F2" t="n">
         <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007684181716202553</v>
+        <v>0.07684181716202552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01707595936933901</v>
+        <v>0.1707595936933901</v>
       </c>
       <c r="I2" t="n">
         <v>14.1</v>
@@ -556,7 +556,7 @@
         <v>0.02500404967200313</v>
       </c>
       <c r="N2" t="n">
-        <v>3.302854366862581e-06</v>
+        <v>3.302854366862581e-05</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -581,16 +581,16 @@
         <v>0.38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.019388484</v>
+        <v>0.19388484</v>
       </c>
       <c r="F3" t="n">
         <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02659768058574088</v>
+        <v>0.2659768058574088</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0139987792556531</v>
+        <v>0.139987792556531</v>
       </c>
       <c r="I3" t="n">
         <v>14.1</v>
@@ -608,7 +608,7 @@
         <v>0.02507209604321107</v>
       </c>
       <c r="N3" t="n">
-        <v>9.353065580141349e-06</v>
+        <v>9.353065580141349e-05</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
@@ -629,16 +629,16 @@
         <v>0.22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009589520249999999</v>
+        <v>0.09589520249999998</v>
       </c>
       <c r="F4" t="n">
         <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03635248208507967</v>
+        <v>0.3635248208507967</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03304771098643606</v>
+        <v>0.3304771098643606</v>
       </c>
       <c r="I4" t="n">
         <v>14.1</v>
@@ -656,7 +656,7 @@
         <v>0.02502418829852429</v>
       </c>
       <c r="N4" t="n">
-        <v>7.063842154107058e-06</v>
+        <v>7.063842154107057e-05</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
@@ -677,16 +677,16 @@
         <v>0.13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00333613575</v>
+        <v>0.0333613575</v>
       </c>
       <c r="F5" t="n">
         <v>0.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01669937543796805</v>
+        <v>0.1669937543796805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02569134682764316</v>
+        <v>0.2569134682764315</v>
       </c>
       <c r="I5" t="n">
         <v>14.1</v>
@@ -704,7 +704,7 @@
         <v>0.02500844857243248</v>
       </c>
       <c r="N5" t="n">
-        <v>5.026536750154372e-06</v>
+        <v>5.026536750154371e-05</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
@@ -725,16 +725,16 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0019448325</v>
+        <v>0.019448325</v>
       </c>
       <c r="F6" t="n">
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01057007768542042</v>
+        <v>0.1057007768542042</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02114015537084084</v>
+        <v>0.2114015537084084</v>
       </c>
       <c r="I6" t="n">
         <v>14.1</v>
@@ -752,7 +752,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N6" t="n">
-        <v>3.988212794490943e-06</v>
+        <v>3.988212794490944e-05</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
@@ -773,16 +773,16 @@
         <v>0.23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009035990999999998</v>
+        <v>0.09035990999999997</v>
       </c>
       <c r="F7" t="n">
         <v>1.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02375079379606458</v>
+        <v>0.2375079379606458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02065286417049094</v>
+        <v>0.2065286417049094</v>
       </c>
       <c r="I7" t="n">
         <v>14.1</v>
@@ -800,7 +800,7 @@
         <v>0.02502643602273404</v>
       </c>
       <c r="N7" t="n">
-        <v>6.931342925812441e-06</v>
+        <v>6.93134292581244e-05</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
@@ -821,16 +821,16 @@
         <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01617203025</v>
+        <v>0.1617203025</v>
       </c>
       <c r="F8" t="n">
         <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03149967748475978</v>
+        <v>0.3149967748475977</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0185292220498587</v>
+        <v>0.1852922204985869</v>
       </c>
       <c r="I8" t="n">
         <v>14.1</v>
@@ -848,7 +848,7 @@
         <v>0.02505773333723544</v>
       </c>
       <c r="N8" t="n">
-        <v>8.58320887119166e-06</v>
+        <v>8.583208871191658e-05</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
@@ -869,16 +869,16 @@
         <v>0.35</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01677044025</v>
+        <v>0.1677044025</v>
       </c>
       <c r="F9" t="n">
         <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03126029585287416</v>
+        <v>0.3126029585287416</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01786302620164238</v>
+        <v>0.1786302620164238</v>
       </c>
       <c r="I9" t="n">
         <v>14.1</v>
@@ -896,7 +896,7 @@
         <v>0.02506117515201552</v>
       </c>
       <c r="N9" t="n">
-        <v>8.724091891729096e-06</v>
+        <v>8.724091891729096e-05</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
@@ -917,16 +917,16 @@
         <v>0.18</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006791953500000001</v>
+        <v>0.067919535</v>
       </c>
       <c r="F10" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02923244517019918</v>
+        <v>0.2923244517019917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03248049463355464</v>
+        <v>0.3248049463355464</v>
       </c>
       <c r="I10" t="n">
         <v>14.1</v>
@@ -944,7 +944,7 @@
         <v>0.02501619475459847</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350649824631214e-06</v>
+        <v>6.350649824631213e-05</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
@@ -965,16 +965,16 @@
         <v>0.41</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01943336475</v>
+        <v>0.1943336475</v>
       </c>
       <c r="F11" t="n">
         <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02442068637325234</v>
+        <v>0.2442068637325234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01191252993817187</v>
+        <v>0.1191252993817187</v>
       </c>
       <c r="I11" t="n">
         <v>14.1</v>
@@ -992,7 +992,7 @@
         <v>0.02508390918497354</v>
       </c>
       <c r="N11" t="n">
-        <v>9.364034534898301e-06</v>
+        <v>9.3640345348983e-05</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
@@ -1013,16 +1013,16 @@
         <v>0.45</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02039082075</v>
+        <v>0.2039082075</v>
       </c>
       <c r="F12" t="n">
         <v>2.25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0207126210296001</v>
+        <v>0.2071262102960011</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009205609346488935</v>
+        <v>0.09205609346488935</v>
       </c>
       <c r="I12" t="n">
         <v>14.1</v>
@@ -1040,7 +1040,7 @@
         <v>0.02510104579494647</v>
       </c>
       <c r="N12" t="n">
-        <v>9.599559855410405e-06</v>
+        <v>9.599559855410406e-05</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
@@ -1061,16 +1061,16 @@
         <v>0.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00905095125</v>
+        <v>0.0905095125</v>
       </c>
       <c r="F13" t="n">
         <v>1.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05743749194909869</v>
+        <v>0.5743749194909871</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05221590177190789</v>
+        <v>0.5221590177190791</v>
       </c>
       <c r="I13" t="n">
         <v>14.1</v>
@@ -1088,7 +1088,7 @@
         <v>0.02502418829852429</v>
       </c>
       <c r="N13" t="n">
-        <v>6.934960335699356e-06</v>
+        <v>6.934960335699356e-05</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
@@ -1109,16 +1109,16 @@
         <v>0.18</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005909298749999999</v>
+        <v>0.0590929875</v>
       </c>
       <c r="F14" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02648550961163741</v>
+        <v>0.2648550961163741</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02942834401293046</v>
+        <v>0.2942834401293046</v>
       </c>
       <c r="I14" t="n">
         <v>14.1</v>
@@ -1136,7 +1136,7 @@
         <v>0.02501619475459847</v>
       </c>
       <c r="N14" t="n">
-        <v>6.087358782233309e-06</v>
+        <v>6.08735878223331e-05</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
@@ -1157,16 +1157,16 @@
         <v>0.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00417390975</v>
+        <v>0.0417390975</v>
       </c>
       <c r="F15" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02019359527931409</v>
+        <v>0.2019359527931409</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02884799325616299</v>
+        <v>0.2884799325616298</v>
       </c>
       <c r="I15" t="n">
         <v>14.1</v>
@@ -1184,7 +1184,7 @@
         <v>0.02500979807995259</v>
       </c>
       <c r="N15" t="n">
-        <v>5.444869769922636e-06</v>
+        <v>5.444869769922636e-05</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
@@ -1205,16 +1205,16 @@
         <v>0.12</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0030219705</v>
+        <v>0.030219705</v>
       </c>
       <c r="F16" t="n">
         <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01531666451975965</v>
+        <v>0.1531666451975965</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02552777419959942</v>
+        <v>0.2552777419959942</v>
       </c>
       <c r="I16" t="n">
         <v>14.1</v>
@@ -1232,7 +1232,7 @@
         <v>0.02500719896349849</v>
       </c>
       <c r="N16" t="n">
-        <v>4.839150393208287e-06</v>
+        <v>4.839150393208287e-05</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
@@ -1253,16 +1253,16 @@
         <v>0.11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00252828225</v>
+        <v>0.0252828225</v>
       </c>
       <c r="F17" t="n">
         <v>0.55</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01323805490466913</v>
+        <v>0.1323805490466912</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02406919073576204</v>
+        <v>0.2406919073576204</v>
       </c>
       <c r="I17" t="n">
         <v>14.1</v>
@@ -1280,7 +1280,7 @@
         <v>0.02500604926812711</v>
       </c>
       <c r="N17" t="n">
-        <v>4.497132727975271e-06</v>
+        <v>4.49713272797527e-05</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
@@ -1301,16 +1301,16 @@
         <v>0.11</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002094435</v>
+        <v>0.02094435</v>
       </c>
       <c r="F18" t="n">
         <v>0.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01114189899195346</v>
+        <v>0.1114189899195346</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02025799816718812</v>
+        <v>0.2025799816718811</v>
       </c>
       <c r="I18" t="n">
         <v>14.1</v>
@@ -1328,7 +1328,7 @@
         <v>0.02500604926812711</v>
       </c>
       <c r="N18" t="n">
-        <v>4.132234080552282e-06</v>
+        <v>4.132234080552282e-05</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
@@ -1349,16 +1349,16 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00184011075</v>
+        <v>0.0184011075</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01316113318918755</v>
+        <v>0.1316113318918755</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0263222663783751</v>
+        <v>0.263222663783751</v>
       </c>
       <c r="I19" t="n">
         <v>14.1</v>
@@ -1376,7 +1376,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N19" t="n">
-        <v>3.880747661278237e-06</v>
+        <v>3.880747661278237e-05</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
@@ -1397,16 +1397,16 @@
         <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001735389</v>
+        <v>0.01735389</v>
       </c>
       <c r="F20" t="n">
         <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009468107529214002</v>
+        <v>0.09468107529214004</v>
       </c>
       <c r="H20" t="n">
-        <v>0.018936215058428</v>
+        <v>0.1893621505842801</v>
       </c>
       <c r="I20" t="n">
         <v>14.1</v>
@@ -1424,7 +1424,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N20" t="n">
-        <v>3.767226321138433e-06</v>
+        <v>3.767226321138434e-05</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
@@ -1445,16 +1445,16 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0015857865</v>
+        <v>0.015857865</v>
       </c>
       <c r="F21" t="n">
         <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008718316632483274</v>
+        <v>0.08718316632483275</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01743663326496655</v>
+        <v>0.1743663326496655</v>
       </c>
       <c r="I21" t="n">
         <v>14.1</v>
@@ -1472,7 +1472,7 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N21" t="n">
-        <v>3.593388593339042e-06</v>
+        <v>3.593388593339042e-05</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
@@ -1493,16 +1493,16 @@
         <v>0.09</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001436184</v>
+        <v>0.01436184</v>
       </c>
       <c r="F22" t="n">
         <v>0.45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007775516461876189</v>
+        <v>0.07775516461876189</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01727892547083598</v>
+        <v>0.1727892547083598</v>
       </c>
       <c r="I22" t="n">
         <v>14.1</v>
@@ -1520,7 +1520,7 @@
         <v>0.02500404967200313</v>
       </c>
       <c r="N22" t="n">
-        <v>3.404049516018901e-06</v>
+        <v>3.404049516018901e-05</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
@@ -1541,16 +1541,16 @@
         <v>0.11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001121283</v>
+        <v>0.01121283</v>
       </c>
       <c r="F23" t="n">
         <v>0.88</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005730119481576068</v>
+        <v>0.05730119481576068</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006511499410881895</v>
+        <v>0.06511499410881895</v>
       </c>
       <c r="I23" t="n">
         <v>27</v>
@@ -1568,7 +1568,7 @@
         <v>0.04000378107129374</v>
       </c>
       <c r="N23" t="n">
-        <v>1.539639106271661e-06</v>
+        <v>1.539639106271662e-05</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         <v>0.34</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0158474664</v>
+        <v>0.158474664</v>
       </c>
       <c r="F24" t="n">
         <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02804627333140812</v>
+        <v>0.2804627333140812</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01031112990125298</v>
+        <v>0.1031112990125298</v>
       </c>
       <c r="I24" t="n">
         <v>27</v>
@@ -1620,7 +1620,7 @@
         <v>0.04003610870202048</v>
       </c>
       <c r="N24" t="n">
-        <v>7.808853565740889e-06</v>
+        <v>7.808853565740887e-05</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
@@ -1641,16 +1641,16 @@
         <v>0.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005980176</v>
+        <v>0.05980176</v>
       </c>
       <c r="F25" t="n">
         <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0224194838732703</v>
+        <v>0.224194838732703</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01401217742079394</v>
+        <v>0.1401217742079393</v>
       </c>
       <c r="I25" t="n">
         <v>27</v>
@@ -1668,7 +1668,7 @@
         <v>0.04001249804748511</v>
       </c>
       <c r="N25" t="n">
-        <v>4.700597835999596e-06</v>
+        <v>4.700597835999595e-05</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
@@ -1689,16 +1689,16 @@
         <v>0.16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0043356276</v>
+        <v>0.04335627599999999</v>
       </c>
       <c r="F26" t="n">
         <v>1.28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0189782809714932</v>
+        <v>0.1897828097149319</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01482678200897906</v>
+        <v>0.1482678200897906</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
@@ -1716,7 +1716,7 @@
         <v>0.04000799920015995</v>
       </c>
       <c r="N26" t="n">
-        <v>3.939994356867522e-06</v>
+        <v>3.939994356867522e-05</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -1737,16 +1737,16 @@
         <v>0.15</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0040366188</v>
+        <v>0.040366188</v>
       </c>
       <c r="F27" t="n">
         <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01809214774018936</v>
+        <v>0.1809214774018935</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01507678978349113</v>
+        <v>0.1507678978349113</v>
       </c>
       <c r="I27" t="n">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>0.04000703063212765</v>
       </c>
       <c r="N27" t="n">
-        <v>3.780453809449601e-06</v>
+        <v>3.7804538094496e-05</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
@@ -1785,16 +1785,16 @@
         <v>0.13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0035881056</v>
+        <v>0.035881056</v>
       </c>
       <c r="F28" t="n">
         <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01660795285807621</v>
+        <v>0.1660795285807621</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0159691854404579</v>
+        <v>0.159691854404579</v>
       </c>
       <c r="I28" t="n">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>0.04000528090140101</v>
       </c>
       <c r="N28" t="n">
-        <v>3.524714175986473e-06</v>
+        <v>3.524714175986473e-05</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
@@ -1833,16 +1833,16 @@
         <v>0.12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0028405836</v>
+        <v>0.028405836</v>
       </c>
       <c r="F29" t="n">
         <v>0.96</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0136536535515915</v>
+        <v>0.136536535515915</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01422255578290781</v>
+        <v>0.1422255578290781</v>
       </c>
       <c r="I29" t="n">
         <v>27</v>
@@ -1860,7 +1860,7 @@
         <v>0.04000449974690348</v>
       </c>
       <c r="N29" t="n">
-        <v>3.044692121693027e-06</v>
+        <v>3.044692121693027e-05</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
@@ -1881,16 +1881,16 @@
         <v>0.11</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002242566</v>
+        <v>0.02242566</v>
       </c>
       <c r="F30" t="n">
         <v>0.88</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01117842980832053</v>
+        <v>0.1117842980832053</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01270276114581878</v>
+        <v>0.1270276114581878</v>
       </c>
       <c r="I30" t="n">
         <v>27</v>
@@ -1908,7 +1908,7 @@
         <v>0.04000378107129374</v>
       </c>
       <c r="N30" t="n">
-        <v>2.598094742325614e-06</v>
+        <v>2.598094742325615e-05</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
@@ -1929,16 +1929,16 @@
         <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001495044</v>
+        <v>0.01495044</v>
       </c>
       <c r="F31" t="n">
         <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007655815372925404</v>
+        <v>0.07655815372925402</v>
       </c>
       <c r="H31" t="n">
-        <v>0.009569769216156754</v>
+        <v>0.09569769216156752</v>
       </c>
       <c r="I31" t="n">
         <v>27</v>
@@ -1956,7 +1956,7 @@
         <v>0.04000312487793922</v>
       </c>
       <c r="N31" t="n">
-        <v>1.932103097152168e-06</v>
+        <v>1.932103097152168e-05</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
@@ -1977,16 +1977,16 @@
         <v>0.46</v>
       </c>
       <c r="E32" t="n">
-        <v>0.017193006</v>
+        <v>0.17193006</v>
       </c>
       <c r="F32" t="n">
         <v>3.68</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02142532379928101</v>
+        <v>0.2142532379928101</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005822098858500275</v>
+        <v>0.05822098858500274</v>
       </c>
       <c r="I32" t="n">
         <v>27</v>
@@ -2004,7 +2004,7 @@
         <v>0.04006607043372235</v>
       </c>
       <c r="N32" t="n">
-        <v>8.183314021625664e-06</v>
+        <v>8.183314021625664e-05</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
@@ -2025,16 +2025,16 @@
         <v>0.25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0103158036</v>
+        <v>0.103158036</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03013948910924068</v>
+        <v>0.3013948910924069</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01506974455462034</v>
+        <v>0.1506974455462034</v>
       </c>
       <c r="I33" t="n">
         <v>27</v>
@@ -2052,7 +2052,7 @@
         <v>0.04001952648395531</v>
       </c>
       <c r="N33" t="n">
-        <v>6.212778826576547e-06</v>
+        <v>6.212778826576547e-05</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
@@ -2073,16 +2073,16 @@
         <v>0.23</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008970264</v>
+        <v>0.08970264000000001</v>
       </c>
       <c r="F34" t="n">
         <v>1.84</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02836878825304873</v>
+        <v>0.2836878825304874</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01541781970274387</v>
+        <v>0.1541781970274388</v>
       </c>
       <c r="I34" t="n">
         <v>27</v>
@@ -2100,7 +2100,7 @@
         <v>0.04001652783538322</v>
       </c>
       <c r="N34" t="n">
-        <v>5.78760070412602e-06</v>
+        <v>5.787600704126021e-05</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2121,16 +2121,16 @@
         <v>0.21</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007774228799999998</v>
+        <v>0.07774228799999999</v>
       </c>
       <c r="F35" t="n">
         <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0268658060939468</v>
+        <v>0.2686580609394681</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01599155124639691</v>
+        <v>0.1599155124639691</v>
       </c>
       <c r="I35" t="n">
         <v>27</v>
@@ -2148,7 +2148,7 @@
         <v>0.04001377887678193</v>
       </c>
       <c r="N35" t="n">
-        <v>5.383009871599576e-06</v>
+        <v>5.383009871599576e-05</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
@@ -2169,16 +2169,16 @@
         <v>0.2</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0065781936</v>
+        <v>0.065781936</v>
       </c>
       <c r="F36" t="n">
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02445477221372081</v>
+        <v>0.2445477221372082</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01528423263357551</v>
+        <v>0.1528423263357551</v>
       </c>
       <c r="I36" t="n">
         <v>27</v>
@@ -2196,7 +2196,7 @@
         <v>0.04001249804748511</v>
       </c>
       <c r="N36" t="n">
-        <v>4.940992933556599e-06</v>
+        <v>4.9409929335566e-05</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
@@ -2217,16 +2217,16 @@
         <v>0.17</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005232654</v>
+        <v>0.05232654</v>
       </c>
       <c r="F37" t="n">
         <v>1.36</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02186369359568574</v>
+        <v>0.2186369359568573</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01607624529094539</v>
+        <v>0.1607624529094539</v>
       </c>
       <c r="I37" t="n">
         <v>27</v>
@@ -2244,7 +2244,7 @@
         <v>0.04000903023068668</v>
       </c>
       <c r="N37" t="n">
-        <v>4.375935236257245e-06</v>
+        <v>4.375935236257245e-05</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2265,16 +2265,16 @@
         <v>0.16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004485132</v>
+        <v>0.04485132000000001</v>
       </c>
       <c r="F38" t="n">
         <v>1.28</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01925695891349334</v>
+        <v>0.1925695891349335</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01504449915116668</v>
+        <v>0.1504449915116668</v>
       </c>
       <c r="I38" t="n">
         <v>27</v>
@@ -2292,7 +2292,7 @@
         <v>0.04000799920015995</v>
       </c>
       <c r="N38" t="n">
-        <v>4.016844627577722e-06</v>
+        <v>4.016844627577722e-05</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
@@ -2313,16 +2313,16 @@
         <v>0.15</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0040366188</v>
+        <v>0.040366188</v>
       </c>
       <c r="F39" t="n">
         <v>1.2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01809214774018936</v>
+        <v>0.1809214774018935</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01507678978349113</v>
+        <v>0.1507678978349113</v>
       </c>
       <c r="I39" t="n">
         <v>27</v>
@@ -2340,7 +2340,7 @@
         <v>0.04000703063212765</v>
       </c>
       <c r="N39" t="n">
-        <v>3.780453809449601e-06</v>
+        <v>3.7804538094496e-05</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
@@ -2361,16 +2361,16 @@
         <v>0.31</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0137544048</v>
+        <v>0.137544048</v>
       </c>
       <c r="F40" t="n">
         <v>2.48</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02621451382500264</v>
+        <v>0.2621451382500264</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01057036847782365</v>
+        <v>0.1057036847782365</v>
       </c>
       <c r="I40" t="n">
         <v>27</v>
@@ -2388,7 +2388,7 @@
         <v>0.04003001998500625</v>
       </c>
       <c r="N40" t="n">
-        <v>7.220796659648651e-06</v>
+        <v>7.220796659648651e-05</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
@@ -2409,16 +2409,16 @@
         <v>0.27</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0118108476</v>
+        <v>0.118108476</v>
       </c>
       <c r="F41" t="n">
         <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02795233694646424</v>
+        <v>0.2795233694646424</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01294089673447418</v>
+        <v>0.1294089673447418</v>
       </c>
       <c r="I41" t="n">
         <v>27</v>
@@ -2436,7 +2436,7 @@
         <v>0.0400227747663752</v>
       </c>
       <c r="N41" t="n">
-        <v>6.660931695708942e-06</v>
+        <v>6.660931695708941e-05</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -2457,16 +2457,16 @@
         <v>0.35</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0168939972</v>
+        <v>0.168939972</v>
       </c>
       <c r="F42" t="n">
         <v>2.8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02264493119713559</v>
+        <v>0.2264493119713559</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008087475427548424</v>
+        <v>0.08087475427548427</v>
       </c>
       <c r="I42" t="n">
         <v>27</v>
@@ -2484,7 +2484,7 @@
         <v>0.04003826294933385</v>
       </c>
       <c r="N42" t="n">
-        <v>8.100217518130305e-06</v>
+        <v>8.100217518130307e-05</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
@@ -2505,16 +2505,16 @@
         <v>0.51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0228329712</v>
+        <v>0.228329712</v>
       </c>
       <c r="F43" t="n">
         <v>4.335</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1128581808083011</v>
+        <v>1.128581808083011</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02603418242406024</v>
+        <v>0.2603418242406024</v>
       </c>
       <c r="I43" t="n">
         <v>20</v>
@@ -2532,7 +2532,7 @@
         <v>0.04257643127365186</v>
       </c>
       <c r="N43" t="n">
-        <v>1.024721135375306e-05</v>
+        <v>0.0001024721135375306</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>0.43</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0198324846</v>
+        <v>0.198324846</v>
       </c>
       <c r="F44" t="n">
         <v>3.655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1221189523267137</v>
+        <v>1.221189523267137</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03341147806476435</v>
+        <v>0.3341147806476435</v>
       </c>
       <c r="I44" t="n">
         <v>20</v>
@@ -2584,7 +2584,7 @@
         <v>0.04255434760397578</v>
       </c>
       <c r="N44" t="n">
-        <v>9.469847983134859e-06</v>
+        <v>9.469847983134857e-05</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
@@ -2605,16 +2605,16 @@
         <v>0.39</v>
       </c>
       <c r="E45" t="n">
-        <v>0.017929737</v>
+        <v>0.17929737</v>
       </c>
       <c r="F45" t="n">
         <v>3.315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.116786574949594</v>
+        <v>1.16786574949594</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03522973603306002</v>
+        <v>0.3522973603306003</v>
       </c>
       <c r="I45" t="n">
         <v>20</v>
@@ -2632,7 +2632,7 @@
         <v>0.04254471177479053</v>
       </c>
       <c r="N45" t="n">
-        <v>8.992349827676395e-06</v>
+        <v>8.992349827676397e-05</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
@@ -2653,16 +2653,16 @@
         <v>0.34</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0147097026</v>
+        <v>0.147097026</v>
       </c>
       <c r="F46" t="n">
         <v>2.89</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09411822334887189</v>
+        <v>0.9411822334887189</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03256685929026709</v>
+        <v>0.3256685929026709</v>
       </c>
       <c r="I46" t="n">
         <v>20</v>
@@ -2680,7 +2680,7 @@
         <v>0.04253398641086913</v>
       </c>
       <c r="N46" t="n">
-        <v>8.211180969236214e-06</v>
+        <v>8.211180969236212e-05</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
@@ -2701,16 +2701,16 @@
         <v>0.33</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0141242418</v>
+        <v>0.141242418</v>
       </c>
       <c r="F47" t="n">
         <v>2.805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1041277348352991</v>
+        <v>1.041277348352991</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03712218710705852</v>
+        <v>0.3712218710705851</v>
       </c>
       <c r="I47" t="n">
         <v>20</v>
@@ -2728,7 +2728,7 @@
         <v>0.04253201735163758</v>
       </c>
       <c r="N47" t="n">
-        <v>8.072353897963037e-06</v>
+        <v>8.072353897963038e-05</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
@@ -2749,16 +2749,16 @@
         <v>0.27</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01097739</v>
+        <v>0.1097739</v>
       </c>
       <c r="F48" t="n">
         <v>2.295</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08932000334913827</v>
+        <v>0.8932000334913826</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03891939143753301</v>
+        <v>0.3891939143753301</v>
       </c>
       <c r="I48" t="n">
         <v>20</v>
@@ -2776,7 +2776,7 @@
         <v>0.04252143577067924</v>
       </c>
       <c r="N48" t="n">
-        <v>7.334588447922147e-06</v>
+        <v>7.334588447922147e-05</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
@@ -2797,16 +2797,16 @@
         <v>0.23</v>
       </c>
       <c r="E49" t="n">
-        <v>0.008050086</v>
+        <v>0.08050086000000001</v>
       </c>
       <c r="F49" t="n">
         <v>1.955</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07249826097664933</v>
+        <v>0.7249826097664934</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03708350945097152</v>
+        <v>0.3708350945097153</v>
       </c>
       <c r="I49" t="n">
         <v>20</v>
@@ -2824,7 +2824,7 @@
         <v>0.04251555597660696</v>
       </c>
       <c r="N49" t="n">
-        <v>6.626687471391086e-06</v>
+        <v>6.626687471391086e-05</v>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
@@ -2845,16 +2845,16 @@
         <v>0.21</v>
       </c>
       <c r="E50" t="n">
-        <v>0.007171894799999999</v>
+        <v>0.07171894799999999</v>
       </c>
       <c r="F50" t="n">
         <v>1.785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06691758088751655</v>
+        <v>0.6691758088751654</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03748884083334261</v>
+        <v>0.374888408333426</v>
       </c>
       <c r="I50" t="n">
         <v>20</v>
@@ -2872,7 +2872,7 @@
         <v>0.04251296860959019</v>
       </c>
       <c r="N50" t="n">
-        <v>6.395944280079026e-06</v>
+        <v>6.395944280079026e-05</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -2893,16 +2893,16 @@
         <v>0.19</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0060009732</v>
+        <v>0.060009732</v>
       </c>
       <c r="F51" t="n">
         <v>1.615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05819173311288516</v>
+        <v>0.5819173311288515</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03603203288723539</v>
+        <v>0.3603203288723539</v>
       </c>
       <c r="I51" t="n">
         <v>20</v>
@@ -2920,7 +2920,7 @@
         <v>0.04251061632110266</v>
       </c>
       <c r="N51" t="n">
-        <v>6.058710823196233e-06</v>
+        <v>6.058710823196233e-05</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
@@ -2941,16 +2941,16 @@
         <v>0.16</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004903234199999999</v>
+        <v>0.04903234199999999</v>
       </c>
       <c r="F52" t="n">
         <v>1.36</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04857383485435504</v>
+        <v>0.4857383485435503</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03571605503996694</v>
+        <v>0.3571605503996693</v>
       </c>
       <c r="I52" t="n">
         <v>20</v>
@@ -2968,7 +2968,7 @@
         <v>0.04250752874491764</v>
       </c>
       <c r="N52" t="n">
-        <v>5.690443052176956e-06</v>
+        <v>5.690443052176956e-05</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
@@ -2989,16 +2989,16 @@
         <v>0.15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004025043</v>
+        <v>0.04025043</v>
       </c>
       <c r="F53" t="n">
         <v>1.275</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04075919672349994</v>
+        <v>0.4075919672349995</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03196799743019603</v>
+        <v>0.3196799743019604</v>
       </c>
       <c r="I53" t="n">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>0.04250661713192429</v>
       </c>
       <c r="N53" t="n">
-        <v>5.333692805140195e-06</v>
+        <v>5.333692805140196e-05</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
@@ -3037,16 +3037,16 @@
         <v>0.13</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0028541214</v>
+        <v>0.028541214</v>
       </c>
       <c r="F54" t="n">
         <v>1.105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03018717230306783</v>
+        <v>0.3018717230306783</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02731870796657723</v>
+        <v>0.2731870796657723</v>
       </c>
       <c r="I54" t="n">
         <v>20</v>
@@ -3064,7 +3064,7 @@
         <v>0.04250497029760167</v>
       </c>
       <c r="N54" t="n">
-        <v>4.701737441815476e-06</v>
+        <v>4.701737441815477e-05</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
@@ -3085,16 +3085,16 @@
         <v>0.1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0013904694</v>
+        <v>0.013904694</v>
       </c>
       <c r="F55" t="n">
         <v>0.8500000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01518708285173636</v>
+        <v>0.1518708285173636</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01786715629616042</v>
+        <v>0.1786715629616042</v>
       </c>
       <c r="I55" t="n">
         <v>20</v>
@@ -3112,7 +3112,7 @@
         <v>0.04250294107470682</v>
       </c>
       <c r="N55" t="n">
-        <v>3.343273750263127e-06</v>
+        <v>3.343273750263127e-05</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -3133,16 +3133,16 @@
         <v>0.1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0012441042</v>
+        <v>0.012441042</v>
       </c>
       <c r="F56" t="n">
         <v>0.8500000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01360147078027032</v>
+        <v>0.1360147078027032</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01600173032972978</v>
+        <v>0.1600173032972978</v>
       </c>
       <c r="I56" t="n">
         <v>20</v>
@@ -3160,7 +3160,7 @@
         <v>0.04250294107470682</v>
       </c>
       <c r="N56" t="n">
-        <v>3.138080119035403e-06</v>
+        <v>3.138080119035403e-05</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
@@ -3181,16 +3181,16 @@
         <v>0.66</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0324198918</v>
+        <v>0.324198918</v>
       </c>
       <c r="F57" t="n">
         <v>5.61</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0886095817008787</v>
+        <v>0.886095817008787</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01579493434953274</v>
+        <v>0.1579493434953274</v>
       </c>
       <c r="I57" t="n">
         <v>20</v>
@@ -3208,7 +3208,7 @@
         <v>0.04262792511957391</v>
       </c>
       <c r="N57" t="n">
-        <v>1.290114919239751e-05</v>
+        <v>0.0001290114919239752</v>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
@@ -3229,16 +3229,16 @@
         <v>0.57</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0283216662</v>
+        <v>0.283216662</v>
       </c>
       <c r="F58" t="n">
         <v>4.845</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1144813448331271</v>
+        <v>1.144813448331272</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0236287605434731</v>
+        <v>0.236287605434731</v>
       </c>
       <c r="I58" t="n">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>0.0425954516351218</v>
       </c>
       <c r="N58" t="n">
-        <v>1.173878385215581e-05</v>
+        <v>0.0001173878385215581</v>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
@@ -3277,16 +3277,16 @@
         <v>0.52</v>
       </c>
       <c r="E59" t="n">
-        <v>0.025247997</v>
+        <v>0.25247997</v>
       </c>
       <c r="F59" t="n">
         <v>4.42</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1205647612774468</v>
+        <v>1.205647612774469</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02727709531163956</v>
+        <v>0.2727709531163956</v>
       </c>
       <c r="I59" t="n">
         <v>20</v>
@@ -3304,7 +3304,7 @@
         <v>0.04257945513977369</v>
       </c>
       <c r="N59" t="n">
-        <v>1.089321606644941e-05</v>
+        <v>0.0001089321606644941</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
@@ -3325,16 +3325,16 @@
         <v>0.49</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0236379798</v>
+        <v>0.236379798</v>
       </c>
       <c r="F60" t="n">
         <v>4.165</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1242632455002091</v>
+        <v>1.242632455002091</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02983511296523628</v>
+        <v>0.2983511296523628</v>
       </c>
       <c r="I60" t="n">
         <v>20</v>
@@ -3352,7 +3352,7 @@
         <v>0.04257055907549254</v>
       </c>
       <c r="N60" t="n">
-        <v>1.046062385224625e-05</v>
+        <v>0.0001046062385224625</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
@@ -3373,16 +3373,16 @@
         <v>0.26</v>
       </c>
       <c r="E61" t="n">
-        <v>0.009074642400000001</v>
+        <v>0.09074642400000001</v>
       </c>
       <c r="F61" t="n">
         <v>2.21</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07925454711586857</v>
+        <v>0.7925454711586858</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0358617860252799</v>
+        <v>0.358617860252799</v>
       </c>
       <c r="I61" t="n">
         <v>20</v>
@@ -3400,7 +3400,7 @@
         <v>0.04251987770443372</v>
       </c>
       <c r="N61" t="n">
-        <v>6.881642970169731e-06</v>
+        <v>6.881642970169731e-05</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -3421,16 +3421,16 @@
         <v>0.22</v>
       </c>
       <c r="E62" t="n">
-        <v>0.007976903399999999</v>
+        <v>0.07976903399999999</v>
       </c>
       <c r="F62" t="n">
         <v>1.87</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06782955689768792</v>
+        <v>0.6782955689768791</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03627249031961921</v>
+        <v>0.3627249031961921</v>
       </c>
       <c r="I62" t="n">
         <v>20</v>
@@ -3448,7 +3448,7 @@
         <v>0.04251423291087351</v>
       </c>
       <c r="N62" t="n">
-        <v>6.607971995364218e-06</v>
+        <v>6.607971995364217e-05</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
@@ -3469,16 +3469,16 @@
         <v>0.12</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0019455192</v>
+        <v>0.019455192</v>
       </c>
       <c r="F63" t="n">
         <v>1.08</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02159583518568721</v>
+        <v>0.2159583518568721</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01999614369045112</v>
+        <v>0.1999614369045112</v>
       </c>
       <c r="I63" t="n">
         <v>26.1</v>
@@ -3496,7 +3496,7 @@
         <v>0.04500399982223803</v>
       </c>
       <c r="N63" t="n">
-        <v>2.519153945097639e-06</v>
+        <v>2.51915394509764e-05</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3521,16 +3521,16 @@
         <v>0.73</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0373713912</v>
+        <v>0.373713912</v>
       </c>
       <c r="F64" t="n">
         <v>6.57</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07827045869890016</v>
+        <v>0.7827045869890017</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01191331182631662</v>
+        <v>0.1191331182631662</v>
       </c>
       <c r="I64" t="n">
         <v>26.1</v>
@@ -3548,7 +3548,7 @@
         <v>0.04514778510624858</v>
       </c>
       <c r="N64" t="n">
-        <v>1.423699132220511e-05</v>
+        <v>0.0001423699132220511</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -3569,16 +3569,16 @@
         <v>0.63</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0309831192</v>
+        <v>0.309831192</v>
       </c>
       <c r="F65" t="n">
         <v>5.67</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1116123361480727</v>
+        <v>1.116123361480727</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01968471537003045</v>
+        <v>0.1968471537003045</v>
       </c>
       <c r="I65" t="n">
         <v>26.1</v>
@@ -3596,7 +3596,7 @@
         <v>0.04511011527362793</v>
       </c>
       <c r="N65" t="n">
-        <v>1.229749557030098e-05</v>
+        <v>0.0001229749557030098</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -3617,16 +3617,16 @@
         <v>0.13</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002134263599999999</v>
+        <v>0.02134263599999999</v>
       </c>
       <c r="F66" t="n">
         <v>1.17</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02378035334921829</v>
+        <v>0.2378035334921829</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0203250883326652</v>
+        <v>0.203250883326652</v>
       </c>
       <c r="I66" t="n">
         <v>26.1</v>
@@ -3644,7 +3644,7 @@
         <v>0.04500469419960545</v>
       </c>
       <c r="N66" t="n">
-        <v>2.682572308583097e-06</v>
+        <v>2.682572308583098e-05</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
@@ -3665,16 +3665,16 @@
         <v>0.26</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0106858368</v>
+        <v>0.106858368</v>
       </c>
       <c r="F67" t="n">
         <v>2.34</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09657127177712319</v>
+        <v>0.9657127177712319</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04126977426372786</v>
+        <v>0.4126977426372786</v>
       </c>
       <c r="I67" t="n">
         <v>26.1</v>
@@ -3692,7 +3692,7 @@
         <v>0.04501877386157913</v>
       </c>
       <c r="N67" t="n">
-        <v>6.439379564635718e-06</v>
+        <v>6.439379564635718e-05</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
@@ -3713,16 +3713,16 @@
         <v>0.35</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0146204316</v>
+        <v>0.146204316</v>
       </c>
       <c r="F68" t="n">
         <v>3.15</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1146754964654906</v>
+        <v>1.146754964654906</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03640491951285416</v>
+        <v>0.3640491951285416</v>
       </c>
       <c r="I68" t="n">
         <v>26.1</v>
@@ -3740,7 +3740,7 @@
         <v>0.04503401492205642</v>
       </c>
       <c r="N68" t="n">
-        <v>7.574526815905496e-06</v>
+        <v>7.574526815905497e-05</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
@@ -3761,16 +3761,16 @@
         <v>0.41</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0185695452</v>
+        <v>0.185695452</v>
       </c>
       <c r="F69" t="n">
         <v>3.69</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1285379427404147</v>
+        <v>1.285379427404147</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03483413082396061</v>
+        <v>0.3483413082396062</v>
       </c>
       <c r="I69" t="n">
         <v>26.1</v>
@@ -3788,7 +3788,7 @@
         <v>0.04504667024320443</v>
       </c>
       <c r="N69" t="n">
-        <v>8.687437457565094e-06</v>
+        <v>8.687437457565096e-05</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
@@ -3809,16 +3809,16 @@
         <v>0.49</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0226783656</v>
+        <v>0.226783656</v>
       </c>
       <c r="F70" t="n">
         <v>4.41</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1327553946709679</v>
+        <v>1.327553946709679</v>
       </c>
       <c r="H70" t="n">
-        <v>0.03010326409772515</v>
+        <v>0.3010326409772514</v>
       </c>
       <c r="I70" t="n">
         <v>26.1</v>
@@ -3836,7 +3836,7 @@
         <v>0.0450666450936832</v>
       </c>
       <c r="N70" t="n">
-        <v>9.857897712811111e-06</v>
+        <v>9.857897712811113e-05</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
@@ -3857,16 +3857,16 @@
         <v>0.53</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0252046368</v>
+        <v>0.252046368</v>
       </c>
       <c r="F71" t="n">
         <v>4.77</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1375139588053078</v>
+        <v>1.375139588053078</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02882892218140624</v>
+        <v>0.2882892218140624</v>
       </c>
       <c r="I71" t="n">
         <v>26.1</v>
@@ -3884,7 +3884,7 @@
         <v>0.045077960246666</v>
       </c>
       <c r="N71" t="n">
-        <v>1.058923530812394e-05</v>
+        <v>0.0001058923530812394</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
@@ -3905,16 +3905,16 @@
         <v>0.55</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0260322084</v>
+        <v>0.260322084</v>
       </c>
       <c r="F72" t="n">
         <v>4.95</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1343960639013871</v>
+        <v>1.343960639013871</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02715071998007821</v>
+        <v>0.2715071998007821</v>
       </c>
       <c r="I72" t="n">
         <v>26.1</v>
@@ -3932,7 +3932,7 @@
         <v>0.04508394947206822</v>
       </c>
       <c r="N72" t="n">
-        <v>1.08308969140759e-05</v>
+        <v>0.000108308969140759</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
@@ -3953,16 +3953,16 @@
         <v>0.58</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0266565168</v>
+        <v>0.266565168</v>
       </c>
       <c r="F73" t="n">
         <v>5.22</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1261741688060872</v>
+        <v>1.261741688060872</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02417129670614697</v>
+        <v>0.2417129670614697</v>
       </c>
       <c r="I73" t="n">
         <v>26.1</v>
@@ -3980,7 +3980,7 @@
         <v>0.04509334762467742</v>
       </c>
       <c r="N73" t="n">
-        <v>1.101388183892137e-05</v>
+        <v>0.0001101388183892137</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
@@ -4001,16 +4001,16 @@
         <v>0.61</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0298216152</v>
+        <v>0.298216152</v>
       </c>
       <c r="F74" t="n">
         <v>5.49</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1233550335201606</v>
+        <v>1.233550335201606</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02246904071405475</v>
+        <v>0.2246904071405475</v>
       </c>
       <c r="I74" t="n">
         <v>26.1</v>
@@ -4028,7 +4028,7 @@
         <v>0.04510324267721779</v>
       </c>
       <c r="N74" t="n">
-        <v>1.195032481202116e-05</v>
+        <v>0.0001195032481202116</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
@@ -4049,16 +4049,16 @@
         <v>0.64</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0316074276</v>
+        <v>0.316074276</v>
       </c>
       <c r="F75" t="n">
         <v>5.76</v>
       </c>
       <c r="G75" t="n">
-        <v>0.111213381828675</v>
+        <v>1.11213381828675</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01930787878970053</v>
+        <v>0.1930787878970052</v>
       </c>
       <c r="I75" t="n">
         <v>26.1</v>
@@ -4076,7 +4076,7 @@
         <v>0.04511363430272494</v>
       </c>
       <c r="N75" t="n">
-        <v>1.248484337708273e-05</v>
+        <v>0.0001248484337708273</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -4097,16 +4097,16 @@
         <v>0.71</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0344676312</v>
+        <v>0.344676312</v>
       </c>
       <c r="F76" t="n">
         <v>6.39</v>
       </c>
       <c r="G76" t="n">
-        <v>0.07543733568531177</v>
+        <v>0.7543733568531177</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01180552984120685</v>
+        <v>0.1180552984120685</v>
       </c>
       <c r="I76" t="n">
         <v>26.1</v>
@@ -4124,7 +4124,7 @@
         <v>0.04513981058888041</v>
       </c>
       <c r="N76" t="n">
-        <v>1.334945501797767e-05</v>
+        <v>0.0001334945501797767</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
@@ -4145,16 +4145,16 @@
         <v>0.23</v>
       </c>
       <c r="E77" t="n">
-        <v>0.007753039199999999</v>
+        <v>0.07753039199999999</v>
       </c>
       <c r="F77" t="n">
         <v>2.07</v>
       </c>
       <c r="G77" t="n">
-        <v>0.07794205117988379</v>
+        <v>0.7794205117988379</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03765316482119989</v>
+        <v>0.3765316482119989</v>
       </c>
       <c r="I77" t="n">
         <v>26.1</v>
@@ -4172,7 +4172,7 @@
         <v>0.04501469204604204</v>
       </c>
       <c r="N77" t="n">
-        <v>5.508256930259358e-06</v>
+        <v>5.508256930259357e-05</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -4193,16 +4193,16 @@
         <v>0.33</v>
       </c>
       <c r="E78" t="n">
-        <v>0.013938048</v>
+        <v>0.13938048</v>
       </c>
       <c r="F78" t="n">
         <v>2.97</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1139938988230136</v>
+        <v>1.139938988230136</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03838178411549278</v>
+        <v>0.3838178411549278</v>
       </c>
       <c r="I78" t="n">
         <v>26.1</v>
@@ -4220,7 +4220,7 @@
         <v>0.04503023983946788</v>
       </c>
       <c r="N78" t="n">
-        <v>7.381377475667859e-06</v>
+        <v>7.381377475667859e-05</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -4293,16 +4293,16 @@
         <v>0.13</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00337609188</v>
+        <v>0.0337609188</v>
       </c>
       <c r="F80" t="n">
         <v>1.2389</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04048073246006571</v>
+        <v>0.4048073246006572</v>
       </c>
       <c r="H80" t="n">
-        <v>0.03267473763828051</v>
+        <v>0.326747376382805</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
@@ -4320,7 +4320,7 @@
         <v>0.04765443316208891</v>
       </c>
       <c r="N80" t="n">
-        <v>3.596301638584569e-06</v>
+        <v>3.596301638584569e-05</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
@@ -4341,16 +4341,16 @@
         <v>0.16</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0048329946</v>
+        <v>0.048329946</v>
       </c>
       <c r="F81" t="n">
         <v>1.5248</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05572271221183083</v>
+        <v>0.5572271221183084</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03654427610954279</v>
+        <v>0.3654427610954278</v>
       </c>
       <c r="I81" t="n">
         <v>25</v>
@@ -4368,7 +4368,7 @@
         <v>0.04765671516166426</v>
       </c>
       <c r="N81" t="n">
-        <v>4.362385959469624e-06</v>
+        <v>4.362385959469624e-05</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
@@ -4389,16 +4389,16 @@
         <v>0.21</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00741059172</v>
+        <v>0.0741059172</v>
       </c>
       <c r="F82" t="n">
         <v>2.0013</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07853477744127005</v>
+        <v>0.7853477744127004</v>
       </c>
       <c r="H82" t="n">
-        <v>0.03924188149766155</v>
+        <v>0.3924188149766155</v>
       </c>
       <c r="I82" t="n">
         <v>25</v>
@@ -4416,7 +4416,7 @@
         <v>0.047661567326306</v>
       </c>
       <c r="N82" t="n">
-        <v>5.38630247871673e-06</v>
+        <v>5.38630247871673e-05</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
@@ -4437,16 +4437,16 @@
         <v>0.25</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009399824279999998</v>
+        <v>0.09399824279999999</v>
       </c>
       <c r="F83" t="n">
         <v>2.3825</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09351299319309604</v>
+        <v>0.9351299319309605</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03924994467706025</v>
+        <v>0.3924994467706026</v>
       </c>
       <c r="I83" t="n">
         <v>25</v>
@@ -4464,7 +4464,7 @@
         <v>0.04766639277310587</v>
       </c>
       <c r="N83" t="n">
-        <v>6.044625848986535e-06</v>
+        <v>6.044625848986535e-05</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
@@ -4485,16 +4485,16 @@
         <v>0.28</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01510135704</v>
+        <v>0.1510135704</v>
       </c>
       <c r="F84" t="n">
         <v>2.6684</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1429595011727828</v>
+        <v>1.429595011727829</v>
       </c>
       <c r="H84" t="n">
-        <v>0.05357498919681563</v>
+        <v>0.5357498919681565</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -4512,7 +4512,7 @@
         <v>0.04767056219513254</v>
       </c>
       <c r="N84" t="n">
-        <v>7.745723469299574e-06</v>
+        <v>7.745723469299575e-05</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
@@ -4533,16 +4533,16 @@
         <v>0.34</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01361643696</v>
+        <v>0.1361643696</v>
       </c>
       <c r="F85" t="n">
         <v>3.2402</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1160690694459536</v>
+        <v>1.160690694459536</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03582157565766114</v>
+        <v>0.3582157565766113</v>
       </c>
       <c r="I85" t="n">
         <v>25</v>
@@ -4560,7 +4560,7 @@
         <v>0.04768031564492836</v>
       </c>
       <c r="N85" t="n">
-        <v>7.312195408049542e-06</v>
+        <v>7.312195408049543e-05</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
@@ -4581,16 +4581,16 @@
         <v>0.38</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01633412088</v>
+        <v>0.1633412088</v>
       </c>
       <c r="F86" t="n">
         <v>3.6214</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1289720874540985</v>
+        <v>1.289720874540985</v>
       </c>
       <c r="H86" t="n">
-        <v>0.03561387514610332</v>
+        <v>0.3561387514610331</v>
       </c>
       <c r="I86" t="n">
         <v>25</v>
@@ -4608,7 +4608,7 @@
         <v>0.04768786533280767</v>
       </c>
       <c r="N86" t="n">
-        <v>8.105294333873129e-06</v>
+        <v>8.105294333873126e-05</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -4629,16 +4629,16 @@
         <v>0.43</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01867357044</v>
+        <v>0.1867357044</v>
       </c>
       <c r="F87" t="n">
         <v>4.0979</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1331689863830518</v>
+        <v>1.331689863830518</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03249688532737544</v>
+        <v>0.3249688532737545</v>
       </c>
       <c r="I87" t="n">
         <v>25</v>
@@ -4656,7 +4656,7 @@
         <v>0.04769848005964131</v>
       </c>
       <c r="N87" t="n">
-        <v>8.790692274016673e-06</v>
+        <v>8.790692274016674e-05</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
@@ -4677,16 +4677,16 @@
         <v>0.47</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01986430824</v>
+        <v>0.1986430824</v>
       </c>
       <c r="F88" t="n">
         <v>4.4791</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1316757418027514</v>
+        <v>1.316757418027514</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02939781246293929</v>
+        <v>0.2939781246293929</v>
       </c>
       <c r="I88" t="n">
         <v>25</v>
@@ -4704,7 +4704,7 @@
         <v>0.04770791338970926</v>
       </c>
       <c r="N88" t="n">
-        <v>9.142142005772111e-06</v>
+        <v>9.14214200577211e-05</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -4725,16 +4725,16 @@
         <v>0.52</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02394083412</v>
+        <v>0.2394083412</v>
       </c>
       <c r="F89" t="n">
         <v>4.9556</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1388921370669364</v>
+        <v>1.388921370669364</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02802730992552596</v>
+        <v>0.2802730992552596</v>
       </c>
       <c r="I89" t="n">
         <v>25</v>
@@ -4752,7 +4752,7 @@
         <v>0.04772088117375872</v>
       </c>
       <c r="N89" t="n">
-        <v>1.036238152248013e-05</v>
+        <v>0.0001036238152248013</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
@@ -4773,16 +4773,16 @@
         <v>0.57</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0252856674</v>
+        <v>0.2528566739999999</v>
       </c>
       <c r="F90" t="n">
         <v>5.432099999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1270996271119279</v>
+        <v>1.270996271119279</v>
       </c>
       <c r="H90" t="n">
-        <v>0.02339788058245023</v>
+        <v>0.2339788058245023</v>
       </c>
       <c r="I90" t="n">
         <v>25</v>
@@ -4800,7 +4800,7 @@
         <v>0.04773515476040693</v>
       </c>
       <c r="N90" t="n">
-        <v>1.07710161015348e-05</v>
+        <v>0.000107710161015348</v>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
@@ -4821,16 +4821,16 @@
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0264063618</v>
+        <v>0.264063618</v>
       </c>
       <c r="F91" t="n">
         <v>5.717999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1194595664240364</v>
+        <v>1.194595664240364</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0208918444253299</v>
+        <v>0.208918444253299</v>
       </c>
       <c r="I91" t="n">
         <v>25</v>
@@ -4848,7 +4848,7 @@
         <v>0.04774434521490476</v>
       </c>
       <c r="N91" t="n">
-        <v>1.111381613507411e-05</v>
+        <v>0.0001111381613507411</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -4869,16 +4869,16 @@
         <v>0.61</v>
       </c>
       <c r="E92" t="n">
-        <v>0.02807339472</v>
+        <v>0.2807339472</v>
       </c>
       <c r="F92" t="n">
         <v>5.8133</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1170055930141468</v>
+        <v>1.170055930141468</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02012722429844439</v>
+        <v>0.2012722429844439</v>
       </c>
       <c r="I92" t="n">
         <v>25</v>
@@ -4896,7 +4896,7 @@
         <v>0.04774751302424034</v>
       </c>
       <c r="N92" t="n">
-        <v>1.16274269038896e-05</v>
+        <v>0.000116274269038896</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
@@ -4917,16 +4917,16 @@
         <v>0.63</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02922210648</v>
+        <v>0.2922210648</v>
       </c>
       <c r="F93" t="n">
         <v>6.0039</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1113887987818505</v>
+        <v>1.113887987818505</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01855274051563992</v>
+        <v>0.1855274051563992</v>
       </c>
       <c r="I93" t="n">
         <v>25</v>
@@ -4944,7 +4944,7 @@
         <v>0.04775400506763804</v>
       </c>
       <c r="N93" t="n">
-        <v>1.19838148302019e-05</v>
+        <v>0.000119838148302019</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -4965,16 +4965,16 @@
         <v>0.64</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03017469672</v>
+        <v>0.3017469672</v>
       </c>
       <c r="F94" t="n">
         <v>6.0992</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1058562095195015</v>
+        <v>1.058562095195014</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01735575313475562</v>
+        <v>0.1735575313475561</v>
       </c>
       <c r="I94" t="n">
         <v>25</v>
@@ -4992,7 +4992,7 @@
         <v>0.04775732928043611</v>
       </c>
       <c r="N94" t="n">
-        <v>1.22808196419885e-05</v>
+        <v>0.000122808196419885</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
@@ -5013,16 +5013,16 @@
         <v>0.65</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03196780775999999</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F95" t="n">
         <v>6.1945</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1014341283102886</v>
+        <v>1.014341283102886</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01637486936964866</v>
+        <v>0.1637486936964866</v>
       </c>
       <c r="I95" t="n">
         <v>25</v>
@@ -5040,7 +5040,7 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N95" t="n">
-        <v>1.284331223211134e-05</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
@@ -5061,16 +5061,16 @@
         <v>0.65</v>
       </c>
       <c r="E96" t="n">
-        <v>0.03171565152</v>
+        <v>0.3171565152</v>
       </c>
       <c r="F96" t="n">
         <v>6.1945</v>
       </c>
       <c r="G96" t="n">
-        <v>0.09532002598022063</v>
+        <v>0.9532002598022061</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01538784824928899</v>
+        <v>0.1538784824928899</v>
       </c>
       <c r="I96" t="n">
         <v>25</v>
@@ -5088,7 +5088,7 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N96" t="n">
-        <v>1.276395036888439e-05</v>
+        <v>0.0001276395036888439</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
@@ -5109,16 +5109,16 @@
         <v>0.67</v>
       </c>
       <c r="E97" t="n">
-        <v>0.03196780775999999</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F97" t="n">
         <v>6.3851</v>
       </c>
       <c r="G97" t="n">
-        <v>0.08670441990879457</v>
+        <v>0.8670441990879458</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01357917963834467</v>
+        <v>0.1357917963834468</v>
       </c>
       <c r="I97" t="n">
         <v>25</v>
@@ -5136,7 +5136,7 @@
         <v>0.04776761455212097</v>
       </c>
       <c r="N97" t="n">
-        <v>1.284331223211134e-05</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
@@ -5157,16 +5157,16 @@
         <v>0.67</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03219194664</v>
+        <v>0.3219194664</v>
       </c>
       <c r="F98" t="n">
         <v>6.3851</v>
       </c>
       <c r="G98" t="n">
-        <v>0.07180512797897483</v>
+        <v>0.7180512797897481</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01124573271819938</v>
+        <v>0.1124573271819937</v>
       </c>
       <c r="I98" t="n">
         <v>25</v>
@@ -5184,7 +5184,7 @@
         <v>0.04776761455212097</v>
       </c>
       <c r="N98" t="n">
-        <v>1.291392592826697e-05</v>
+        <v>0.0001291392592826697</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -5205,16 +5205,16 @@
         <v>0.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0373925808</v>
+        <v>0.373925808</v>
       </c>
       <c r="F99" t="n">
         <v>8</v>
       </c>
       <c r="G99" t="n">
-        <v>0.08223057999802992</v>
+        <v>0.8223057999802992</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01027882249975374</v>
+        <v>0.1027882249975374</v>
       </c>
       <c r="I99" t="n">
         <v>26.1</v>
@@ -5232,7 +5232,7 @@
         <v>0.0501597448159378</v>
       </c>
       <c r="N99" t="n">
-        <v>1.444780074480226e-05</v>
+        <v>0.0001444780074480226</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5257,16 +5257,16 @@
         <v>0.63</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0289167408</v>
+        <v>0.289167408</v>
       </c>
       <c r="F100" t="n">
         <v>6.3</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1362669306945604</v>
+        <v>1.362669306945604</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02162967153881911</v>
+        <v>0.2162967153881911</v>
       </c>
       <c r="I100" t="n">
         <v>26.1</v>
@@ -5284,7 +5284,7 @@
         <v>0.05009912673889635</v>
       </c>
       <c r="N100" t="n">
-        <v>1.177563481303008e-05</v>
+        <v>0.0001177563481303008</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
@@ -5305,16 +5305,16 @@
         <v>0.57</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0248200848</v>
+        <v>0.248200848</v>
       </c>
       <c r="F101" t="n">
         <v>5.699999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1429534261267854</v>
+        <v>1.429534261267854</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02507954844329569</v>
+        <v>0.2507954844329569</v>
       </c>
       <c r="I101" t="n">
         <v>26.1</v>
@@ -5332,7 +5332,7 @@
         <v>0.05008115913195301</v>
       </c>
       <c r="N101" t="n">
-        <v>1.051491741838504e-05</v>
+        <v>0.0001051491741838504</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
@@ -5353,16 +5353,16 @@
         <v>0.52</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0225598608</v>
+        <v>0.225598608</v>
       </c>
       <c r="F102" t="n">
         <v>5.2</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1441102490090863</v>
+        <v>1.441102490090863</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02771350942482428</v>
+        <v>0.2771350942482429</v>
       </c>
       <c r="I102" t="n">
         <v>26.1</v>
@@ -5380,7 +5380,7 @@
         <v>0.05006755436407894</v>
       </c>
       <c r="N102" t="n">
-        <v>9.828835796959464e-06</v>
+        <v>9.828835796959465e-05</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
@@ -5392,7 +5392,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="C103" t="n">
         <v>65</v>
@@ -5401,16 +5401,16 @@
         <v>0.5</v>
       </c>
       <c r="E103" t="n">
-        <v>0.03569741279999999</v>
+        <v>0.215710128</v>
       </c>
       <c r="F103" t="n">
         <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2429845812433915</v>
+        <v>1.46829226576438</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0485969162486783</v>
+        <v>0.293658453152876</v>
       </c>
       <c r="I103" t="n">
         <v>26.1</v>
@@ -5428,7 +5428,7 @@
         <v>0.05006246098625197</v>
       </c>
       <c r="N103" t="n">
-        <v>1.390727151115939e-05</v>
+        <v>9.530742574068222e-05</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
@@ -5449,16 +5449,16 @@
         <v>0.49</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0204409008</v>
+        <v>0.204409008</v>
       </c>
       <c r="F104" t="n">
         <v>4.9</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1434179304554843</v>
+        <v>1.434179304554842</v>
       </c>
       <c r="H104" t="n">
-        <v>0.02926896539907842</v>
+        <v>0.2926896539907841</v>
       </c>
       <c r="I104" t="n">
         <v>26.1</v>
@@ -5476,7 +5476,7 @@
         <v>0.05005998901318298</v>
       </c>
       <c r="N104" t="n">
-        <v>9.191496572416855e-06</v>
+        <v>9.191496572416854e-05</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
@@ -5497,16 +5497,16 @@
         <v>0.48</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0198758448</v>
+        <v>0.198758448</v>
       </c>
       <c r="F105" t="n">
         <v>4.8</v>
       </c>
       <c r="G105" t="n">
-        <v>0.143616158417413</v>
+        <v>1.43616158417413</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02992003300362772</v>
+        <v>0.2992003300362772</v>
       </c>
       <c r="I105" t="n">
         <v>26.1</v>
@@ -5524,7 +5524,7 @@
         <v>0.05005756686056565</v>
       </c>
       <c r="N105" t="n">
-        <v>9.022400269454442e-06</v>
+        <v>9.022400269454441e-05</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
@@ -5545,16 +5545,16 @@
         <v>0.47</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0191695248</v>
+        <v>0.191695248</v>
       </c>
       <c r="F106" t="n">
         <v>4.699999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1425273839399534</v>
+        <v>1.425273839399534</v>
       </c>
       <c r="H106" t="n">
-        <v>0.03032497530637307</v>
+        <v>0.3032497530637306</v>
       </c>
       <c r="I106" t="n">
         <v>26.1</v>
@@ -5572,7 +5572,7 @@
         <v>0.05005519453563236</v>
       </c>
       <c r="N106" t="n">
-        <v>8.811470007620376e-06</v>
+        <v>8.811470007620374e-05</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
@@ -5593,16 +5593,16 @@
         <v>0.45</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0184632048</v>
+        <v>0.184632048</v>
       </c>
       <c r="F107" t="n">
         <v>4.5</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1392092845473691</v>
+        <v>1.392092845473691</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03093539656608203</v>
+        <v>0.3093539656608203</v>
       </c>
       <c r="I107" t="n">
         <v>26.1</v>
@@ -5620,7 +5620,7 @@
         <v>0.05005059939701022</v>
       </c>
       <c r="N107" t="n">
-        <v>8.600963974014387e-06</v>
+        <v>8.600963974014389e-05</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -5641,16 +5641,16 @@
         <v>0.44</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0174743568</v>
+        <v>0.174743568</v>
       </c>
       <c r="F108" t="n">
         <v>4.4</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1390731877376867</v>
+        <v>1.390731877376867</v>
       </c>
       <c r="H108" t="n">
-        <v>0.03160754266765606</v>
+        <v>0.3160754266765606</v>
       </c>
       <c r="I108" t="n">
         <v>26.1</v>
@@ -5668,7 +5668,7 @@
         <v>0.05004837659704858</v>
       </c>
       <c r="N108" t="n">
-        <v>8.306797879109174e-06</v>
+        <v>8.306797879109174e-05</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -5689,16 +5689,16 @@
         <v>0.43</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0171918288</v>
+        <v>0.171918288</v>
       </c>
       <c r="F109" t="n">
         <v>4.3</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1386249558536238</v>
+        <v>1.386249558536238</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03223836182642414</v>
+        <v>0.3223836182642414</v>
       </c>
       <c r="I109" t="n">
         <v>26.1</v>
@@ -5716,7 +5716,7 @@
         <v>0.0500462036522252</v>
       </c>
       <c r="N109" t="n">
-        <v>8.222829300503518e-06</v>
+        <v>8.222829300503518e-05</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
@@ -5737,16 +5737,16 @@
         <v>0.42</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0166267728</v>
+        <v>0.166267728</v>
       </c>
       <c r="F110" t="n">
         <v>4.2</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1358098229316052</v>
+        <v>1.358098229316051</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03233567212657266</v>
+        <v>0.3233567212657265</v>
       </c>
       <c r="I110" t="n">
         <v>26.1</v>
@@ -5764,7 +5764,7 @@
         <v>0.05004408056903435</v>
       </c>
       <c r="N110" t="n">
-        <v>8.054940879112901e-06</v>
+        <v>8.0549408791129e-05</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
@@ -5785,16 +5785,16 @@
         <v>0.39</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0146490768</v>
+        <v>0.146490768</v>
       </c>
       <c r="F111" t="n">
         <v>3.9</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1257919142884573</v>
+        <v>1.257919142884573</v>
       </c>
       <c r="H111" t="n">
-        <v>0.03225433699704033</v>
+        <v>0.3225433699704033</v>
       </c>
       <c r="I111" t="n">
         <v>26.1</v>
@@ -5812,7 +5812,7 @@
         <v>0.05003801055197939</v>
       </c>
       <c r="N111" t="n">
-        <v>7.466611576101878e-06</v>
+        <v>7.466611576101878e-05</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -5833,16 +5833,16 @@
         <v>0.28</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0082921968</v>
+        <v>0.082921968</v>
       </c>
       <c r="F112" t="n">
         <v>2.8</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0850989681934026</v>
+        <v>0.8509896819340258</v>
       </c>
       <c r="H112" t="n">
-        <v>0.03039248864050093</v>
+        <v>0.3039248864050092</v>
       </c>
       <c r="I112" t="n">
         <v>26.1</v>
@@ -5860,7 +5860,7 @@
         <v>0.05001959615990517</v>
       </c>
       <c r="N112" t="n">
-        <v>5.476492133277181e-06</v>
+        <v>5.47649213327718e-05</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
@@ -5881,16 +5881,16 @@
         <v>0.17</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0029241648</v>
+        <v>0.029241648</v>
       </c>
       <c r="F113" t="n">
         <v>1.7</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03552126732712135</v>
+        <v>0.3552126732712135</v>
       </c>
       <c r="H113" t="n">
-        <v>0.02089486313360079</v>
+        <v>0.2089486313360079</v>
       </c>
       <c r="I113" t="n">
         <v>26.1</v>
@@ -5908,7 +5908,7 @@
         <v>0.05000722447806917</v>
       </c>
       <c r="N113" t="n">
-        <v>3.04131703262001e-06</v>
+        <v>3.04131703262001e-05</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -5929,16 +5929,16 @@
         <v>0.13</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0012289968</v>
+        <v>0.012289968</v>
       </c>
       <c r="F114" t="n">
         <v>1.3</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0155727295166003</v>
+        <v>0.155727295166003</v>
       </c>
       <c r="H114" t="n">
-        <v>0.01197902270507716</v>
+        <v>0.1197902270507716</v>
       </c>
       <c r="I114" t="n">
         <v>26.1</v>
@@ -5956,7 +5956,7 @@
         <v>0.05000422482150884</v>
       </c>
       <c r="N114" t="n">
-        <v>1.632401443759565e-06</v>
+        <v>1.632401443759565e-05</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
@@ -5977,16 +5977,16 @@
         <v>0.12</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0003814127999999999</v>
+        <v>0.003814127999999999</v>
       </c>
       <c r="F115" t="n">
         <v>1.2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.004912798966906962</v>
+        <v>0.04912798966906962</v>
       </c>
       <c r="H115" t="n">
-        <v>0.004093999139089135</v>
+        <v>0.04093999139089136</v>
       </c>
       <c r="I115" t="n">
         <v>26.1</v>
@@ -6004,7 +6004,7 @@
         <v>0.05000359987040934</v>
       </c>
       <c r="N115" t="n">
-        <v>5.928788559003939e-07</v>
+        <v>5.928788559003939e-06</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
@@ -6025,16 +6025,16 @@
         <v>0.11</v>
       </c>
       <c r="E116" t="n">
-        <v>-4.23792000000001e-05</v>
+        <v>-0.000423792000000001</v>
       </c>
       <c r="F116" t="n">
         <v>1.1</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.0005503044913247199</v>
+        <v>-0.005503044913247199</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.0005002768102951999</v>
+        <v>-0.005002768102951999</v>
       </c>
       <c r="I116" t="n">
         <v>26.1</v>
@@ -6052,7 +6052,7 @@
         <v>0.05000302490849928</v>
       </c>
       <c r="N116" t="n">
-        <v>-7.214853185616478e-08</v>
+        <v>-7.21485318561648e-07</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
@@ -6073,16 +6073,16 @@
         <v>0.1</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.0006074352000000001</v>
+        <v>-0.006074352000000001</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.007951308174382696</v>
+        <v>-0.07951308174382696</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.007951308174382696</v>
+        <v>-0.07951308174382696</v>
       </c>
       <c r="I117" t="n">
         <v>26.1</v>
@@ -6100,7 +6100,7 @@
         <v>0.05000249993750312</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.187032846924242e-06</v>
+        <v>-1.187032846924242e-05</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -6121,16 +6121,16 @@
         <v>0.24</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0070208208</v>
+        <v>0.07020820800000001</v>
       </c>
       <c r="F118" t="n">
         <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.07719795666607646</v>
+        <v>0.7719795666607646</v>
       </c>
       <c r="H118" t="n">
-        <v>0.03216581527753186</v>
+        <v>0.3216581527753186</v>
       </c>
       <c r="I118" t="n">
         <v>26.1</v>
@@ -6148,7 +6148,7 @@
         <v>0.05001439792699698</v>
       </c>
       <c r="N118" t="n">
-        <v>5.0197065446492e-06</v>
+        <v>5.0197065446492e-05</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
@@ -6169,16 +6169,16 @@
         <v>0.11</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0025461855</v>
+        <v>0.025461855</v>
       </c>
       <c r="F119" t="n">
         <v>1.155</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03412939802230124</v>
+        <v>0.3412939802230124</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02954926235697077</v>
+        <v>0.2954926235697077</v>
       </c>
       <c r="I119" t="n">
         <v>26.1</v>
@@ -6196,7 +6196,7 @@
         <v>0.05250288087333875</v>
       </c>
       <c r="N119" t="n">
-        <v>3.340468633674301e-06</v>
+        <v>3.340468633674301e-05</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -6221,16 +6221,16 @@
         <v>0.52</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.0002987145000000002</v>
+        <v>-0.002987145000000002</v>
       </c>
       <c r="F120" t="n">
         <v>5.46</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.00224286987614259</v>
+        <v>-0.0224286987614259</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.0004107820285975439</v>
+        <v>-0.004107820285975439</v>
       </c>
       <c r="I120" t="n">
         <v>26.1</v>
@@ -6248,7 +6248,7 @@
         <v>0.05256434152541056</v>
       </c>
       <c r="N120" t="n">
-        <v>-7.728297775509037e-07</v>
+        <v>-7.728297775509038e-06</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
@@ -6269,16 +6269,16 @@
         <v>0.58</v>
       </c>
       <c r="E121" t="n">
-        <v>5.689799999999979e-05</v>
+        <v>0.0005689799999999979</v>
       </c>
       <c r="F121" t="n">
         <v>6.09</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0003831215595031358</v>
+        <v>0.003831215595031358</v>
       </c>
       <c r="H121" t="n">
-        <v>6.290994408918487e-05</v>
+        <v>0.0006290994408918487</v>
       </c>
       <c r="I121" t="n">
         <v>26.1</v>
@@ -6296,7 +6296,7 @@
         <v>0.05258003423353774</v>
       </c>
       <c r="N121" t="n">
-        <v>1.307935814540861e-07</v>
+        <v>1.307935814540861e-06</v>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -6317,16 +6317,16 @@
         <v>0.67</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0004836329999999997</v>
+        <v>0.004836329999999997</v>
       </c>
       <c r="F122" t="n">
         <v>7.035</v>
       </c>
       <c r="G122" t="n">
-        <v>0.002547490245187655</v>
+        <v>0.02547490245187655</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0003621165949094036</v>
+        <v>0.003621165949094037</v>
       </c>
       <c r="I122" t="n">
         <v>26.1</v>
@@ -6344,7 +6344,7 @@
         <v>0.05260677237770817</v>
       </c>
       <c r="N122" t="n">
-        <v>9.815374407815519e-07</v>
+        <v>9.81537440781552e-06</v>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
@@ -6365,16 +6365,16 @@
         <v>0.73</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0007681229999999997</v>
+        <v>0.007681229999999997</v>
       </c>
       <c r="F123" t="n">
         <v>7.665</v>
       </c>
       <c r="G123" t="n">
-        <v>0.00331403128142527</v>
+        <v>0.0331403128142527</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0004323589408252145</v>
+        <v>0.004323589408252146</v>
       </c>
       <c r="I123" t="n">
         <v>26.1</v>
@@ -6392,7 +6392,7 @@
         <v>0.05262672800013317</v>
       </c>
       <c r="N123" t="n">
-        <v>1.446900176031504e-06</v>
+        <v>1.446900176031504e-05</v>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -6413,16 +6413,16 @@
         <v>0.23</v>
       </c>
       <c r="E124" t="n">
-        <v>0.008378230499999998</v>
+        <v>0.08378230499999999</v>
       </c>
       <c r="F124" t="n">
         <v>2.415</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1007216450747882</v>
+        <v>1.007216450747882</v>
       </c>
       <c r="H124" t="n">
-        <v>0.04170668533117523</v>
+        <v>0.4170668533117524</v>
       </c>
       <c r="I124" t="n">
         <v>26.1</v>
@@ -6440,7 +6440,7 @@
         <v>0.05251259372760023</v>
       </c>
       <c r="N124" t="n">
-        <v>5.952045253191382e-06</v>
+        <v>5.952045253191382e-05</v>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
@@ -6461,16 +6461,16 @@
         <v>0.29</v>
       </c>
       <c r="E125" t="n">
-        <v>0.011863233</v>
+        <v>0.11863233</v>
       </c>
       <c r="F125" t="n">
         <v>3.045</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1269645781490591</v>
+        <v>1.269645781490591</v>
       </c>
       <c r="H125" t="n">
-        <v>0.04169608477801613</v>
+        <v>0.4169608477801613</v>
       </c>
       <c r="I125" t="n">
         <v>26.1</v>
@@ -6488,7 +6488,7 @@
         <v>0.05252001999238005</v>
       </c>
       <c r="N125" t="n">
-        <v>6.974768222532194e-06</v>
+        <v>6.974768222532194e-05</v>
       </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -6509,16 +6509,16 @@
         <v>0.35</v>
       </c>
       <c r="E126" t="n">
-        <v>0.014992623</v>
+        <v>0.14992623</v>
       </c>
       <c r="F126" t="n">
         <v>3.675</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1466402237756728</v>
+        <v>1.466402237756728</v>
       </c>
       <c r="H126" t="n">
-        <v>0.03990210170766607</v>
+        <v>0.3990210170766607</v>
       </c>
       <c r="I126" t="n">
         <v>26.1</v>
@@ -6536,7 +6536,7 @@
         <v>0.05252915856931273</v>
       </c>
       <c r="N126" t="n">
-        <v>7.846548979237314e-06</v>
+        <v>7.846548979237314e-05</v>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
@@ -6557,16 +6557,16 @@
         <v>0.41</v>
       </c>
       <c r="E127" t="n">
-        <v>0.018264258</v>
+        <v>0.18264258</v>
       </c>
       <c r="F127" t="n">
         <v>4.305</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1673550047052001</v>
+        <v>1.673550047052001</v>
       </c>
       <c r="H127" t="n">
-        <v>0.03887456555289201</v>
+        <v>0.3887456555289202</v>
       </c>
       <c r="I127" t="n">
         <v>26.1</v>
@@ -6584,7 +6584,7 @@
         <v>0.05254000856490224</v>
       </c>
       <c r="N127" t="n">
-        <v>8.759557469632585e-06</v>
+        <v>8.759557469632585e-05</v>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
@@ -6605,16 +6605,16 @@
         <v>0.44</v>
       </c>
       <c r="E128" t="n">
-        <v>0.019828953</v>
+        <v>0.19828953</v>
       </c>
       <c r="F128" t="n">
         <v>4.62</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1758781187766039</v>
+        <v>1.758781187766039</v>
       </c>
       <c r="H128" t="n">
-        <v>0.03806885687805279</v>
+        <v>0.3806885687805278</v>
       </c>
       <c r="I128" t="n">
         <v>26.1</v>
@@ -6632,7 +6632,7 @@
         <v>0.05254607501992894</v>
       </c>
       <c r="N128" t="n">
-        <v>9.201851210681665e-06</v>
+        <v>9.201851210681664e-05</v>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
@@ -6653,16 +6653,16 @@
         <v>0.6</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0297149805</v>
+        <v>0.297149805</v>
       </c>
       <c r="F129" t="n">
         <v>6.3</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1829706343031133</v>
+        <v>1.829706343031134</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02904295782589101</v>
+        <v>0.2904295782589102</v>
       </c>
       <c r="I129" t="n">
         <v>26.1</v>
@@ -6680,7 +6680,7 @@
         <v>0.0525856444288743</v>
       </c>
       <c r="N129" t="n">
-        <v>1.210535342889649e-05</v>
+        <v>0.0001210535342889649</v>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.044152848</v>
+        <v>0.4415284799999999</v>
       </c>
       <c r="F130" t="n">
         <v>10.5</v>
@@ -6728,7 +6728,7 @@
         <v>0.05273755777432246</v>
       </c>
       <c r="N130" t="n">
-        <v>1.661386366098395e-05</v>
+        <v>0.0001661386366098395</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
@@ -6749,16 +6749,16 @@
         <v>0.8</v>
       </c>
       <c r="E131" t="n">
-        <v>0.039601008</v>
+        <v>0.39601008</v>
       </c>
       <c r="F131" t="n">
         <v>8.4</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1098957082966697</v>
+        <v>1.098957082966697</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0130828224162702</v>
+        <v>0.130828224162702</v>
       </c>
       <c r="I131" t="n">
         <v>26.1</v>
@@ -6776,7 +6776,7 @@
         <v>0.05265216044950102</v>
       </c>
       <c r="N131" t="n">
-        <v>1.516691940041299e-05</v>
+        <v>0.0001516691940041299</v>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
@@ -6797,16 +6797,16 @@
         <v>0.15</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004594513499999999</v>
+        <v>0.04594513499999999</v>
       </c>
       <c r="F132" t="n">
         <v>1.575</v>
       </c>
       <c r="G132" t="n">
-        <v>0.06033449560819195</v>
+        <v>0.6033449560819195</v>
       </c>
       <c r="H132" t="n">
-        <v>0.03830761625916949</v>
+        <v>0.3830761625916949</v>
       </c>
       <c r="I132" t="n">
         <v>26.1</v>
@@ -6824,7 +6824,7 @@
         <v>0.05250535686956141</v>
       </c>
       <c r="N132" t="n">
-        <v>4.547011198045831e-06</v>
+        <v>4.547011198045831e-05</v>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -6845,16 +6845,16 @@
         <v>0.31</v>
       </c>
       <c r="E133" t="n">
-        <v>0.013285683</v>
+        <v>0.13285683</v>
       </c>
       <c r="F133" t="n">
         <v>3.255</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1360665454009563</v>
+        <v>1.360665454009564</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0418023180955319</v>
+        <v>0.418023180955319</v>
       </c>
       <c r="I133" t="n">
         <v>26.1</v>
@@ -6872,7 +6872,7 @@
         <v>0.05252287596847682</v>
       </c>
       <c r="N133" t="n">
-        <v>7.372560337072019e-06</v>
+        <v>7.37256033707202e-05</v>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
@@ -6893,16 +6893,16 @@
         <v>0.61</v>
       </c>
       <c r="E134" t="n">
-        <v>0.031066308</v>
+        <v>0.31066308</v>
       </c>
       <c r="F134" t="n">
         <v>6.405</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1753505073599008</v>
+        <v>1.753505073599009</v>
       </c>
       <c r="H134" t="n">
-        <v>0.02737712839342714</v>
+        <v>0.2737712839342714</v>
       </c>
       <c r="I134" t="n">
         <v>26.1</v>
@@ -6920,7 +6920,7 @@
         <v>0.05258852061049066</v>
       </c>
       <c r="N134" t="n">
-        <v>1.251586105756037e-05</v>
+        <v>0.0001251586105756037</v>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="n">
@@ -6941,16 +6941,16 @@
         <v>0.85</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001479348</v>
+        <v>0.01479348</v>
       </c>
       <c r="F135" t="n">
         <v>8.924999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>0.003872924007418961</v>
+        <v>0.0387292400741896</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0004339410652570265</v>
+        <v>0.004339410652570264</v>
       </c>
       <c r="I135" t="n">
         <v>26.1</v>
@@ -6968,7 +6968,7 @@
         <v>0.05267174289882574</v>
       </c>
       <c r="N135" t="n">
-        <v>2.367101177284478e-06</v>
+        <v>2.367101177284477e-05</v>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
@@ -6989,16 +6989,16 @@
         <v>0.12</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.00100292535</v>
+        <v>-0.0100292535</v>
       </c>
       <c r="F136" t="n">
         <v>1.32</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.01412601005393772</v>
+        <v>-0.1412601005393772</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.01070152276813464</v>
+        <v>-0.1070152276813464</v>
       </c>
       <c r="I136" t="n">
         <v>25.8</v>
@@ -7016,7 +7016,7 @@
         <v>0.05500327262990812</v>
       </c>
       <c r="N136" t="n">
-        <v>-1.461478750632609e-06</v>
+        <v>-1.461478750632609e-05</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -7041,16 +7041,16 @@
         <v>0.73</v>
       </c>
       <c r="E137" t="n">
-        <v>0.033053554035</v>
+        <v>0.3305355403499999</v>
       </c>
       <c r="F137" t="n">
         <v>8.029999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1533382517380181</v>
+        <v>1.533382517380181</v>
       </c>
       <c r="H137" t="n">
-        <v>0.01909567269464734</v>
+        <v>0.1909567269464734</v>
       </c>
       <c r="I137" t="n">
         <v>25.8</v>
@@ -7068,7 +7068,7 @@
         <v>0.05512098057908622</v>
       </c>
       <c r="N137" t="n">
-        <v>1.28334011886687e-05</v>
+        <v>0.000128334011886687</v>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
@@ -7089,16 +7089,16 @@
         <v>0.145</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0003438601200000008</v>
+        <v>0.003438601200000008</v>
       </c>
       <c r="F138" t="n">
         <v>1.595</v>
       </c>
       <c r="G138" t="n">
-        <v>0.004695566762060925</v>
+        <v>0.04695566762060925</v>
       </c>
       <c r="H138" t="n">
-        <v>0.002943929004426912</v>
+        <v>0.02943929004426912</v>
       </c>
       <c r="I138" t="n">
         <v>25.8</v>
@@ -7116,7 +7116,7 @@
         <v>0.05500477820153447</v>
       </c>
       <c r="N138" t="n">
-        <v>4.022424762799585e-07</v>
+        <v>4.022424762799586e-06</v>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="n">
@@ -7137,16 +7137,16 @@
         <v>0.18</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0013539492225</v>
+        <v>0.013539492225</v>
       </c>
       <c r="F139" t="n">
         <v>1.98</v>
       </c>
       <c r="G139" t="n">
-        <v>0.01758136864705707</v>
+        <v>0.1758136864705707</v>
       </c>
       <c r="H139" t="n">
-        <v>0.008879479114675288</v>
+        <v>0.08879479114675289</v>
       </c>
       <c r="I139" t="n">
         <v>25.8</v>
@@ -7164,7 +7164,7 @@
         <v>0.05500736314349198</v>
       </c>
       <c r="N139" t="n">
-        <v>1.387856206794674e-06</v>
+        <v>1.387856206794674e-05</v>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="n">
@@ -7185,16 +7185,16 @@
         <v>0.21</v>
       </c>
       <c r="E140" t="n">
-        <v>0.002851173495</v>
+        <v>0.02851173495000001</v>
       </c>
       <c r="F140" t="n">
         <v>2.31</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03582890282400775</v>
+        <v>0.3582890282400774</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0155103475428605</v>
+        <v>0.1551034754286049</v>
       </c>
       <c r="I140" t="n">
         <v>25.8</v>
@@ -7212,7 +7212,7 @@
         <v>0.05501002181421128</v>
       </c>
       <c r="N140" t="n">
-        <v>2.491134462463196e-06</v>
+        <v>2.491134462463197e-05</v>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -7233,16 +7233,16 @@
         <v>0.27</v>
       </c>
       <c r="E141" t="n">
-        <v>0.006289774695</v>
+        <v>0.06289774695</v>
       </c>
       <c r="F141" t="n">
         <v>2.97</v>
       </c>
       <c r="G141" t="n">
-        <v>0.07278233507291472</v>
+        <v>0.7278233507291472</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02450583672488711</v>
+        <v>0.2450583672488711</v>
       </c>
       <c r="I141" t="n">
         <v>25.8</v>
@@ -7260,7 +7260,7 @@
         <v>0.05501656568707283</v>
       </c>
       <c r="N141" t="n">
-        <v>4.236415789825498e-06</v>
+        <v>4.236415789825498e-05</v>
       </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
@@ -7281,16 +7281,16 @@
         <v>0.34</v>
       </c>
       <c r="E142" t="n">
-        <v>0.010272821085</v>
+        <v>0.10272821085</v>
       </c>
       <c r="F142" t="n">
         <v>3.74</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1066085402633594</v>
+        <v>1.066085402633594</v>
       </c>
       <c r="H142" t="n">
-        <v>0.02850495728966829</v>
+        <v>0.2850495728966829</v>
       </c>
       <c r="I142" t="n">
         <v>25.8</v>
@@ -7308,7 +7308,7 @@
         <v>0.0550262664552121</v>
       </c>
       <c r="N142" t="n">
-        <v>5.715690795572146e-06</v>
+        <v>5.715690795572146e-05</v>
       </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
@@ -7329,16 +7329,16 @@
         <v>0.39</v>
       </c>
       <c r="E143" t="n">
-        <v>0.012995047035</v>
+        <v>0.12995047035</v>
       </c>
       <c r="F143" t="n">
         <v>4.29</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1242445224808852</v>
+        <v>1.242445224808852</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0289614271517215</v>
+        <v>0.289614271517215</v>
       </c>
       <c r="I143" t="n">
         <v>25.8</v>
@@ -7356,7 +7356,7 @@
         <v>0.05503455732537511</v>
       </c>
       <c r="N143" t="n">
-        <v>6.607483362026044e-06</v>
+        <v>6.607483362026044e-05</v>
       </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
@@ -7377,16 +7377,16 @@
         <v>0.46</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01621873566</v>
+        <v>0.1621873566</v>
       </c>
       <c r="F144" t="n">
         <v>5.06</v>
       </c>
       <c r="G144" t="n">
-        <v>0.141988081429252</v>
+        <v>1.41988081429252</v>
       </c>
       <c r="H144" t="n">
-        <v>0.02806088565795493</v>
+        <v>0.2806088565795494</v>
       </c>
       <c r="I144" t="n">
         <v>25.8</v>
@@ -7404,7 +7404,7 @@
         <v>0.05504806990258605</v>
       </c>
       <c r="N144" t="n">
-        <v>7.617501186748042e-06</v>
+        <v>7.617501186748044e-05</v>
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
@@ -7425,16 +7425,16 @@
         <v>0.49</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01836786141</v>
+        <v>0.1836786141</v>
       </c>
       <c r="F145" t="n">
         <v>5.39</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1513777145805587</v>
+        <v>1.513777145805587</v>
       </c>
       <c r="H145" t="n">
-        <v>0.02808491921717231</v>
+        <v>0.280849192171723</v>
       </c>
       <c r="I145" t="n">
         <v>25.8</v>
@@ -7452,7 +7452,7 @@
         <v>0.0550545411387653</v>
       </c>
       <c r="N145" t="n">
-        <v>8.279833331028252e-06</v>
+        <v>8.279833331028251e-05</v>
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
@@ -7473,16 +7473,16 @@
         <v>0.52</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01922751171</v>
+        <v>0.1922751171</v>
       </c>
       <c r="F146" t="n">
         <v>5.720000000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1540327743141167</v>
+        <v>1.540327743141167</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02692880669827214</v>
+        <v>0.2692880669827215</v>
       </c>
       <c r="I146" t="n">
         <v>25.8</v>
@@ -7500,7 +7500,7 @@
         <v>0.0550614202504803</v>
       </c>
       <c r="N146" t="n">
-        <v>8.543887741684226e-06</v>
+        <v>8.543887741684227e-05</v>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="n">
@@ -7521,16 +7521,16 @@
         <v>0.54</v>
       </c>
       <c r="E147" t="n">
-        <v>0.021591550035</v>
+        <v>0.21591550035</v>
       </c>
       <c r="F147" t="n">
         <v>5.94</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1594048591784952</v>
+        <v>1.594048591784952</v>
       </c>
       <c r="H147" t="n">
-        <v>0.02683583487853455</v>
+        <v>0.2683583487853454</v>
       </c>
       <c r="I147" t="n">
         <v>25.8</v>
@@ -7548,7 +7548,7 @@
         <v>0.05506623284736301</v>
       </c>
       <c r="N147" t="n">
-        <v>9.269753064970685e-06</v>
+        <v>9.269753064970684e-05</v>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="n">
@@ -7569,16 +7569,16 @@
         <v>0.57</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02223628776</v>
+        <v>0.2223628776</v>
       </c>
       <c r="F148" t="n">
         <v>6.27</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1588090611336287</v>
+        <v>1.588090611336287</v>
       </c>
       <c r="H148" t="n">
-        <v>0.02532839890488496</v>
+        <v>0.2532839890488496</v>
       </c>
       <c r="I148" t="n">
         <v>25.8</v>
@@ -7596,7 +7596,7 @@
         <v>0.05507379140752887</v>
       </c>
       <c r="N148" t="n">
-        <v>9.467928167403688e-06</v>
+        <v>9.467928167403687e-05</v>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
@@ -7617,16 +7617,16 @@
         <v>0.6</v>
       </c>
       <c r="E149" t="n">
-        <v>0.027752377185</v>
+        <v>0.2775237718499999</v>
       </c>
       <c r="F149" t="n">
         <v>6.6</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1819295061393822</v>
+        <v>1.819295061393822</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02756507668778518</v>
+        <v>0.2756507668778518</v>
       </c>
       <c r="I149" t="n">
         <v>25.8</v>
@@ -7644,7 +7644,7 @@
         <v>0.05508175741568164</v>
       </c>
       <c r="N149" t="n">
-        <v>1.117318528275092e-05</v>
+        <v>0.0001117318528275092</v>
       </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="n">
@@ -7665,16 +7665,16 @@
         <v>0.62</v>
       </c>
       <c r="E150" t="n">
-        <v>0.024170500935</v>
+        <v>0.24170500935</v>
       </c>
       <c r="F150" t="n">
         <v>6.82</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1478179300395101</v>
+        <v>1.478179300395101</v>
       </c>
       <c r="H150" t="n">
-        <v>0.02167418329025074</v>
+        <v>0.2167418329025075</v>
       </c>
       <c r="I150" t="n">
         <v>25.8</v>
@@ -7692,7 +7692,7 @@
         <v>0.05508729436085966</v>
       </c>
       <c r="N150" t="n">
-        <v>1.006363351997667e-05</v>
+        <v>0.0001006363351997667</v>
       </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="n">
@@ -7713,16 +7713,16 @@
         <v>0.66</v>
       </c>
       <c r="E151" t="n">
-        <v>0.025889801535</v>
+        <v>0.25889801535</v>
       </c>
       <c r="F151" t="n">
         <v>7.260000000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1426077354018782</v>
+        <v>1.426077354018782</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01964293876058929</v>
+        <v>0.1964293876058929</v>
       </c>
       <c r="I151" t="n">
         <v>25.8</v>
@@ -7740,7 +7740,7 @@
         <v>0.05509891106002006</v>
       </c>
       <c r="N151" t="n">
-        <v>1.059506652933466e-05</v>
+        <v>0.0001059506652933466</v>
       </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -7761,16 +7761,16 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.028038927285</v>
+        <v>0.28038927285</v>
       </c>
       <c r="F152" t="n">
         <v>7.59</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1388836600375788</v>
+        <v>1.388836600375788</v>
       </c>
       <c r="H152" t="n">
-        <v>0.01829824242919352</v>
+        <v>0.1829824242919352</v>
       </c>
       <c r="I152" t="n">
         <v>25.8</v>
@@ -7788,7 +7788,7 @@
         <v>0.05510809831594628</v>
       </c>
       <c r="N152" t="n">
-        <v>1.126236154714265e-05</v>
+        <v>0.0001126236154714265</v>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
@@ -7809,16 +7809,16 @@
         <v>0.72</v>
       </c>
       <c r="E153" t="n">
-        <v>0.029328402735</v>
+        <v>0.29328402735</v>
       </c>
       <c r="F153" t="n">
         <v>7.92</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1243861576746284</v>
+        <v>1.243861576746284</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0157053229387157</v>
+        <v>0.157053229387157</v>
       </c>
       <c r="I153" t="n">
         <v>25.8</v>
@@ -7836,7 +7836,7 @@
         <v>0.05511769225938256</v>
       </c>
       <c r="N153" t="n">
-        <v>1.166445049204665e-05</v>
+        <v>0.0001166445049204666</v>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
@@ -7857,16 +7857,16 @@
         <v>0.79</v>
       </c>
       <c r="E154" t="n">
-        <v>0.03140589096</v>
+        <v>0.3140589096</v>
       </c>
       <c r="F154" t="n">
         <v>8.690000000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>0.114121957209414</v>
+        <v>1.14121957209414</v>
       </c>
       <c r="H154" t="n">
-        <v>0.01313256124389114</v>
+        <v>0.1313256124389114</v>
       </c>
       <c r="I154" t="n">
         <v>25.8</v>
@@ -7884,7 +7884,7 @@
         <v>0.05514165848068047</v>
       </c>
       <c r="N154" t="n">
-        <v>1.231502225938371e-05</v>
+        <v>0.0001231502225938371</v>
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -7905,16 +7905,16 @@
         <v>0.67</v>
       </c>
       <c r="E155" t="n">
-        <v>0.02703600193499999</v>
+        <v>0.27036001935</v>
       </c>
       <c r="F155" t="n">
         <v>7.37</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1319340831954297</v>
+        <v>1.319340831954297</v>
       </c>
       <c r="H155" t="n">
-        <v>0.01790150382570281</v>
+        <v>0.1790150382570281</v>
       </c>
       <c r="I155" t="n">
         <v>25.8</v>
@@ -7932,7 +7932,7 @@
         <v>0.05510192827841871</v>
       </c>
       <c r="N155" t="n">
-        <v>1.095052196449467e-05</v>
+        <v>0.0001095052196449467</v>
       </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">

--- a/GK_Data_M1_filled.xlsx
+++ b/GK_Data_M1_filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,31 @@
           <t>Resistance (Ohms)</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Z_Score_Scale Reading (g)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Z_Score_Current Draw (A)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Z_Score_Tach Reading (RPM)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Z_Score_Torque (N-m)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Z_Score_Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -566,6 +591,21 @@
       <c r="P2" t="n">
         <v>55.55555555555556</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-1.344163687147914</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.293674458318001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.260634563301868</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.221201651558227</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.5387535523566693</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -614,6 +654,21 @@
       <c r="P3" t="n">
         <v>13.1578947368421</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2163069287936435</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1354284536512518</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-1.587449640744602</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.480709333965661</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.823631428778969</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -662,6 +717,21 @@
       <c r="P4" t="n">
         <v>22.72727272727273</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.6319156881704396</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.6530421184697154</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.8362381630748186</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.4443958075431745</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9398724998483013</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -710,6 +780,21 @@
       <c r="P5" t="n">
         <v>38.46153846153846</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-1.17322416739332</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.4590064253705121</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1.034768248994614</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2588381364629843</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -758,6 +843,21 @@
       <c r="P6" t="n">
         <v>50</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-1.293658829038602</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.3256745180784726</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.166119055346251</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.1625001373802521</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -806,6 +906,21 @@
       <c r="P7" t="n">
         <v>21.73913043478261</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.679830553556197</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.6037627077121549</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-1.197209912084974</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.49665365523146</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.2076123756069166</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -854,6 +969,21 @@
       <c r="P8" t="n">
         <v>14.70588235294118</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.06211728898846021</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.06168918937898994</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-1.408589765108939</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1770488676688674</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.4042140158281022</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -902,6 +1032,21 @@
       <c r="P9" t="n">
         <v>14.28571428571429</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.01031743451737117</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.01240977862142972</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-1.434605747019581</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2335438381426893</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.4658888127232009</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -950,6 +1095,21 @@
       <c r="P10" t="n">
         <v>27.77777777777778</v>
       </c>
+      <c r="Q10" t="n">
+        <v>-0.8740800078227808</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.8501597614999573</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.6768902738721374</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.7085097945082922</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8873609847237257</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -998,6 +1158,21 @@
       <c r="P11" t="n">
         <v>12.19512195121951</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0.220191917878975</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2832666859239329</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-1.623221615871735</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4849464567511975</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-1.016771333917517</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1046,6 +1221,21 @@
       <c r="P12" t="n">
         <v>11.11111111111111</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0.3030716850327175</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4803843289541749</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-1.69801756386483</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5753384095093128</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-1.267371481231852</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1094,6 +1284,21 @@
       <c r="P13" t="n">
         <v>22.72727272727273</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.6785355571944196</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.6530421184697154</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04275071480024248</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.4952412809696142</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.714417142697271</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1142,6 +1347,21 @@
       <c r="P14" t="n">
         <v>27.77777777777778</v>
       </c>
+      <c r="Q14" t="n">
+        <v>-0.9504847931676371</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.8501597614999573</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.6216063123120236</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.7918398759571798</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6048002781023227</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1190,6 +1410,21 @@
       <c r="P15" t="n">
         <v>35.71428571428571</v>
       </c>
+      <c r="Q15" t="n">
+        <v>-1.100704371133795</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-1.047277404530199</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.5110383891917956</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.9556752903312635</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5510728117012874</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1238,6 +1473,21 @@
       <c r="P16" t="n">
         <v>41.66666666666667</v>
       </c>
+      <c r="Q16" t="n">
+        <v>-1.200419090990642</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-1.14583622604532</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.4394944389375307</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1.064428108493371</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.2436949790278163</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1286,6 +1536,21 @@
       <c r="P17" t="n">
         <v>45.45454545454545</v>
       </c>
+      <c r="Q17" t="n">
+        <v>-1.24315397092929</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-1.19511563680288</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.3874624751162469</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1.111036459134274</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1086628572762694</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1334,6 +1599,21 @@
       <c r="P18" t="n">
         <v>45.45454545454545</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-1.28070886542083</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1.19511563680288</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.3614464932056052</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1.151995312727795</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.2441681131121641</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1662,21 @@
       <c r="P19" t="n">
         <v>50</v>
       </c>
+      <c r="Q19" t="n">
+        <v>-1.302723803571042</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.2076531110896851</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1.176005675179169</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3172471392400558</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1430,6 +1725,21 @@
       <c r="P20" t="n">
         <v>50</v>
       </c>
+      <c r="Q20" t="n">
+        <v>-1.311788778103483</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.3191705226008121</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1.185892295012088</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.3665355895688506</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1478,6 +1788,21 @@
       <c r="P21" t="n">
         <v>50</v>
       </c>
+      <c r="Q21" t="n">
+        <v>-1.324738741721255</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.3061625316454912</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-1.200016037630544</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.5053632373047959</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1525,6 +1850,21 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
         <v>55.55555555555556</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-1.337688705339028</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1.293674458318001</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.3321785135561329</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1.214139780248999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.5199634426315319</v>
       </c>
     </row>
     <row r="23">
@@ -1578,6 +1918,21 @@
       <c r="P23" t="n">
         <v>72.72727272727273</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-1.127899294731117</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1.19511563680288</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.4264864479822098</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1.243869100777027</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-1.516785649057288</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1626,6 +1981,21 @@
       <c r="P24" t="n">
         <v>23.52941176470588</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0.1476721216194504</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.06168918937898994</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-1.463873726669053</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1464072922897465</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-1.165025067844582</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1674,6 +2044,21 @@
       <c r="P25" t="n">
         <v>40</v>
       </c>
+      <c r="Q25" t="n">
+        <v>-0.7070254771535186</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.7516009399848362</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.8492461540301397</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.7851484634707312</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.8223910591248494</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1722,6 +2107,21 @@
       <c r="P26" t="n">
         <v>50</v>
       </c>
+      <c r="Q26" t="n">
+        <v>-0.8494750769490135</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.9487185830150782</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.6541262897003259</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.9404077560974774</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.7469769407981617</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1770,6 +2170,21 @@
       <c r="P27" t="n">
         <v>53.33333333333334</v>
       </c>
+      <c r="Q27" t="n">
+        <v>-0.875375004184558</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.9979979937726386</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.6216063123120236</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.9686367183932495</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.7238318270054063</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1818,6 +2233,21 @@
       <c r="P28" t="n">
         <v>61.53846153846153</v>
       </c>
+      <c r="Q28" t="n">
+        <v>-0.9142248950378747</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.5760783439684002</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1.010980161836908</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.6412160000817552</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1866,6 +2296,21 @@
       <c r="P29" t="n">
         <v>66.66666666666667</v>
       </c>
+      <c r="Q29" t="n">
+        <v>-0.9789747131267361</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-1.14583622604532</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.5207943824082865</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1.081552567576338</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.8029147402777166</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1914,6 +2359,21 @@
       <c r="P30" t="n">
         <v>72.72727272727273</v>
       </c>
+      <c r="Q30" t="n">
+        <v>-1.030774567597825</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-1.19511563680288</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.4655104208481724</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1.138010492167882</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.9436136440845915</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1962,6 +2422,21 @@
       <c r="P31" t="n">
         <v>80</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-1.095524385686686</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4232344502433795</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1.208582897907312</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-1.233658443152672</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2010,6 +2485,21 @@
       <c r="P32" t="n">
         <v>17.39130434782609</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.2642217941794007</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5296637397117354</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-1.626473613610565</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2734376226207205</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-1.580608681220196</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2058,6 +2548,21 @@
       <c r="P33" t="n">
         <v>32</v>
       </c>
+      <c r="Q33" t="n">
+        <v>-0.3314765322381232</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.505203886197034</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.106153975397728</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-0.3758285101820364</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.7244840572179609</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2106,6 +2611,21 @@
       <c r="P34" t="n">
         <v>34.78260869565217</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.4480262047980735</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.6037627077121549</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-1.031358027404633</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.5028588405130106</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.6922601036730267</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2154,6 +2674,21 @@
       <c r="P35" t="n">
         <v>38.09523809523809</v>
       </c>
+      <c r="Q35" t="n">
+        <v>-0.5516259137402516</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.702321529227276</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.9403020907173861</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-0.6157746896960989</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.6391454279784059</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2202,6 +2737,21 @@
       <c r="P36" t="n">
         <v>40</v>
       </c>
+      <c r="Q36" t="n">
+        <v>-0.6552256226824296</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.7516009399848362</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.8590021472466304</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.7286905388791871</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.7046272707468383</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2250,6 +2800,21 @@
       <c r="P37" t="n">
         <v>47.05882352941176</v>
       </c>
+      <c r="Q37" t="n">
+        <v>-0.77177529524238</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.8994391722575176</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.7159142467381002</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.8557208692101612</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.6313046586164568</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2298,6 +2863,21 @@
       <c r="P38" t="n">
         <v>50</v>
       </c>
+      <c r="Q38" t="n">
+        <v>-0.8365251133312412</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.9487185830150782</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.6801422716109676</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.9262932749495913</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.726821215479617</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2346,6 +2926,21 @@
       <c r="P39" t="n">
         <v>53.33333333333334</v>
       </c>
+      <c r="Q39" t="n">
+        <v>-0.875375004184558</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.9979979937726386</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.6216063123120236</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-0.9686367183932495</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.7238318270054063</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2394,6 +2989,21 @@
       <c r="P40" t="n">
         <v>25.80645161290323</v>
       </c>
+      <c r="Q40" t="n">
+        <v>-0.03362736902936121</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.2095274216516714</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1.42159775606426</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.05119544378065796</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-1.141025388770961</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2442,6 +3052,21 @@
       <c r="P41" t="n">
         <v>29.62962962962963</v>
       </c>
+      <c r="Q41" t="n">
+        <v>-0.2019768960604006</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.4066450646819131</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-1.27850985555573</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.2346836987031764</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.9215676284825132</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2489,6 +3114,21 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
         <v>22.85714285714286</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2383218669438562</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.01240977862142972</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-1.597205633961092</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2452086603249487</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-1.370885609302169</v>
       </c>
     </row>
     <row r="43">
@@ -2542,6 +3182,21 @@
       <c r="P43" t="n">
         <v>16.66666666666667</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.5555959755792765</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.7760607934995376</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.4785184118034933</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8058980886012084</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.2905770250106184</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2590,6 +3245,21 @@
       <c r="P44" t="n">
         <v>19.76744186046512</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.2901217214149452</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.381825507439054</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.1012866740991868</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.5226267497631227</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.9735491742573198</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2638,6 +3308,21 @@
       <c r="P45" t="n">
         <v>21.7948717948718</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.1217721943839059</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1847078644088122</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.009281249021041256</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.3429912665975081</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.141879089848627</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2686,6 +3371,21 @@
       <c r="P46" t="n">
         <v>25</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-0.1631270052070838</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.06168918937898994</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.02649072610609133</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.03899275662492862</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.8953564153105664</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2734,6 +3434,21 @@
       <c r="P47" t="n">
         <v>25.75757575757576</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-0.2149268596781728</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.1109686001365504</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.2759450636051202</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-0.016279699733722</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.317077623335841</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2782,6 +3497,21 @@
       <c r="P48" t="n">
         <v>31.48148148148148</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.4933510774602764</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.4066450646819131</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.513340898539727</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.3133691526614701</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.483458444167699</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2830,6 +3560,21 @@
       <c r="P49" t="n">
         <v>36.95652173913043</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.7523503498157216</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6037627077121549</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.7832567108626359</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.5897314344547239</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.313496939682633</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2878,6 +3623,21 @@
       <c r="P50" t="n">
         <v>40.47619047619047</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.8300501315223551</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.702321529227276</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8840686407663729</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.6726401189927002</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.351021536615918</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2926,6 +3686,21 @@
       <c r="P51" t="n">
         <v>44.73684210526316</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.9336498404645331</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8008803507423968</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.997888561625431</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.7831850317100016</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.216153787992311</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2974,6 +3749,21 @@
       <c r="P52" t="n">
         <v>53.125</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-1.030774567597825</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.9487185830150782</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.062928516402036</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8868208873824719</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.186901324762752</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3022,6 +3812,21 @@
       <c r="P53" t="n">
         <v>56.66666666666667</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.108474349304459</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.9979979937726386</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.131220468917471</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-0.969729571920448</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.8399152358331008</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3070,6 +3875,21 @@
       <c r="P54" t="n">
         <v>65.38461538461539</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-1.212074058246637</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.271056371687171</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-1.080274484637749</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.4094952862898124</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3118,6 +3938,21 @@
       <c r="P55" t="n">
         <v>85</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.341573694424359</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.378372297068568</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.218455625534377</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.4655064585832887</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3166,6 +4001,21 @@
       <c r="P56" t="n">
         <v>85</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-1.354523658042132</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-1.244395047560441</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.381624294807398</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-1.232273739624039</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.6382030731156219</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3214,6 +4064,21 @@
       <c r="P57" t="n">
         <v>12.87878787878788</v>
       </c>
+      <c r="Q57" t="n">
+        <v>1.40381859254336</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.515251954862944</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-1.164689934696672</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.710984561474115</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.65734774372791</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3262,6 +4127,21 @@
       <c r="P58" t="n">
         <v>14.91228070175439</v>
       </c>
+      <c r="Q58" t="n">
+        <v>1.041219611245736</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.0717372580449</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.7581902173428932</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.324077366963559</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.06788889759366595</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3310,6 +4190,21 @@
       <c r="P59" t="n">
         <v>16.34615384615385</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0.7692703752725188</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8253402042570981</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.530550375624777</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.033896971080643</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.4056428875568904</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3358,6 +4253,21 @@
       <c r="P60" t="n">
         <v>17.3469387755102</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0.626820775477024</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.6775019719844166</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.3809584796385864</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8818977160943531</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.6424579617757696</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3406,6 +4316,21 @@
       <c r="P61" t="n">
         <v>32.69230769230769</v>
       </c>
+      <c r="Q61" t="n">
+        <v>-0.6617006044913157</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.4559244754394736</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.6987047696530502</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-0.493004635827085</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.200392746158674</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3453,6 +4378,21 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
         <v>38.63636363636363</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-0.7588253316246076</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.6530421184697154</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.627160819398785</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-0.5966404914995553</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.238414754259056</v>
       </c>
     </row>
     <row r="63">
@@ -3506,31 +4446,46 @@
       <c r="P63" t="n">
         <v>75</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-1.095524385686686</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-1.14583622604532</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.433656258628682</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-1.166054225052264</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.2684099658827362</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>34.4</v>
       </c>
       <c r="D64" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="E64" t="n">
-        <v>0.373713912</v>
+        <v>0.309831192</v>
       </c>
       <c r="F64" t="n">
-        <v>6.57</v>
+        <v>5.67</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7827045869890017</v>
+        <v>1.116123361480727</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1191331182631662</v>
+        <v>0.1968471537003045</v>
       </c>
       <c r="I64" t="n">
         <v>26.1</v>
@@ -3545,40 +4500,55 @@
         <v>9</v>
       </c>
       <c r="M64" t="n">
-        <v>0.04514778510624858</v>
+        <v>0.04511011527362793</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0001423699132220511</v>
+        <v>0.0001229749557030098</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>12.32876712328767</v>
+        <v>14.28571428571429</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.494468337867765</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.367413722590263</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8947741223737629</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.575341063513525</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.2972412449439201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>240</v>
+        <v>41.3</v>
       </c>
       <c r="C65" t="n">
-        <v>34.4</v>
+        <v>106.4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="E65" t="n">
-        <v>0.309831192</v>
+        <v>0.02134263599999999</v>
       </c>
       <c r="F65" t="n">
-        <v>5.67</v>
+        <v>1.17</v>
       </c>
       <c r="G65" t="n">
-        <v>1.116123361480727</v>
+        <v>0.2378035334921829</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1968471537003045</v>
+        <v>0.203250883326652</v>
       </c>
       <c r="I65" t="n">
         <v>26.1</v>
@@ -3593,40 +4563,55 @@
         <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>0.04511011527362793</v>
+        <v>0.04500469419960545</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0001229749557030098</v>
+        <v>2.682572308583098e-05</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>14.28571428571429</v>
+        <v>69.23076923076923</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-1.078689432983583</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.446664249584003</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-1.148235155676587</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.2379570682061704</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>41.3</v>
+        <v>100.2</v>
       </c>
       <c r="C66" t="n">
-        <v>106.4</v>
+        <v>86.3</v>
       </c>
       <c r="D66" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02134263599999999</v>
+        <v>0.106858368</v>
       </c>
       <c r="F66" t="n">
-        <v>1.17</v>
+        <v>2.34</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2378035334921829</v>
+        <v>0.9657127177712319</v>
       </c>
       <c r="H66" t="n">
-        <v>0.203250883326652</v>
+        <v>0.4126977426372786</v>
       </c>
       <c r="I66" t="n">
         <v>26.1</v>
@@ -3641,40 +4626,55 @@
         <v>9</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04500469419960545</v>
+        <v>0.04501877386157913</v>
       </c>
       <c r="N66" t="n">
-        <v>2.682572308583098e-05</v>
+        <v>6.439379564635718e-05</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>69.23076923076923</v>
+        <v>34.61538461538461</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.3159365758967964</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.4559244754394736</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.7930127040791266</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.3408942431939617</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.701051189333274</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>100.2</v>
+        <v>127.3</v>
       </c>
       <c r="C67" t="n">
-        <v>86.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="E67" t="n">
-        <v>0.106858368</v>
+        <v>0.146204316</v>
       </c>
       <c r="F67" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9657127177712319</v>
+        <v>1.146754964654906</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4126977426372786</v>
+        <v>0.3640491951285416</v>
       </c>
       <c r="I67" t="n">
         <v>26.1</v>
@@ -3689,40 +4689,55 @@
         <v>9</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04501877386157913</v>
+        <v>0.04503401492205642</v>
       </c>
       <c r="N67" t="n">
-        <v>6.439379564635718e-05</v>
+        <v>7.574526815905497e-05</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>34.61538461538461</v>
+        <v>25.71428571428572</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.03500743814483173</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.01240977862142972</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.4222849618524806</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0305648184067028</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.250674727985424</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>127.3</v>
+        <v>154.5</v>
       </c>
       <c r="C68" t="n">
-        <v>74.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="E68" t="n">
-        <v>0.146204316</v>
+        <v>0.185695452</v>
       </c>
       <c r="F68" t="n">
-        <v>3.15</v>
+        <v>3.69</v>
       </c>
       <c r="G68" t="n">
-        <v>1.146754964654906</v>
+        <v>1.285379427404147</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3640491951285416</v>
+        <v>0.3483413082396062</v>
       </c>
       <c r="I68" t="n">
         <v>26.1</v>
@@ -3737,40 +4752,55 @@
         <v>9</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04503401492205642</v>
+        <v>0.04504667024320443</v>
       </c>
       <c r="N68" t="n">
-        <v>7.574526815905497e-05</v>
+        <v>8.687437457565096e-05</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>25.71428571428572</v>
+        <v>21.95121951219512</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3872464485482372</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2832666859239329</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.13610916083542</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.4033945776516502</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.105254918462427</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>154.5</v>
+        <v>182.8</v>
       </c>
       <c r="C69" t="n">
-        <v>66.09999999999999</v>
+        <v>55.9</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="E69" t="n">
-        <v>0.185695452</v>
+        <v>0.226783656</v>
       </c>
       <c r="F69" t="n">
-        <v>3.69</v>
+        <v>4.41</v>
       </c>
       <c r="G69" t="n">
-        <v>1.285379427404147</v>
+        <v>1.327553946709679</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3483413082396062</v>
+        <v>0.3010326409772514</v>
       </c>
       <c r="I69" t="n">
         <v>26.1</v>
@@ -3785,40 +4815,55 @@
         <v>9</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04504667024320443</v>
+        <v>0.0450666450936832</v>
       </c>
       <c r="N69" t="n">
-        <v>8.687437457565096e-05</v>
+        <v>9.857897712811113e-05</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>21.95121951219512</v>
+        <v>18.36734693877551</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.7537304189311923</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.6775019719844166</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.1955946085252634</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.7913020109837096</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.6672827436739468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>182.8</v>
+        <v>200.2</v>
       </c>
       <c r="C70" t="n">
-        <v>55.9</v>
+        <v>52.1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="E70" t="n">
-        <v>0.226783656</v>
+        <v>0.252046368</v>
       </c>
       <c r="F70" t="n">
-        <v>4.41</v>
+        <v>4.77</v>
       </c>
       <c r="G70" t="n">
-        <v>1.327553946709679</v>
+        <v>1.375139588053078</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3010326409772514</v>
+        <v>0.2882892218140624</v>
       </c>
       <c r="I70" t="n">
         <v>26.1</v>
@@ -3833,40 +4878,55 @@
         <v>9</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0450666450936832</v>
+        <v>0.045077960246666</v>
       </c>
       <c r="N70" t="n">
-        <v>9.857897712811113e-05</v>
+        <v>0.0001058923530812394</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>18.36734693877551</v>
+        <v>16.9811320754717</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.9790597858804293</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.8746196150146586</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-0.3191705226008121</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.029803401088933</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.5493072578249872</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>200.2</v>
+        <v>205.9</v>
       </c>
       <c r="C71" t="n">
-        <v>52.1</v>
+        <v>49.3</v>
       </c>
       <c r="D71" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E71" t="n">
-        <v>0.252046368</v>
+        <v>0.260322084</v>
       </c>
       <c r="F71" t="n">
-        <v>4.77</v>
+        <v>4.95</v>
       </c>
       <c r="G71" t="n">
-        <v>1.375139588053078</v>
+        <v>1.343960639013871</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2882892218140624</v>
+        <v>0.2715071998007821</v>
       </c>
       <c r="I71" t="n">
         <v>26.1</v>
@@ -3881,40 +4941,55 @@
         <v>9</v>
       </c>
       <c r="M71" t="n">
-        <v>0.045077960246666</v>
+        <v>0.04508394947206822</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0001058923530812394</v>
+        <v>0.000108308969140759</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>16.9811320754717</v>
+        <v>16.36363636363636</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.052874578501731</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.9731784365297795</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-0.4102264592880586</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.107933166813058</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.3939433656708483</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>205.9</v>
+        <v>210.2</v>
       </c>
       <c r="C72" t="n">
-        <v>49.3</v>
+        <v>45.2</v>
       </c>
       <c r="D72" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="E72" t="n">
-        <v>0.260322084</v>
+        <v>0.266565168</v>
       </c>
       <c r="F72" t="n">
-        <v>4.95</v>
+        <v>5.22</v>
       </c>
       <c r="G72" t="n">
-        <v>1.343960639013871</v>
+        <v>1.261741688060872</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2715071998007821</v>
+        <v>0.2417129670614697</v>
       </c>
       <c r="I72" t="n">
         <v>26.1</v>
@@ -3929,40 +5004,55 @@
         <v>9</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04508394947206822</v>
+        <v>0.04509334762467742</v>
       </c>
       <c r="N72" t="n">
-        <v>0.000108308969140759</v>
+        <v>0.0001101388183892137</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>16.36363636363636</v>
+        <v>15.51724137931035</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.108559422058152</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.121016668802461</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-0.5435583665800979</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.166873165517222</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.1181155805289412</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>210.2</v>
+        <v>232</v>
       </c>
       <c r="C73" t="n">
-        <v>45.2</v>
+        <v>39.5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E73" t="n">
-        <v>0.266565168</v>
+        <v>0.298216152</v>
       </c>
       <c r="F73" t="n">
-        <v>5.22</v>
+        <v>5.49</v>
       </c>
       <c r="G73" t="n">
-        <v>1.261741688060872</v>
+        <v>1.233550335201606</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2417129670614697</v>
+        <v>0.2246904071405475</v>
       </c>
       <c r="I73" t="n">
         <v>26.1</v>
@@ -3977,40 +5067,55 @@
         <v>9</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04509334762467742</v>
+        <v>0.04510324267721779</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0001101388183892137</v>
+        <v>0.0001195032481202116</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>15.51724137931035</v>
+        <v>14.75409836065574</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.390868628925587</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.268854901075142</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-0.7289222376934211</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.465685251970894</v>
+      </c>
+      <c r="U73" t="n">
+        <v>-0.03947515327230555</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>232</v>
+        <v>244.3</v>
       </c>
       <c r="C74" t="n">
-        <v>39.5</v>
+        <v>33.6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="E74" t="n">
-        <v>0.298216152</v>
+        <v>0.316074276</v>
       </c>
       <c r="F74" t="n">
-        <v>5.49</v>
+        <v>5.76</v>
       </c>
       <c r="G74" t="n">
-        <v>1.233550335201606</v>
+        <v>1.11213381828675</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2246904071405475</v>
+        <v>0.1930787878970052</v>
       </c>
       <c r="I74" t="n">
         <v>26.1</v>
@@ -4025,40 +5130,55 @@
         <v>9</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04510324267721779</v>
+        <v>0.04511363430272494</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0001195032481202116</v>
+        <v>0.0001248484337708273</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>14.75409836065574</v>
+        <v>14.0625</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.550153181424186</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.416693133347823</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-0.9207901042844047</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.634281062217689</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-0.3321278621702489</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>244.3</v>
+        <v>264</v>
       </c>
       <c r="C75" t="n">
-        <v>33.6</v>
+        <v>20.9</v>
       </c>
       <c r="D75" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="E75" t="n">
-        <v>0.316074276</v>
+        <v>0.344676312</v>
       </c>
       <c r="F75" t="n">
-        <v>5.76</v>
+        <v>6.39</v>
       </c>
       <c r="G75" t="n">
-        <v>1.11213381828675</v>
+        <v>0.7543733568531177</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1930787878970052</v>
+        <v>0.1180552984120685</v>
       </c>
       <c r="I75" t="n">
         <v>26.1</v>
@@ -4073,40 +5193,55 @@
         <v>9</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04511363430272494</v>
+        <v>0.04513981058888041</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0001248484337708273</v>
+        <v>0.0001334945501797767</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>14.0625</v>
+        <v>12.67605633802817</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.805267464694299</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.761649008650746</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-1.333793817115844</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.90430849814142</v>
+      </c>
+      <c r="U75" t="n">
+        <v>-1.026677143546536</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>20.9</v>
+        <v>96</v>
       </c>
       <c r="D76" t="n">
-        <v>0.71</v>
+        <v>0.23</v>
       </c>
       <c r="E76" t="n">
-        <v>0.344676312</v>
+        <v>0.07753039199999999</v>
       </c>
       <c r="F76" t="n">
-        <v>6.39</v>
+        <v>2.07</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7543733568531177</v>
+        <v>0.7794205117988379</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1180552984120685</v>
+        <v>0.3765316482119989</v>
       </c>
       <c r="I76" t="n">
         <v>26.1</v>
@@ -4121,40 +5256,55 @@
         <v>9</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04513981058888041</v>
+        <v>0.04501469204604204</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0001334945501797767</v>
+        <v>5.508256930259357e-05</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>12.67605633802817</v>
+        <v>39.1304347826087</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-0.5775258409757961</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-0.6037627077121549</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.108456484745659</v>
+      </c>
+      <c r="T76" t="n">
+        <v>-0.6177751673391064</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.366234253121471</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>80</v>
+        <v>122.6</v>
       </c>
       <c r="C77" t="n">
-        <v>96</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07753039199999999</v>
+        <v>0.13938048</v>
       </c>
       <c r="F77" t="n">
-        <v>2.07</v>
+        <v>2.97</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7794205117988379</v>
+        <v>1.139938988230136</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3765316482119989</v>
+        <v>0.3838178411549278</v>
       </c>
       <c r="I77" t="n">
         <v>26.1</v>
@@ -4169,140 +5319,185 @@
         <v>9</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04501469204604204</v>
+        <v>0.04503023983946788</v>
       </c>
       <c r="N77" t="n">
-        <v>5.508256930259357e-05</v>
+        <v>7.381377475667859e-05</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>39.1304347826087</v>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-0.02585739085869792</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-0.1109686001365504</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.5263488894950475</v>
+      </c>
+      <c r="T77" t="n">
+        <v>-0.03385797087459325</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.433688061351709</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>122.6</v>
+        <v>25.6</v>
       </c>
       <c r="C78" t="n">
-        <v>78.09999999999999</v>
+        <v>120.1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="E78" t="n">
-        <v>0.13938048</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.97</v>
+        <v>0.8576999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>1.139938988230136</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3838178411549278</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>26.1</v>
+        <v>25</v>
       </c>
       <c r="J78" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="K78" t="n">
-        <v>14.8</v>
+        <v>14.28</v>
       </c>
       <c r="L78" t="n">
-        <v>9</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04503023983946788</v>
+        <v>0.04765212482145995</v>
       </c>
       <c r="N78" t="n">
-        <v>7.381377475667859e-05</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="n">
-        <v>27.27272727272727</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C79" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.8576999999999999</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>25</v>
-      </c>
-      <c r="J79" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K79" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.04765212482145995</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
+      <c r="P78" t="n">
+        <v>105.8888888888889</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-1.282003861782607</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-1.293674458318001</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.892187939803744</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-1.349727709386172</v>
+      </c>
+      <c r="U78" t="n">
+        <v>-2.1196044818734</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0337609188</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.4048073246006572</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.326747376382805</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+      <c r="J79" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K79" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.04765443316208891</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.596301638584569e-05</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>105.8888888888889</v>
+        <v>73.30769230769231</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-0.9699097385942955</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.710076066429252</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-1.030996052031666</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.9053435312929314</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>49.7</v>
+        <v>60.1</v>
       </c>
       <c r="C80" t="n">
-        <v>114.5</v>
+        <v>110.1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0337609188</v>
+        <v>0.048329946</v>
       </c>
       <c r="F80" t="n">
-        <v>1.2389</v>
+        <v>1.5248</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4048073246006572</v>
+        <v>0.5572271221183084</v>
       </c>
       <c r="H80" t="n">
-        <v>0.326747376382805</v>
+        <v>0.3654427610954278</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
@@ -4317,40 +5512,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04765443316208891</v>
+        <v>0.04765671516166426</v>
       </c>
       <c r="N80" t="n">
-        <v>3.596301638584569e-05</v>
+        <v>4.362385959469624e-05</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>73.30769230769231</v>
+        <v>59.56249999999999</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-0.8352301169694641</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-0.9487185830150782</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.566988165920721</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-0.8934521003102188</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.263576023932817</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>60.1</v>
+        <v>78.5</v>
       </c>
       <c r="C81" t="n">
-        <v>110.1</v>
+        <v>101.2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="E81" t="n">
-        <v>0.048329946</v>
+        <v>0.0741059172</v>
       </c>
       <c r="F81" t="n">
-        <v>1.5248</v>
+        <v>2.0013</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5572271221183084</v>
+        <v>0.7853477744127004</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3654427610954278</v>
+        <v>0.3924188149766155</v>
       </c>
       <c r="I81" t="n">
         <v>25</v>
@@ -4365,40 +5575,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04765671516166426</v>
+        <v>0.047661567326306</v>
       </c>
       <c r="N81" t="n">
-        <v>4.362385959469624e-05</v>
+        <v>5.38630247871673e-05</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>59.56249999999999</v>
+        <v>45.38095238095238</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-0.5969507864024545</v>
+      </c>
+      <c r="R81" t="n">
+        <v>-0.702321529227276</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.277560367164831</v>
+      </c>
+      <c r="T81" t="n">
+        <v>-0.6501051088030437</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.513313792279472</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>78.5</v>
+        <v>92.7</v>
       </c>
       <c r="C82" t="n">
-        <v>101.2</v>
+        <v>95</v>
       </c>
       <c r="D82" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0741059172</v>
+        <v>0.09399824279999999</v>
       </c>
       <c r="F82" t="n">
-        <v>2.0013</v>
+        <v>2.3825</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7853477744127004</v>
+        <v>0.9351299319309605</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3924188149766155</v>
+        <v>0.3924994467706026</v>
       </c>
       <c r="I82" t="n">
         <v>25</v>
@@ -4413,40 +5638,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>0.047661567326306</v>
+        <v>0.04766639277310587</v>
       </c>
       <c r="N82" t="n">
-        <v>5.38630247871673e-05</v>
+        <v>6.044625848986535e-05</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>45.38095238095238</v>
+        <v>38.12</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-0.4130613030300884</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-0.505203886197034</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.075936507357357</v>
+      </c>
+      <c r="T82" t="n">
+        <v>-0.4623047131833761</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.514060261884583</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>92.7</v>
+        <v>133.4</v>
       </c>
       <c r="C83" t="n">
-        <v>95</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09399824279999999</v>
+        <v>0.1510135704</v>
       </c>
       <c r="F83" t="n">
-        <v>2.3825</v>
+        <v>2.6684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9351299319309605</v>
+        <v>1.429595011727829</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3924994467706026</v>
+        <v>0.5357498919681565</v>
       </c>
       <c r="I83" t="n">
         <v>25</v>
@@ -4461,40 +5701,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04766639277310587</v>
+        <v>0.04767056219513254</v>
       </c>
       <c r="N83" t="n">
-        <v>6.044625848986535e-05</v>
+        <v>7.745723469299575e-05</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>38.12</v>
+        <v>34.03571428571428</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.1140022162132426</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-0.3573656539243526</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9263446113711663</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.07596825172651664</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.840238162324296</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>133.4</v>
+        <v>122.8</v>
       </c>
       <c r="C84" t="n">
-        <v>90.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1510135704</v>
+        <v>0.1361643696</v>
       </c>
       <c r="F84" t="n">
-        <v>2.6684</v>
+        <v>3.2402</v>
       </c>
       <c r="G84" t="n">
-        <v>1.429595011727829</v>
+        <v>1.160690694459536</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5357498919681565</v>
+        <v>0.3582157565766113</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -4509,40 +5764,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04767056219513254</v>
+        <v>0.04768031564492836</v>
       </c>
       <c r="N84" t="n">
-        <v>7.745723469299575e-05</v>
+        <v>7.312195408049543e-05</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>34.03571428571428</v>
+        <v>28.02941176470588</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-0.02326739813514343</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-0.06168918937898994</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.6336648148764455</v>
+      </c>
+      <c r="T84" t="n">
+        <v>-0.06422077598957351</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.196670167786856</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>122.8</v>
+        <v>142.2</v>
       </c>
       <c r="C85" t="n">
-        <v>81.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1361643696</v>
+        <v>0.1633412088</v>
       </c>
       <c r="F85" t="n">
-        <v>3.2402</v>
+        <v>3.6214</v>
       </c>
       <c r="G85" t="n">
-        <v>1.160690694459536</v>
+        <v>1.289720874540985</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3582157565766113</v>
+        <v>0.3561387514610331</v>
       </c>
       <c r="I85" t="n">
         <v>25</v>
@@ -4557,40 +5827,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04768031564492836</v>
+        <v>0.04768786533280767</v>
       </c>
       <c r="N85" t="n">
-        <v>7.312195408049543e-05</v>
+        <v>8.105294333873126e-05</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>28.02941176470588</v>
+        <v>25.07894736842105</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2279618960496383</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.1354284536512518</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.4385449505466317</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.1923515954908176</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.177441757853599</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>142.2</v>
+        <v>158.9</v>
       </c>
       <c r="C86" t="n">
-        <v>75.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1633412088</v>
+        <v>0.1867357044</v>
       </c>
       <c r="F86" t="n">
-        <v>3.6214</v>
+        <v>4.0979</v>
       </c>
       <c r="G86" t="n">
-        <v>1.289720874540985</v>
+        <v>1.331689863830518</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3561387514610331</v>
+        <v>0.3249688532737545</v>
       </c>
       <c r="I86" t="n">
         <v>25</v>
@@ -4605,40 +5890,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04768786533280767</v>
+        <v>0.04769848005964131</v>
       </c>
       <c r="N86" t="n">
-        <v>8.105294333873126e-05</v>
+        <v>8.790692274016674e-05</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>25.07894736842105</v>
+        <v>22.16279069767442</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.4442262884664352</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.381825507439054</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.2011491156120246</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.4132154410435258</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.8888783954297133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>158.9</v>
+        <v>167.4</v>
       </c>
       <c r="C87" t="n">
-        <v>68.09999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="D87" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1867357044</v>
+        <v>0.1986430824</v>
       </c>
       <c r="F87" t="n">
-        <v>4.0979</v>
+        <v>4.4791</v>
       </c>
       <c r="G87" t="n">
-        <v>1.331689863830518</v>
+        <v>1.316757418027514</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3249688532737545</v>
+        <v>0.2939781246293929</v>
       </c>
       <c r="I87" t="n">
         <v>25</v>
@@ -4653,40 +5953,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04769848005964131</v>
+        <v>0.04770791338970926</v>
       </c>
       <c r="N87" t="n">
-        <v>8.790692274016674e-05</v>
+        <v>9.14214200577211e-05</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>22.16279069767442</v>
+        <v>20.27659574468085</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.5543009792174994</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.5789431504692957</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.0450532241481736</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.5256311708158617</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.6019737412068438</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>167.4</v>
+        <v>196.5</v>
       </c>
       <c r="C88" t="n">
-        <v>63.3</v>
+        <v>55.4</v>
       </c>
       <c r="D88" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1986430824</v>
+        <v>0.2394083412</v>
       </c>
       <c r="F88" t="n">
-        <v>4.4791</v>
+        <v>4.9556</v>
       </c>
       <c r="G88" t="n">
-        <v>1.316757418027514</v>
+        <v>1.388921370669364</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2939781246293929</v>
+        <v>0.2802730992552596</v>
       </c>
       <c r="I88" t="n">
         <v>25</v>
@@ -4701,40 +6016,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04770791338970926</v>
+        <v>0.04772088117375872</v>
       </c>
       <c r="N88" t="n">
-        <v>9.14214200577211e-05</v>
+        <v>0.0001036238152248013</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>20.27659574468085</v>
+        <v>18.32692307692308</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.9311449204946721</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.8253402042570981</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-0.2118545972194145</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.9104897280364482</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.475095938132125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>196.5</v>
+        <v>206.1</v>
       </c>
       <c r="C89" t="n">
-        <v>55.4</v>
+        <v>48</v>
       </c>
       <c r="D89" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2394083412</v>
+        <v>0.2528566739999999</v>
       </c>
       <c r="F89" t="n">
-        <v>4.9556</v>
+        <v>5.432099999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>1.388921370669364</v>
+        <v>1.270996271119279</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2802730992552596</v>
+        <v>0.2339788058245023</v>
       </c>
       <c r="I89" t="n">
         <v>25</v>
@@ -4749,40 +6079,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04772088117375872</v>
+        <v>0.04773515476040693</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0001036238152248013</v>
+        <v>0.000107710161015348</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>18.32692307692308</v>
+        <v>16.71929824561403</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.055464571225286</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.0717372580449</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-0.4525024298928516</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.037453375779322</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.04651459041153758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>206.1</v>
+        <v>214.1</v>
       </c>
       <c r="C90" t="n">
-        <v>48</v>
+        <v>43.2</v>
       </c>
       <c r="D90" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2528566739999999</v>
+        <v>0.264063618</v>
       </c>
       <c r="F90" t="n">
-        <v>5.432099999999999</v>
+        <v>5.717999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>1.270996271119279</v>
+        <v>1.194595664240364</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2339788058245023</v>
+        <v>0.208918444253299</v>
       </c>
       <c r="I90" t="n">
         <v>25</v>
@@ -4797,40 +6142,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04773515476040693</v>
+        <v>0.04774434521490476</v>
       </c>
       <c r="N90" t="n">
-        <v>0.000107710161015348</v>
+        <v>0.0001111381613507411</v>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>16.71929824561403</v>
+        <v>15.88333333333333</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.159064280167464</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.219575490317582</v>
+      </c>
+      <c r="S90" t="n">
+        <v>-0.6085983213567026</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.143256415565051</v>
+      </c>
+      <c r="U90" t="n">
+        <v>-0.1854881628568751</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>214.1</v>
+        <v>226</v>
       </c>
       <c r="C91" t="n">
-        <v>43.2</v>
+        <v>39.8</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="E91" t="n">
-        <v>0.264063618</v>
+        <v>0.2807339472</v>
       </c>
       <c r="F91" t="n">
-        <v>5.717999999999999</v>
+        <v>5.8133</v>
       </c>
       <c r="G91" t="n">
-        <v>1.194595664240364</v>
+        <v>1.170055930141468</v>
       </c>
       <c r="H91" t="n">
-        <v>0.208918444253299</v>
+        <v>0.2012722429844439</v>
       </c>
       <c r="I91" t="n">
         <v>25</v>
@@ -4845,40 +6205,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04774434521490476</v>
+        <v>0.04774751302424034</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0001111381613507411</v>
+        <v>0.000116274269038896</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>15.88333333333333</v>
+        <v>15.62295081967213</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.313168847218954</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.268854901075142</v>
+      </c>
+      <c r="S91" t="n">
+        <v>-0.7191662444769306</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.300638437246322</v>
+      </c>
+      <c r="U91" t="n">
+        <v>-0.2562748409093275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>226</v>
+        <v>234.2</v>
       </c>
       <c r="C92" t="n">
-        <v>39.8</v>
+        <v>36.4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2807339472</v>
+        <v>0.2922210648</v>
       </c>
       <c r="F92" t="n">
-        <v>5.8133</v>
+        <v>6.0039</v>
       </c>
       <c r="G92" t="n">
-        <v>1.170055930141468</v>
+        <v>1.113887987818505</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2012722429844439</v>
+        <v>0.1855274051563992</v>
       </c>
       <c r="I92" t="n">
         <v>25</v>
@@ -4893,40 +6268,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04774751302424034</v>
+        <v>0.04775400506763804</v>
       </c>
       <c r="N92" t="n">
-        <v>0.000116274269038896</v>
+        <v>0.000119838148302019</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>15.62295081967213</v>
+        <v>15.12698412698413</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.419358548884686</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.367413722590263</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-0.8297341675971583</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.409086553026693</v>
+      </c>
+      <c r="U92" t="n">
+        <v>-0.4020367332703901</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>234.2</v>
+        <v>241</v>
       </c>
       <c r="C93" t="n">
-        <v>36.4</v>
+        <v>33.5</v>
       </c>
       <c r="D93" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2922210648</v>
+        <v>0.3017469672</v>
       </c>
       <c r="F93" t="n">
-        <v>6.0039</v>
+        <v>6.0992</v>
       </c>
       <c r="G93" t="n">
-        <v>1.113887987818505</v>
+        <v>1.058562095195014</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1855274051563992</v>
+        <v>0.1735575313475561</v>
       </c>
       <c r="I93" t="n">
         <v>25</v>
@@ -4941,40 +6331,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04775400506763804</v>
+        <v>0.04775732928043611</v>
       </c>
       <c r="N93" t="n">
-        <v>0.000119838148302019</v>
+        <v>0.000122808196419885</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>15.12698412698413</v>
+        <v>14.890625</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.507418301485538</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.416693133347823</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-0.9240421020232349</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.499019136844562</v>
+      </c>
+      <c r="U93" t="n">
+        <v>-0.5128509237215821</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>241</v>
+        <v>253.8</v>
       </c>
       <c r="C94" t="n">
-        <v>33.5</v>
+        <v>30.3</v>
       </c>
       <c r="D94" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3017469672</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F94" t="n">
-        <v>6.0992</v>
+        <v>6.1945</v>
       </c>
       <c r="G94" t="n">
-        <v>1.058562095195014</v>
+        <v>1.014341283102886</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1735575313475561</v>
+        <v>0.1637486936964866</v>
       </c>
       <c r="I94" t="n">
         <v>25</v>
@@ -4989,40 +6394,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04775732928043611</v>
+        <v>0.04776070560617797</v>
       </c>
       <c r="N94" t="n">
-        <v>0.000122808196419885</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>14.890625</v>
+        <v>14.66153846153846</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.673177835793023</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.465972544105384</v>
+      </c>
+      <c r="S94" t="n">
+        <v>-1.028106029665802</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.668304000501728</v>
+      </c>
+      <c r="U94" t="n">
+        <v>-0.6036587652184089</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>253.8</v>
+        <v>252</v>
       </c>
       <c r="C95" t="n">
-        <v>30.3</v>
+        <v>28.7</v>
       </c>
       <c r="D95" t="n">
         <v>0.65</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3196780776</v>
+        <v>0.3171565152</v>
       </c>
       <c r="F95" t="n">
         <v>6.1945</v>
       </c>
       <c r="G95" t="n">
-        <v>1.014341283102886</v>
+        <v>0.9532002598022061</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1637486936964866</v>
+        <v>0.1538784824928899</v>
       </c>
       <c r="I95" t="n">
         <v>25</v>
@@ -5040,37 +6460,52 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0001284331223211134</v>
+        <v>0.0001276395036888439</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
         <v>14.66153846153846</v>
       </c>
+      <c r="Q95" t="n">
+        <v>1.649867901281032</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.465972544105384</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-1.080137993487086</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.644498316549938</v>
+      </c>
+      <c r="U95" t="n">
+        <v>-0.6950347881887448</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>252</v>
+        <v>253.8</v>
       </c>
       <c r="C96" t="n">
-        <v>28.7</v>
+        <v>25.9</v>
       </c>
       <c r="D96" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3171565152</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F96" t="n">
-        <v>6.1945</v>
+        <v>6.3851</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9532002598022061</v>
+        <v>0.8670441990879458</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1538784824928899</v>
+        <v>0.1357917963834468</v>
       </c>
       <c r="I96" t="n">
         <v>25</v>
@@ -5085,40 +6520,55 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04776070560617797</v>
+        <v>0.04776761455212097</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0001276395036888439</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>14.66153846153846</v>
+        <v>14.22388059701492</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.673177835793023</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.564531365620505</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-1.171193930174333</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.668304000501728</v>
+      </c>
+      <c r="U96" t="n">
+        <v>-0.862476944319251</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>253.8</v>
+        <v>255.4</v>
       </c>
       <c r="C97" t="n">
-        <v>25.9</v>
+        <v>21.3</v>
       </c>
       <c r="D97" t="n">
         <v>0.67</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3196780776</v>
+        <v>0.3219194664</v>
       </c>
       <c r="F97" t="n">
         <v>6.3851</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8670441990879458</v>
+        <v>0.7180512797897481</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1357917963834468</v>
+        <v>0.1124573271819937</v>
       </c>
       <c r="I97" t="n">
         <v>25</v>
@@ -5136,85 +6586,115 @@
         <v>0.04776761455212097</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0001284331223211134</v>
+        <v>0.0001291392592826697</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
         <v>14.22388059701492</v>
       </c>
+      <c r="Q97" t="n">
+        <v>1.693897777581458</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.564531365620505</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-1.320785826160523</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.689464608458873</v>
+      </c>
+      <c r="U97" t="n">
+        <v>-1.078501804352193</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>255.4</v>
+        <v>235</v>
       </c>
       <c r="C98" t="n">
-        <v>21.3</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3219194664</v>
+        <v>0.289167408</v>
       </c>
       <c r="F98" t="n">
-        <v>6.3851</v>
+        <v>6.3</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7180512797897481</v>
+        <v>1.362669306945604</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1124573271819937</v>
+        <v>0.2162967153881911</v>
       </c>
       <c r="I98" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="J98" t="n">
-        <v>25.6</v>
+        <v>30.3</v>
       </c>
       <c r="K98" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="L98" t="n">
-        <v>9.529999999999999</v>
+        <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>0.04776761455212097</v>
+        <v>0.05009912673889635</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0001291392592826697</v>
+        <v>0.0001177563481303008</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>14.22388059701492</v>
+        <v>15.87301587301587</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.429718519778904</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.367413722590263</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-0.5500623620577585</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.380257447438019</v>
+      </c>
+      <c r="U98" t="n">
+        <v>-0.1171819170434544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="E99" t="n">
-        <v>0.373925808</v>
+        <v>0.248200848</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8223057999802992</v>
+        <v>1.429534261267854</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1027882249975374</v>
+        <v>0.2507954844329569</v>
       </c>
       <c r="I99" t="n">
         <v>26.1</v>
@@ -5229,44 +6709,55 @@
         <v>10</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0501597448159378</v>
+        <v>0.05008115913195301</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0001444780074480226</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>B7</t>
-        </is>
-      </c>
+        <v>0.0001051491741838504</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>12.5</v>
+        <v>17.54385964912281</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.054169574863508</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.0717372580449</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.2248625881747354</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.993498436456575</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.202199324923697</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C100" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D100" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="E100" t="n">
-        <v>0.289167408</v>
+        <v>0.225598608</v>
       </c>
       <c r="F100" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="G100" t="n">
-        <v>1.362669306945604</v>
+        <v>1.441102490090863</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2162967153881911</v>
+        <v>0.2771350942482429</v>
       </c>
       <c r="I100" t="n">
         <v>26.1</v>
@@ -5281,40 +6772,55 @@
         <v>10</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05009912673889635</v>
+        <v>0.05006755436407894</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0001177563481303008</v>
+        <v>9.828835796959465e-05</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>15.87301587301587</v>
+        <v>19.23076923076923</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.8469701569791523</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.8253402042570981</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-0.0297427238449216</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.7801141545357785</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.4460450483702424</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C101" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D101" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="E101" t="n">
-        <v>0.248200848</v>
+        <v>0.215710128</v>
       </c>
       <c r="F101" t="n">
-        <v>5.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>1.429534261267854</v>
+        <v>1.46829226576438</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2507954844329569</v>
+        <v>0.293658453152876</v>
       </c>
       <c r="I101" t="n">
         <v>26.1</v>
@@ -5329,40 +6835,55 @@
         <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05008115913195301</v>
+        <v>0.05006246098625197</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0001051491741838504</v>
+        <v>9.530742574068222e-05</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>17.54385964912281</v>
+        <v>20</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.7563204116547466</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.7267813827419771</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.1003371857082876</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.6867585311954298</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.5990143001595716</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C102" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D102" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E102" t="n">
-        <v>0.225598608</v>
+        <v>0.204409008</v>
       </c>
       <c r="F102" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="G102" t="n">
-        <v>1.441102490090863</v>
+        <v>1.434179304554842</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2771350942482429</v>
+        <v>0.2926896539907841</v>
       </c>
       <c r="I102" t="n">
         <v>26.1</v>
@@ -5377,40 +6898,55 @@
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05006755436407894</v>
+        <v>0.05005998901318298</v>
       </c>
       <c r="N102" t="n">
-        <v>9.828835796959465e-05</v>
+        <v>9.191496572416854e-05</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>19.23076923076923</v>
+        <v>20.40816326530612</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.6527207027125685</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.6775019719844166</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.1653771404848922</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.5800663902350316</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.5900453923355233</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C103" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E103" t="n">
-        <v>0.215710128</v>
+        <v>0.198758448</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G103" t="n">
-        <v>1.46829226576438</v>
+        <v>1.43616158417413</v>
       </c>
       <c r="H103" t="n">
-        <v>0.293658453152876</v>
+        <v>0.2992003300362772</v>
       </c>
       <c r="I103" t="n">
         <v>26.1</v>
@@ -5425,40 +6961,55 @@
         <v>10</v>
       </c>
       <c r="M103" t="n">
-        <v>0.05006246098625197</v>
+        <v>0.05005756686056565</v>
       </c>
       <c r="N103" t="n">
-        <v>9.530742574068222e-05</v>
+        <v>9.022400269454441e-05</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>20</v>
+        <v>20.83333333333334</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.6009208482414795</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.6282225612268562</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.2304170952614968</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.5267203197548325</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.6503196530999328</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C104" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D104" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E104" t="n">
-        <v>0.204409008</v>
+        <v>0.191695248</v>
       </c>
       <c r="F104" t="n">
-        <v>4.9</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>1.434179304554842</v>
+        <v>1.425273839399534</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2926896539907841</v>
+        <v>0.3032497530637306</v>
       </c>
       <c r="I104" t="n">
         <v>26.1</v>
@@ -5473,40 +7024,55 @@
         <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>0.05005998901318298</v>
+        <v>0.05005519453563236</v>
       </c>
       <c r="N104" t="n">
-        <v>9.191496572416854e-05</v>
+        <v>8.811470007620374e-05</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>20.40816326530612</v>
+        <v>21.27659574468085</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.5361710301526181</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.5789431504692957</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.2954570500381014</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.4600377316545837</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.6878082299845244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C105" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D105" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="E105" t="n">
-        <v>0.198758448</v>
+        <v>0.184632048</v>
       </c>
       <c r="F105" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G105" t="n">
-        <v>1.43616158417413</v>
+        <v>1.392092845473691</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2992003300362772</v>
+        <v>0.3093539656608203</v>
       </c>
       <c r="I105" t="n">
         <v>26.1</v>
@@ -5521,40 +7087,55 @@
         <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>0.05005756686056565</v>
+        <v>0.05005059939701022</v>
       </c>
       <c r="N105" t="n">
-        <v>9.022400269454441e-05</v>
+        <v>8.600963974014389e-05</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>20.83333333333334</v>
+        <v>22.22222222222222</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.4714212120637569</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.4803843289541749</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.3279770274264037</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.3933551435543348</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.7443195506626694</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C106" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D106" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="E106" t="n">
-        <v>0.191695248</v>
+        <v>0.174743568</v>
       </c>
       <c r="F106" t="n">
-        <v>4.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="G106" t="n">
-        <v>1.425273839399534</v>
+        <v>1.390731877376867</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3032497530637306</v>
+        <v>0.3160754266765606</v>
       </c>
       <c r="I106" t="n">
         <v>26.1</v>
@@ -5569,40 +7150,55 @@
         <v>10</v>
       </c>
       <c r="M106" t="n">
-        <v>0.05005519453563236</v>
+        <v>0.05004837659704858</v>
       </c>
       <c r="N106" t="n">
-        <v>8.811470007620374e-05</v>
+        <v>8.306797879109174e-05</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>21.27659574468085</v>
+        <v>22.72727272727273</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.3807714667393511</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.4311049181966145</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.458056936979613</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.2999995202139865</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.8065452075913366</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D107" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E107" t="n">
-        <v>0.184632048</v>
+        <v>0.171918288</v>
       </c>
       <c r="F107" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G107" t="n">
-        <v>1.392092845473691</v>
+        <v>1.386249558536238</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3093539656608203</v>
+        <v>0.3223836182642414</v>
       </c>
       <c r="I107" t="n">
         <v>26.1</v>
@@ -5617,40 +7213,55 @@
         <v>10</v>
       </c>
       <c r="M107" t="n">
-        <v>0.05005059939701022</v>
+        <v>0.0500462036522252</v>
       </c>
       <c r="N107" t="n">
-        <v>8.600963974014389e-05</v>
+        <v>8.222829300503518e-05</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>22.22222222222222</v>
+        <v>23.25581395348837</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.3548715395038066</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.381825507439054</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.4905769143679152</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.2733264849738868</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.8649449163237242</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C108" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D108" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174743568</v>
+        <v>0.166267728</v>
       </c>
       <c r="F108" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G108" t="n">
-        <v>1.390731877376867</v>
+        <v>1.358098229316051</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3160754266765606</v>
+        <v>0.3233567212657265</v>
       </c>
       <c r="I108" t="n">
         <v>26.1</v>
@@ -5665,40 +7276,55 @@
         <v>10</v>
       </c>
       <c r="M108" t="n">
-        <v>0.05004837659704858</v>
+        <v>0.05004408056903435</v>
       </c>
       <c r="N108" t="n">
-        <v>8.306797879109174e-05</v>
+        <v>8.0549408791129e-05</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
-        <v>22.72727272727273</v>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.3030716850327175</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.3325460966814934</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.5230968917562175</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.2199804144936874</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.873953668049706</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C109" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D109" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="E109" t="n">
-        <v>0.171918288</v>
+        <v>0.146490768</v>
       </c>
       <c r="F109" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="G109" t="n">
-        <v>1.386249558536238</v>
+        <v>1.257919142884573</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3223836182642414</v>
+        <v>0.3225433699704033</v>
       </c>
       <c r="I109" t="n">
         <v>26.1</v>
@@ -5713,40 +7339,55 @@
         <v>10</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0500462036522252</v>
+        <v>0.05003801055197939</v>
       </c>
       <c r="N109" t="n">
-        <v>8.222829300503518e-05</v>
+        <v>7.466611576101878e-05</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>23.25581395348837</v>
+        <v>25.64102564102564</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.1217721943839059</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1847078644088122</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.6531768013094268</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.0332691678129906</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.8664238588985786</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D110" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166267728</v>
+        <v>0.082921968</v>
       </c>
       <c r="F110" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="G110" t="n">
-        <v>1.358098229316051</v>
+        <v>0.8509896819340258</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3233567212657265</v>
+        <v>0.3039248864050092</v>
       </c>
       <c r="I110" t="n">
         <v>26.1</v>
@@ -5761,40 +7402,55 @@
         <v>10</v>
       </c>
       <c r="M110" t="n">
-        <v>0.05004408056903435</v>
+        <v>0.05001959615990517</v>
       </c>
       <c r="N110" t="n">
-        <v>8.0549408791129e-05</v>
+        <v>5.47649213327718e-05</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>23.80952380952381</v>
+        <v>35.71428571428571</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-0.4609761684158458</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.3573656539243526</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1.173496439522264</v>
+      </c>
+      <c r="T110" t="n">
+        <v>-0.5668741250892497</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.6940584508185252</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C111" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D111" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="E111" t="n">
-        <v>0.146490768</v>
+        <v>0.029241648</v>
       </c>
       <c r="F111" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="G111" t="n">
-        <v>1.257919142884573</v>
+        <v>0.3552126732712135</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3225433699704033</v>
+        <v>0.2089486313360079</v>
       </c>
       <c r="I111" t="n">
         <v>26.1</v>
@@ -5809,40 +7465,55 @@
         <v>10</v>
       </c>
       <c r="M111" t="n">
-        <v>0.05003801055197939</v>
+        <v>0.05000722447806917</v>
       </c>
       <c r="N111" t="n">
-        <v>7.466611576101878e-05</v>
+        <v>3.04131703262001e-05</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>25.64102564102564</v>
+        <v>58.8235294117647</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-0.9530747858911915</v>
+      </c>
+      <c r="R111" t="n">
+        <v>-0.8994391722575176</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.758856032511705</v>
+      </c>
+      <c r="T111" t="n">
+        <v>-1.073661794651142</v>
+      </c>
+      <c r="U111" t="n">
+        <v>-0.1852086981619343</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C112" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D112" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="E112" t="n">
-        <v>0.082921968</v>
+        <v>0.012289968</v>
       </c>
       <c r="F112" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8509896819340258</v>
+        <v>0.155727295166003</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3039248864050092</v>
+        <v>0.1197902270507716</v>
       </c>
       <c r="I112" t="n">
         <v>26.1</v>
@@ -5857,40 +7528,55 @@
         <v>10</v>
       </c>
       <c r="M112" t="n">
-        <v>0.05001959615990517</v>
+        <v>0.05000422482150884</v>
       </c>
       <c r="N112" t="n">
-        <v>5.47649213327718e-05</v>
+        <v>1.632401443759565e-05</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>35.71428571428571</v>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-1.108474349304459</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1.921455919453217</v>
+      </c>
+      <c r="T112" t="n">
+        <v>-1.233700006091739</v>
+      </c>
+      <c r="U112" t="n">
+        <v>-1.01061559472332</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C113" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D113" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="E113" t="n">
-        <v>0.029241648</v>
+        <v>0.003814127999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3552126732712135</v>
+        <v>0.04912798966906962</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2089486313360079</v>
+        <v>0.04093999139089136</v>
       </c>
       <c r="I113" t="n">
         <v>26.1</v>
@@ -5905,40 +7591,55 @@
         <v>10</v>
       </c>
       <c r="M113" t="n">
-        <v>0.05000722447806917</v>
+        <v>0.05000359987040934</v>
       </c>
       <c r="N113" t="n">
-        <v>3.04131703262001e-05</v>
+        <v>5.928788559003939e-06</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>58.8235294117647</v>
+        <v>83.33333333333334</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-1.186174131011092</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-1.14583622604532</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1.986495874229821</v>
+      </c>
+      <c r="T113" t="n">
+        <v>-1.313719111812038</v>
+      </c>
+      <c r="U113" t="n">
+        <v>-1.74059196465632</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C114" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D114" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="E114" t="n">
-        <v>0.012289968</v>
+        <v>0.07020820800000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="G114" t="n">
-        <v>0.155727295166003</v>
+        <v>0.7719795666607646</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1197902270507716</v>
+        <v>0.3216581527753186</v>
       </c>
       <c r="I114" t="n">
         <v>26.1</v>
@@ -5953,1990 +7654,1037 @@
         <v>10</v>
       </c>
       <c r="M114" t="n">
-        <v>0.05000422482150884</v>
+        <v>0.05001439792699698</v>
       </c>
       <c r="N114" t="n">
-        <v>1.632401443759565e-05</v>
+        <v>5.0197065446492e-05</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
-        <v>76.92307692307692</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-0.5775258409757961</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.5544832969545946</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1.40113628124038</v>
+      </c>
+      <c r="T114" t="n">
+        <v>-0.6869027836696977</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.8582287326663941</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B115" t="n">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="C115" t="n">
-        <v>123</v>
+        <v>44.3</v>
       </c>
       <c r="D115" t="n">
-        <v>0.12</v>
+        <v>0.73</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003814127999999999</v>
+        <v>0.3305355403499999</v>
       </c>
       <c r="F115" t="n">
-        <v>1.2</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04912798966906962</v>
+        <v>1.533382517380181</v>
       </c>
       <c r="H115" t="n">
-        <v>0.04093999139089136</v>
+        <v>0.1909567269464734</v>
       </c>
       <c r="I115" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J115" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K115" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M115" t="n">
-        <v>0.05000359987040934</v>
+        <v>0.05512098057908622</v>
       </c>
       <c r="N115" t="n">
-        <v>5.928788559003939e-06</v>
+        <v>0.000128334011886687</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>83.33333333333334</v>
+        <v>15.06849315068493</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.92181713725425</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.860207830165867</v>
+      </c>
+      <c r="S115" t="n">
+        <v>-0.5728263462295702</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.770807641397078</v>
+      </c>
+      <c r="U115" t="n">
+        <v>-0.3517733881028238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B116" t="n">
-        <v>30</v>
+        <v>62.2</v>
       </c>
       <c r="C116" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D116" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.000423792000000001</v>
+        <v>0.02851173495000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1.1</v>
+        <v>2.31</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.005503044913247199</v>
+        <v>0.3582890282400774</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.005002768102951999</v>
+        <v>0.1551034754286049</v>
       </c>
       <c r="I116" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J116" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K116" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M116" t="n">
-        <v>0.05000302490849928</v>
+        <v>0.05501002181421128</v>
       </c>
       <c r="N116" t="n">
-        <v>-7.21485318561648e-07</v>
+        <v>2.491134462463197e-05</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>90.90909090909091</v>
+        <v>52.38095238095238</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.8080351933721422</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.702321529227276</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1.888935942064914</v>
+      </c>
+      <c r="T116" t="n">
+        <v>-1.080552791828362</v>
+      </c>
+      <c r="U116" t="n">
+        <v>-0.6836941005050191</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B117" t="n">
-        <v>26</v>
+        <v>86.2</v>
       </c>
       <c r="C117" t="n">
-        <v>125</v>
+        <v>110.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.006074352000000001</v>
+        <v>0.06289774695</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>2.97</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.07951308174382696</v>
+        <v>0.7278233507291472</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.07951308174382696</v>
+        <v>0.2450583672488711</v>
       </c>
       <c r="I117" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J117" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K117" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M117" t="n">
-        <v>0.05000249993750312</v>
+        <v>0.05501656568707283</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.187032846924242e-05</v>
+        <v>4.236415789825498e-05</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>100</v>
+        <v>40.74074074074074</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-0.497236066545608</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.4066450646819131</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1.579996156876042</v>
+      </c>
+      <c r="T117" t="n">
+        <v>-0.7559197254269838</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.1490864846021547</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B118" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C118" t="n">
-        <v>105</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="E118" t="n">
-        <v>0.07020820800000001</v>
+        <v>0.10272821085</v>
       </c>
       <c r="F118" t="n">
-        <v>2.4</v>
+        <v>3.74</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7719795666607646</v>
+        <v>1.066085402633594</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3216581527753186</v>
+        <v>0.2850495728966829</v>
       </c>
       <c r="I118" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J118" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K118" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M118" t="n">
-        <v>0.05001439792699698</v>
+        <v>0.0550262664552121</v>
       </c>
       <c r="N118" t="n">
-        <v>5.0197065446492e-05</v>
+        <v>5.715690795572146e-05</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>41.66666666666667</v>
+        <v>32.35294117647059</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-0.1372270779715393</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.06168918937898994</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.209268414649396</v>
+      </c>
+      <c r="T118" t="n">
+        <v>-0.3798864235120536</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.519315373377528</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B119" t="n">
-        <v>39.5</v>
+        <v>133</v>
       </c>
       <c r="C119" t="n">
-        <v>128</v>
+        <v>91.3</v>
       </c>
       <c r="D119" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="E119" t="n">
-        <v>0.025461855</v>
+        <v>0.12995047035</v>
       </c>
       <c r="F119" t="n">
-        <v>1.155</v>
+        <v>4.29</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3412939802230124</v>
+        <v>1.242445224808852</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2954926235697077</v>
+        <v>0.289614271517215</v>
       </c>
       <c r="I119" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J119" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K119" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L119" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M119" t="n">
-        <v>0.05250288087333875</v>
+        <v>0.05503455732537511</v>
       </c>
       <c r="N119" t="n">
-        <v>3.340468633674301e-05</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>B8</t>
-        </is>
-      </c>
+        <v>6.607483362026044e-05</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>95.45454545454545</v>
+        <v>28.2051282051282</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.1088222307661336</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.1847078644088122</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.9556125910206381</v>
+      </c>
+      <c r="T119" t="n">
+        <v>-0.1228852459442956</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.5615742468097804</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B120" t="n">
-        <v>19.5</v>
+        <v>155.5</v>
       </c>
       <c r="C120" t="n">
-        <v>71.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.002987145000000002</v>
+        <v>0.1621873566</v>
       </c>
       <c r="F120" t="n">
-        <v>5.46</v>
+        <v>5.06</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.0224286987614259</v>
+        <v>1.41988081429252</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.004107820285975439</v>
+        <v>0.2806088565795494</v>
       </c>
       <c r="I120" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J120" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K120" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L120" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M120" t="n">
-        <v>0.05256434152541056</v>
+        <v>0.05504806990258605</v>
       </c>
       <c r="N120" t="n">
-        <v>-7.728297775509038e-06</v>
+        <v>7.617501186748044e-05</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
-        <v>20.19230769230769</v>
+        <v>23.91304347826087</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.4001964121660095</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.5296637397117354</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.7052087651307103</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.1814582538069969</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.4782042980591728</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B121" t="n">
-        <v>22</v>
+        <v>170.5</v>
       </c>
       <c r="C121" t="n">
-        <v>64.3</v>
+        <v>78.7</v>
       </c>
       <c r="D121" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0005689799999999979</v>
+        <v>0.1836786141</v>
       </c>
       <c r="F121" t="n">
-        <v>6.09</v>
+        <v>5.39</v>
       </c>
       <c r="G121" t="n">
-        <v>0.003831215595031358</v>
+        <v>1.513777145805587</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0006290994408918487</v>
+        <v>0.280849192171723</v>
       </c>
       <c r="I121" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J121" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K121" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L121" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05258003423353774</v>
+        <v>0.0550545411387653</v>
       </c>
       <c r="N121" t="n">
-        <v>1.307935814540861e-06</v>
+        <v>8.279833331028251e-05</v>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
-        <v>18.10344827586207</v>
+        <v>22.44897959183674</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.5944458664325933</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.6775019719844166</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.5458608759280292</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.3843539203078579</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0.4804292667187136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B122" t="n">
-        <v>25</v>
+        <v>176.5</v>
       </c>
       <c r="C122" t="n">
-        <v>50.3</v>
+        <v>76.5</v>
       </c>
       <c r="D122" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004836329999999997</v>
+        <v>0.1922751171</v>
       </c>
       <c r="F122" t="n">
-        <v>7.035</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02547490245187655</v>
+        <v>1.540327743141167</v>
       </c>
       <c r="H122" t="n">
-        <v>0.003621165949094037</v>
+        <v>0.2692880669827215</v>
       </c>
       <c r="I122" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J122" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K122" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L122" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05260677237770817</v>
+        <v>0.0550614202504803</v>
       </c>
       <c r="N122" t="n">
-        <v>9.81537440781552e-06</v>
+        <v>8.543887741684227e-05</v>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>15.67164179104478</v>
+        <v>21.15384615384615</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.6721456481392269</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.8253402042570981</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.4743169256737641</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.4655121869082029</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0.3733991719170772</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B123" t="n">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="C123" t="n">
-        <v>41.2</v>
+        <v>70.5</v>
       </c>
       <c r="D123" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
       <c r="E123" t="n">
-        <v>0.007681229999999997</v>
+        <v>0.21591550035</v>
       </c>
       <c r="F123" t="n">
-        <v>7.665</v>
+        <v>5.94</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0331403128142527</v>
+        <v>1.594048591784952</v>
       </c>
       <c r="H123" t="n">
-        <v>0.004323589408252146</v>
+        <v>0.2683583487853454</v>
       </c>
       <c r="I123" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J123" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K123" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L123" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05262672800013317</v>
+        <v>0.05506623284736301</v>
       </c>
       <c r="N123" t="n">
-        <v>1.446900176031504e-05</v>
+        <v>9.269753064970684e-05</v>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
-        <v>14.38356164383562</v>
+        <v>20.37037037037037</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.8858200478324691</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.9238990257722191</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.2791970613439503</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.6886974200591505</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.3647920661918813</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B124" t="n">
-        <v>80.5</v>
+        <v>197.5</v>
       </c>
       <c r="C124" t="n">
-        <v>114.8</v>
+        <v>68.2</v>
       </c>
       <c r="D124" t="n">
-        <v>0.23</v>
+        <v>0.57</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08378230499999999</v>
+        <v>0.2223628776</v>
       </c>
       <c r="F124" t="n">
-        <v>2.415</v>
+        <v>6.27</v>
       </c>
       <c r="G124" t="n">
-        <v>1.007216450747882</v>
+        <v>1.588090611336287</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4170668533117524</v>
+        <v>0.2532839890488496</v>
       </c>
       <c r="I124" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J124" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K124" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L124" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05251259372760023</v>
+        <v>0.05507379140752887</v>
       </c>
       <c r="N124" t="n">
-        <v>5.952045253191382e-05</v>
+        <v>9.467928167403687e-05</v>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
-        <v>45.65217391304348</v>
+        <v>19.29824561403509</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.9440948841124444</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.0717372580449</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.2044011133508551</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.7495661200094088</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.2252372974911668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B125" t="n">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="C125" t="n">
-        <v>102.2</v>
+        <v>62.6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="E125" t="n">
-        <v>0.11863233</v>
+        <v>0.2775237718499999</v>
       </c>
       <c r="F125" t="n">
-        <v>3.045</v>
+        <v>6.6</v>
       </c>
       <c r="G125" t="n">
-        <v>1.269645781490591</v>
+        <v>1.819295061393822</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4169608477801613</v>
+        <v>0.2756507668778518</v>
       </c>
       <c r="I125" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J125" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K125" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L125" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05252001999238005</v>
+        <v>0.05508175741568164</v>
       </c>
       <c r="N125" t="n">
-        <v>6.974768222532194e-05</v>
+        <v>0.0001117318528275092</v>
       </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
-        <v>36.20689655172414</v>
+        <v>18.33333333333334</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.442668483396676</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.219575490317582</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.02228923997636213</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.270331664028286</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.4323035053480494</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B126" t="n">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="C126" t="n">
-        <v>93.40000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="D126" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="E126" t="n">
-        <v>0.14992623</v>
+        <v>0.24170500935</v>
       </c>
       <c r="F126" t="n">
-        <v>3.675</v>
+        <v>6.82</v>
       </c>
       <c r="G126" t="n">
-        <v>1.466402237756728</v>
+        <v>1.478179300395101</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3990210170766607</v>
+        <v>0.2167418329025075</v>
       </c>
       <c r="I126" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J126" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K126" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L126" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05252915856931273</v>
+        <v>0.05508729436085966</v>
       </c>
       <c r="N126" t="n">
-        <v>7.846548979237314e-05</v>
+        <v>0.0001006363351997667</v>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
-        <v>30</v>
+        <v>17.74193548387097</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1.11891939295237</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.318134311832702</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-0.1142946650545076</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.9321722198601842</v>
+      </c>
+      <c r="U126" t="n">
+        <v>-0.1130611269839822</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B127" t="n">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C127" t="n">
-        <v>87.5</v>
+        <v>52.6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="E127" t="n">
-        <v>0.18264258</v>
+        <v>0.25889801535</v>
       </c>
       <c r="F127" t="n">
-        <v>4.305</v>
+        <v>7.260000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>1.673550047052001</v>
+        <v>1.426077354018782</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3887456555289202</v>
+        <v>0.1964293876058929</v>
       </c>
       <c r="I127" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J127" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K127" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L127" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05254000856490224</v>
+        <v>0.05509891106002006</v>
       </c>
       <c r="N127" t="n">
-        <v>8.759557469632585e-05</v>
+        <v>0.0001059506652933466</v>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
-        <v>25.60975609756098</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1.274318956365637</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.515251954862944</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-0.3029105339066609</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.094488753060873</v>
+      </c>
+      <c r="U127" t="n">
+        <v>-0.3011088221873813</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B128" t="n">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="C128" t="n">
-        <v>84.7</v>
+        <v>47.3</v>
       </c>
       <c r="D128" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.19828953</v>
+        <v>0.28038927285</v>
       </c>
       <c r="F128" t="n">
-        <v>4.62</v>
+        <v>7.59</v>
       </c>
       <c r="G128" t="n">
-        <v>1.758781187766039</v>
+        <v>1.388836600375788</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3806885687805278</v>
+        <v>0.1829824242919352</v>
       </c>
       <c r="I128" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J128" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K128" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L128" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05254607501992894</v>
+        <v>0.05510809831594628</v>
       </c>
       <c r="N128" t="n">
-        <v>9.201851210681664e-05</v>
+        <v>0.0001126236154714265</v>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
-        <v>23.86363636363636</v>
+        <v>15.94202898550725</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1.468568410632221</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.663090187135625</v>
+      </c>
+      <c r="S128" t="n">
+        <v>-0.4752664140646632</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.297384419561735</v>
+      </c>
+      <c r="U128" t="n">
+        <v>-0.425597549258358</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B129" t="n">
-        <v>230.5</v>
+        <v>247</v>
       </c>
       <c r="C129" t="n">
-        <v>58.8</v>
+        <v>40.5</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="E129" t="n">
-        <v>0.297149805</v>
+        <v>0.29328402735</v>
       </c>
       <c r="F129" t="n">
-        <v>6.3</v>
+        <v>7.92</v>
       </c>
       <c r="G129" t="n">
-        <v>1.829706343031134</v>
+        <v>1.243861576746284</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2904295782589102</v>
+        <v>0.157053229387157</v>
       </c>
       <c r="I129" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J129" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K129" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L129" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0525856444288743</v>
+        <v>0.05511769225938256</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0001210535342889649</v>
+        <v>0.0001166445049204666</v>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
-        <v>17.5</v>
+        <v>15.27777777777778</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1.585118083192171</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.810928419408307</v>
+      </c>
+      <c r="S129" t="n">
+        <v>-0.6964022603051189</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.419121819462252</v>
+      </c>
+      <c r="U129" t="n">
+        <v>-0.6656437509402361</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B130" t="n">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4415284799999999</v>
+        <v>0.27036001935</v>
       </c>
       <c r="F130" t="n">
-        <v>10.5</v>
+        <v>7.37</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1.319340831954297</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.1790150382570281</v>
       </c>
       <c r="I130" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J130" t="n">
-        <v>21.6</v>
+        <v>42.3</v>
       </c>
       <c r="K130" t="n">
-        <v>14.5</v>
+        <v>14.605</v>
       </c>
       <c r="L130" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05273755777432246</v>
+        <v>0.05510192827841871</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0001661386366098395</v>
+        <v>0.0001095052196449467</v>
       </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="n">
-        <v>300</v>
-      </c>
-      <c r="C131" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.39601008</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.098957082966697</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.130828224162702</v>
-      </c>
-      <c r="I131" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K131" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L131" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.05265216044950102</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.0001516691940041299</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="n">
-        <v>13.125</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.04594513499999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.575</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.6033449560819195</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.3830761625916949</v>
-      </c>
-      <c r="I132" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K132" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L132" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.05250535686956141</v>
-      </c>
-      <c r="N132" t="n">
-        <v>4.547011198045831e-05</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="n">
-        <v>115</v>
-      </c>
-      <c r="C133" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.13285683</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3.255</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1.360665454009564</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.418023180955319</v>
-      </c>
-      <c r="I133" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L133" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.05252287596847682</v>
-      </c>
-      <c r="N133" t="n">
-        <v>7.37256033707202e-05</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="n">
-        <v>33.87096774193549</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="n">
-        <v>240</v>
-      </c>
-      <c r="C134" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.31066308</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6.405</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1.753505073599009</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.2737712839342714</v>
-      </c>
-      <c r="I134" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L134" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.05258852061049066</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.0001251586105756037</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="n">
-        <v>17.21311475409836</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="n">
-        <v>32</v>
-      </c>
-      <c r="C135" t="n">
-        <v>25</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.01479348</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8.924999999999999</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0387292400741896</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.004339410652570264</v>
-      </c>
-      <c r="I135" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K135" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L135" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.05267174289882574</v>
-      </c>
-      <c r="N135" t="n">
-        <v>2.367101177284477e-05</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="n">
-        <v>12.35294117647059</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-0.0100292535</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.1412601005393772</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-0.1070152276813464</v>
-      </c>
-      <c r="I136" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J136" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K136" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L136" t="n">
-        <v>11</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.05500327262990812</v>
-      </c>
-      <c r="N136" t="n">
-        <v>-1.461478750632609e-05</v>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>91.66666666666667</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
-      </c>
-      <c r="B137" t="n">
-        <v>273</v>
-      </c>
-      <c r="C137" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.3305355403499999</v>
-      </c>
-      <c r="F137" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.533382517380181</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.1909567269464734</v>
-      </c>
-      <c r="I137" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J137" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K137" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L137" t="n">
-        <v>11</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.05512098057908622</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.000128334011886687</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="n">
-        <v>15.06849315068493</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
-      </c>
-      <c r="B138" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>130.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.003438601200000008</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.04695566762060925</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.02943929004426912</v>
-      </c>
-      <c r="I138" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K138" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L138" t="n">
-        <v>11</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.05500477820153447</v>
-      </c>
-      <c r="N138" t="n">
-        <v>4.022424762799586e-06</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="n">
-        <v>75.86206896551725</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
-      </c>
-      <c r="B139" t="n">
-        <v>51.75</v>
-      </c>
-      <c r="C139" t="n">
-        <v>124</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.013539492225</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.1758136864705707</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.08879479114675289</v>
-      </c>
-      <c r="I139" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J139" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K139" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L139" t="n">
-        <v>11</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.05500736314349198</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1.387856206794674e-05</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="n">
-        <v>61.11111111111111</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
-      </c>
-      <c r="B140" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>120</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.02851173495000001</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.3582890282400774</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.1551034754286049</v>
-      </c>
-      <c r="I140" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K140" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L140" t="n">
-        <v>11</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.05501002181421128</v>
-      </c>
-      <c r="N140" t="n">
-        <v>2.491134462463197e-05</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="n">
-        <v>52.38095238095238</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140</v>
-      </c>
-      <c r="B141" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>110.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.06289774695</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.7278233507291472</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.2450583672488711</v>
-      </c>
-      <c r="I141" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J141" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L141" t="n">
-        <v>11</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.05501656568707283</v>
-      </c>
-      <c r="N141" t="n">
-        <v>4.236415789825498e-05</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="n">
-        <v>40.74074074074074</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
-      </c>
-      <c r="B142" t="n">
-        <v>114</v>
-      </c>
-      <c r="C142" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.10272821085</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1.066085402633594</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.2850495728966829</v>
-      </c>
-      <c r="I142" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J142" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L142" t="n">
-        <v>11</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.0550262664552121</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.715690795572146e-05</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="n">
-        <v>32.35294117647059</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142</v>
-      </c>
-      <c r="B143" t="n">
-        <v>133</v>
-      </c>
-      <c r="C143" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.12995047035</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1.242445224808852</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.289614271517215</v>
-      </c>
-      <c r="I143" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J143" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K143" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L143" t="n">
-        <v>11</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.05503455732537511</v>
-      </c>
-      <c r="N143" t="n">
-        <v>6.607483362026044e-05</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="n">
-        <v>28.2051282051282</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143</v>
-      </c>
-      <c r="B144" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.1621873566</v>
-      </c>
-      <c r="F144" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1.41988081429252</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.2806088565795494</v>
-      </c>
-      <c r="I144" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L144" t="n">
-        <v>11</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.05504806990258605</v>
-      </c>
-      <c r="N144" t="n">
-        <v>7.617501186748044e-05</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="n">
-        <v>23.91304347826087</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144</v>
-      </c>
-      <c r="B145" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.1836786141</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1.513777145805587</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.280849192171723</v>
-      </c>
-      <c r="I145" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J145" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K145" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L145" t="n">
-        <v>11</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.0550545411387653</v>
-      </c>
-      <c r="N145" t="n">
-        <v>8.279833331028251e-05</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="n">
-        <v>22.44897959183674</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>145</v>
-      </c>
-      <c r="B146" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.1922751171</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5.720000000000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1.540327743141167</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.2692880669827215</v>
-      </c>
-      <c r="I146" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J146" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K146" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L146" t="n">
-        <v>11</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.0550614202504803</v>
-      </c>
-      <c r="N146" t="n">
-        <v>8.543887741684227e-05</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="n">
-        <v>21.15384615384615</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="n">
-        <v>193</v>
-      </c>
-      <c r="C147" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.21591550035</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1.594048591784952</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.2683583487853454</v>
-      </c>
-      <c r="I147" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J147" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L147" t="n">
-        <v>11</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.05506623284736301</v>
-      </c>
-      <c r="N147" t="n">
-        <v>9.269753064970684e-05</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="n">
-        <v>20.37037037037037</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.2223628776</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1.588090611336287</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.2532839890488496</v>
-      </c>
-      <c r="I148" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K148" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L148" t="n">
-        <v>11</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.05507379140752887</v>
-      </c>
-      <c r="N148" t="n">
-        <v>9.467928167403687e-05</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="n">
-        <v>19.29824561403509</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="n">
-        <v>236</v>
-      </c>
-      <c r="C149" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.2775237718499999</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1.819295061393822</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.2756507668778518</v>
-      </c>
-      <c r="I149" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K149" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L149" t="n">
-        <v>11</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.05508175741568164</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.0001117318528275092</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="n">
-        <v>18.33333333333334</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="n">
-        <v>211</v>
-      </c>
-      <c r="C150" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.24170500935</v>
-      </c>
-      <c r="F150" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1.478179300395101</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.2167418329025075</v>
-      </c>
-      <c r="I150" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K150" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L150" t="n">
-        <v>11</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.05508729436085966</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.0001006363351997667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="n">
-        <v>17.74193548387097</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>150</v>
-      </c>
-      <c r="B151" t="n">
-        <v>223</v>
-      </c>
-      <c r="C151" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.25889801535</v>
-      </c>
-      <c r="F151" t="n">
-        <v>7.260000000000001</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1.426077354018782</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.1964293876058929</v>
-      </c>
-      <c r="I151" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J151" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K151" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L151" t="n">
-        <v>11</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.05509891106002006</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0001059506652933466</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="n">
-        <v>16.66666666666666</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>151</v>
-      </c>
-      <c r="B152" t="n">
-        <v>238</v>
-      </c>
-      <c r="C152" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.28038927285</v>
-      </c>
-      <c r="F152" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1.388836600375788</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.1829824242919352</v>
-      </c>
-      <c r="I152" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J152" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L152" t="n">
-        <v>11</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.05510809831594628</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.0001126236154714265</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="n">
-        <v>15.94202898550725</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="n">
-        <v>247</v>
-      </c>
-      <c r="C153" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.29328402735</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1.243861576746284</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.157053229387157</v>
-      </c>
-      <c r="I153" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K153" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L153" t="n">
-        <v>11</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.05511769225938256</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.0001166445049204666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="n">
-        <v>15.27777777777778</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.3140589096</v>
-      </c>
-      <c r="F154" t="n">
-        <v>8.690000000000001</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1.14121957209414</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.1313256124389114</v>
-      </c>
-      <c r="I154" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K154" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L154" t="n">
-        <v>11</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.05514165848068047</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.0001231502225938371</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="n">
-        <v>13.92405063291139</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="n">
-        <v>231</v>
-      </c>
-      <c r="C155" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.27036001935</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.319340831954297</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.1790150382570281</v>
-      </c>
-      <c r="I155" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J155" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K155" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L155" t="n">
-        <v>11</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.05510192827841871</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.0001095052196449467</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="n">
         <v>16.41791044776119</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1.377918665307815</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.564531365620505</v>
+      </c>
+      <c r="S130" t="n">
+        <v>-0.4980303982364747</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.202699775194666</v>
+      </c>
+      <c r="U130" t="n">
+        <v>-0.4623266475501716</v>
       </c>
     </row>
   </sheetData>

--- a/GK_Data_M1_filled.xlsx
+++ b/GK_Data_M1_filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X122"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,28 +1713,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="C18" t="n">
-        <v>68.3</v>
+        <v>52.1</v>
       </c>
       <c r="D18" t="n">
         <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0184011075</v>
+        <v>0.01735389</v>
       </c>
       <c r="F18" t="n">
         <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1316113318918755</v>
+        <v>0.09468107529214004</v>
       </c>
       <c r="H18" t="n">
-        <v>0.263222663783751</v>
+        <v>0.1893621505842801</v>
       </c>
       <c r="I18" t="n">
         <v>14.1</v>
@@ -1752,61 +1752,61 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N18" t="n">
-        <v>3.880747661278237e-05</v>
+        <v>3.767226321138434e-05</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
         <v>50</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.302723803571042</v>
+        <v>-1.311788778103483</v>
       </c>
       <c r="R18" t="n">
         <v>-1.244395047560441</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2076531110896851</v>
+        <v>-0.3191705226008121</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.176005675179169</v>
+        <v>-1.185892295012088</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3172471392400558</v>
+        <v>-0.3665355895688506</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.02521036601394183</v>
+        <v>0.03322093915128518</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04361147351394183</v>
+        <v>-0.01586704915128518</v>
       </c>
       <c r="X18" t="n">
-        <v>1.59119360013807</v>
+        <v>-0.5789198352706419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="D19" t="n">
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01735389</v>
+        <v>0.015857865</v>
       </c>
       <c r="F19" t="n">
         <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09468107529214004</v>
+        <v>0.08718316632483275</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1893621505842801</v>
+        <v>0.1743663326496655</v>
       </c>
       <c r="I19" t="n">
         <v>14.1</v>
@@ -1824,61 +1824,61 @@
         <v>0.02500499950009998</v>
       </c>
       <c r="N19" t="n">
-        <v>3.767226321138434e-05</v>
+        <v>3.593388593339042e-05</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
         <v>50</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.311788778103483</v>
+        <v>-1.324738741721255</v>
       </c>
       <c r="R19" t="n">
         <v>-1.244395047560441</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.3191705226008121</v>
+        <v>-0.3061625316454912</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.185892295012088</v>
+        <v>-1.200016037630544</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.3665355895688506</v>
+        <v>-0.5053632373047959</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03322093915128518</v>
+        <v>0.03177819087560058</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.01586704915128518</v>
+        <v>-0.01592032587560057</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.5789198352706419</v>
+        <v>-0.5808636719708598</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
       <c r="C20" t="n">
-        <v>52.5</v>
+        <v>51.7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E20" t="n">
-        <v>0.015857865</v>
+        <v>0.01436184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08718316632483275</v>
+        <v>0.07775516461876189</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1743663326496655</v>
+        <v>0.1727892547083598</v>
       </c>
       <c r="I20" t="n">
         <v>14.1</v>
@@ -1893,212 +1893,212 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02500499950009998</v>
+        <v>0.02500404967200313</v>
       </c>
       <c r="N20" t="n">
-        <v>3.593388593339042e-05</v>
+        <v>3.404049516018901e-05</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.324738741721255</v>
+        <v>-1.337688705339028</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.244395047560441</v>
+        <v>-1.293674458318001</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.3061625316454912</v>
+        <v>-0.3321785135561329</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.200016037630544</v>
+        <v>-1.214139780248999</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.5053632373047959</v>
+        <v>-0.5199634426315319</v>
       </c>
       <c r="V20" t="n">
-        <v>0.03177819087560058</v>
+        <v>0.03466368742696979</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01592032587560057</v>
+        <v>-0.02030184742696979</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.5808636719708598</v>
+        <v>-0.7407263982136899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>21.3</v>
+        <v>37.5</v>
       </c>
       <c r="C21" t="n">
-        <v>51.7</v>
+        <v>48.8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01436184</v>
+        <v>0.01121283</v>
       </c>
       <c r="F21" t="n">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07775516461876189</v>
+        <v>0.05730119481576068</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1727892547083598</v>
+        <v>0.06511499410881895</v>
       </c>
       <c r="I21" t="n">
-        <v>14.1</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>11.7</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>15.25</v>
+        <v>15.24</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02500404967200313</v>
+        <v>0.04000378107129374</v>
       </c>
       <c r="N21" t="n">
-        <v>3.404049516018901e-05</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-1.337688705339028</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-1.293674458318001</v>
-      </c>
-      <c r="S21" t="n">
-        <v>-0.3321785135561329</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-1.214139780248999</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-0.5199634426315319</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.03466368742696979</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-0.02030184742696979</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-0.7407263982136899</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01121283</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.05730119481576068</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.06511499410881895</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>30</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.04000378107129374</v>
-      </c>
-      <c r="N22" t="n">
         <v>1.539639106271662e-05</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
+      <c r="P21" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-1.127899294731117</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-1.19511563680288</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.4264864479822098</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-1.243869100777027</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-1.516785649057288</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.01335848876825724</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.002145658768257236</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.5093556915843801</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>59</v>
+      </c>
+      <c r="C22" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04335627599999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1897828097149319</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1482678200897906</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>30</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.04000799920015995</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.939994356867522e-05</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>72.72727272727273</v>
+        <v>50</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.127899294731117</v>
+        <v>-0.8494750769490135</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.19511563680288</v>
+        <v>-0.9487185830150782</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.4264864479822098</v>
+        <v>-0.6541262897003259</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.243869100777027</v>
+        <v>-0.9404077560974774</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.516785649057288</v>
+        <v>-0.7469769407981617</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01335848876825724</v>
+        <v>0.04301794988284502</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.002145658768257236</v>
+        <v>0.0003383261171549731</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.5093556915843801</v>
+        <v>0.08031488321160185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>41.8</v>
+        <v>42.8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04335627599999999</v>
+        <v>0.040366188</v>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1897828097149319</v>
+        <v>0.1809214774018935</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1482678200897906</v>
+        <v>0.1507678978349113</v>
       </c>
       <c r="I23" t="n">
         <v>27</v>
@@ -2113,64 +2113,64 @@
         <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04000799920015995</v>
+        <v>0.04000703063212765</v>
       </c>
       <c r="N23" t="n">
-        <v>3.939994356867522e-05</v>
+        <v>3.7804538094496e-05</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>50</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.8494750769490135</v>
+        <v>-0.875375004184558</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.9487185830150782</v>
+        <v>-0.9979979937726386</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.6541262897003259</v>
+        <v>-0.6216063123120236</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.9404077560974774</v>
+        <v>-0.9686367183932495</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.7469769407981617</v>
+        <v>-0.7238318270054063</v>
       </c>
       <c r="V23" t="n">
-        <v>0.04301794988284502</v>
+        <v>0.03878088400933247</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0003383261171549731</v>
+        <v>0.00158530399066753</v>
       </c>
       <c r="X23" t="n">
-        <v>0.08031488321160185</v>
+        <v>0.3763336568161761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="n">
-        <v>42.8</v>
+        <v>44.2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.040366188</v>
+        <v>0.035881056</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1809214774018935</v>
+        <v>0.1660795285807621</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1507678978349113</v>
+        <v>0.159691854404579</v>
       </c>
       <c r="I24" t="n">
         <v>27</v>
@@ -2185,64 +2185,64 @@
         <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04000703063212765</v>
+        <v>0.04000528090140101</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7804538094496e-05</v>
+        <v>3.524714175986473e-05</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>53.33333333333334</v>
+        <v>61.53846153846153</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.875375004184558</v>
+        <v>-0.9142248950378747</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.9979979937726386</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.6216063123120236</v>
+        <v>-0.5760783439684002</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.9686367183932495</v>
+        <v>-1.010980161836908</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.7238318270054063</v>
+        <v>-0.6412160000817552</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03878088400933247</v>
+        <v>0.0328489917864149</v>
       </c>
       <c r="W24" t="n">
-        <v>0.00158530399066753</v>
+        <v>0.003032064213585102</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3763336568161761</v>
+        <v>0.7197785534618319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>44.2</v>
+        <v>45.9</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.035881056</v>
+        <v>0.028405836</v>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1660795285807621</v>
+        <v>0.136536535515915</v>
       </c>
       <c r="H25" t="n">
-        <v>0.159691854404579</v>
+        <v>0.1422255578290781</v>
       </c>
       <c r="I25" t="n">
         <v>27</v>
@@ -2257,64 +2257,64 @@
         <v>8</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04000528090140101</v>
+        <v>0.04000449974690348</v>
       </c>
       <c r="N25" t="n">
-        <v>3.524714175986473e-05</v>
+        <v>3.044692121693027e-05</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>61.53846153846153</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.9142248950378747</v>
+        <v>-0.9789747131267361</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.096556815287759</v>
+        <v>-1.14583622604532</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.5760783439684002</v>
+        <v>-0.5207943824082865</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.010980161836908</v>
+        <v>-1.081552567576338</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.6412160000817552</v>
+        <v>-0.8029147402777166</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0328489917864149</v>
+        <v>0.02564597980144359</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003032064213585102</v>
+        <v>0.002759856198556409</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7197785534618319</v>
+        <v>0.6551593773836305</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>45.9</v>
+        <v>47.6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.028405836</v>
+        <v>0.02242566</v>
       </c>
       <c r="F26" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="G26" t="n">
-        <v>0.136536535515915</v>
+        <v>0.1117842980832053</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1422255578290781</v>
+        <v>0.1270276114581878</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
@@ -2329,64 +2329,64 @@
         <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04000449974690348</v>
+        <v>0.04000378107129374</v>
       </c>
       <c r="N26" t="n">
-        <v>3.044692121693027e-05</v>
+        <v>2.598094742325615e-05</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>66.66666666666667</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.9789747131267361</v>
+        <v>-1.030774567597825</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.14583622604532</v>
+        <v>-1.19511563680288</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.5207943824082865</v>
+        <v>-0.4655104208481724</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.081552567576338</v>
+        <v>-1.138010492167882</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.8029147402777166</v>
+        <v>-0.9436136440845915</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02564597980144359</v>
+        <v>0.01844296781647228</v>
       </c>
       <c r="W26" t="n">
-        <v>0.002759856198556409</v>
+        <v>0.00398269218352772</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6551593773836305</v>
+        <v>0.9454471333091601</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" t="n">
-        <v>47.6</v>
+        <v>48.9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02242566</v>
+        <v>0.01495044</v>
       </c>
       <c r="F27" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1117842980832053</v>
+        <v>0.07655815372925402</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1270276114581878</v>
+        <v>0.09569769216156752</v>
       </c>
       <c r="I27" t="n">
         <v>27</v>
@@ -2401,64 +2401,64 @@
         <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04000378107129374</v>
+        <v>0.04000312487793922</v>
       </c>
       <c r="N27" t="n">
-        <v>2.598094742325615e-05</v>
+        <v>1.932103097152168e-05</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>72.72727272727273</v>
+        <v>80</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1.030774567597825</v>
+        <v>-1.095524385686686</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.19511563680288</v>
+        <v>-1.244395047560441</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.4655104208481724</v>
+        <v>-0.4232344502433795</v>
       </c>
       <c r="T27" t="n">
-        <v>-1.138010492167882</v>
+        <v>-1.208582897907312</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.9436136440845915</v>
+        <v>-1.233658443152672</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01844296781647228</v>
+        <v>0.01293478218090599</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00398269218352772</v>
+        <v>0.002015657819094008</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9454471333091601</v>
+        <v>0.4784949021861458</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C28" t="n">
-        <v>48.9</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01495044</v>
+        <v>0.17193006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8</v>
+        <v>3.68</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07655815372925402</v>
+        <v>0.2142532379928101</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09569769216156752</v>
+        <v>0.05822098858500274</v>
       </c>
       <c r="I28" t="n">
         <v>27</v>
@@ -2473,64 +2473,64 @@
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04000312487793922</v>
+        <v>0.04006607043372235</v>
       </c>
       <c r="N28" t="n">
-        <v>1.932103097152168e-05</v>
+        <v>8.183314021625664e-05</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>80</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.095524385686686</v>
+        <v>0.2642217941794007</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.244395047560441</v>
+        <v>0.5296637397117354</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.4232344502433795</v>
+        <v>-1.626473613610565</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.208582897907312</v>
+        <v>0.2734376226207205</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.233658443152672</v>
+        <v>-1.580608681220196</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01293478218090599</v>
+        <v>0.1697062195008699</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002015657819094008</v>
+        <v>0.002223840499130103</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4784949021861458</v>
+        <v>0.5279151709327008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
-        <v>11.9</v>
+        <v>27.9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.17193006</v>
+        <v>0.103158036</v>
       </c>
       <c r="F29" t="n">
-        <v>3.68</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2142532379928101</v>
+        <v>0.3013948910924069</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05822098858500274</v>
+        <v>0.1506974455462034</v>
       </c>
       <c r="I29" t="n">
         <v>27</v>
@@ -2545,64 +2545,64 @@
         <v>8</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04006607043372235</v>
+        <v>0.04001952648395531</v>
       </c>
       <c r="N29" t="n">
-        <v>8.183314021625664e-05</v>
+        <v>6.212778826576547e-05</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>17.39130434782609</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2642217941794007</v>
+        <v>-0.3314765322381232</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5296637397117354</v>
+        <v>-0.505203886197034</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.626473613610565</v>
+        <v>-1.106153975397728</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2734376226207205</v>
+        <v>-0.3758285101820364</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.580608681220196</v>
+        <v>-0.7244840572179609</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1697062195008699</v>
+        <v>0.1019131655246693</v>
       </c>
       <c r="W29" t="n">
-        <v>0.002223840499130103</v>
+        <v>0.001244870475330714</v>
       </c>
       <c r="X29" t="n">
-        <v>0.5279151709327008</v>
+        <v>0.2955185005535951</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>27.9</v>
+        <v>30.2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E30" t="n">
-        <v>0.103158036</v>
+        <v>0.08970264000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3013948910924069</v>
+        <v>0.2836878825304874</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1506974455462034</v>
+        <v>0.1541781970274388</v>
       </c>
       <c r="I30" t="n">
         <v>27</v>
@@ -2617,64 +2617,64 @@
         <v>8</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04001952648395531</v>
+        <v>0.04001652783538322</v>
       </c>
       <c r="N30" t="n">
-        <v>6.212778826576547e-05</v>
+        <v>5.787600704126021e-05</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>32</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.3314765322381232</v>
+        <v>-0.4480262047980735</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.505203886197034</v>
+        <v>-0.6037627077121549</v>
       </c>
       <c r="S30" t="n">
-        <v>-1.106153975397728</v>
+        <v>-1.031358027404633</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.3758285101820364</v>
+        <v>-0.5028588405130106</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.7244840572179609</v>
+        <v>-0.6922601036730267</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1019131655246693</v>
+        <v>0.09216791401559046</v>
       </c>
       <c r="W30" t="n">
-        <v>0.001244870475330714</v>
+        <v>-0.002465274015590449</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2955185005535951</v>
+        <v>-0.5852288209723072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
         <v>33</v>
       </c>
-      <c r="B31" t="n">
-        <v>90</v>
-      </c>
-      <c r="C31" t="n">
-        <v>30.2</v>
-      </c>
       <c r="D31" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08970264000000001</v>
+        <v>0.07774228799999999</v>
       </c>
       <c r="F31" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2836878825304874</v>
+        <v>0.2686580609394681</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1541781970274388</v>
+        <v>0.1599155124639691</v>
       </c>
       <c r="I31" t="n">
         <v>27</v>
@@ -2689,64 +2689,64 @@
         <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04001652783538322</v>
+        <v>0.04001377887678193</v>
       </c>
       <c r="N31" t="n">
-        <v>5.787600704126021e-05</v>
+        <v>5.383009871599576e-05</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>34.78260869565217</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4480262047980735</v>
+        <v>-0.5516259137402516</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6037627077121549</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.031358027404633</v>
+        <v>-0.9403020907173861</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.5028588405130106</v>
+        <v>-0.6157746896960989</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6922601036730267</v>
+        <v>-0.6391454279784059</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09216791401559046</v>
+        <v>0.08030412956975536</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.002465274015590449</v>
+        <v>-0.002561841569755363</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.5852288209723072</v>
+        <v>-0.6081528916884692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07774228799999999</v>
+        <v>0.065781936</v>
       </c>
       <c r="F32" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2686580609394681</v>
+        <v>0.2445477221372082</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1599155124639691</v>
+        <v>0.1528423263357551</v>
       </c>
       <c r="I32" t="n">
         <v>27</v>
@@ -2761,64 +2761,64 @@
         <v>8</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04001377887678193</v>
+        <v>0.04001249804748511</v>
       </c>
       <c r="N32" t="n">
-        <v>5.383009871599576e-05</v>
+        <v>4.9409929335566e-05</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>38.09523809523809</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5516259137402516</v>
+        <v>-0.6552256226824296</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.702321529227276</v>
+        <v>-0.7516009399848362</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.9403020907173861</v>
+        <v>-0.8590021472466304</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.6157746896960989</v>
+        <v>-0.7286905388791871</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.6391454279784059</v>
+        <v>-0.7046272707468383</v>
       </c>
       <c r="V32" t="n">
-        <v>0.08030412956975536</v>
+        <v>0.06971146488597399</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.002561841569755363</v>
+        <v>-0.00392952888597399</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6081528916884692</v>
+        <v>-0.9328267536882286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>35.5</v>
+        <v>39.9</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E33" t="n">
-        <v>0.065781936</v>
+        <v>0.05232654</v>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2445477221372082</v>
+        <v>0.2186369359568573</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1528423263357551</v>
+        <v>0.1607624529094539</v>
       </c>
       <c r="I33" t="n">
         <v>27</v>
@@ -2833,64 +2833,64 @@
         <v>8</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04001249804748511</v>
+        <v>0.04000903023068668</v>
       </c>
       <c r="N33" t="n">
-        <v>4.9409929335566e-05</v>
+        <v>4.375935236257245e-05</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>40</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.6552256226824296</v>
+        <v>-0.77177529524238</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.7516009399848362</v>
+        <v>-0.8994391722575176</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.8590021472466304</v>
+        <v>-0.7159142467381002</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.7286905388791871</v>
+        <v>-0.8557208692101612</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.7046272707468383</v>
+        <v>-0.6313046586164568</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06971146488597399</v>
+        <v>0.05106837504251882</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.00392952888597399</v>
+        <v>0.001258164957481177</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.9328267536882286</v>
+        <v>0.2986744637711318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
-        <v>39.9</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05232654</v>
+        <v>0.04485132000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2186369359568573</v>
+        <v>0.1925695891349335</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1607624529094539</v>
+        <v>0.1504449915116668</v>
       </c>
       <c r="I34" t="n">
         <v>27</v>
@@ -2905,64 +2905,64 @@
         <v>8</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04000903023068668</v>
+        <v>0.04000799920015995</v>
       </c>
       <c r="N34" t="n">
-        <v>4.375935236257245e-05</v>
+        <v>4.016844627577722e-05</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>47.05882352941176</v>
+        <v>50</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.77177529524238</v>
+        <v>-0.8365251133312412</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.8994391722575176</v>
+        <v>-0.9487185830150782</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.7159142467381002</v>
+        <v>-0.6801422716109676</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.8557208692101612</v>
+        <v>-0.9262932749495913</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.6313046586164568</v>
+        <v>-0.726821215479617</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05106837504251882</v>
+        <v>0.04640760258165505</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001258164957481177</v>
+        <v>-0.001556282581655043</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2986744637711318</v>
+        <v>-0.3694442948742885</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>42.8</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04485132000000001</v>
+        <v>0.040366188</v>
       </c>
       <c r="F35" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1925695891349335</v>
+        <v>0.1809214774018935</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1504449915116668</v>
+        <v>0.1507678978349113</v>
       </c>
       <c r="I35" t="n">
         <v>27</v>
@@ -2977,64 +2977,64 @@
         <v>8</v>
       </c>
       <c r="M35" t="n">
-        <v>0.04000799920015995</v>
+        <v>0.04000703063212765</v>
       </c>
       <c r="N35" t="n">
-        <v>4.016844627577722e-05</v>
+        <v>3.7804538094496e-05</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>50</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.8365251133312412</v>
+        <v>-0.875375004184558</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.9487185830150782</v>
+        <v>-0.9979979937726386</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.6801422716109676</v>
+        <v>-0.6216063123120236</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.9262932749495913</v>
+        <v>-0.9686367183932495</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.726821215479617</v>
+        <v>-0.7238318270054063</v>
       </c>
       <c r="V35" t="n">
-        <v>0.04640760258165505</v>
+        <v>0.03878088400933247</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.001556282581655043</v>
+        <v>0.00158530399066753</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.3694442948742885</v>
+        <v>0.3763336568161761</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C36" t="n">
-        <v>42.8</v>
+        <v>18.2</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="E36" t="n">
-        <v>0.040366188</v>
+        <v>0.137544048</v>
       </c>
       <c r="F36" t="n">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1809214774018935</v>
+        <v>0.2621451382500264</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1507678978349113</v>
+        <v>0.1057036847782365</v>
       </c>
       <c r="I36" t="n">
         <v>27</v>
@@ -3049,64 +3049,64 @@
         <v>8</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04000703063212765</v>
+        <v>0.04003001998500625</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7804538094496e-05</v>
+        <v>7.220796659648651e-05</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>53.33333333333334</v>
+        <v>25.80645161290323</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.875375004184558</v>
+        <v>-0.03362736902936121</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.9979979937726386</v>
+        <v>-0.2095274216516714</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.6216063123120236</v>
+        <v>-1.42159775606426</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.9686367183932495</v>
+        <v>-0.05119544378065796</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.7238318270054063</v>
+        <v>-1.141025388770961</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03878088400933247</v>
+        <v>0.1430127044977409</v>
       </c>
       <c r="W36" t="n">
-        <v>0.00158530399066753</v>
+        <v>-0.005468656497740892</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3763336568161761</v>
+        <v>-1.2981986481973</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C37" t="n">
-        <v>18.2</v>
+        <v>22.6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137544048</v>
+        <v>0.118108476</v>
       </c>
       <c r="F37" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2621451382500264</v>
+        <v>0.2795233694646424</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1057036847782365</v>
+        <v>0.1294089673447418</v>
       </c>
       <c r="I37" t="n">
         <v>27</v>
@@ -3121,64 +3121,64 @@
         <v>8</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04003001998500625</v>
+        <v>0.0400227747663752</v>
       </c>
       <c r="N37" t="n">
-        <v>7.220796659648651e-05</v>
+        <v>6.660931695708941e-05</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>25.80645161290323</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.03362736902936121</v>
+        <v>-0.2019768960604006</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.2095274216516714</v>
+        <v>-0.4066450646819131</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.42159775606426</v>
+        <v>-1.27850985555573</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.05119544378065796</v>
+        <v>-0.2346836987031764</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.141025388770961</v>
+        <v>-0.9215676284825132</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1430127044977409</v>
+        <v>0.1243696146542857</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.005468656497740892</v>
+        <v>-0.00626113865428575</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.2981986481973</v>
+        <v>-1.486325158752865</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n">
-        <v>22.6</v>
+        <v>12.8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="E38" t="n">
-        <v>0.118108476</v>
+        <v>0.168939972</v>
       </c>
       <c r="F38" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2795233694646424</v>
+        <v>0.2264493119713559</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1294089673447418</v>
+        <v>0.08087475427548427</v>
       </c>
       <c r="I38" t="n">
         <v>27</v>
@@ -3193,212 +3193,212 @@
         <v>8</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0400227747663752</v>
+        <v>0.04003826294933385</v>
       </c>
       <c r="N38" t="n">
-        <v>6.660931695708941e-05</v>
+        <v>8.100217518130307e-05</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>29.62962962962963</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.2019768960604006</v>
+        <v>0.2383218669438562</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.4066450646819131</v>
+        <v>-0.01240977862142972</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.27850985555573</v>
+        <v>-1.597205633961092</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.2346836987031764</v>
+        <v>0.2452086603249487</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.9215676284825132</v>
+        <v>-1.370885609302169</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1243696146542857</v>
+        <v>0.1658928602147086</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.00626113865428575</v>
+        <v>0.003047111785291406</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.486325158752865</v>
+        <v>0.723350680776072</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>143</v>
+        <v>167.5</v>
       </c>
       <c r="C39" t="n">
-        <v>12.8</v>
+        <v>47.2</v>
       </c>
       <c r="D39" t="n">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="E39" t="n">
-        <v>0.168939972</v>
+        <v>0.228329712</v>
       </c>
       <c r="F39" t="n">
-        <v>2.8</v>
+        <v>4.335</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2264493119713559</v>
+        <v>1.128581808083011</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08087475427548427</v>
+        <v>0.2603418242406024</v>
       </c>
       <c r="I39" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="K39" t="n">
-        <v>15.24</v>
+        <v>14.92</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04003826294933385</v>
+        <v>0.04257643127365186</v>
       </c>
       <c r="N39" t="n">
-        <v>8.100217518130307e-05</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>22.85714285714286</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.2383218669438562</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.01240977862142972</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-1.597205633961092</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.2452086603249487</v>
-      </c>
-      <c r="U39" t="n">
-        <v>-1.370885609302169</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.1658928602147086</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.003047111785291406</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.723350680776072</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.228329712</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4.335</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.128581808083011</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2603418242406024</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.04257643127365186</v>
-      </c>
-      <c r="N40" t="n">
         <v>0.0001024721135375306</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
+      <c r="P39" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5555959755792765</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7760607934995376</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.4785184118034933</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.8058980886012084</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.2905770250106184</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.2370243843767981</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-0.008694672376798052</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.7923664139637038</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>147</v>
+      </c>
+      <c r="C40" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.198324846</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.221189523267137</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3341147806476435</v>
+      </c>
+      <c r="I40" t="n">
+        <v>20</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.04255434760397578</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9.469847983134857e-05</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>16.66666666666667</v>
+        <v>19.76744186046512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5555959755792765</v>
+        <v>0.2901217214149452</v>
       </c>
       <c r="R40" t="n">
-        <v>0.7760607934995376</v>
+        <v>0.381825507439054</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.4785184118034933</v>
+        <v>-0.1012866740991868</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8058980886012084</v>
+        <v>0.5226267497631227</v>
       </c>
       <c r="U40" t="n">
-        <v>0.2905770250106184</v>
+        <v>0.9735491742573198</v>
       </c>
       <c r="V40" t="n">
-        <v>0.2370243843767981</v>
+        <v>0.1905268592792694</v>
       </c>
       <c r="W40" t="n">
-        <v>-0.008694672376798052</v>
+        <v>0.007797986720730593</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.7923664139637038</v>
+        <v>0.7106492926093834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C41" t="n">
-        <v>58.8</v>
+        <v>62.2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="E41" t="n">
-        <v>0.198324846</v>
+        <v>0.17929737</v>
       </c>
       <c r="F41" t="n">
-        <v>3.655</v>
+        <v>3.315</v>
       </c>
       <c r="G41" t="n">
-        <v>1.221189523267137</v>
+        <v>1.16786574949594</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3341147806476435</v>
+        <v>0.3522973603306003</v>
       </c>
       <c r="I41" t="n">
         <v>20</v>
@@ -3413,64 +3413,64 @@
         <v>8.5</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04255434760397578</v>
+        <v>0.04254471177479053</v>
       </c>
       <c r="N41" t="n">
-        <v>9.469847983134857e-05</v>
+        <v>8.992349827676397e-05</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>19.76744186046512</v>
+        <v>21.7948717948718</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2901217214149452</v>
+        <v>0.1217721943839059</v>
       </c>
       <c r="R41" t="n">
-        <v>0.381825507439054</v>
+        <v>0.1847078644088122</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.1012866740991868</v>
+        <v>0.009281249021041256</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5226267497631227</v>
+        <v>0.3429912665975081</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9735491742573198</v>
+        <v>1.141879089848627</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1905268592792694</v>
+        <v>0.1768982743368902</v>
       </c>
       <c r="W41" t="n">
-        <v>0.007797986720730593</v>
+        <v>0.002399095663109779</v>
       </c>
       <c r="X41" t="n">
-        <v>0.7106492926093834</v>
+        <v>0.2186353602473781</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C42" t="n">
-        <v>62.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="E42" t="n">
-        <v>0.17929737</v>
+        <v>0.141242418</v>
       </c>
       <c r="F42" t="n">
-        <v>3.315</v>
+        <v>2.805</v>
       </c>
       <c r="G42" t="n">
-        <v>1.16786574949594</v>
+        <v>1.041277348352991</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3522973603306003</v>
+        <v>0.3712218710705851</v>
       </c>
       <c r="I42" t="n">
         <v>20</v>
@@ -3485,64 +3485,64 @@
         <v>8.5</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04254471177479053</v>
+        <v>0.04253201735163758</v>
       </c>
       <c r="N42" t="n">
-        <v>8.992349827676397e-05</v>
+        <v>8.072353897963038e-05</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>21.7948717948718</v>
+        <v>25.75757575757576</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1217721943839059</v>
+        <v>-0.2149268596781728</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1847078644088122</v>
+        <v>-0.1109686001365504</v>
       </c>
       <c r="S42" t="n">
-        <v>0.009281249021041256</v>
+        <v>0.2759450636051202</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3429912665975081</v>
+        <v>-0.016279699733722</v>
       </c>
       <c r="U42" t="n">
-        <v>1.141879089848627</v>
+        <v>1.317077623335841</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1768982743368902</v>
+        <v>0.1440293341817406</v>
       </c>
       <c r="W42" t="n">
-        <v>0.002399095663109779</v>
+        <v>-0.002786916181740623</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2186353602473781</v>
+        <v>-0.2539783772458211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>108</v>
+        <v>86.5</v>
       </c>
       <c r="C43" t="n">
-        <v>70.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D43" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="E43" t="n">
-        <v>0.141242418</v>
+        <v>0.1097739</v>
       </c>
       <c r="F43" t="n">
-        <v>2.805</v>
+        <v>2.295</v>
       </c>
       <c r="G43" t="n">
-        <v>1.041277348352991</v>
+        <v>0.8932000334913826</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3712218710705851</v>
+        <v>0.3891939143753301</v>
       </c>
       <c r="I43" t="n">
         <v>20</v>
@@ -3557,64 +3557,64 @@
         <v>8.5</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04253201735163758</v>
+        <v>0.04252143577067924</v>
       </c>
       <c r="N43" t="n">
-        <v>8.072353897963038e-05</v>
+        <v>7.334588447922147e-05</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>25.75757575757576</v>
+        <v>31.48148148148148</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.2149268596781728</v>
+        <v>-0.4933510774602764</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1109686001365504</v>
+        <v>-0.4066450646819131</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2759450636051202</v>
+        <v>0.513340898539727</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.016279699733722</v>
+        <v>-0.3133691526614701</v>
       </c>
       <c r="U43" t="n">
-        <v>1.317077623335841</v>
+        <v>1.483458444167699</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1440293341817406</v>
+        <v>0.1147679606289855</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.002786916181740623</v>
+        <v>-0.004994060628985483</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.2539783772458211</v>
+        <v>-0.4551207613372799</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>86.5</v>
+        <v>66.5</v>
       </c>
       <c r="C44" t="n">
-        <v>77.7</v>
+        <v>86</v>
       </c>
       <c r="D44" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1097739</v>
+        <v>0.08050086000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>2.295</v>
+        <v>1.955</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8932000334913826</v>
+        <v>0.7249826097664934</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3891939143753301</v>
+        <v>0.3708350945097153</v>
       </c>
       <c r="I44" t="n">
         <v>20</v>
@@ -3629,64 +3629,64 @@
         <v>8.5</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04252143577067924</v>
+        <v>0.04251555597660696</v>
       </c>
       <c r="N44" t="n">
-        <v>7.334588447922147e-05</v>
+        <v>6.626687471391086e-05</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>31.48148148148148</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.4933510774602764</v>
+        <v>-0.7523503498157216</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.4066450646819131</v>
+        <v>-0.6037627077121549</v>
       </c>
       <c r="S44" t="n">
-        <v>0.513340898539727</v>
+        <v>0.7832567108626359</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.3133691526614701</v>
+        <v>-0.5897314344547239</v>
       </c>
       <c r="U44" t="n">
-        <v>1.483458444167699</v>
+        <v>1.313496939682633</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1147679606289855</v>
+        <v>0.08149817974023649</v>
       </c>
       <c r="W44" t="n">
-        <v>-0.004994060628985483</v>
+        <v>-0.0009973197402364797</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.4551207613372799</v>
+        <v>-0.09088814758048551</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>66.5</v>
+        <v>60.5</v>
       </c>
       <c r="C45" t="n">
-        <v>86</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08050086000000001</v>
+        <v>0.07171894799999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1.955</v>
+        <v>1.785</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7249826097664934</v>
+        <v>0.6691758088751654</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3708350945097153</v>
+        <v>0.374888408333426</v>
       </c>
       <c r="I45" t="n">
         <v>20</v>
@@ -3701,64 +3701,64 @@
         <v>8.5</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04251555597660696</v>
+        <v>0.04251296860959019</v>
       </c>
       <c r="N45" t="n">
-        <v>6.626687471391086e-05</v>
+        <v>6.395944280079026e-05</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>36.95652173913043</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.7523503498157216</v>
+        <v>-0.8300501315223551</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.6037627077121549</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7832567108626359</v>
+        <v>0.8840686407663729</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.5897314344547239</v>
+        <v>-0.6726401189927002</v>
       </c>
       <c r="U45" t="n">
-        <v>1.313496939682633</v>
+        <v>1.351021536615918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.08149817974023649</v>
+        <v>0.06907211699865556</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.0009973197402364797</v>
+        <v>0.002646831001344427</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.09088814758048551</v>
+        <v>0.2412120776971232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>60.5</v>
+        <v>52.5</v>
       </c>
       <c r="C46" t="n">
-        <v>89.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07171894799999999</v>
+        <v>0.060009732</v>
       </c>
       <c r="F46" t="n">
-        <v>1.785</v>
+        <v>1.615</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6691758088751654</v>
+        <v>0.5819173311288515</v>
       </c>
       <c r="H46" t="n">
-        <v>0.374888408333426</v>
+        <v>0.3603203288723539</v>
       </c>
       <c r="I46" t="n">
         <v>20</v>
@@ -3773,64 +3773,64 @@
         <v>8.5</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04251296860959019</v>
+        <v>0.04251061632110266</v>
       </c>
       <c r="N46" t="n">
-        <v>6.395944280079026e-05</v>
+        <v>6.058710823196233e-05</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>40.47619047619047</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.8300501315223551</v>
+        <v>-0.9336498404645331</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.702321529227276</v>
+        <v>-0.8008803507423968</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8840686407663729</v>
+        <v>0.997888561625431</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.6726401189927002</v>
+        <v>-0.7831850317100016</v>
       </c>
       <c r="U46" t="n">
-        <v>1.351021536615918</v>
+        <v>1.216153787992311</v>
       </c>
       <c r="V46" t="n">
-        <v>0.06907211699865556</v>
+        <v>0.05504269132267708</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002646831001344427</v>
+        <v>0.004967040677322912</v>
       </c>
       <c r="X46" t="n">
-        <v>0.2412120776971232</v>
+        <v>0.4526583681295178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>52.5</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>92.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E47" t="n">
-        <v>0.060009732</v>
+        <v>0.04903234199999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1.615</v>
+        <v>1.36</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5819173311288515</v>
+        <v>0.4857383485435503</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3603203288723539</v>
+        <v>0.3571605503996693</v>
       </c>
       <c r="I47" t="n">
         <v>20</v>
@@ -3845,64 +3845,64 @@
         <v>8.5</v>
       </c>
       <c r="M47" t="n">
-        <v>0.04251061632110266</v>
+        <v>0.04250752874491764</v>
       </c>
       <c r="N47" t="n">
-        <v>6.058710823196233e-05</v>
+        <v>5.690443052176956e-05</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>44.73684210526316</v>
+        <v>53.125</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.9336498404645331</v>
+        <v>-1.030774567597825</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.8008803507423968</v>
+        <v>-0.9487185830150782</v>
       </c>
       <c r="S47" t="n">
-        <v>0.997888561625431</v>
+        <v>1.062928516402036</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.7831850317100016</v>
+        <v>-0.8868208873824719</v>
       </c>
       <c r="U47" t="n">
-        <v>1.216153787992311</v>
+        <v>1.186901324762752</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05504269132267708</v>
+        <v>0.04702587665068936</v>
       </c>
       <c r="W47" t="n">
-        <v>0.004967040677322912</v>
+        <v>0.002006465349310635</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4526583681295178</v>
+        <v>0.1828540150423916</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C48" t="n">
-        <v>94.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04903234199999999</v>
+        <v>0.04025043</v>
       </c>
       <c r="F48" t="n">
-        <v>1.36</v>
+        <v>1.275</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4857383485435503</v>
+        <v>0.4075919672349995</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3571605503996693</v>
+        <v>0.3196799743019604</v>
       </c>
       <c r="I48" t="n">
         <v>20</v>
@@ -3917,64 +3917,64 @@
         <v>8.5</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04250752874491764</v>
+        <v>0.04250661713192429</v>
       </c>
       <c r="N48" t="n">
-        <v>5.690443052176956e-05</v>
+        <v>5.333692805140196e-05</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>53.125</v>
+        <v>56.66666666666667</v>
       </c>
       <c r="Q48" t="n">
-        <v>-1.030774567597825</v>
+        <v>-1.108474349304459</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.9487185830150782</v>
+        <v>-0.9979979937726386</v>
       </c>
       <c r="S48" t="n">
-        <v>1.062928516402036</v>
+        <v>1.131220468917471</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.8868208873824719</v>
+        <v>-0.969729571920448</v>
       </c>
       <c r="U48" t="n">
-        <v>1.186901324762752</v>
+        <v>0.8399152358331008</v>
       </c>
       <c r="V48" t="n">
-        <v>0.04702587665068936</v>
+        <v>0.03860822124510221</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002006465349310635</v>
+        <v>0.001642208754897789</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1828540150423916</v>
+        <v>0.1496584351551333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C49" t="n">
-        <v>96.7</v>
+        <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04025043</v>
+        <v>0.028541214</v>
       </c>
       <c r="F49" t="n">
-        <v>1.275</v>
+        <v>1.105</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4075919672349995</v>
+        <v>0.3018717230306783</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3196799743019604</v>
+        <v>0.2731870796657723</v>
       </c>
       <c r="I49" t="n">
         <v>20</v>
@@ -3989,64 +3989,64 @@
         <v>8.5</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04250661713192429</v>
+        <v>0.04250497029760167</v>
       </c>
       <c r="N49" t="n">
-        <v>5.333692805140196e-05</v>
+        <v>4.701737441815477e-05</v>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>56.66666666666667</v>
+        <v>65.38461538461539</v>
       </c>
       <c r="Q49" t="n">
-        <v>-1.108474349304459</v>
+        <v>-1.212074058246637</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.9979979937726386</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S49" t="n">
-        <v>1.131220468917471</v>
+        <v>1.271056371687171</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.969729571920448</v>
+        <v>-1.080274484637749</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8399152358331008</v>
+        <v>0.4094952862898124</v>
       </c>
       <c r="V49" t="n">
-        <v>0.03860822124510221</v>
+        <v>0.02137206970032868</v>
       </c>
       <c r="W49" t="n">
-        <v>0.001642208754897789</v>
+        <v>0.007169144299671325</v>
       </c>
       <c r="X49" t="n">
-        <v>0.1496584351551333</v>
+        <v>0.6533413697194259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C50" t="n">
-        <v>101</v>
+        <v>104.3</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.028541214</v>
+        <v>0.013904694</v>
       </c>
       <c r="F50" t="n">
-        <v>1.105</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3018717230306783</v>
+        <v>0.1518708285173636</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2731870796657723</v>
+        <v>0.1786715629616042</v>
       </c>
       <c r="I50" t="n">
         <v>20</v>
@@ -4061,64 +4061,64 @@
         <v>8.5</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04250497029760167</v>
+        <v>0.04250294107470682</v>
       </c>
       <c r="N50" t="n">
-        <v>4.701737441815477e-05</v>
+        <v>3.343273750263127e-05</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
-        <v>65.38461538461539</v>
+        <v>85</v>
       </c>
       <c r="Q50" t="n">
-        <v>-1.212074058246637</v>
+        <v>-1.341573694424359</v>
       </c>
       <c r="R50" t="n">
-        <v>-1.096556815287759</v>
+        <v>-1.244395047560441</v>
       </c>
       <c r="S50" t="n">
-        <v>1.271056371687171</v>
+        <v>1.378372297068568</v>
       </c>
       <c r="T50" t="n">
-        <v>-1.080274484637749</v>
+        <v>-1.218455625534377</v>
       </c>
       <c r="U50" t="n">
-        <v>0.4094952862898124</v>
+        <v>-0.4655064585832887</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02137206970032868</v>
+        <v>0.008144325491548976</v>
       </c>
       <c r="W50" t="n">
-        <v>0.007169144299671325</v>
+        <v>0.005760368508451023</v>
       </c>
       <c r="X50" t="n">
-        <v>0.6533413697194259</v>
+        <v>0.5249562422076758</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D51" t="n">
         <v>0.1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.013904694</v>
+        <v>0.012441042</v>
       </c>
       <c r="F51" t="n">
         <v>0.8500000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1518708285173636</v>
+        <v>0.1360147078027032</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1786715629616042</v>
+        <v>0.1600173032972978</v>
       </c>
       <c r="I51" t="n">
         <v>20</v>
@@ -4136,61 +4136,61 @@
         <v>0.04250294107470682</v>
       </c>
       <c r="N51" t="n">
-        <v>3.343273750263127e-05</v>
+        <v>3.138080119035403e-05</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
         <v>85</v>
       </c>
       <c r="Q51" t="n">
-        <v>-1.341573694424359</v>
+        <v>-1.354523658042132</v>
       </c>
       <c r="R51" t="n">
         <v>-1.244395047560441</v>
       </c>
       <c r="S51" t="n">
-        <v>1.378372297068568</v>
+        <v>1.381624294807398</v>
       </c>
       <c r="T51" t="n">
-        <v>-1.218455625534377</v>
+        <v>-1.232273739624039</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.4655064585832887</v>
+        <v>-0.6382030731156219</v>
       </c>
       <c r="V51" t="n">
-        <v>0.008144325491548976</v>
+        <v>0.007743484757949504</v>
       </c>
       <c r="W51" t="n">
-        <v>0.005760368508451023</v>
+        <v>0.004697557242050496</v>
       </c>
       <c r="X51" t="n">
-        <v>0.5249562422076758</v>
+        <v>0.4280996942685873</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="C52" t="n">
-        <v>104.4</v>
+        <v>26.1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="E52" t="n">
-        <v>0.012441042</v>
+        <v>0.324198918</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8500000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1360147078027032</v>
+        <v>0.886095817008787</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1600173032972978</v>
+        <v>0.1579493434953274</v>
       </c>
       <c r="I52" t="n">
         <v>20</v>
@@ -4205,64 +4205,64 @@
         <v>8.5</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04250294107470682</v>
+        <v>0.04262792511957391</v>
       </c>
       <c r="N52" t="n">
-        <v>3.138080119035403e-05</v>
+        <v>0.0001290114919239752</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>85</v>
+        <v>12.87878787878788</v>
       </c>
       <c r="Q52" t="n">
-        <v>-1.354523658042132</v>
+        <v>1.40381859254336</v>
       </c>
       <c r="R52" t="n">
-        <v>-1.244395047560441</v>
+        <v>1.515251954862944</v>
       </c>
       <c r="S52" t="n">
-        <v>1.381624294807398</v>
+        <v>-1.164689934696672</v>
       </c>
       <c r="T52" t="n">
-        <v>-1.232273739624039</v>
+        <v>1.710984561474115</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.6382030731156219</v>
+        <v>-0.65734774372791</v>
       </c>
       <c r="V52" t="n">
-        <v>0.007743484757949504</v>
+        <v>0.3216017791662684</v>
       </c>
       <c r="W52" t="n">
-        <v>0.004697557242050496</v>
+        <v>0.002597138833731583</v>
       </c>
       <c r="X52" t="n">
-        <v>0.4280996942685873</v>
+        <v>0.2366835108981551</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C53" t="n">
-        <v>26.1</v>
+        <v>38.6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="E53" t="n">
-        <v>0.324198918</v>
+        <v>0.283216662</v>
       </c>
       <c r="F53" t="n">
-        <v>5.61</v>
+        <v>4.845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.886095817008787</v>
+        <v>1.144813448331272</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1579493434953274</v>
+        <v>0.236287605434731</v>
       </c>
       <c r="I53" t="n">
         <v>20</v>
@@ -4277,64 +4277,64 @@
         <v>8.5</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04262792511957391</v>
+        <v>0.0425954516351218</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0001290114919239752</v>
+        <v>0.0001173878385215581</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>12.87878787878788</v>
+        <v>14.91228070175439</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.40381859254336</v>
+        <v>1.041219611245736</v>
       </c>
       <c r="R53" t="n">
-        <v>1.515251954862944</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S53" t="n">
-        <v>-1.164689934696672</v>
+        <v>-0.7581902173428932</v>
       </c>
       <c r="T53" t="n">
-        <v>1.710984561474115</v>
+        <v>1.324077366963559</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.65734774372791</v>
+        <v>0.06788889759366595</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3216017791662684</v>
+        <v>0.2714966874663453</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002597138833731583</v>
+        <v>0.0117199745336547</v>
       </c>
       <c r="X53" t="n">
-        <v>0.2366835108981551</v>
+        <v>1.068069478702751</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C54" t="n">
-        <v>38.6</v>
+        <v>45.6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="E54" t="n">
-        <v>0.283216662</v>
+        <v>0.25247997</v>
       </c>
       <c r="F54" t="n">
-        <v>4.845</v>
+        <v>4.42</v>
       </c>
       <c r="G54" t="n">
-        <v>1.144813448331272</v>
+        <v>1.205647612774469</v>
       </c>
       <c r="H54" t="n">
-        <v>0.236287605434731</v>
+        <v>0.2727709531163956</v>
       </c>
       <c r="I54" t="n">
         <v>20</v>
@@ -4349,64 +4349,64 @@
         <v>8.5</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0425954516351218</v>
+        <v>0.04257945513977369</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0001173878385215581</v>
+        <v>0.0001089321606644941</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>14.91228070175439</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.041219611245736</v>
+        <v>0.7692703752725188</v>
       </c>
       <c r="R54" t="n">
-        <v>1.0717372580449</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.7581902173428932</v>
+        <v>-0.530550375624777</v>
       </c>
       <c r="T54" t="n">
-        <v>1.324077366963559</v>
+        <v>1.033896971080643</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06788889759366595</v>
+        <v>0.4056428875568904</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2714966874663453</v>
+        <v>0.2434378361143882</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0117199745336547</v>
+        <v>0.009042133885611758</v>
       </c>
       <c r="X54" t="n">
-        <v>1.068069478702751</v>
+        <v>0.8240314172896283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C55" t="n">
-        <v>45.6</v>
+        <v>50.2</v>
       </c>
       <c r="D55" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E55" t="n">
-        <v>0.25247997</v>
+        <v>0.236379798</v>
       </c>
       <c r="F55" t="n">
-        <v>4.42</v>
+        <v>4.165</v>
       </c>
       <c r="G55" t="n">
-        <v>1.205647612774469</v>
+        <v>1.242632455002091</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2727709531163956</v>
+        <v>0.2983511296523628</v>
       </c>
       <c r="I55" t="n">
         <v>20</v>
@@ -4421,64 +4421,64 @@
         <v>8.5</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04257945513977369</v>
+        <v>0.04257055907549254</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0001089321606644941</v>
+        <v>0.0001046062385224625</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>16.34615384615385</v>
+        <v>17.3469387755102</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7692703752725188</v>
+        <v>0.626820775477024</v>
       </c>
       <c r="R55" t="n">
-        <v>0.8253402042570981</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.530550375624777</v>
+        <v>-0.3809584796385864</v>
       </c>
       <c r="T55" t="n">
-        <v>1.033896971080643</v>
+        <v>0.8818977160943531</v>
       </c>
       <c r="U55" t="n">
-        <v>0.4056428875568904</v>
+        <v>0.6424579617757696</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2434378361143882</v>
+        <v>0.2249991623688165</v>
       </c>
       <c r="W55" t="n">
-        <v>0.009042133885611758</v>
+        <v>0.01138063563118349</v>
       </c>
       <c r="X55" t="n">
-        <v>0.8240314172896283</v>
+        <v>1.037144708036636</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>173</v>
+        <v>73.5</v>
       </c>
       <c r="C56" t="n">
-        <v>50.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="E56" t="n">
-        <v>0.236379798</v>
+        <v>0.09074642400000001</v>
       </c>
       <c r="F56" t="n">
-        <v>4.165</v>
+        <v>2.21</v>
       </c>
       <c r="G56" t="n">
-        <v>1.242632455002091</v>
+        <v>0.7925454711586858</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2983511296523628</v>
+        <v>0.358617860252799</v>
       </c>
       <c r="I56" t="n">
         <v>20</v>
@@ -4493,284 +4493,284 @@
         <v>8.5</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04257055907549254</v>
+        <v>0.04251987770443372</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0001046062385224625</v>
+        <v>6.881642970169731e-05</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>17.3469387755102</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.626820775477024</v>
+        <v>-0.6617006044913157</v>
       </c>
       <c r="R56" t="n">
-        <v>0.6775019719844166</v>
+        <v>-0.4559244754394736</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.3809584796385864</v>
+        <v>0.6987047696530502</v>
       </c>
       <c r="T56" t="n">
-        <v>0.8818977160943531</v>
+        <v>-0.493004635827085</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6424579617757696</v>
+        <v>1.200392746158674</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2249991623688165</v>
+        <v>0.09192003881382049</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01138063563118349</v>
+        <v>-0.001173614813820487</v>
       </c>
       <c r="X56" t="n">
-        <v>1.037144708036636</v>
+        <v>-0.1069543418200745</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>73.5</v>
+        <v>40</v>
       </c>
       <c r="C57" t="n">
-        <v>83.40000000000001</v>
+        <v>106</v>
       </c>
       <c r="D57" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09074642400000001</v>
+        <v>0.019455192</v>
       </c>
       <c r="F57" t="n">
-        <v>2.21</v>
+        <v>1.08</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7925454711586858</v>
+        <v>0.2159583518568721</v>
       </c>
       <c r="H57" t="n">
-        <v>0.358617860252799</v>
+        <v>0.1999614369045112</v>
       </c>
       <c r="I57" t="n">
-        <v>20</v>
+        <v>26.1</v>
       </c>
       <c r="J57" t="n">
-        <v>11.5</v>
+        <v>26.6</v>
       </c>
       <c r="K57" t="n">
-        <v>14.92</v>
+        <v>14.8</v>
       </c>
       <c r="L57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04251987770443372</v>
+        <v>0.04500399982223803</v>
       </c>
       <c r="N57" t="n">
-        <v>6.881642970169731e-05</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>32.69230769230769</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>-0.6617006044913157</v>
-      </c>
-      <c r="R57" t="n">
-        <v>-0.4559244754394736</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.6987047696530502</v>
-      </c>
-      <c r="T57" t="n">
-        <v>-0.493004635827085</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.200392746158674</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0.09192003881382049</v>
-      </c>
-      <c r="W57" t="n">
-        <v>-0.001173614813820487</v>
-      </c>
-      <c r="X57" t="n">
-        <v>-0.1069543418200745</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>66</v>
-      </c>
-      <c r="C58" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.07976903399999999</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.6782955689768791</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.3627249031961921</v>
-      </c>
-      <c r="I58" t="n">
-        <v>20</v>
-      </c>
-      <c r="J58" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.04251423291087351</v>
-      </c>
-      <c r="N58" t="n">
-        <v>6.607971995364217e-05</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="n">
-        <v>38.63636363636363</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>-0.7588253316246076</v>
-      </c>
-      <c r="R58" t="n">
-        <v>-0.6530421184697154</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.627160819398785</v>
-      </c>
-      <c r="T58" t="n">
-        <v>-0.5966404914995553</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.238414754259056</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.100738534953007</v>
-      </c>
-      <c r="W58" t="n">
-        <v>-0.02096950095300701</v>
-      </c>
-      <c r="X58" t="n">
-        <v>-1.911001076599687</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>40</v>
-      </c>
-      <c r="C59" t="n">
-        <v>106</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.019455192</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.2159583518568721</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.1999614369045112</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.04500399982223803</v>
-      </c>
-      <c r="N59" t="n">
         <v>2.51915394509764e-05</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
       </c>
+      <c r="P57" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-1.095524385686686</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-1.14583622604532</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.433656258628682</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1.166054225052264</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.2684099658827362</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.02865498617308854</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.009199794173088537</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.173667421944133</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64</v>
+      </c>
+      <c r="B58" t="n">
+        <v>240</v>
+      </c>
+      <c r="C58" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.309831192</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.116123361480727</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.1968471537003045</v>
+      </c>
+      <c r="I58" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.04511011527362793</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0001229749557030098</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.494468337867765</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.367413722590263</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.8947741223737629</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.575341063513525</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-0.2972412449439201</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.3106119971765024</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-0.0007808051765024193</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.09961153274786523</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65</v>
+      </c>
+      <c r="B59" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.02134263599999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2378035334921829</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.203250883326652</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.04500469419960545</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.682572308583098e-05</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>75</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="Q59" t="n">
-        <v>-1.095524385686686</v>
+        <v>-1.078689432983583</v>
       </c>
       <c r="R59" t="n">
-        <v>-1.14583622604532</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S59" t="n">
-        <v>1.433656258628682</v>
+        <v>1.446664249584003</v>
       </c>
       <c r="T59" t="n">
-        <v>-1.166054225052264</v>
+        <v>-1.148235155676587</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.2684099658827362</v>
+        <v>-0.2379570682061704</v>
       </c>
       <c r="V59" t="n">
-        <v>0.02865498617308854</v>
+        <v>0.02707980734066717</v>
       </c>
       <c r="W59" t="n">
-        <v>-0.009199794173088537</v>
+        <v>-0.005737171340667178</v>
       </c>
       <c r="X59" t="n">
-        <v>-1.173667421944133</v>
+        <v>-0.7319219289002904</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>240</v>
+        <v>100.2</v>
       </c>
       <c r="C60" t="n">
-        <v>34.4</v>
+        <v>86.3</v>
       </c>
       <c r="D60" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="E60" t="n">
-        <v>0.309831192</v>
+        <v>0.106858368</v>
       </c>
       <c r="F60" t="n">
-        <v>5.67</v>
+        <v>2.34</v>
       </c>
       <c r="G60" t="n">
-        <v>1.116123361480727</v>
+        <v>0.9657127177712319</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1968471537003045</v>
+        <v>0.4126977426372786</v>
       </c>
       <c r="I60" t="n">
         <v>26.1</v>
@@ -4785,64 +4785,64 @@
         <v>9</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04511011527362793</v>
+        <v>0.04501877386157913</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0001229749557030098</v>
+        <v>6.439379564635718e-05</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>14.28571428571429</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.494468337867765</v>
+        <v>-0.3159365758967964</v>
       </c>
       <c r="R60" t="n">
-        <v>1.367413722590263</v>
+        <v>-0.4559244754394736</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.8947741223737629</v>
+        <v>0.7930127040791266</v>
       </c>
       <c r="T60" t="n">
-        <v>1.575341063513525</v>
+        <v>-0.3408942431939617</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.2972412449439201</v>
+        <v>1.701051189333274</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3106119971765024</v>
+        <v>0.1062325436698379</v>
       </c>
       <c r="W60" t="n">
-        <v>-0.0007808051765024193</v>
+        <v>0.0006258243301621308</v>
       </c>
       <c r="X60" t="n">
-        <v>-0.09961153274786523</v>
+        <v>0.07983978927701532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>41.3</v>
+        <v>127.3</v>
       </c>
       <c r="C61" t="n">
-        <v>106.4</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02134263599999999</v>
+        <v>0.146204316</v>
       </c>
       <c r="F61" t="n">
-        <v>1.17</v>
+        <v>3.15</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2378035334921829</v>
+        <v>1.146754964654906</v>
       </c>
       <c r="H61" t="n">
-        <v>0.203250883326652</v>
+        <v>0.3640491951285416</v>
       </c>
       <c r="I61" t="n">
         <v>26.1</v>
@@ -4857,64 +4857,64 @@
         <v>9</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04500469419960545</v>
+        <v>0.04503401492205642</v>
       </c>
       <c r="N61" t="n">
-        <v>2.682572308583098e-05</v>
+        <v>7.574526815905497e-05</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>69.23076923076923</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="Q61" t="n">
-        <v>-1.078689432983583</v>
+        <v>0.03500743814483173</v>
       </c>
       <c r="R61" t="n">
-        <v>-1.096556815287759</v>
+        <v>-0.01240977862142972</v>
       </c>
       <c r="S61" t="n">
-        <v>1.446664249584003</v>
+        <v>0.4222849618524806</v>
       </c>
       <c r="T61" t="n">
-        <v>-1.148235155676587</v>
+        <v>0.0305648184067028</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.2379570682061704</v>
+        <v>1.250674727985424</v>
       </c>
       <c r="V61" t="n">
-        <v>0.02707980734066717</v>
+        <v>0.1511251403938451</v>
       </c>
       <c r="W61" t="n">
-        <v>-0.005737171340667178</v>
+        <v>-0.004920824393845058</v>
       </c>
       <c r="X61" t="n">
-        <v>-0.7319219289002904</v>
+        <v>-0.6277761405856565</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>100.2</v>
+        <v>154.5</v>
       </c>
       <c r="C62" t="n">
-        <v>86.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106858368</v>
+        <v>0.185695452</v>
       </c>
       <c r="F62" t="n">
-        <v>2.34</v>
+        <v>3.69</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9657127177712319</v>
+        <v>1.285379427404147</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4126977426372786</v>
+        <v>0.3483413082396062</v>
       </c>
       <c r="I62" t="n">
         <v>26.1</v>
@@ -4929,64 +4929,64 @@
         <v>9</v>
       </c>
       <c r="M62" t="n">
-        <v>0.04501877386157913</v>
+        <v>0.04504667024320443</v>
       </c>
       <c r="N62" t="n">
-        <v>6.439379564635718e-05</v>
+        <v>8.687437457565096e-05</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
-        <v>34.61538461538461</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.3159365758967964</v>
+        <v>0.3872464485482372</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.4559244754394736</v>
+        <v>0.2832666859239329</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7930127040791266</v>
+        <v>0.13610916083542</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.3408942431939617</v>
+        <v>0.4033945776516502</v>
       </c>
       <c r="U62" t="n">
-        <v>1.701051189333274</v>
+        <v>1.105254918462427</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1062325436698379</v>
+        <v>0.1857790747071139</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0006258243301621308</v>
+        <v>-8.362270711384512e-05</v>
       </c>
       <c r="X62" t="n">
-        <v>0.07983978927701532</v>
+        <v>-0.01066820031271926</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>127.3</v>
+        <v>182.8</v>
       </c>
       <c r="C63" t="n">
-        <v>74.90000000000001</v>
+        <v>55.9</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="E63" t="n">
-        <v>0.146204316</v>
+        <v>0.226783656</v>
       </c>
       <c r="F63" t="n">
-        <v>3.15</v>
+        <v>4.41</v>
       </c>
       <c r="G63" t="n">
-        <v>1.146754964654906</v>
+        <v>1.327553946709679</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3640491951285416</v>
+        <v>0.3010326409772514</v>
       </c>
       <c r="I63" t="n">
         <v>26.1</v>
@@ -5001,64 +5001,64 @@
         <v>9</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04503401492205642</v>
+        <v>0.0450666450936832</v>
       </c>
       <c r="N63" t="n">
-        <v>7.574526815905497e-05</v>
+        <v>9.857897712811113e-05</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>25.71428571428572</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.03500743814483173</v>
+        <v>0.7537304189311923</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.01240977862142972</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4222849618524806</v>
+        <v>-0.1955946085252634</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0305648184067028</v>
+        <v>0.7913020109837096</v>
       </c>
       <c r="U63" t="n">
-        <v>1.250674727985424</v>
+        <v>0.6672827436739468</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1511251403938451</v>
+        <v>0.2259461349338572</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.004920824393845058</v>
+        <v>0.0008375210661428767</v>
       </c>
       <c r="X63" t="n">
-        <v>-0.6277761405856565</v>
+        <v>0.1068470850575357</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>154.5</v>
+        <v>200.2</v>
       </c>
       <c r="C64" t="n">
-        <v>66.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="E64" t="n">
-        <v>0.185695452</v>
+        <v>0.252046368</v>
       </c>
       <c r="F64" t="n">
-        <v>3.69</v>
+        <v>4.77</v>
       </c>
       <c r="G64" t="n">
-        <v>1.285379427404147</v>
+        <v>1.375139588053078</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3483413082396062</v>
+        <v>0.2882892218140624</v>
       </c>
       <c r="I64" t="n">
         <v>26.1</v>
@@ -5073,64 +5073,64 @@
         <v>9</v>
       </c>
       <c r="M64" t="n">
-        <v>0.04504667024320443</v>
+        <v>0.045077960246666</v>
       </c>
       <c r="N64" t="n">
-        <v>8.687437457565096e-05</v>
+        <v>0.0001058923530812394</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>21.95121951219512</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3872464485482372</v>
+        <v>0.9790597858804293</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2832666859239329</v>
+        <v>0.8746196150146586</v>
       </c>
       <c r="S64" t="n">
-        <v>0.13610916083542</v>
+        <v>-0.3191705226008121</v>
       </c>
       <c r="T64" t="n">
-        <v>0.4033945776516502</v>
+        <v>1.029803401088933</v>
       </c>
       <c r="U64" t="n">
-        <v>1.105254918462427</v>
+        <v>0.5493072578249872</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1857790747071139</v>
+        <v>0.2409103338418596</v>
       </c>
       <c r="W64" t="n">
-        <v>-8.362270711384512e-05</v>
+        <v>0.01113603415814046</v>
       </c>
       <c r="X64" t="n">
-        <v>-0.01066820031271926</v>
+        <v>1.420684012616196</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>182.8</v>
+        <v>205.9</v>
       </c>
       <c r="C65" t="n">
-        <v>55.9</v>
+        <v>49.3</v>
       </c>
       <c r="D65" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="E65" t="n">
-        <v>0.226783656</v>
+        <v>0.260322084</v>
       </c>
       <c r="F65" t="n">
-        <v>4.41</v>
+        <v>4.95</v>
       </c>
       <c r="G65" t="n">
-        <v>1.327553946709679</v>
+        <v>1.343960639013871</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3010326409772514</v>
+        <v>0.2715071998007821</v>
       </c>
       <c r="I65" t="n">
         <v>26.1</v>
@@ -5145,64 +5145,64 @@
         <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0450666450936832</v>
+        <v>0.04508394947206822</v>
       </c>
       <c r="N65" t="n">
-        <v>9.857897712811113e-05</v>
+        <v>0.000108308969140759</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>18.36734693877551</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7537304189311923</v>
+        <v>1.052874578501731</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6775019719844166</v>
+        <v>0.9731784365297795</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.1955946085252634</v>
+        <v>-0.4102264592880586</v>
       </c>
       <c r="T65" t="n">
-        <v>0.7913020109837096</v>
+        <v>1.107933166813058</v>
       </c>
       <c r="U65" t="n">
-        <v>0.6672827436739468</v>
+        <v>0.3939433656708483</v>
       </c>
       <c r="V65" t="n">
-        <v>0.2259461349338572</v>
+        <v>0.2519365856688087</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0008375210661428767</v>
+        <v>0.008385498331191288</v>
       </c>
       <c r="X65" t="n">
-        <v>0.1068470850575357</v>
+        <v>1.06978330416082</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>200.2</v>
+        <v>210.2</v>
       </c>
       <c r="C66" t="n">
-        <v>52.1</v>
+        <v>45.2</v>
       </c>
       <c r="D66" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E66" t="n">
-        <v>0.252046368</v>
+        <v>0.266565168</v>
       </c>
       <c r="F66" t="n">
-        <v>4.77</v>
+        <v>5.22</v>
       </c>
       <c r="G66" t="n">
-        <v>1.375139588053078</v>
+        <v>1.261741688060872</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2882892218140624</v>
+        <v>0.2417129670614697</v>
       </c>
       <c r="I66" t="n">
         <v>26.1</v>
@@ -5217,64 +5217,64 @@
         <v>9</v>
       </c>
       <c r="M66" t="n">
-        <v>0.045077960246666</v>
+        <v>0.04509334762467742</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0001058923530812394</v>
+        <v>0.0001101388183892137</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>16.9811320754717</v>
+        <v>15.51724137931035</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.9790597858804293</v>
+        <v>1.108559422058152</v>
       </c>
       <c r="R66" t="n">
-        <v>0.8746196150146586</v>
+        <v>1.121016668802461</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.3191705226008121</v>
+        <v>-0.5435583665800979</v>
       </c>
       <c r="T66" t="n">
-        <v>1.029803401088933</v>
+        <v>1.166873165517222</v>
       </c>
       <c r="U66" t="n">
-        <v>0.5493072578249872</v>
+        <v>0.1181155805289412</v>
       </c>
       <c r="V66" t="n">
-        <v>0.2409103338418596</v>
+        <v>0.2680821687011271</v>
       </c>
       <c r="W66" t="n">
-        <v>0.01113603415814046</v>
+        <v>-0.001517000701127147</v>
       </c>
       <c r="X66" t="n">
-        <v>1.420684012616196</v>
+        <v>-0.1935319713116593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>205.9</v>
+        <v>232</v>
       </c>
       <c r="C67" t="n">
-        <v>49.3</v>
+        <v>39.5</v>
       </c>
       <c r="D67" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E67" t="n">
-        <v>0.260322084</v>
+        <v>0.298216152</v>
       </c>
       <c r="F67" t="n">
-        <v>4.95</v>
+        <v>5.49</v>
       </c>
       <c r="G67" t="n">
-        <v>1.343960639013871</v>
+        <v>1.233550335201606</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2715071998007821</v>
+        <v>0.2246904071405475</v>
       </c>
       <c r="I67" t="n">
         <v>26.1</v>
@@ -5289,64 +5289,64 @@
         <v>9</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04508394947206822</v>
+        <v>0.04510324267721779</v>
       </c>
       <c r="N67" t="n">
-        <v>0.000108308969140759</v>
+        <v>0.0001195032481202116</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>16.36363636363636</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.052874578501731</v>
+        <v>1.390868628925587</v>
       </c>
       <c r="R67" t="n">
-        <v>0.9731784365297795</v>
+        <v>1.268854901075142</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.4102264592880586</v>
+        <v>-0.7289222376934211</v>
       </c>
       <c r="T67" t="n">
-        <v>1.107933166813058</v>
+        <v>1.465685251970894</v>
       </c>
       <c r="U67" t="n">
-        <v>0.3939433656708483</v>
+        <v>-0.03947515327230555</v>
       </c>
       <c r="V67" t="n">
-        <v>0.2519365856688087</v>
+        <v>0.2905284670631307</v>
       </c>
       <c r="W67" t="n">
-        <v>0.008385498331191288</v>
+        <v>0.007687684936869277</v>
       </c>
       <c r="X67" t="n">
-        <v>1.06978330416082</v>
+        <v>0.9807594812248935</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>210.2</v>
+        <v>244.3</v>
       </c>
       <c r="C68" t="n">
-        <v>45.2</v>
+        <v>33.6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="E68" t="n">
-        <v>0.266565168</v>
+        <v>0.316074276</v>
       </c>
       <c r="F68" t="n">
-        <v>5.22</v>
+        <v>5.76</v>
       </c>
       <c r="G68" t="n">
-        <v>1.261741688060872</v>
+        <v>1.11213381828675</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2417129670614697</v>
+        <v>0.1930787878970052</v>
       </c>
       <c r="I68" t="n">
         <v>26.1</v>
@@ -5361,64 +5361,64 @@
         <v>9</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04509334762467742</v>
+        <v>0.04511363430272494</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0001101388183892137</v>
+        <v>0.0001248484337708273</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>15.51724137931035</v>
+        <v>14.0625</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.108559422058152</v>
+        <v>1.550153181424186</v>
       </c>
       <c r="R68" t="n">
-        <v>1.121016668802461</v>
+        <v>1.416693133347823</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.5435583665800979</v>
+        <v>-0.9207901042844047</v>
       </c>
       <c r="T68" t="n">
-        <v>1.166873165517222</v>
+        <v>1.634281062217689</v>
       </c>
       <c r="U68" t="n">
-        <v>0.1181155805289412</v>
+        <v>-0.3321278621702489</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2680821687011271</v>
+        <v>0.313762354841345</v>
       </c>
       <c r="W68" t="n">
-        <v>-0.001517000701127147</v>
+        <v>0.002311921158655028</v>
       </c>
       <c r="X68" t="n">
-        <v>-0.1935319713116593</v>
+        <v>0.2949442666830658</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69" t="n">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="C69" t="n">
-        <v>39.5</v>
+        <v>96</v>
       </c>
       <c r="D69" t="n">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="E69" t="n">
-        <v>0.298216152</v>
+        <v>0.07753039199999999</v>
       </c>
       <c r="F69" t="n">
-        <v>5.49</v>
+        <v>2.07</v>
       </c>
       <c r="G69" t="n">
-        <v>1.233550335201606</v>
+        <v>0.7794205117988379</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2246904071405475</v>
+        <v>0.3765316482119989</v>
       </c>
       <c r="I69" t="n">
         <v>26.1</v>
@@ -5433,64 +5433,64 @@
         <v>9</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04510324267721779</v>
+        <v>0.04501469204604204</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0001195032481202116</v>
+        <v>5.508256930259357e-05</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>14.75409836065574</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.390868628925587</v>
+        <v>-0.5775258409757961</v>
       </c>
       <c r="R69" t="n">
-        <v>1.268854901075142</v>
+        <v>-0.6037627077121549</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.7289222376934211</v>
+        <v>1.108456484745659</v>
       </c>
       <c r="T69" t="n">
-        <v>1.465685251970894</v>
+        <v>-0.6177751673391064</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.03947515327230555</v>
+        <v>1.366234253121471</v>
       </c>
       <c r="V69" t="n">
-        <v>0.2905284670631307</v>
+        <v>0.06803445698362115</v>
       </c>
       <c r="W69" t="n">
-        <v>0.007687684936869277</v>
+        <v>0.00949593501637884</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9807594812248935</v>
+        <v>1.211447708495936</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70" t="n">
-        <v>244.3</v>
+        <v>122.6</v>
       </c>
       <c r="C70" t="n">
-        <v>33.6</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="E70" t="n">
-        <v>0.316074276</v>
+        <v>0.13938048</v>
       </c>
       <c r="F70" t="n">
-        <v>5.76</v>
+        <v>2.97</v>
       </c>
       <c r="G70" t="n">
-        <v>1.11213381828675</v>
+        <v>1.139938988230136</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1930787878970052</v>
+        <v>0.3838178411549278</v>
       </c>
       <c r="I70" t="n">
         <v>26.1</v>
@@ -5505,284 +5505,284 @@
         <v>9</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04511363430272494</v>
+        <v>0.04503023983946788</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0001248484337708273</v>
+        <v>7.381377475667859e-05</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>14.0625</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.550153181424186</v>
+        <v>-0.02585739085869792</v>
       </c>
       <c r="R70" t="n">
-        <v>1.416693133347823</v>
+        <v>-0.1109686001365504</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.9207901042844047</v>
+        <v>0.5263488894950475</v>
       </c>
       <c r="T70" t="n">
-        <v>1.634281062217689</v>
+        <v>-0.03385797087459325</v>
       </c>
       <c r="U70" t="n">
-        <v>-0.3321278621702489</v>
+        <v>1.433688061351709</v>
       </c>
       <c r="V70" t="n">
-        <v>0.313762354841345</v>
+        <v>0.1385237097344746</v>
       </c>
       <c r="W70" t="n">
-        <v>0.002311921158655028</v>
+        <v>0.0008567702655253584</v>
       </c>
       <c r="X70" t="n">
-        <v>0.2949442666830658</v>
+        <v>0.1093028093692614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>25.6</v>
       </c>
       <c r="C71" t="n">
-        <v>96</v>
+        <v>120.1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07753039199999999</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.07</v>
+        <v>0.8576999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7794205117988379</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3765316482119989</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>26.1</v>
+        <v>25</v>
       </c>
       <c r="J71" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="K71" t="n">
-        <v>14.8</v>
+        <v>14.28</v>
       </c>
       <c r="L71" t="n">
-        <v>9</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04501469204604204</v>
+        <v>0.04765212482145995</v>
       </c>
       <c r="N71" t="n">
-        <v>5.508256930259357e-05</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>-0.5775258409757961</v>
-      </c>
-      <c r="R71" t="n">
-        <v>-0.6037627077121549</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.108456484745659</v>
-      </c>
-      <c r="T71" t="n">
-        <v>-0.6177751673391064</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.366234253121471</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0.06803445698362115</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.00949593501637884</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.211447708495936</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>77</v>
-      </c>
-      <c r="B72" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="C72" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.13938048</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.139938988230136</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.3838178411549278</v>
-      </c>
-      <c r="I72" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.04503023983946788</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.381377475667859e-05</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>-0.02585739085869792</v>
-      </c>
-      <c r="R72" t="n">
-        <v>-0.1109686001365504</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.5263488894950475</v>
-      </c>
-      <c r="T72" t="n">
-        <v>-0.03385797087459325</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.433688061351709</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.1385237097344746</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.0008567702655253584</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.1093028093692614</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>78</v>
-      </c>
-      <c r="B73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C73" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="n">
-        <v>0.8576999999999999</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.04765212482145995</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
+      <c r="P71" t="n">
+        <v>105.8888888888889</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-1.282003861782607</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-1.293674458318001</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.892187939803744</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-1.349727709386172</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-2.1196044818734</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.01646601278680093</v>
+      </c>
+      <c r="W71" t="n">
+        <v>-0.01646601278680093</v>
+      </c>
+      <c r="X71" t="n">
+        <v>-1.478790039739221</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0337609188</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.4048073246006572</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.326747376382805</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+      <c r="J72" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.04765443316208891</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.596301638584569e-05</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="n">
+        <v>73.30769230769231</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-0.9699097385942955</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-1.096556815287759</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.710076066429252</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-1.030996052031666</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.9053435312929314</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.03479719005612086</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-0.001036271256120866</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-0.09306610117829944</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.048329946</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.5248</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5572271221183084</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3654427610954278</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="L73" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.04765671516166426</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4.362385959469624e-05</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>105.8888888888889</v>
+        <v>59.56249999999999</v>
       </c>
       <c r="Q73" t="n">
-        <v>-1.282003861782607</v>
+        <v>-0.8352301169694641</v>
       </c>
       <c r="R73" t="n">
-        <v>-1.293674458318001</v>
+        <v>-0.9487185830150782</v>
       </c>
       <c r="S73" t="n">
-        <v>1.892187939803744</v>
+        <v>1.566988165920721</v>
       </c>
       <c r="T73" t="n">
-        <v>-1.349727709386172</v>
+        <v>-0.8934521003102188</v>
       </c>
       <c r="U73" t="n">
-        <v>-2.1196044818734</v>
+        <v>1.263576023932817</v>
       </c>
       <c r="V73" t="n">
-        <v>0.01646601278680093</v>
+        <v>0.04920025791058652</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.01646601278680093</v>
+        <v>-0.0008703119105865215</v>
       </c>
       <c r="X73" t="n">
-        <v>-1.478790039739221</v>
+        <v>-0.07816151982302716</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" t="n">
-        <v>49.7</v>
+        <v>78.5</v>
       </c>
       <c r="C74" t="n">
-        <v>114.5</v>
+        <v>101.2</v>
       </c>
       <c r="D74" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0337609188</v>
+        <v>0.0741059172</v>
       </c>
       <c r="F74" t="n">
-        <v>1.2389</v>
+        <v>2.0013</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4048073246006572</v>
+        <v>0.7853477744127004</v>
       </c>
       <c r="H74" t="n">
-        <v>0.326747376382805</v>
+        <v>0.3924188149766155</v>
       </c>
       <c r="I74" t="n">
         <v>25</v>
@@ -5797,64 +5797,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04765443316208891</v>
+        <v>0.047661567326306</v>
       </c>
       <c r="N74" t="n">
-        <v>3.596301638584569e-05</v>
+        <v>5.38630247871673e-05</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>73.30769230769231</v>
+        <v>45.38095238095238</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.9699097385942955</v>
+        <v>-0.5969507864024545</v>
       </c>
       <c r="R74" t="n">
-        <v>-1.096556815287759</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S74" t="n">
-        <v>1.710076066429252</v>
+        <v>1.277560367164831</v>
       </c>
       <c r="T74" t="n">
-        <v>-1.030996052031666</v>
+        <v>-0.6501051088030437</v>
       </c>
       <c r="U74" t="n">
-        <v>0.9053435312929314</v>
+        <v>1.513313792279472</v>
       </c>
       <c r="V74" t="n">
-        <v>0.03479719005612086</v>
+        <v>0.07833373607075561</v>
       </c>
       <c r="W74" t="n">
-        <v>-0.001036271256120866</v>
+        <v>-0.004227818870755615</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.09306610117829944</v>
+        <v>-0.3796946180502508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" t="n">
-        <v>60.1</v>
+        <v>92.7</v>
       </c>
       <c r="C75" t="n">
-        <v>110.1</v>
+        <v>95</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="E75" t="n">
-        <v>0.048329946</v>
+        <v>0.09399824279999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1.5248</v>
+        <v>2.3825</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5572271221183084</v>
+        <v>0.9351299319309605</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3654427610954278</v>
+        <v>0.3924994467706026</v>
       </c>
       <c r="I75" t="n">
         <v>25</v>
@@ -5869,64 +5869,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04765671516166426</v>
+        <v>0.04766639277310587</v>
       </c>
       <c r="N75" t="n">
-        <v>4.362385959469624e-05</v>
+        <v>6.044625848986535e-05</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>59.56249999999999</v>
+        <v>38.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.8352301169694641</v>
+        <v>-0.4130613030300884</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.9487185830150782</v>
+        <v>-0.505203886197034</v>
       </c>
       <c r="S75" t="n">
-        <v>1.566988165920721</v>
+        <v>1.075936507357357</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.8934521003102188</v>
+        <v>-0.4623047131833761</v>
       </c>
       <c r="U75" t="n">
-        <v>1.263576023932817</v>
+        <v>1.514060261884583</v>
       </c>
       <c r="V75" t="n">
-        <v>0.04920025791058652</v>
+        <v>0.09862896804750265</v>
       </c>
       <c r="W75" t="n">
-        <v>-0.0008703119105865215</v>
+        <v>-0.004630725247502659</v>
       </c>
       <c r="X75" t="n">
-        <v>-0.07816151982302716</v>
+        <v>-0.41587908751444</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B76" t="n">
-        <v>78.5</v>
+        <v>122.8</v>
       </c>
       <c r="C76" t="n">
-        <v>101.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0741059172</v>
+        <v>0.1361643696</v>
       </c>
       <c r="F76" t="n">
-        <v>2.0013</v>
+        <v>3.2402</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7853477744127004</v>
+        <v>1.160690694459536</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3924188149766155</v>
+        <v>0.3582157565766113</v>
       </c>
       <c r="I76" t="n">
         <v>25</v>
@@ -5941,64 +5941,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M76" t="n">
-        <v>0.047661567326306</v>
+        <v>0.04768031564492836</v>
       </c>
       <c r="N76" t="n">
-        <v>5.38630247871673e-05</v>
+        <v>7.312195408049543e-05</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>45.38095238095238</v>
+        <v>28.02941176470588</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.5969507864024545</v>
+        <v>-0.02326739813514343</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.702321529227276</v>
+        <v>-0.06168918937898994</v>
       </c>
       <c r="S76" t="n">
-        <v>1.277560367164831</v>
+        <v>0.6336648148764455</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.6501051088030437</v>
+        <v>-0.06422077598957351</v>
       </c>
       <c r="U76" t="n">
-        <v>1.513313792279472</v>
+        <v>1.196670167786856</v>
       </c>
       <c r="V76" t="n">
-        <v>0.07833373607075561</v>
+        <v>0.143147541415851</v>
       </c>
       <c r="W76" t="n">
-        <v>-0.004227818870755615</v>
+        <v>-0.006983171815851036</v>
       </c>
       <c r="X76" t="n">
-        <v>-0.3796946180502508</v>
+        <v>-0.6271490895079316</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>92.7</v>
+        <v>142.2</v>
       </c>
       <c r="C77" t="n">
-        <v>95</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09399824279999999</v>
+        <v>0.1633412088</v>
       </c>
       <c r="F77" t="n">
-        <v>2.3825</v>
+        <v>3.6214</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9351299319309605</v>
+        <v>1.289720874540985</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3924994467706026</v>
+        <v>0.3561387514610331</v>
       </c>
       <c r="I77" t="n">
         <v>25</v>
@@ -6013,64 +6013,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04766639277310587</v>
+        <v>0.04768786533280767</v>
       </c>
       <c r="N77" t="n">
-        <v>6.044625848986535e-05</v>
+        <v>8.105294333873126e-05</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>38.12</v>
+        <v>25.07894736842105</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.4130613030300884</v>
+        <v>0.2279618960496383</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.505203886197034</v>
+        <v>0.1354284536512518</v>
       </c>
       <c r="S77" t="n">
-        <v>1.075936507357357</v>
+        <v>0.4385449505466317</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.4623047131833761</v>
+        <v>0.1923515954908176</v>
       </c>
       <c r="U77" t="n">
-        <v>1.514060261884583</v>
+        <v>1.177441757853599</v>
       </c>
       <c r="V77" t="n">
-        <v>0.09862896804750265</v>
+        <v>0.1627880884901223</v>
       </c>
       <c r="W77" t="n">
-        <v>-0.004630725247502659</v>
+        <v>0.0005531203098776416</v>
       </c>
       <c r="X77" t="n">
-        <v>-0.41587908751444</v>
+        <v>0.04967497691245518</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" t="n">
-        <v>122.8</v>
+        <v>158.9</v>
       </c>
       <c r="C78" t="n">
-        <v>81.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1361643696</v>
+        <v>0.1867357044</v>
       </c>
       <c r="F78" t="n">
-        <v>3.2402</v>
+        <v>4.0979</v>
       </c>
       <c r="G78" t="n">
-        <v>1.160690694459536</v>
+        <v>1.331689863830518</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3582157565766113</v>
+        <v>0.3249688532737545</v>
       </c>
       <c r="I78" t="n">
         <v>25</v>
@@ -6085,64 +6085,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04768031564492836</v>
+        <v>0.04769848005964131</v>
       </c>
       <c r="N78" t="n">
-        <v>7.312195408049543e-05</v>
+        <v>8.790692274016674e-05</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>28.02941176470588</v>
+        <v>22.16279069767442</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.02326739813514343</v>
+        <v>0.4442262884664352</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.06168918937898994</v>
+        <v>0.381825507439054</v>
       </c>
       <c r="S78" t="n">
-        <v>0.6336648148764455</v>
+        <v>0.2011491156120246</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.06422077598957351</v>
+        <v>0.4132154410435258</v>
       </c>
       <c r="U78" t="n">
-        <v>1.196670167786856</v>
+        <v>0.8888783954297133</v>
       </c>
       <c r="V78" t="n">
-        <v>0.143147541415851</v>
+        <v>0.1866840874304858</v>
       </c>
       <c r="W78" t="n">
-        <v>-0.006983171815851036</v>
+        <v>5.161696951416772e-05</v>
       </c>
       <c r="X78" t="n">
-        <v>-0.6271490895079316</v>
+        <v>0.004635649284826288</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>142.2</v>
+        <v>167.4</v>
       </c>
       <c r="C79" t="n">
-        <v>75.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="D79" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1633412088</v>
+        <v>0.1986430824</v>
       </c>
       <c r="F79" t="n">
-        <v>3.6214</v>
+        <v>4.4791</v>
       </c>
       <c r="G79" t="n">
-        <v>1.289720874540985</v>
+        <v>1.316757418027514</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3561387514610331</v>
+        <v>0.2939781246293929</v>
       </c>
       <c r="I79" t="n">
         <v>25</v>
@@ -6157,64 +6157,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04768786533280767</v>
+        <v>0.04770791338970926</v>
       </c>
       <c r="N79" t="n">
-        <v>8.105294333873126e-05</v>
+        <v>9.14214200577211e-05</v>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>25.07894736842105</v>
+        <v>20.27659574468085</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.2279618960496383</v>
+        <v>0.5543009792174994</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1354284536512518</v>
+        <v>0.5789431504692957</v>
       </c>
       <c r="S79" t="n">
-        <v>0.4385449505466317</v>
+        <v>0.0450532241481736</v>
       </c>
       <c r="T79" t="n">
-        <v>0.1923515954908176</v>
+        <v>0.5256311708158617</v>
       </c>
       <c r="U79" t="n">
-        <v>1.177441757853599</v>
+        <v>0.6019737412068438</v>
       </c>
       <c r="V79" t="n">
-        <v>0.1627880884901223</v>
+        <v>0.2023965250899029</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0005531203098776416</v>
+        <v>-0.003753442689902908</v>
       </c>
       <c r="X79" t="n">
-        <v>0.04967497691245518</v>
+        <v>-0.3370915434372616</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>158.9</v>
+        <v>196.5</v>
       </c>
       <c r="C80" t="n">
-        <v>68.09999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="D80" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1867357044</v>
+        <v>0.2394083412</v>
       </c>
       <c r="F80" t="n">
-        <v>4.0979</v>
+        <v>4.9556</v>
       </c>
       <c r="G80" t="n">
-        <v>1.331689863830518</v>
+        <v>1.388921370669364</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3249688532737545</v>
+        <v>0.2802730992552596</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
@@ -6229,64 +6229,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04769848005964131</v>
+        <v>0.04772088117375872</v>
       </c>
       <c r="N80" t="n">
-        <v>8.790692274016674e-05</v>
+        <v>0.0001036238152248013</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>22.16279069767442</v>
+        <v>18.32692307692308</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.4442262884664352</v>
+        <v>0.9311449204946721</v>
       </c>
       <c r="R80" t="n">
-        <v>0.381825507439054</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S80" t="n">
-        <v>0.2011491156120246</v>
+        <v>-0.2118545972194145</v>
       </c>
       <c r="T80" t="n">
-        <v>0.4132154410435258</v>
+        <v>0.9104897280364482</v>
       </c>
       <c r="U80" t="n">
-        <v>0.8888783954297133</v>
+        <v>0.475095938132125</v>
       </c>
       <c r="V80" t="n">
-        <v>0.1866840874304858</v>
+        <v>0.2282565787376935</v>
       </c>
       <c r="W80" t="n">
-        <v>5.161696951416772e-05</v>
+        <v>0.01115176246230648</v>
       </c>
       <c r="X80" t="n">
-        <v>0.004635649284826288</v>
+        <v>1.001524501913162</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>167.4</v>
+        <v>206.1</v>
       </c>
       <c r="C81" t="n">
-        <v>63.3</v>
+        <v>48</v>
       </c>
       <c r="D81" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1986430824</v>
+        <v>0.2528566739999999</v>
       </c>
       <c r="F81" t="n">
-        <v>4.4791</v>
+        <v>5.432099999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>1.316757418027514</v>
+        <v>1.270996271119279</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2939781246293929</v>
+        <v>0.2339788058245023</v>
       </c>
       <c r="I81" t="n">
         <v>25</v>
@@ -6301,64 +6301,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04770791338970926</v>
+        <v>0.04773515476040693</v>
       </c>
       <c r="N81" t="n">
-        <v>9.14214200577211e-05</v>
+        <v>0.000107710161015348</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>20.27659574468085</v>
+        <v>16.71929824561403</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5543009792174994</v>
+        <v>1.055464571225286</v>
       </c>
       <c r="R81" t="n">
-        <v>0.5789431504692957</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S81" t="n">
-        <v>0.0450532241481736</v>
+        <v>-0.4525024298928516</v>
       </c>
       <c r="T81" t="n">
-        <v>0.5256311708158617</v>
+        <v>1.037453375779322</v>
       </c>
       <c r="U81" t="n">
-        <v>0.6019737412068438</v>
+        <v>0.04651459041153758</v>
       </c>
       <c r="V81" t="n">
-        <v>0.2023965250899029</v>
+        <v>0.2524799201292948</v>
       </c>
       <c r="W81" t="n">
-        <v>-0.003753442689902908</v>
+        <v>0.0003767538707051821</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.3370915434372616</v>
+        <v>0.0338357487417125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" t="n">
-        <v>196.5</v>
+        <v>214.1</v>
       </c>
       <c r="C82" t="n">
-        <v>55.4</v>
+        <v>43.2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2394083412</v>
+        <v>0.264063618</v>
       </c>
       <c r="F82" t="n">
-        <v>4.9556</v>
+        <v>5.717999999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>1.388921370669364</v>
+        <v>1.194595664240364</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2802730992552596</v>
+        <v>0.208918444253299</v>
       </c>
       <c r="I82" t="n">
         <v>25</v>
@@ -6373,64 +6373,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>0.04772088117375872</v>
+        <v>0.04774434521490476</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0001036238152248013</v>
+        <v>0.0001111381613507411</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>18.32692307692308</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.9311449204946721</v>
+        <v>1.159064280167464</v>
       </c>
       <c r="R82" t="n">
-        <v>0.8253402042570981</v>
+        <v>1.219575490317582</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.2118545972194145</v>
+        <v>-0.6085983213567026</v>
       </c>
       <c r="T82" t="n">
-        <v>0.9104897280364482</v>
+        <v>1.143256415565051</v>
       </c>
       <c r="U82" t="n">
-        <v>0.475095938132125</v>
+        <v>-0.1854881628568751</v>
       </c>
       <c r="V82" t="n">
-        <v>0.2282565787376935</v>
+        <v>0.2681923577887119</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01115176246230648</v>
+        <v>-0.004128739788711866</v>
       </c>
       <c r="X82" t="n">
-        <v>1.001524501913162</v>
+        <v>-0.3707964614916546</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" t="n">
-        <v>206.1</v>
+        <v>226</v>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>39.8</v>
       </c>
       <c r="D83" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2528566739999999</v>
+        <v>0.2807339472</v>
       </c>
       <c r="F83" t="n">
-        <v>5.432099999999999</v>
+        <v>5.8133</v>
       </c>
       <c r="G83" t="n">
-        <v>1.270996271119279</v>
+        <v>1.170055930141468</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2339788058245023</v>
+        <v>0.2012722429844439</v>
       </c>
       <c r="I83" t="n">
         <v>25</v>
@@ -6445,64 +6445,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04773515476040693</v>
+        <v>0.04774751302424034</v>
       </c>
       <c r="N83" t="n">
-        <v>0.000107710161015348</v>
+        <v>0.000116274269038896</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>16.71929824561403</v>
+        <v>15.62295081967213</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.055464571225286</v>
+        <v>1.313168847218954</v>
       </c>
       <c r="R83" t="n">
-        <v>1.0717372580449</v>
+        <v>1.268854901075142</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.4525024298928516</v>
+        <v>-0.7191662444769306</v>
       </c>
       <c r="T83" t="n">
-        <v>1.037453375779322</v>
+        <v>1.300638437246322</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04651459041153758</v>
+        <v>-0.2562748409093275</v>
       </c>
       <c r="V83" t="n">
-        <v>0.2524799201292948</v>
+        <v>0.279322001130799</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0003767538707051821</v>
+        <v>0.001411946069201031</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0338357487417125</v>
+        <v>0.1268049412336869</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" t="n">
-        <v>214.1</v>
+        <v>234.2</v>
       </c>
       <c r="C84" t="n">
-        <v>43.2</v>
+        <v>36.4</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="E84" t="n">
-        <v>0.264063618</v>
+        <v>0.2922210648</v>
       </c>
       <c r="F84" t="n">
-        <v>5.717999999999999</v>
+        <v>6.0039</v>
       </c>
       <c r="G84" t="n">
-        <v>1.194595664240364</v>
+        <v>1.113887987818505</v>
       </c>
       <c r="H84" t="n">
-        <v>0.208918444253299</v>
+        <v>0.1855274051563992</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -6517,64 +6517,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04774434521490476</v>
+        <v>0.04775400506763804</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0001111381613507411</v>
+        <v>0.000119838148302019</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>15.88333333333333</v>
+        <v>15.12698412698413</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.159064280167464</v>
+        <v>1.419358548884686</v>
       </c>
       <c r="R84" t="n">
-        <v>1.219575490317582</v>
+        <v>1.367413722590263</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.6085983213567026</v>
+        <v>-0.8297341675971583</v>
       </c>
       <c r="T84" t="n">
-        <v>1.143256415565051</v>
+        <v>1.409086553026693</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.1854881628568751</v>
+        <v>-0.4020367332703901</v>
       </c>
       <c r="V84" t="n">
-        <v>0.2681923577887119</v>
+        <v>0.290451644472886</v>
       </c>
       <c r="W84" t="n">
-        <v>-0.004128739788711866</v>
+        <v>0.001769420327113969</v>
       </c>
       <c r="X84" t="n">
-        <v>-0.3707964614916546</v>
+        <v>0.1589092143755473</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" t="n">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C85" t="n">
-        <v>39.8</v>
+        <v>33.5</v>
       </c>
       <c r="D85" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2807339472</v>
+        <v>0.3017469672</v>
       </c>
       <c r="F85" t="n">
-        <v>5.8133</v>
+        <v>6.0992</v>
       </c>
       <c r="G85" t="n">
-        <v>1.170055930141468</v>
+        <v>1.058562095195014</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2012722429844439</v>
+        <v>0.1735575313475561</v>
       </c>
       <c r="I85" t="n">
         <v>25</v>
@@ -6589,64 +6589,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04774751302424034</v>
+        <v>0.04775732928043611</v>
       </c>
       <c r="N85" t="n">
-        <v>0.000116274269038896</v>
+        <v>0.000122808196419885</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>15.62295081967213</v>
+        <v>14.890625</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.313168847218954</v>
+        <v>1.507418301485538</v>
       </c>
       <c r="R85" t="n">
-        <v>1.268854901075142</v>
+        <v>1.416693133347823</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.7191662444769306</v>
+        <v>-0.9240421020232349</v>
       </c>
       <c r="T85" t="n">
-        <v>1.300638437246322</v>
+        <v>1.499019136844562</v>
       </c>
       <c r="U85" t="n">
-        <v>-0.2562748409093275</v>
+        <v>-0.5128509237215821</v>
       </c>
       <c r="V85" t="n">
-        <v>0.279322001130799</v>
+        <v>0.2999445755587838</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001411946069201031</v>
+        <v>0.00180239164121615</v>
       </c>
       <c r="X85" t="n">
-        <v>0.1268049412336869</v>
+        <v>0.1618703229039278</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" t="n">
-        <v>234.2</v>
+        <v>253.8</v>
       </c>
       <c r="C86" t="n">
-        <v>36.4</v>
+        <v>30.3</v>
       </c>
       <c r="D86" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2922210648</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F86" t="n">
-        <v>6.0039</v>
+        <v>6.1945</v>
       </c>
       <c r="G86" t="n">
-        <v>1.113887987818505</v>
+        <v>1.014341283102886</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1855274051563992</v>
+        <v>0.1637486936964866</v>
       </c>
       <c r="I86" t="n">
         <v>25</v>
@@ -6661,64 +6661,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04775400506763804</v>
+        <v>0.04776070560617797</v>
       </c>
       <c r="N86" t="n">
-        <v>0.000119838148302019</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>15.12698412698413</v>
+        <v>14.66153846153846</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.419358548884686</v>
+        <v>1.673177835793023</v>
       </c>
       <c r="R86" t="n">
-        <v>1.367413722590263</v>
+        <v>1.465972544105384</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.8297341675971583</v>
+        <v>-1.028106029665802</v>
       </c>
       <c r="T86" t="n">
-        <v>1.409086553026693</v>
+        <v>1.668304000501728</v>
       </c>
       <c r="U86" t="n">
-        <v>-0.4020367332703901</v>
+        <v>-0.6036587652184089</v>
       </c>
       <c r="V86" t="n">
-        <v>0.290451644472886</v>
+        <v>0.3104195339983952</v>
       </c>
       <c r="W86" t="n">
-        <v>0.001769420327113969</v>
+        <v>0.009258543601604829</v>
       </c>
       <c r="X86" t="n">
-        <v>0.1589092143755473</v>
+        <v>0.8314971109168278</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C87" t="n">
-        <v>33.5</v>
+        <v>28.7</v>
       </c>
       <c r="D87" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3017469672</v>
+        <v>0.3171565152</v>
       </c>
       <c r="F87" t="n">
-        <v>6.0992</v>
+        <v>6.1945</v>
       </c>
       <c r="G87" t="n">
-        <v>1.058562095195014</v>
+        <v>0.9532002598022061</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1735575313475561</v>
+        <v>0.1538784824928899</v>
       </c>
       <c r="I87" t="n">
         <v>25</v>
@@ -6733,64 +6733,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04775732928043611</v>
+        <v>0.04776070560617797</v>
       </c>
       <c r="N87" t="n">
-        <v>0.000122808196419885</v>
+        <v>0.0001276395036888439</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>14.890625</v>
+        <v>14.66153846153846</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.507418301485538</v>
+        <v>1.649867901281032</v>
       </c>
       <c r="R87" t="n">
-        <v>1.416693133347823</v>
+        <v>1.465972544105384</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.9240421020232349</v>
+        <v>-1.080137993487086</v>
       </c>
       <c r="T87" t="n">
-        <v>1.499019136844562</v>
+        <v>1.644498316549938</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.5128509237215821</v>
+        <v>-0.6950347881887448</v>
       </c>
       <c r="V87" t="n">
-        <v>0.2999445755587838</v>
+        <v>0.3156570132182009</v>
       </c>
       <c r="W87" t="n">
-        <v>0.00180239164121615</v>
+        <v>0.001499501981799101</v>
       </c>
       <c r="X87" t="n">
-        <v>0.1618703229039278</v>
+        <v>0.134668217738251</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="n">
         <v>253.8</v>
       </c>
       <c r="C88" t="n">
-        <v>30.3</v>
+        <v>25.9</v>
       </c>
       <c r="D88" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="E88" t="n">
         <v>0.3196780776</v>
       </c>
       <c r="F88" t="n">
-        <v>6.1945</v>
+        <v>6.3851</v>
       </c>
       <c r="G88" t="n">
-        <v>1.014341283102886</v>
+        <v>0.8670441990879458</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1637486936964866</v>
+        <v>0.1357917963834468</v>
       </c>
       <c r="I88" t="n">
         <v>25</v>
@@ -6805,280 +6805,280 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04776070560617797</v>
+        <v>0.04776761455212097</v>
       </c>
       <c r="N88" t="n">
         <v>0.0001284331223211134</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>14.66153846153846</v>
+        <v>14.22388059701492</v>
       </c>
       <c r="Q88" t="n">
         <v>1.673177835793023</v>
       </c>
       <c r="R88" t="n">
-        <v>1.465972544105384</v>
+        <v>1.564531365620505</v>
       </c>
       <c r="S88" t="n">
-        <v>-1.028106029665802</v>
+        <v>-1.171193930174333</v>
       </c>
       <c r="T88" t="n">
         <v>1.668304000501728</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.6036587652184089</v>
+        <v>-0.862476944319251</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3104195339983952</v>
+        <v>0.3248226018528608</v>
       </c>
       <c r="W88" t="n">
-        <v>0.009258543601604829</v>
+        <v>-0.005144524252860827</v>
       </c>
       <c r="X88" t="n">
-        <v>0.8314971109168278</v>
+        <v>-0.4620226719625603</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C89" t="n">
-        <v>28.7</v>
+        <v>45</v>
       </c>
       <c r="D89" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3171565152</v>
+        <v>0.289167408</v>
       </c>
       <c r="F89" t="n">
-        <v>6.1945</v>
+        <v>6.3</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9532002598022061</v>
+        <v>1.362669306945604</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1538784824928899</v>
+        <v>0.2162967153881911</v>
       </c>
       <c r="I89" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="J89" t="n">
-        <v>25.6</v>
+        <v>30.3</v>
       </c>
       <c r="K89" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="L89" t="n">
-        <v>9.529999999999999</v>
+        <v>10</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04776070560617797</v>
+        <v>0.05009912673889635</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0001276395036888439</v>
+        <v>0.0001177563481303008</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>14.66153846153846</v>
+        <v>15.87301587301587</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.649867901281032</v>
+        <v>1.429718519778904</v>
       </c>
       <c r="R89" t="n">
-        <v>1.465972544105384</v>
+        <v>1.367413722590263</v>
       </c>
       <c r="S89" t="n">
-        <v>-1.080137993487086</v>
+        <v>-0.5500623620577585</v>
       </c>
       <c r="T89" t="n">
-        <v>1.644498316549938</v>
+        <v>1.380257447438019</v>
       </c>
       <c r="U89" t="n">
-        <v>-0.6950347881887448</v>
+        <v>-0.1171819170434544</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3156570132182009</v>
+        <v>0.2854237228182894</v>
       </c>
       <c r="W89" t="n">
-        <v>0.001499501981799101</v>
+        <v>0.003743685181710643</v>
       </c>
       <c r="X89" t="n">
-        <v>0.134668217738251</v>
+        <v>1.088114873693792</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90" t="n">
-        <v>253.8</v>
+        <v>206</v>
       </c>
       <c r="C90" t="n">
-        <v>25.9</v>
+        <v>55</v>
       </c>
       <c r="D90" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3196780776</v>
+        <v>0.248200848</v>
       </c>
       <c r="F90" t="n">
-        <v>6.3851</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8670441990879458</v>
+        <v>1.429534261267854</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1357917963834468</v>
+        <v>0.2507954844329569</v>
       </c>
       <c r="I90" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="J90" t="n">
-        <v>25.6</v>
+        <v>30.3</v>
       </c>
       <c r="K90" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="L90" t="n">
-        <v>9.529999999999999</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04776761455212097</v>
+        <v>0.05008115913195301</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0001284331223211134</v>
+        <v>0.0001051491741838504</v>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>14.22388059701492</v>
+        <v>17.54385964912281</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.673177835793023</v>
+        <v>1.054169574863508</v>
       </c>
       <c r="R90" t="n">
-        <v>1.564531365620505</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S90" t="n">
-        <v>-1.171193930174333</v>
+        <v>-0.2248625881747354</v>
       </c>
       <c r="T90" t="n">
-        <v>1.668304000501728</v>
+        <v>0.993498436456575</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.862476944319251</v>
+        <v>0.202199324923697</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3248226018528608</v>
+        <v>0.2491228255470082</v>
       </c>
       <c r="W90" t="n">
-        <v>-0.005144524252860827</v>
+        <v>-0.0009219775470082348</v>
       </c>
       <c r="X90" t="n">
-        <v>-0.4620226719625603</v>
+        <v>-0.2679759203611685</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91" t="n">
-        <v>255.4</v>
+        <v>190</v>
       </c>
       <c r="C91" t="n">
-        <v>21.3</v>
+        <v>61</v>
       </c>
       <c r="D91" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3219194664</v>
+        <v>0.225598608</v>
       </c>
       <c r="F91" t="n">
-        <v>6.3851</v>
+        <v>5.2</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7180512797897481</v>
+        <v>1.441102490090863</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1124573271819937</v>
+        <v>0.2771350942482429</v>
       </c>
       <c r="I91" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="J91" t="n">
-        <v>25.6</v>
+        <v>30.3</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28</v>
+        <v>14.4</v>
       </c>
       <c r="L91" t="n">
-        <v>9.529999999999999</v>
+        <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04776761455212097</v>
+        <v>0.05006755436407894</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0001291392592826697</v>
+        <v>9.828835796959465e-05</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>14.22388059701492</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.693897777581458</v>
+        <v>0.8469701569791523</v>
       </c>
       <c r="R91" t="n">
-        <v>1.564531365620505</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S91" t="n">
-        <v>-1.320785826160523</v>
+        <v>-0.0297427238449216</v>
       </c>
       <c r="T91" t="n">
-        <v>1.689464608458873</v>
+        <v>0.7801141545357785</v>
       </c>
       <c r="U91" t="n">
-        <v>-1.078501804352193</v>
+        <v>0.4460450483702424</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3398803546098022</v>
+        <v>0.2273422871842395</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.01796088820980224</v>
+        <v>-0.001743679184239538</v>
       </c>
       <c r="X91" t="n">
-        <v>-1.613042752573096</v>
+        <v>-0.5068063053459895</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B92" t="n">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="C92" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="E92" t="n">
-        <v>0.289167408</v>
+        <v>0.215710128</v>
       </c>
       <c r="F92" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>1.362669306945604</v>
+        <v>1.46829226576438</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2162967153881911</v>
+        <v>0.293658453152876</v>
       </c>
       <c r="I92" t="n">
         <v>26.1</v>
@@ -7093,64 +7093,64 @@
         <v>10</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05009912673889635</v>
+        <v>0.05006246098625197</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0001177563481303008</v>
+        <v>9.530742574068222e-05</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>15.87301587301587</v>
+        <v>20</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.429718519778904</v>
+        <v>0.7563204116547466</v>
       </c>
       <c r="R92" t="n">
-        <v>1.367413722590263</v>
+        <v>0.7267813827419771</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.5500623620577585</v>
+        <v>0.1003371857082876</v>
       </c>
       <c r="T92" t="n">
-        <v>1.380257447438019</v>
+        <v>0.6867585311954298</v>
       </c>
       <c r="U92" t="n">
-        <v>-0.1171819170434544</v>
+        <v>0.5990143001595716</v>
       </c>
       <c r="V92" t="n">
-        <v>0.2854237228182894</v>
+        <v>0.2128219282757271</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003743685181710643</v>
+        <v>0.0028881997242729</v>
       </c>
       <c r="X92" t="n">
-        <v>1.088114873693792</v>
+        <v>0.8394651060759407</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" t="n">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C93" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D93" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="E93" t="n">
-        <v>0.248200848</v>
+        <v>0.204409008</v>
       </c>
       <c r="F93" t="n">
-        <v>5.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="G93" t="n">
-        <v>1.429534261267854</v>
+        <v>1.434179304554842</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2507954844329569</v>
+        <v>0.2926896539907841</v>
       </c>
       <c r="I93" t="n">
         <v>26.1</v>
@@ -7165,64 +7165,64 @@
         <v>10</v>
       </c>
       <c r="M93" t="n">
-        <v>0.05008115913195301</v>
+        <v>0.05005998901318298</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0001051491741838504</v>
+        <v>9.191496572416854e-05</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>17.54385964912281</v>
+        <v>20.40816326530612</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.054169574863508</v>
+        <v>0.6527207027125685</v>
       </c>
       <c r="R93" t="n">
-        <v>1.0717372580449</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.2248625881747354</v>
+        <v>0.1653771404848922</v>
       </c>
       <c r="T93" t="n">
-        <v>0.993498436456575</v>
+        <v>0.5800663902350316</v>
       </c>
       <c r="U93" t="n">
-        <v>0.202199324923697</v>
+        <v>0.5900453923355233</v>
       </c>
       <c r="V93" t="n">
-        <v>0.2491228255470082</v>
+        <v>0.2055617488214709</v>
       </c>
       <c r="W93" t="n">
-        <v>-0.0009219775470082348</v>
+        <v>-0.001152740821470877</v>
       </c>
       <c r="X93" t="n">
-        <v>-0.2679759203611685</v>
+        <v>-0.3350480535821428</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B94" t="n">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C94" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D94" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="E94" t="n">
-        <v>0.225598608</v>
+        <v>0.198758448</v>
       </c>
       <c r="F94" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="G94" t="n">
-        <v>1.441102490090863</v>
+        <v>1.43616158417413</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2771350942482429</v>
+        <v>0.2992003300362772</v>
       </c>
       <c r="I94" t="n">
         <v>26.1</v>
@@ -7237,64 +7237,64 @@
         <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>0.05006755436407894</v>
+        <v>0.05005756686056565</v>
       </c>
       <c r="N94" t="n">
-        <v>9.828835796959465e-05</v>
+        <v>9.022400269454441e-05</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>19.23076923076923</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.8469701569791523</v>
+        <v>0.6009208482414795</v>
       </c>
       <c r="R94" t="n">
-        <v>0.8253402042570981</v>
+        <v>0.6282225612268562</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.0297427238449216</v>
+        <v>0.2304170952614968</v>
       </c>
       <c r="T94" t="n">
-        <v>0.7801141545357785</v>
+        <v>0.5267203197548325</v>
       </c>
       <c r="U94" t="n">
-        <v>0.4460450483702424</v>
+        <v>0.6503196530999328</v>
       </c>
       <c r="V94" t="n">
-        <v>0.2273422871842395</v>
+        <v>0.1983015693672146</v>
       </c>
       <c r="W94" t="n">
-        <v>-0.001743679184239538</v>
+        <v>0.0004568786327853736</v>
       </c>
       <c r="X94" t="n">
-        <v>-0.5068063053459895</v>
+        <v>0.1327933337544925</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B95" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C95" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="E95" t="n">
-        <v>0.215710128</v>
+        <v>0.191695248</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>1.46829226576438</v>
+        <v>1.425273839399534</v>
       </c>
       <c r="H95" t="n">
-        <v>0.293658453152876</v>
+        <v>0.3032497530637306</v>
       </c>
       <c r="I95" t="n">
         <v>26.1</v>
@@ -7309,64 +7309,64 @@
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05006246098625197</v>
+        <v>0.05005519453563236</v>
       </c>
       <c r="N95" t="n">
-        <v>9.530742574068222e-05</v>
+        <v>8.811470007620374e-05</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
-        <v>20</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7563204116547466</v>
+        <v>0.5361710301526181</v>
       </c>
       <c r="R95" t="n">
-        <v>0.7267813827419771</v>
+        <v>0.5789431504692957</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1003371857082876</v>
+        <v>0.2954570500381014</v>
       </c>
       <c r="T95" t="n">
-        <v>0.6867585311954298</v>
+        <v>0.4600377316545837</v>
       </c>
       <c r="U95" t="n">
-        <v>0.5990143001595716</v>
+        <v>0.6878082299845244</v>
       </c>
       <c r="V95" t="n">
-        <v>0.2128219282757271</v>
+        <v>0.1910413899129584</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0028881997242729</v>
+        <v>0.0006538580870416033</v>
       </c>
       <c r="X95" t="n">
-        <v>0.8394651060759407</v>
+        <v>0.1900460843424441</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C96" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="E96" t="n">
-        <v>0.204409008</v>
+        <v>0.184632048</v>
       </c>
       <c r="F96" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="G96" t="n">
-        <v>1.434179304554842</v>
+        <v>1.392092845473691</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2926896539907841</v>
+        <v>0.3093539656608203</v>
       </c>
       <c r="I96" t="n">
         <v>26.1</v>
@@ -7381,64 +7381,64 @@
         <v>10</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05005998901318298</v>
+        <v>0.05005059939701022</v>
       </c>
       <c r="N96" t="n">
-        <v>9.191496572416854e-05</v>
+        <v>8.600963974014389e-05</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>20.40816326530612</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6527207027125685</v>
+        <v>0.4714212120637569</v>
       </c>
       <c r="R96" t="n">
-        <v>0.6775019719844166</v>
+        <v>0.4803843289541749</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1653771404848922</v>
+        <v>0.3279770274264037</v>
       </c>
       <c r="T96" t="n">
-        <v>0.5800663902350316</v>
+        <v>0.3933551435543348</v>
       </c>
       <c r="U96" t="n">
-        <v>0.5900453923355233</v>
+        <v>0.7443195506626694</v>
       </c>
       <c r="V96" t="n">
-        <v>0.2055617488214709</v>
+        <v>0.1874113001858302</v>
       </c>
       <c r="W96" t="n">
-        <v>-0.001152740821470877</v>
+        <v>-0.00277925218583025</v>
       </c>
       <c r="X96" t="n">
-        <v>-0.3350480535821428</v>
+        <v>-0.8077991322352653</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C97" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D97" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="E97" t="n">
-        <v>0.198758448</v>
+        <v>0.174743568</v>
       </c>
       <c r="F97" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="G97" t="n">
-        <v>1.43616158417413</v>
+        <v>1.390731877376867</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2992003300362772</v>
+        <v>0.3160754266765606</v>
       </c>
       <c r="I97" t="n">
         <v>26.1</v>
@@ -7453,64 +7453,64 @@
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05005756686056565</v>
+        <v>0.05004837659704858</v>
       </c>
       <c r="N97" t="n">
-        <v>9.022400269454441e-05</v>
+        <v>8.306797879109174e-05</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>20.83333333333334</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6009208482414795</v>
+        <v>0.3807714667393511</v>
       </c>
       <c r="R97" t="n">
-        <v>0.6282225612268562</v>
+        <v>0.4311049181966145</v>
       </c>
       <c r="S97" t="n">
-        <v>0.2304170952614968</v>
+        <v>0.458056936979613</v>
       </c>
       <c r="T97" t="n">
-        <v>0.5267203197548325</v>
+        <v>0.2999995202139865</v>
       </c>
       <c r="U97" t="n">
-        <v>0.6503196530999328</v>
+        <v>0.8065452075913366</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1983015693672146</v>
+        <v>0.1728909412773178</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0004568786327853736</v>
+        <v>0.001852626722682216</v>
       </c>
       <c r="X97" t="n">
-        <v>0.1327933337544925</v>
+        <v>0.538472279186673</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B98" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C98" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D98" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="E98" t="n">
-        <v>0.191695248</v>
+        <v>0.171918288</v>
       </c>
       <c r="F98" t="n">
-        <v>4.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="G98" t="n">
-        <v>1.425273839399534</v>
+        <v>1.386249558536238</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3032497530637306</v>
+        <v>0.3223836182642414</v>
       </c>
       <c r="I98" t="n">
         <v>26.1</v>
@@ -7525,64 +7525,64 @@
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05005519453563236</v>
+        <v>0.0500462036522252</v>
       </c>
       <c r="N98" t="n">
-        <v>8.811470007620374e-05</v>
+        <v>8.222829300503518e-05</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>21.27659574468085</v>
+        <v>23.25581395348837</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.5361710301526181</v>
+        <v>0.3548715395038066</v>
       </c>
       <c r="R98" t="n">
-        <v>0.5789431504692957</v>
+        <v>0.381825507439054</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2954570500381014</v>
+        <v>0.4905769143679152</v>
       </c>
       <c r="T98" t="n">
-        <v>0.4600377316545837</v>
+        <v>0.2733264849738868</v>
       </c>
       <c r="U98" t="n">
-        <v>0.6878082299845244</v>
+        <v>0.8649449163237242</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1910413899129584</v>
+        <v>0.1692608515501897</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0006538580870416033</v>
+        <v>0.002657436449810341</v>
       </c>
       <c r="X98" t="n">
-        <v>0.1900460843424441</v>
+        <v>0.7723929728549906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B99" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C99" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D99" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E99" t="n">
-        <v>0.184632048</v>
+        <v>0.166267728</v>
       </c>
       <c r="F99" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G99" t="n">
-        <v>1.392092845473691</v>
+        <v>1.358098229316051</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3093539656608203</v>
+        <v>0.3233567212657265</v>
       </c>
       <c r="I99" t="n">
         <v>26.1</v>
@@ -7597,64 +7597,64 @@
         <v>10</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05005059939701022</v>
+        <v>0.05004408056903435</v>
       </c>
       <c r="N99" t="n">
-        <v>8.600963974014389e-05</v>
+        <v>8.0549408791129e-05</v>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>22.22222222222222</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.4714212120637569</v>
+        <v>0.3030716850327175</v>
       </c>
       <c r="R99" t="n">
-        <v>0.4803843289541749</v>
+        <v>0.3325460966814934</v>
       </c>
       <c r="S99" t="n">
-        <v>0.3279770274264037</v>
+        <v>0.5230968917562175</v>
       </c>
       <c r="T99" t="n">
-        <v>0.3933551435543348</v>
+        <v>0.2199804144936874</v>
       </c>
       <c r="U99" t="n">
-        <v>0.7443195506626694</v>
+        <v>0.873953668049706</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1874113001858302</v>
+        <v>0.1656307618230616</v>
       </c>
       <c r="W99" t="n">
-        <v>-0.00277925218583025</v>
+        <v>0.0006369661769383972</v>
       </c>
       <c r="X99" t="n">
-        <v>-0.8077991322352653</v>
+        <v>0.1851363930259327</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B100" t="n">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C100" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D100" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="E100" t="n">
-        <v>0.174743568</v>
+        <v>0.146490768</v>
       </c>
       <c r="F100" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="G100" t="n">
-        <v>1.390731877376867</v>
+        <v>1.257919142884573</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3160754266765606</v>
+        <v>0.3225433699704033</v>
       </c>
       <c r="I100" t="n">
         <v>26.1</v>
@@ -7669,64 +7669,64 @@
         <v>10</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05004837659704858</v>
+        <v>0.05003801055197939</v>
       </c>
       <c r="N100" t="n">
-        <v>8.306797879109174e-05</v>
+        <v>7.466611576101878e-05</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>22.72727272727273</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.3807714667393511</v>
+        <v>0.1217721943839059</v>
       </c>
       <c r="R100" t="n">
-        <v>0.4311049181966145</v>
+        <v>0.1847078644088122</v>
       </c>
       <c r="S100" t="n">
-        <v>0.458056936979613</v>
+        <v>0.6531768013094268</v>
       </c>
       <c r="T100" t="n">
-        <v>0.2999995202139865</v>
+        <v>0.0332691678129906</v>
       </c>
       <c r="U100" t="n">
-        <v>0.8065452075913366</v>
+        <v>0.8664238588985786</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1728909412773178</v>
+        <v>0.1511104029145491</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001852626722682216</v>
+        <v>-0.004619634914549142</v>
       </c>
       <c r="X100" t="n">
-        <v>0.538472279186673</v>
+        <v>-1.342712652792875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B101" t="n">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D101" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="E101" t="n">
-        <v>0.171918288</v>
+        <v>0.029241648</v>
       </c>
       <c r="F101" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="G101" t="n">
-        <v>1.386249558536238</v>
+        <v>0.3552126732712135</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3223836182642414</v>
+        <v>0.2089486313360079</v>
       </c>
       <c r="I101" t="n">
         <v>26.1</v>
@@ -7741,64 +7741,64 @@
         <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0500462036522252</v>
+        <v>0.05000722447806917</v>
       </c>
       <c r="N101" t="n">
-        <v>8.222829300503518e-05</v>
+        <v>3.04131703262001e-05</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>23.25581395348837</v>
+        <v>58.8235294117647</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.3548715395038066</v>
+        <v>-0.9530747858911915</v>
       </c>
       <c r="R101" t="n">
-        <v>0.381825507439054</v>
+        <v>-0.8994391722575176</v>
       </c>
       <c r="S101" t="n">
-        <v>0.4905769143679152</v>
+        <v>1.758856032511705</v>
       </c>
       <c r="T101" t="n">
-        <v>0.2733264849738868</v>
+        <v>-1.073661794651142</v>
       </c>
       <c r="U101" t="n">
-        <v>0.8649449163237242</v>
+        <v>-0.1852086981619343</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1692608515501897</v>
+        <v>0.0276873521921932</v>
       </c>
       <c r="W101" t="n">
-        <v>0.002657436449810341</v>
+        <v>0.001554295807806791</v>
       </c>
       <c r="X101" t="n">
-        <v>0.7723929728549906</v>
+        <v>0.4517613806996653</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B102" t="n">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="E102" t="n">
-        <v>0.166267728</v>
+        <v>0.012289968</v>
       </c>
       <c r="F102" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="G102" t="n">
-        <v>1.358098229316051</v>
+        <v>0.155727295166003</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3233567212657265</v>
+        <v>0.1197902270507716</v>
       </c>
       <c r="I102" t="n">
         <v>26.1</v>
@@ -7813,64 +7813,64 @@
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05004408056903435</v>
+        <v>0.05000422482150884</v>
       </c>
       <c r="N102" t="n">
-        <v>8.0549408791129e-05</v>
+        <v>1.632401443759565e-05</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>23.80952380952381</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.3030716850327175</v>
+        <v>-1.108474349304459</v>
       </c>
       <c r="R102" t="n">
-        <v>0.3325460966814934</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S102" t="n">
-        <v>0.5230968917562175</v>
+        <v>1.921455919453217</v>
       </c>
       <c r="T102" t="n">
-        <v>0.2199804144936874</v>
+        <v>-1.233700006091739</v>
       </c>
       <c r="U102" t="n">
-        <v>0.873953668049706</v>
+        <v>-1.01061559472332</v>
       </c>
       <c r="V102" t="n">
-        <v>0.1656307618230616</v>
+        <v>0.009536903556552623</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0006369661769383972</v>
+        <v>0.002753064443447377</v>
       </c>
       <c r="X102" t="n">
-        <v>0.1851363930259327</v>
+        <v>0.8001875755438866</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B103" t="n">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D103" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="E103" t="n">
-        <v>0.146490768</v>
+        <v>0.003814127999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="G103" t="n">
-        <v>1.257919142884573</v>
+        <v>0.04912798966906962</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3225433699704033</v>
+        <v>0.04093999139089136</v>
       </c>
       <c r="I103" t="n">
         <v>26.1</v>
@@ -7885,64 +7885,64 @@
         <v>10</v>
       </c>
       <c r="M103" t="n">
-        <v>0.05003801055197939</v>
+        <v>0.05000359987040934</v>
       </c>
       <c r="N103" t="n">
-        <v>7.466611576101878e-05</v>
+        <v>5.928788559003939e-06</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>25.64102564102564</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.1217721943839059</v>
+        <v>-1.186174131011092</v>
       </c>
       <c r="R103" t="n">
-        <v>0.1847078644088122</v>
+        <v>-1.14583622604532</v>
       </c>
       <c r="S103" t="n">
-        <v>0.6531768013094268</v>
+        <v>1.986495874229821</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0332691678129906</v>
+        <v>-1.313719111812038</v>
       </c>
       <c r="U103" t="n">
-        <v>0.8664238588985786</v>
+        <v>-1.74059196465632</v>
       </c>
       <c r="V103" t="n">
-        <v>0.1511104029145491</v>
+        <v>0.002276724102296401</v>
       </c>
       <c r="W103" t="n">
-        <v>-0.004619634914549142</v>
+        <v>0.001537403897703597</v>
       </c>
       <c r="X103" t="n">
-        <v>-1.342712652792875</v>
+        <v>0.4468516893831576</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B104" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C104" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D104" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="E104" t="n">
-        <v>0.029241648</v>
+        <v>0.07020820800000001</v>
       </c>
       <c r="F104" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3552126732712135</v>
+        <v>0.7719795666607646</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2089486313360079</v>
+        <v>0.3216581527753186</v>
       </c>
       <c r="I104" t="n">
         <v>26.1</v>
@@ -7957,280 +7957,280 @@
         <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>0.05000722447806917</v>
+        <v>0.05001439792699698</v>
       </c>
       <c r="N104" t="n">
-        <v>3.04131703262001e-05</v>
+        <v>5.0197065446492e-05</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>58.8235294117647</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.9530747858911915</v>
+        <v>-0.5775258409757961</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.8994391722575176</v>
+        <v>-0.5544832969545946</v>
       </c>
       <c r="S104" t="n">
-        <v>1.758856032511705</v>
+        <v>1.40113628124038</v>
       </c>
       <c r="T104" t="n">
-        <v>-1.073661794651142</v>
+        <v>-0.6869027836696977</v>
       </c>
       <c r="U104" t="n">
-        <v>-0.1852086981619343</v>
+        <v>0.8582287326663941</v>
       </c>
       <c r="V104" t="n">
-        <v>0.0276873521921932</v>
+        <v>0.06761833919060245</v>
       </c>
       <c r="W104" t="n">
-        <v>0.001554295807806791</v>
+        <v>0.002589868809397558</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4517613806996653</v>
+        <v>0.7527542075889573</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n">
-        <v>39</v>
+        <v>62.2</v>
       </c>
       <c r="C105" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="E105" t="n">
-        <v>0.012289968</v>
+        <v>0.02851173495000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1.3</v>
+        <v>2.31</v>
       </c>
       <c r="G105" t="n">
-        <v>0.155727295166003</v>
+        <v>0.3582890282400774</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1197902270507716</v>
+        <v>0.1551034754286049</v>
       </c>
       <c r="I105" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J105" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K105" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M105" t="n">
-        <v>0.05000422482150884</v>
+        <v>0.05501002181421128</v>
       </c>
       <c r="N105" t="n">
-        <v>1.632401443759565e-05</v>
+        <v>2.491134462463197e-05</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>76.92307692307692</v>
+        <v>52.38095238095238</v>
       </c>
       <c r="Q105" t="n">
-        <v>-1.108474349304459</v>
+        <v>-0.8080351933721422</v>
       </c>
       <c r="R105" t="n">
-        <v>-1.096556815287759</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S105" t="n">
-        <v>1.921455919453217</v>
+        <v>1.888935942064914</v>
       </c>
       <c r="T105" t="n">
-        <v>-1.233700006091739</v>
+        <v>-1.080552791828362</v>
       </c>
       <c r="U105" t="n">
-        <v>-1.01061559472332</v>
+        <v>-0.6836941005050191</v>
       </c>
       <c r="V105" t="n">
-        <v>0.009536903556552623</v>
+        <v>0.03371425319133897</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002753064443447377</v>
+        <v>-0.005202518241338966</v>
       </c>
       <c r="X105" t="n">
-        <v>0.8001875755438866</v>
+        <v>-0.3147773524134123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>86.2</v>
       </c>
       <c r="C106" t="n">
-        <v>123</v>
+        <v>110.5</v>
       </c>
       <c r="D106" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="E106" t="n">
-        <v>0.003814127999999999</v>
+        <v>0.06289774695</v>
       </c>
       <c r="F106" t="n">
-        <v>1.2</v>
+        <v>2.97</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04912798966906962</v>
+        <v>0.7278233507291472</v>
       </c>
       <c r="H106" t="n">
-        <v>0.04093999139089136</v>
+        <v>0.2450583672488711</v>
       </c>
       <c r="I106" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J106" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K106" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M106" t="n">
-        <v>0.05000359987040934</v>
+        <v>0.05501656568707283</v>
       </c>
       <c r="N106" t="n">
-        <v>5.928788559003939e-06</v>
+        <v>4.236415789825498e-05</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>83.33333333333334</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="Q106" t="n">
-        <v>-1.186174131011092</v>
+        <v>-0.497236066545608</v>
       </c>
       <c r="R106" t="n">
-        <v>-1.14583622604532</v>
+        <v>-0.4066450646819131</v>
       </c>
       <c r="S106" t="n">
-        <v>1.986495874229821</v>
+        <v>1.579996156876042</v>
       </c>
       <c r="T106" t="n">
-        <v>-1.313719111812038</v>
+        <v>-0.7559197254269838</v>
       </c>
       <c r="U106" t="n">
-        <v>-1.74059196465632</v>
+        <v>0.1490864846021547</v>
       </c>
       <c r="V106" t="n">
-        <v>0.002276724102296401</v>
+        <v>0.06722636124446058</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001537403897703597</v>
+        <v>-0.004328614294460575</v>
       </c>
       <c r="X106" t="n">
-        <v>0.4468516893831576</v>
+        <v>-0.2619019643991623</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C107" t="n">
-        <v>105</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="E107" t="n">
-        <v>0.07020820800000001</v>
+        <v>0.10272821085</v>
       </c>
       <c r="F107" t="n">
-        <v>2.4</v>
+        <v>3.74</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7719795666607646</v>
+        <v>1.066085402633594</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3216581527753186</v>
+        <v>0.2850495728966829</v>
       </c>
       <c r="I107" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="J107" t="n">
-        <v>30.3</v>
+        <v>42.3</v>
       </c>
       <c r="K107" t="n">
-        <v>14.4</v>
+        <v>14.605</v>
       </c>
       <c r="L107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M107" t="n">
-        <v>0.05001439792699698</v>
+        <v>0.0550262664552121</v>
       </c>
       <c r="N107" t="n">
-        <v>5.0197065446492e-05</v>
+        <v>5.715690795572146e-05</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>41.66666666666667</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.5775258409757961</v>
+        <v>-0.1372270779715393</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.5544832969545946</v>
+        <v>-0.06168918937898994</v>
       </c>
       <c r="S107" t="n">
-        <v>1.40113628124038</v>
+        <v>1.209268414649396</v>
       </c>
       <c r="T107" t="n">
-        <v>-0.6869027836696977</v>
+        <v>-0.3798864235120536</v>
       </c>
       <c r="U107" t="n">
-        <v>0.8582287326663941</v>
+        <v>0.519315373377528</v>
       </c>
       <c r="V107" t="n">
-        <v>0.06761833919060245</v>
+        <v>0.1074408909082066</v>
       </c>
       <c r="W107" t="n">
-        <v>0.002589868809397558</v>
+        <v>-0.004712680058206561</v>
       </c>
       <c r="X107" t="n">
-        <v>0.7527542075889573</v>
+        <v>-0.2851397885943701</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="C108" t="n">
-        <v>44.3</v>
+        <v>91.3</v>
       </c>
       <c r="D108" t="n">
-        <v>0.73</v>
+        <v>0.39</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3305355403499999</v>
+        <v>0.12995047035</v>
       </c>
       <c r="F108" t="n">
-        <v>8.029999999999999</v>
+        <v>4.29</v>
       </c>
       <c r="G108" t="n">
-        <v>1.533382517380181</v>
+        <v>1.242445224808852</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1909567269464734</v>
+        <v>0.289614271517215</v>
       </c>
       <c r="I108" t="n">
         <v>25.8</v>
@@ -8245,64 +8245,64 @@
         <v>11</v>
       </c>
       <c r="M108" t="n">
-        <v>0.05512098057908622</v>
+        <v>0.05503455732537511</v>
       </c>
       <c r="N108" t="n">
-        <v>0.000128334011886687</v>
+        <v>6.607483362026044e-05</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
-        <v>15.06849315068493</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.92181713725425</v>
+        <v>0.1088222307661336</v>
       </c>
       <c r="R108" t="n">
-        <v>1.860207830165867</v>
+        <v>0.1847078644088122</v>
       </c>
       <c r="S108" t="n">
-        <v>-0.5728263462295702</v>
+        <v>0.9556125910206381</v>
       </c>
       <c r="T108" t="n">
-        <v>1.770807641397078</v>
+        <v>-0.1228852459442956</v>
       </c>
       <c r="U108" t="n">
-        <v>-0.3517733881028238</v>
+        <v>0.5615742468097804</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3007528405198976</v>
+        <v>0.1349560954149801</v>
       </c>
       <c r="W108" t="n">
-        <v>0.02978269983010234</v>
+        <v>-0.00500562506498009</v>
       </c>
       <c r="X108" t="n">
-        <v>1.801996449671301</v>
+        <v>-0.3028643691450321</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n">
-        <v>62.2</v>
+        <v>155.5</v>
       </c>
       <c r="C109" t="n">
-        <v>120</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02851173495000001</v>
+        <v>0.1621873566</v>
       </c>
       <c r="F109" t="n">
-        <v>2.31</v>
+        <v>5.06</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3582890282400774</v>
+        <v>1.41988081429252</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1551034754286049</v>
+        <v>0.2806088565795494</v>
       </c>
       <c r="I109" t="n">
         <v>25.8</v>
@@ -8317,64 +8317,64 @@
         <v>11</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05501002181421128</v>
+        <v>0.05504806990258605</v>
       </c>
       <c r="N109" t="n">
-        <v>2.491134462463197e-05</v>
+        <v>7.617501186748044e-05</v>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>52.38095238095238</v>
+        <v>23.91304347826087</v>
       </c>
       <c r="Q109" t="n">
-        <v>-0.8080351933721422</v>
+        <v>0.4001964121660095</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.702321529227276</v>
+        <v>0.5296637397117354</v>
       </c>
       <c r="S109" t="n">
-        <v>1.888935942064914</v>
+        <v>0.7052087651307103</v>
       </c>
       <c r="T109" t="n">
-        <v>-1.080552791828362</v>
+        <v>0.1814582538069969</v>
       </c>
       <c r="U109" t="n">
-        <v>-0.6836941005050191</v>
+        <v>0.4782042980591728</v>
       </c>
       <c r="V109" t="n">
-        <v>0.03371425319133897</v>
+        <v>0.1621185408896155</v>
       </c>
       <c r="W109" t="n">
-        <v>-0.005202518241338966</v>
+        <v>6.881571038450107e-05</v>
       </c>
       <c r="X109" t="n">
-        <v>-0.3147773524134123</v>
+        <v>0.004163681147171985</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n">
-        <v>86.2</v>
+        <v>170.5</v>
       </c>
       <c r="C110" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06289774695</v>
+        <v>0.1836786141</v>
       </c>
       <c r="F110" t="n">
-        <v>2.97</v>
+        <v>5.39</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7278233507291472</v>
+        <v>1.513777145805587</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2450583672488711</v>
+        <v>0.280849192171723</v>
       </c>
       <c r="I110" t="n">
         <v>25.8</v>
@@ -8389,64 +8389,64 @@
         <v>11</v>
       </c>
       <c r="M110" t="n">
-        <v>0.05501656568707283</v>
+        <v>0.0550545411387653</v>
       </c>
       <c r="N110" t="n">
-        <v>4.236415789825498e-05</v>
+        <v>8.279833331028251e-05</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>40.74074074074074</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="Q110" t="n">
-        <v>-0.497236066545608</v>
+        <v>0.5944458664325933</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.4066450646819131</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S110" t="n">
-        <v>1.579996156876042</v>
+        <v>0.5458608759280292</v>
       </c>
       <c r="T110" t="n">
-        <v>-0.7559197254269838</v>
+        <v>0.3843539203078579</v>
       </c>
       <c r="U110" t="n">
-        <v>0.1490864846021547</v>
+        <v>0.4804292667187136</v>
       </c>
       <c r="V110" t="n">
-        <v>0.06722636124446058</v>
+        <v>0.1794037334643835</v>
       </c>
       <c r="W110" t="n">
-        <v>-0.004328614294460575</v>
+        <v>0.004274880635616485</v>
       </c>
       <c r="X110" t="n">
-        <v>-0.2619019643991623</v>
+        <v>0.2586508198415076</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n">
-        <v>114</v>
+        <v>176.5</v>
       </c>
       <c r="C111" t="n">
-        <v>99.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D111" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="E111" t="n">
-        <v>0.10272821085</v>
+        <v>0.1922751171</v>
       </c>
       <c r="F111" t="n">
-        <v>3.74</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>1.066085402633594</v>
+        <v>1.540327743141167</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2850495728966829</v>
+        <v>0.2692880669827215</v>
       </c>
       <c r="I111" t="n">
         <v>25.8</v>
@@ -8461,64 +8461,64 @@
         <v>11</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0550262664552121</v>
+        <v>0.0550614202504803</v>
       </c>
       <c r="N111" t="n">
-        <v>5.715690795572146e-05</v>
+        <v>8.543887741684227e-05</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>32.35294117647059</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="Q111" t="n">
-        <v>-0.1372270779715393</v>
+        <v>0.6721456481392269</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.06168918937898994</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S111" t="n">
-        <v>1.209268414649396</v>
+        <v>0.4743169256737641</v>
       </c>
       <c r="T111" t="n">
-        <v>-0.3798864235120536</v>
+        <v>0.4655121869082029</v>
       </c>
       <c r="U111" t="n">
-        <v>0.519315373377528</v>
+        <v>0.3733991719170772</v>
       </c>
       <c r="V111" t="n">
-        <v>0.1074408909082066</v>
+        <v>0.1871644321714222</v>
       </c>
       <c r="W111" t="n">
-        <v>-0.004712680058206561</v>
+        <v>0.005110684928577802</v>
       </c>
       <c r="X111" t="n">
-        <v>-0.2851397885943701</v>
+        <v>0.3092209957197215</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C112" t="n">
-        <v>91.3</v>
+        <v>70.5</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="E112" t="n">
-        <v>0.12995047035</v>
+        <v>0.21591550035</v>
       </c>
       <c r="F112" t="n">
-        <v>4.29</v>
+        <v>5.94</v>
       </c>
       <c r="G112" t="n">
-        <v>1.242445224808852</v>
+        <v>1.594048591784952</v>
       </c>
       <c r="H112" t="n">
-        <v>0.289614271517215</v>
+        <v>0.2683583487853454</v>
       </c>
       <c r="I112" t="n">
         <v>25.8</v>
@@ -8533,64 +8533,64 @@
         <v>11</v>
       </c>
       <c r="M112" t="n">
-        <v>0.05503455732537511</v>
+        <v>0.05506623284736301</v>
       </c>
       <c r="N112" t="n">
-        <v>6.607483362026044e-05</v>
+        <v>9.269753064970684e-05</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>28.2051282051282</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.1088222307661336</v>
+        <v>0.8858200478324691</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1847078644088122</v>
+        <v>0.9238990257722191</v>
       </c>
       <c r="S112" t="n">
-        <v>0.9556125910206381</v>
+        <v>0.2791970613439503</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.1228852459442956</v>
+        <v>0.6886974200591505</v>
       </c>
       <c r="U112" t="n">
-        <v>0.5615742468097804</v>
+        <v>0.3647920661918813</v>
       </c>
       <c r="V112" t="n">
-        <v>0.1349560954149801</v>
+        <v>0.2083299740997095</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.00500562506498009</v>
+        <v>0.007585526250290464</v>
       </c>
       <c r="X112" t="n">
-        <v>-0.3028643691450321</v>
+        <v>0.4589607876347086</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n">
-        <v>155.5</v>
+        <v>197.5</v>
       </c>
       <c r="C113" t="n">
-        <v>83.59999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="D113" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1621873566</v>
+        <v>0.2223628776</v>
       </c>
       <c r="F113" t="n">
-        <v>5.06</v>
+        <v>6.27</v>
       </c>
       <c r="G113" t="n">
-        <v>1.41988081429252</v>
+        <v>1.588090611336287</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2806088565795494</v>
+        <v>0.2532839890488496</v>
       </c>
       <c r="I113" t="n">
         <v>25.8</v>
@@ -8605,64 +8605,64 @@
         <v>11</v>
       </c>
       <c r="M113" t="n">
-        <v>0.05504806990258605</v>
+        <v>0.05507379140752887</v>
       </c>
       <c r="N113" t="n">
-        <v>7.617501186748044e-05</v>
+        <v>9.467928167403687e-05</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>23.91304347826087</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.4001964121660095</v>
+        <v>0.9440948841124444</v>
       </c>
       <c r="R113" t="n">
-        <v>0.5296637397117354</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S113" t="n">
-        <v>0.7052087651307103</v>
+        <v>0.2044011133508551</v>
       </c>
       <c r="T113" t="n">
-        <v>0.1814582538069969</v>
+        <v>0.7495661200094088</v>
       </c>
       <c r="U113" t="n">
-        <v>0.4782042980591728</v>
+        <v>0.2252372974911668</v>
       </c>
       <c r="V113" t="n">
-        <v>0.1621185408896155</v>
+        <v>0.2164434318388863</v>
       </c>
       <c r="W113" t="n">
-        <v>6.881571038450107e-05</v>
+        <v>0.00591944576111364</v>
       </c>
       <c r="X113" t="n">
-        <v>0.004163681147171985</v>
+        <v>0.3581549122946641</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B114" t="n">
-        <v>170.5</v>
+        <v>211</v>
       </c>
       <c r="C114" t="n">
-        <v>78.7</v>
+        <v>58.4</v>
       </c>
       <c r="D114" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1836786141</v>
+        <v>0.24170500935</v>
       </c>
       <c r="F114" t="n">
-        <v>5.39</v>
+        <v>6.82</v>
       </c>
       <c r="G114" t="n">
-        <v>1.513777145805587</v>
+        <v>1.478179300395101</v>
       </c>
       <c r="H114" t="n">
-        <v>0.280849192171723</v>
+        <v>0.2167418329025075</v>
       </c>
       <c r="I114" t="n">
         <v>25.8</v>
@@ -8677,64 +8677,64 @@
         <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0550545411387653</v>
+        <v>0.05508729436085966</v>
       </c>
       <c r="N114" t="n">
-        <v>8.279833331028251e-05</v>
+        <v>0.0001006363351997667</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
-        <v>22.44897959183674</v>
+        <v>17.74193548387097</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.5944458664325933</v>
+        <v>1.11891939295237</v>
       </c>
       <c r="R114" t="n">
-        <v>0.6775019719844166</v>
+        <v>1.318134311832702</v>
       </c>
       <c r="S114" t="n">
-        <v>0.5458608759280292</v>
+        <v>-0.1142946650545076</v>
       </c>
       <c r="T114" t="n">
-        <v>0.3843539203078579</v>
+        <v>0.9321722198601842</v>
       </c>
       <c r="U114" t="n">
-        <v>0.4804292667187136</v>
+        <v>-0.1130611269839822</v>
       </c>
       <c r="V114" t="n">
-        <v>0.1794037334643835</v>
+        <v>0.2510138169884223</v>
       </c>
       <c r="W114" t="n">
-        <v>0.004274880635616485</v>
+        <v>-0.009308807638422373</v>
       </c>
       <c r="X114" t="n">
-        <v>0.2586508198415076</v>
+        <v>-0.5632275922196863</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B115" t="n">
-        <v>176.5</v>
+        <v>223</v>
       </c>
       <c r="C115" t="n">
-        <v>76.5</v>
+        <v>52.6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1922751171</v>
+        <v>0.25889801535</v>
       </c>
       <c r="F115" t="n">
-        <v>5.720000000000001</v>
+        <v>7.260000000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>1.540327743141167</v>
+        <v>1.426077354018782</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2692880669827215</v>
+        <v>0.1964293876058929</v>
       </c>
       <c r="I115" t="n">
         <v>25.8</v>
@@ -8749,64 +8749,64 @@
         <v>11</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0550614202504803</v>
+        <v>0.05509891106002006</v>
       </c>
       <c r="N115" t="n">
-        <v>8.543887741684227e-05</v>
+        <v>0.0001059506652933466</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>21.15384615384615</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.6721456481392269</v>
+        <v>1.274318956365637</v>
       </c>
       <c r="R115" t="n">
-        <v>0.8253402042570981</v>
+        <v>1.515251954862944</v>
       </c>
       <c r="S115" t="n">
-        <v>0.4743169256737641</v>
+        <v>-0.3029105339066609</v>
       </c>
       <c r="T115" t="n">
-        <v>0.4655121869082029</v>
+        <v>1.094488753060873</v>
       </c>
       <c r="U115" t="n">
-        <v>0.3733991719170772</v>
+        <v>-0.3011088221873813</v>
       </c>
       <c r="V115" t="n">
-        <v>0.1871644321714222</v>
+        <v>0.2714738408524334</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005110684928577802</v>
+        <v>-0.01257582550243347</v>
       </c>
       <c r="X115" t="n">
-        <v>0.3092209957197215</v>
+        <v>-0.7608978714604681</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B116" t="n">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="C116" t="n">
-        <v>70.5</v>
+        <v>47.3</v>
       </c>
       <c r="D116" t="n">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.21591550035</v>
+        <v>0.28038927285</v>
       </c>
       <c r="F116" t="n">
-        <v>5.94</v>
+        <v>7.59</v>
       </c>
       <c r="G116" t="n">
-        <v>1.594048591784952</v>
+        <v>1.388836600375788</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2683583487853454</v>
+        <v>0.1829824242919352</v>
       </c>
       <c r="I116" t="n">
         <v>25.8</v>
@@ -8821,64 +8821,64 @@
         <v>11</v>
       </c>
       <c r="M116" t="n">
-        <v>0.05506623284736301</v>
+        <v>0.05510809831594628</v>
       </c>
       <c r="N116" t="n">
-        <v>9.269753064970684e-05</v>
+        <v>0.0001126236154714265</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>20.37037037037037</v>
+        <v>15.94202898550725</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.8858200478324691</v>
+        <v>1.468568410632221</v>
       </c>
       <c r="R116" t="n">
-        <v>0.9238990257722191</v>
+        <v>1.663090187135625</v>
       </c>
       <c r="S116" t="n">
-        <v>0.2791970613439503</v>
+        <v>-0.4752664140646632</v>
       </c>
       <c r="T116" t="n">
-        <v>0.6886974200591505</v>
+        <v>1.297384419561735</v>
       </c>
       <c r="U116" t="n">
-        <v>0.3647920661918813</v>
+        <v>-0.425597549258358</v>
       </c>
       <c r="V116" t="n">
-        <v>0.2083299740997095</v>
+        <v>0.2901700695557539</v>
       </c>
       <c r="W116" t="n">
-        <v>0.007585526250290464</v>
+        <v>-0.009780796705753936</v>
       </c>
       <c r="X116" t="n">
-        <v>0.4589607876347086</v>
+        <v>-0.5917851987653325</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B117" t="n">
-        <v>197.5</v>
+        <v>247</v>
       </c>
       <c r="C117" t="n">
-        <v>68.2</v>
+        <v>40.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2223628776</v>
+        <v>0.29328402735</v>
       </c>
       <c r="F117" t="n">
-        <v>6.27</v>
+        <v>7.92</v>
       </c>
       <c r="G117" t="n">
-        <v>1.588090611336287</v>
+        <v>1.243861576746284</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2532839890488496</v>
+        <v>0.157053229387157</v>
       </c>
       <c r="I117" t="n">
         <v>25.8</v>
@@ -8893,64 +8893,64 @@
         <v>11</v>
       </c>
       <c r="M117" t="n">
-        <v>0.05507379140752887</v>
+        <v>0.05511769225938256</v>
       </c>
       <c r="N117" t="n">
-        <v>9.467928167403687e-05</v>
+        <v>0.0001166445049204666</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>19.29824561403509</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.9440948841124444</v>
+        <v>1.585118083192171</v>
       </c>
       <c r="R117" t="n">
-        <v>1.0717372580449</v>
+        <v>1.810928419408307</v>
       </c>
       <c r="S117" t="n">
-        <v>0.2044011133508551</v>
+        <v>-0.6964022603051189</v>
       </c>
       <c r="T117" t="n">
-        <v>0.7495661200094088</v>
+        <v>1.419121819462252</v>
       </c>
       <c r="U117" t="n">
-        <v>0.2252372974911668</v>
+        <v>-0.6656437509402361</v>
       </c>
       <c r="V117" t="n">
-        <v>0.2164434318388863</v>
+        <v>0.3141576837411462</v>
       </c>
       <c r="W117" t="n">
-        <v>0.00591944576111364</v>
+        <v>-0.02087365639114624</v>
       </c>
       <c r="X117" t="n">
-        <v>0.3581549122946641</v>
+        <v>-1.262956512441033</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B118" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C118" t="n">
-        <v>58.4</v>
+        <v>46.6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="E118" t="n">
-        <v>0.24170500935</v>
+        <v>0.27036001935</v>
       </c>
       <c r="F118" t="n">
-        <v>6.82</v>
+        <v>7.37</v>
       </c>
       <c r="G118" t="n">
-        <v>1.478179300395101</v>
+        <v>1.319340831954297</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2167418329025075</v>
+        <v>0.1790150382570281</v>
       </c>
       <c r="I118" t="n">
         <v>25.8</v>
@@ -8965,325 +8965,37 @@
         <v>11</v>
       </c>
       <c r="M118" t="n">
-        <v>0.05508729436085966</v>
+        <v>0.05510192827841871</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0001006363351997667</v>
+        <v>0.0001095052196449467</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
-        <v>17.74193548387097</v>
+        <v>16.41791044776119</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.11891939295237</v>
+        <v>1.377918665307815</v>
       </c>
       <c r="R118" t="n">
-        <v>1.318134311832702</v>
+        <v>1.564531365620505</v>
       </c>
       <c r="S118" t="n">
-        <v>-0.1142946650545076</v>
+        <v>-0.4980303982364747</v>
       </c>
       <c r="T118" t="n">
-        <v>0.9321722198601842</v>
+        <v>1.202699775194666</v>
       </c>
       <c r="U118" t="n">
-        <v>-0.1130611269839822</v>
+        <v>-0.4623266475501716</v>
       </c>
       <c r="V118" t="n">
-        <v>0.2510138169884223</v>
+        <v>0.2926393827807208</v>
       </c>
       <c r="W118" t="n">
-        <v>-0.009308807638422373</v>
+        <v>-0.02227936343072079</v>
       </c>
       <c r="X118" t="n">
-        <v>-0.5632275922196863</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>150</v>
-      </c>
-      <c r="B119" t="n">
-        <v>223</v>
-      </c>
-      <c r="C119" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.25889801535</v>
-      </c>
-      <c r="F119" t="n">
-        <v>7.260000000000001</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.426077354018782</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.1964293876058929</v>
-      </c>
-      <c r="I119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J119" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K119" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L119" t="n">
-        <v>11</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.05509891106002006</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0001059506652933466</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>1.274318956365637</v>
-      </c>
-      <c r="R119" t="n">
-        <v>1.515251954862944</v>
-      </c>
-      <c r="S119" t="n">
-        <v>-0.3029105339066609</v>
-      </c>
-      <c r="T119" t="n">
-        <v>1.094488753060873</v>
-      </c>
-      <c r="U119" t="n">
-        <v>-0.3011088221873813</v>
-      </c>
-      <c r="V119" t="n">
-        <v>0.2714738408524334</v>
-      </c>
-      <c r="W119" t="n">
-        <v>-0.01257582550243347</v>
-      </c>
-      <c r="X119" t="n">
-        <v>-0.7608978714604681</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>151</v>
-      </c>
-      <c r="B120" t="n">
-        <v>238</v>
-      </c>
-      <c r="C120" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.28038927285</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.388836600375788</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.1829824242919352</v>
-      </c>
-      <c r="I120" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.05510809831594628</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.0001126236154714265</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="n">
-        <v>15.94202898550725</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>1.468568410632221</v>
-      </c>
-      <c r="R120" t="n">
-        <v>1.663090187135625</v>
-      </c>
-      <c r="S120" t="n">
-        <v>-0.4752664140646632</v>
-      </c>
-      <c r="T120" t="n">
-        <v>1.297384419561735</v>
-      </c>
-      <c r="U120" t="n">
-        <v>-0.425597549258358</v>
-      </c>
-      <c r="V120" t="n">
-        <v>0.2901700695557539</v>
-      </c>
-      <c r="W120" t="n">
-        <v>-0.009780796705753936</v>
-      </c>
-      <c r="X120" t="n">
-        <v>-0.5917851987653325</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>152</v>
-      </c>
-      <c r="B121" t="n">
-        <v>247</v>
-      </c>
-      <c r="C121" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.29328402735</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.243861576746284</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.157053229387157</v>
-      </c>
-      <c r="I121" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L121" t="n">
-        <v>11</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.05511769225938256</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.0001166445049204666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="n">
-        <v>15.27777777777778</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>1.585118083192171</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.810928419408307</v>
-      </c>
-      <c r="S121" t="n">
-        <v>-0.6964022603051189</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.419121819462252</v>
-      </c>
-      <c r="U121" t="n">
-        <v>-0.6656437509402361</v>
-      </c>
-      <c r="V121" t="n">
-        <v>0.3141576837411462</v>
-      </c>
-      <c r="W121" t="n">
-        <v>-0.02087365639114624</v>
-      </c>
-      <c r="X121" t="n">
-        <v>-1.262956512441033</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>154</v>
-      </c>
-      <c r="B122" t="n">
-        <v>231</v>
-      </c>
-      <c r="C122" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.27036001935</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.319340831954297</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.1790150382570281</v>
-      </c>
-      <c r="I122" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J122" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K122" t="n">
-        <v>14.605</v>
-      </c>
-      <c r="L122" t="n">
-        <v>11</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.05510192827841871</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.0001095052196449467</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="n">
-        <v>16.41791044776119</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>1.377918665307815</v>
-      </c>
-      <c r="R122" t="n">
-        <v>1.564531365620505</v>
-      </c>
-      <c r="S122" t="n">
-        <v>-0.4980303982364747</v>
-      </c>
-      <c r="T122" t="n">
-        <v>1.202699775194666</v>
-      </c>
-      <c r="U122" t="n">
-        <v>-0.4623266475501716</v>
-      </c>
-      <c r="V122" t="n">
-        <v>0.2926393827807208</v>
-      </c>
-      <c r="W122" t="n">
-        <v>-0.02227936343072079</v>
-      </c>
-      <c r="X122" t="n">
         <v>-1.348008542950067</v>
       </c>
     </row>

--- a/GK_Data_M1_filled.xlsx
+++ b/GK_Data_M1_filled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4594,39 +4594,39 @@
         <v>-0.2684099658827362</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02865498617308854</v>
+        <v>0.02808578480778823</v>
       </c>
       <c r="W57" t="n">
-        <v>-0.009199794173088537</v>
+        <v>-0.008630592807788228</v>
       </c>
       <c r="X57" t="n">
-        <v>-1.173667421944133</v>
+        <v>-1.118517862246717</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="C58" t="n">
-        <v>34.4</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="E58" t="n">
-        <v>0.309831192</v>
+        <v>0.373713912</v>
       </c>
       <c r="F58" t="n">
-        <v>5.67</v>
+        <v>6.57</v>
       </c>
       <c r="G58" t="n">
-        <v>1.116123361480727</v>
+        <v>0.7827045869890017</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1968471537003045</v>
+        <v>0.1191331182631662</v>
       </c>
       <c r="I58" t="n">
         <v>26.1</v>
@@ -4641,64 +4641,64 @@
         <v>9</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04511011527362793</v>
+        <v>0.04514778510624858</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0001229749557030098</v>
+        <v>0.0001423699132220511</v>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>14.28571428571429</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.494468337867765</v>
+        <v>2.064266737049745</v>
       </c>
       <c r="R58" t="n">
-        <v>1.367413722590263</v>
+        <v>1.860207830165867</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.8947741223737629</v>
+        <v>-1.363061796765316</v>
       </c>
       <c r="T58" t="n">
-        <v>1.575341063513525</v>
+        <v>2.178448026997999</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.2972412449439201</v>
+        <v>-1.016698948608226</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3106119971765024</v>
+        <v>0.368572332490659</v>
       </c>
       <c r="W58" t="n">
-        <v>-0.0007808051765024193</v>
+        <v>0.005141579509341077</v>
       </c>
       <c r="X58" t="n">
-        <v>-0.09961153274786523</v>
+        <v>0.6663445547066084</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>41.3</v>
+        <v>240</v>
       </c>
       <c r="C59" t="n">
-        <v>106.4</v>
+        <v>34.4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.13</v>
+        <v>0.63</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02134263599999999</v>
+        <v>0.309831192</v>
       </c>
       <c r="F59" t="n">
-        <v>1.17</v>
+        <v>5.67</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2378035334921829</v>
+        <v>1.116123361480727</v>
       </c>
       <c r="H59" t="n">
-        <v>0.203250883326652</v>
+        <v>0.1968471537003045</v>
       </c>
       <c r="I59" t="n">
         <v>26.1</v>
@@ -4713,64 +4713,64 @@
         <v>9</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04500469419960545</v>
+        <v>0.04511011527362793</v>
       </c>
       <c r="N59" t="n">
-        <v>2.682572308583098e-05</v>
+        <v>0.0001229749557030098</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>69.23076923076923</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="Q59" t="n">
-        <v>-1.078689432983583</v>
+        <v>1.494468337867765</v>
       </c>
       <c r="R59" t="n">
-        <v>-1.096556815287759</v>
+        <v>1.367413722590263</v>
       </c>
       <c r="S59" t="n">
-        <v>1.446664249584003</v>
+        <v>-0.8947741223737629</v>
       </c>
       <c r="T59" t="n">
-        <v>-1.148235155676587</v>
+        <v>1.575341063513525</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.2379570682061704</v>
+        <v>-0.2972412449439201</v>
       </c>
       <c r="V59" t="n">
-        <v>0.02707980734066717</v>
+        <v>0.3115606314832945</v>
       </c>
       <c r="W59" t="n">
-        <v>-0.005737171340667178</v>
+        <v>-0.00172943948329457</v>
       </c>
       <c r="X59" t="n">
-        <v>-0.7319219289002904</v>
+        <v>-0.2241339612261747</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>100.2</v>
+        <v>41.3</v>
       </c>
       <c r="C60" t="n">
-        <v>86.3</v>
+        <v>106.4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="E60" t="n">
-        <v>0.106858368</v>
+        <v>0.02134263599999999</v>
       </c>
       <c r="F60" t="n">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9657127177712319</v>
+        <v>0.2378035334921829</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4126977426372786</v>
+        <v>0.203250883326652</v>
       </c>
       <c r="I60" t="n">
         <v>26.1</v>
@@ -4785,64 +4785,64 @@
         <v>9</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04501877386157913</v>
+        <v>0.04500469419960545</v>
       </c>
       <c r="N60" t="n">
-        <v>6.439379564635718e-05</v>
+        <v>2.682572308583098e-05</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>34.61538461538461</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.3159365758967964</v>
+        <v>-1.078689432983583</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.4559244754394736</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S60" t="n">
-        <v>0.7930127040791266</v>
+        <v>1.446664249584003</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.3408942431939617</v>
+        <v>-1.148235155676587</v>
       </c>
       <c r="U60" t="n">
-        <v>1.701051189333274</v>
+        <v>-0.2379570682061704</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1062325436698379</v>
+        <v>0.02650212644647254</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0006258243301621308</v>
+        <v>-0.005159490446472546</v>
       </c>
       <c r="X60" t="n">
-        <v>0.07983978927701532</v>
+        <v>-0.6686657977031553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>127.3</v>
+        <v>100.2</v>
       </c>
       <c r="C61" t="n">
-        <v>74.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="D61" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="E61" t="n">
-        <v>0.146204316</v>
+        <v>0.106858368</v>
       </c>
       <c r="F61" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="G61" t="n">
-        <v>1.146754964654906</v>
+        <v>0.9657127177712319</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3640491951285416</v>
+        <v>0.4126977426372786</v>
       </c>
       <c r="I61" t="n">
         <v>26.1</v>
@@ -4857,64 +4857,64 @@
         <v>9</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04503401492205642</v>
+        <v>0.04501877386157913</v>
       </c>
       <c r="N61" t="n">
-        <v>7.574526815905497e-05</v>
+        <v>6.439379564635718e-05</v>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
-        <v>25.71428571428572</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.03500743814483173</v>
+        <v>-0.3159365758967964</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.01240977862142972</v>
+        <v>-0.4559244754394736</v>
       </c>
       <c r="S61" t="n">
-        <v>0.4222849618524806</v>
+        <v>0.7930127040791266</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0305648184067028</v>
+        <v>-0.3408942431939617</v>
       </c>
       <c r="U61" t="n">
-        <v>1.250674727985424</v>
+        <v>1.701051189333274</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1511251403938451</v>
+        <v>0.1060809591025854</v>
       </c>
       <c r="W61" t="n">
-        <v>-0.004920824393845058</v>
+        <v>0.0007774088974146359</v>
       </c>
       <c r="X61" t="n">
-        <v>-0.6277761405856565</v>
+        <v>0.1007515656680176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>154.5</v>
+        <v>127.3</v>
       </c>
       <c r="C62" t="n">
-        <v>66.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E62" t="n">
-        <v>0.185695452</v>
+        <v>0.146204316</v>
       </c>
       <c r="F62" t="n">
-        <v>3.69</v>
+        <v>3.15</v>
       </c>
       <c r="G62" t="n">
-        <v>1.285379427404147</v>
+        <v>1.146754964654906</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3483413082396062</v>
+        <v>0.3640491951285416</v>
       </c>
       <c r="I62" t="n">
         <v>26.1</v>
@@ -4929,64 +4929,64 @@
         <v>9</v>
       </c>
       <c r="M62" t="n">
-        <v>0.04504667024320443</v>
+        <v>0.04503401492205642</v>
       </c>
       <c r="N62" t="n">
-        <v>8.687437457565096e-05</v>
+        <v>7.574526815905497e-05</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
-        <v>21.95121951219512</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3872464485482372</v>
+        <v>0.03500743814483173</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2832666859239329</v>
+        <v>-0.01240977862142972</v>
       </c>
       <c r="S62" t="n">
-        <v>0.13610916083542</v>
+        <v>0.4222849618524806</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4033945776516502</v>
+        <v>0.0305648184067028</v>
       </c>
       <c r="U62" t="n">
-        <v>1.105254918462427</v>
+        <v>1.250674727985424</v>
       </c>
       <c r="V62" t="n">
-        <v>0.1857790747071139</v>
+        <v>0.1512152224000822</v>
       </c>
       <c r="W62" t="n">
-        <v>-8.362270711384512e-05</v>
+        <v>-0.005010906400082171</v>
       </c>
       <c r="X62" t="n">
-        <v>-0.01066820031271926</v>
+        <v>-0.6494094252112731</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>182.8</v>
+        <v>154.5</v>
       </c>
       <c r="C63" t="n">
-        <v>55.9</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="E63" t="n">
-        <v>0.226783656</v>
+        <v>0.185695452</v>
       </c>
       <c r="F63" t="n">
-        <v>4.41</v>
+        <v>3.69</v>
       </c>
       <c r="G63" t="n">
-        <v>1.327553946709679</v>
+        <v>1.285379427404147</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3010326409772514</v>
+        <v>0.3483413082396062</v>
       </c>
       <c r="I63" t="n">
         <v>26.1</v>
@@ -5001,64 +5001,64 @@
         <v>9</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0450666450936832</v>
+        <v>0.04504667024320443</v>
       </c>
       <c r="N63" t="n">
-        <v>9.857897712811113e-05</v>
+        <v>8.687437457565096e-05</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>18.36734693877551</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7537304189311923</v>
+        <v>0.3872464485482372</v>
       </c>
       <c r="R63" t="n">
-        <v>0.6775019719844166</v>
+        <v>0.2832666859239329</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.1955946085252634</v>
+        <v>0.13610916083542</v>
       </c>
       <c r="T63" t="n">
-        <v>0.7913020109837096</v>
+        <v>0.4033945776516502</v>
       </c>
       <c r="U63" t="n">
-        <v>0.6672827436739468</v>
+        <v>1.105254918462427</v>
       </c>
       <c r="V63" t="n">
-        <v>0.2259461349338572</v>
+        <v>0.1860557063490271</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0008375210661428767</v>
+        <v>-0.0003602543490271171</v>
       </c>
       <c r="X63" t="n">
-        <v>0.1068470850575357</v>
+        <v>-0.04668867287717148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>200.2</v>
+        <v>182.8</v>
       </c>
       <c r="C64" t="n">
-        <v>52.1</v>
+        <v>55.9</v>
       </c>
       <c r="D64" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252046368</v>
+        <v>0.226783656</v>
       </c>
       <c r="F64" t="n">
-        <v>4.77</v>
+        <v>4.41</v>
       </c>
       <c r="G64" t="n">
-        <v>1.375139588053078</v>
+        <v>1.327553946709679</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2882892218140624</v>
+        <v>0.3010326409772514</v>
       </c>
       <c r="I64" t="n">
         <v>26.1</v>
@@ -5073,64 +5073,64 @@
         <v>9</v>
       </c>
       <c r="M64" t="n">
-        <v>0.045077960246666</v>
+        <v>0.0450666450936832</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0001058923530812394</v>
+        <v>9.857897712811113e-05</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>16.9811320754717</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.9790597858804293</v>
+        <v>0.7537304189311923</v>
       </c>
       <c r="R64" t="n">
-        <v>0.8746196150146586</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.3191705226008121</v>
+        <v>-0.1955946085252634</v>
       </c>
       <c r="T64" t="n">
-        <v>1.029803401088933</v>
+        <v>0.7913020109837096</v>
       </c>
       <c r="U64" t="n">
-        <v>0.5493072578249872</v>
+        <v>0.6672827436739468</v>
       </c>
       <c r="V64" t="n">
-        <v>0.2409103338418596</v>
+        <v>0.2264389945625769</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01113603415814046</v>
+        <v>0.0003446614374231494</v>
       </c>
       <c r="X64" t="n">
-        <v>1.420684012616196</v>
+        <v>0.04466784411813962</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>205.9</v>
+        <v>200.2</v>
       </c>
       <c r="C65" t="n">
-        <v>49.3</v>
+        <v>52.1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="E65" t="n">
-        <v>0.260322084</v>
+        <v>0.252046368</v>
       </c>
       <c r="F65" t="n">
-        <v>4.95</v>
+        <v>4.77</v>
       </c>
       <c r="G65" t="n">
-        <v>1.343960639013871</v>
+        <v>1.375139588053078</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2715071998007821</v>
+        <v>0.2882892218140624</v>
       </c>
       <c r="I65" t="n">
         <v>26.1</v>
@@ -5145,64 +5145,64 @@
         <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>0.04508394947206822</v>
+        <v>0.045077960246666</v>
       </c>
       <c r="N65" t="n">
-        <v>0.000108308969140759</v>
+        <v>0.0001058923530812394</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>16.36363636363636</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.052874578501731</v>
+        <v>0.9790597858804293</v>
       </c>
       <c r="R65" t="n">
-        <v>0.9731784365297795</v>
+        <v>0.8746196150146586</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.4102264592880586</v>
+        <v>-0.3191705226008121</v>
       </c>
       <c r="T65" t="n">
-        <v>1.107933166813058</v>
+        <v>1.029803401088933</v>
       </c>
       <c r="U65" t="n">
-        <v>0.3939433656708483</v>
+        <v>0.5493072578249872</v>
       </c>
       <c r="V65" t="n">
-        <v>0.2519365856688087</v>
+        <v>0.2414837489950758</v>
       </c>
       <c r="W65" t="n">
-        <v>0.008385498331191288</v>
+        <v>0.01056261900492422</v>
       </c>
       <c r="X65" t="n">
-        <v>1.06978330416082</v>
+        <v>1.368906898081558</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>210.2</v>
+        <v>205.9</v>
       </c>
       <c r="C66" t="n">
-        <v>45.2</v>
+        <v>49.3</v>
       </c>
       <c r="D66" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="E66" t="n">
-        <v>0.266565168</v>
+        <v>0.260322084</v>
       </c>
       <c r="F66" t="n">
-        <v>5.22</v>
+        <v>4.95</v>
       </c>
       <c r="G66" t="n">
-        <v>1.261741688060872</v>
+        <v>1.343960639013871</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2417129670614697</v>
+        <v>0.2715071998007821</v>
       </c>
       <c r="I66" t="n">
         <v>26.1</v>
@@ -5217,64 +5217,64 @@
         <v>9</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04509334762467742</v>
+        <v>0.04508394947206822</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0001101388183892137</v>
+        <v>0.000108308969140759</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>15.51724137931035</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.108559422058152</v>
+        <v>1.052874578501731</v>
       </c>
       <c r="R66" t="n">
-        <v>1.121016668802461</v>
+        <v>0.9731784365297795</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.5435583665800979</v>
+        <v>-0.4102264592880586</v>
       </c>
       <c r="T66" t="n">
-        <v>1.166873165517222</v>
+        <v>1.107933166813058</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1181155805289412</v>
+        <v>0.3939433656708483</v>
       </c>
       <c r="V66" t="n">
-        <v>0.2680821687011271</v>
+        <v>0.2525693575242856</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.001517000701127147</v>
+        <v>0.007752726475714455</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.1935319713116593</v>
+        <v>1.004747094124804</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>232</v>
+        <v>210.2</v>
       </c>
       <c r="C67" t="n">
-        <v>39.5</v>
+        <v>45.2</v>
       </c>
       <c r="D67" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E67" t="n">
-        <v>0.298216152</v>
+        <v>0.266565168</v>
       </c>
       <c r="F67" t="n">
-        <v>5.49</v>
+        <v>5.22</v>
       </c>
       <c r="G67" t="n">
-        <v>1.233550335201606</v>
+        <v>1.261741688060872</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2246904071405475</v>
+        <v>0.2417129670614697</v>
       </c>
       <c r="I67" t="n">
         <v>26.1</v>
@@ -5289,64 +5289,64 @@
         <v>9</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04510324267721779</v>
+        <v>0.04509334762467742</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0001195032481202116</v>
+        <v>0.0001101388183892137</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>14.75409836065574</v>
+        <v>15.51724137931035</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.390868628925587</v>
+        <v>1.108559422058152</v>
       </c>
       <c r="R67" t="n">
-        <v>1.268854901075142</v>
+        <v>1.121016668802461</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.7289222376934211</v>
+        <v>-0.5435583665800979</v>
       </c>
       <c r="T67" t="n">
-        <v>1.465685251970894</v>
+        <v>1.166873165517222</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.03947515327230555</v>
+        <v>0.1181155805289412</v>
       </c>
       <c r="V67" t="n">
-        <v>0.2905284670631307</v>
+        <v>0.2688018557277713</v>
       </c>
       <c r="W67" t="n">
-        <v>0.007687684936869277</v>
+        <v>-0.002236687727771303</v>
       </c>
       <c r="X67" t="n">
-        <v>0.9807594812248935</v>
+        <v>-0.2898729243166966</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>244.3</v>
+        <v>232</v>
       </c>
       <c r="C68" t="n">
-        <v>33.6</v>
+        <v>39.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="E68" t="n">
-        <v>0.316074276</v>
+        <v>0.298216152</v>
       </c>
       <c r="F68" t="n">
-        <v>5.76</v>
+        <v>5.49</v>
       </c>
       <c r="G68" t="n">
-        <v>1.11213381828675</v>
+        <v>1.233550335201606</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1930787878970052</v>
+        <v>0.2246904071405475</v>
       </c>
       <c r="I68" t="n">
         <v>26.1</v>
@@ -5361,64 +5361,64 @@
         <v>9</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04511363430272494</v>
+        <v>0.04510324267721779</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0001248484337708273</v>
+        <v>0.0001195032481202116</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>14.0625</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.550153181424186</v>
+        <v>1.390868628925587</v>
       </c>
       <c r="R68" t="n">
-        <v>1.416693133347823</v>
+        <v>1.268854901075142</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.9207901042844047</v>
+        <v>-0.7289222376934211</v>
       </c>
       <c r="T68" t="n">
-        <v>1.634281062217689</v>
+        <v>1.465685251970894</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.3321278621702489</v>
+        <v>-0.03947515327230555</v>
       </c>
       <c r="V68" t="n">
-        <v>0.313762354841345</v>
+        <v>0.2913689873765197</v>
       </c>
       <c r="W68" t="n">
-        <v>0.002311921158655028</v>
+        <v>0.00684716462348034</v>
       </c>
       <c r="X68" t="n">
-        <v>0.2949442666830658</v>
+        <v>0.8873870089428159</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>80</v>
+        <v>244.3</v>
       </c>
       <c r="C69" t="n">
-        <v>96</v>
+        <v>33.6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23</v>
+        <v>0.64</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07753039199999999</v>
+        <v>0.316074276</v>
       </c>
       <c r="F69" t="n">
-        <v>2.07</v>
+        <v>5.76</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7794205117988379</v>
+        <v>1.11213381828675</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3765316482119989</v>
+        <v>0.1930787878970052</v>
       </c>
       <c r="I69" t="n">
         <v>26.1</v>
@@ -5433,64 +5433,64 @@
         <v>9</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04501469204604204</v>
+        <v>0.04511363430272494</v>
       </c>
       <c r="N69" t="n">
-        <v>5.508256930259357e-05</v>
+        <v>0.0001248484337708273</v>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>39.1304347826087</v>
+        <v>14.0625</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.5775258409757961</v>
+        <v>1.550153181424186</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.6037627077121549</v>
+        <v>1.416693133347823</v>
       </c>
       <c r="S69" t="n">
-        <v>1.108456484745659</v>
+        <v>-0.9207901042844047</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.6177751673391064</v>
+        <v>1.634281062217689</v>
       </c>
       <c r="U69" t="n">
-        <v>1.366234253121471</v>
+        <v>-0.3321278621702489</v>
       </c>
       <c r="V69" t="n">
-        <v>0.06803445698362115</v>
+        <v>0.3147279482059259</v>
       </c>
       <c r="W69" t="n">
-        <v>0.00949593501637884</v>
+        <v>0.00134632779407412</v>
       </c>
       <c r="X69" t="n">
-        <v>1.211447708495936</v>
+        <v>0.1744829955078184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>122.6</v>
+        <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>78.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="E70" t="n">
-        <v>0.13938048</v>
+        <v>0.07753039199999999</v>
       </c>
       <c r="F70" t="n">
-        <v>2.97</v>
+        <v>2.07</v>
       </c>
       <c r="G70" t="n">
-        <v>1.139938988230136</v>
+        <v>0.7794205117988379</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3838178411549278</v>
+        <v>0.3765316482119989</v>
       </c>
       <c r="I70" t="n">
         <v>26.1</v>
@@ -5505,212 +5505,212 @@
         <v>9</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04503023983946788</v>
+        <v>0.04501469204604204</v>
       </c>
       <c r="N70" t="n">
-        <v>7.381377475667859e-05</v>
+        <v>5.508256930259357e-05</v>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>27.27272727272727</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.02585739085869792</v>
+        <v>-0.5775258409757961</v>
       </c>
       <c r="R70" t="n">
-        <v>-0.1109686001365504</v>
+        <v>-0.6037627077121549</v>
       </c>
       <c r="S70" t="n">
-        <v>0.5263488894950475</v>
+        <v>1.108456484745659</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.03385797087459325</v>
+        <v>-0.6177751673391064</v>
       </c>
       <c r="U70" t="n">
-        <v>1.433688061351709</v>
+        <v>1.366234253121471</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1385237097344746</v>
+        <v>0.06767724384068019</v>
       </c>
       <c r="W70" t="n">
-        <v>0.0008567702655253584</v>
+        <v>0.009853148159319799</v>
       </c>
       <c r="X70" t="n">
-        <v>0.1093028093692614</v>
+        <v>1.276960049096199</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>77</v>
+      </c>
+      <c r="B71" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.13938048</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.139938988230136</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3838178411549278</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.04503023983946788</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.381377475667859e-05</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-0.02585739085869792</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-0.1109686001365504</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5263488894950475</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-0.03385797087459325</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.433688061351709</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.1385459555095568</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.000834524490443217</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.1081537004272467</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
         <v>78</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B72" t="n">
         <v>25.6</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C72" t="n">
         <v>120.1</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D72" t="n">
         <v>0.09</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F72" t="n">
         <v>0.8576999999999999</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G72" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I72" t="n">
         <v>25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J72" t="n">
         <v>25.6</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K72" t="n">
         <v>14.28</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L72" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M72" t="n">
         <v>0.04765212482145995</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N72" t="n">
         <v>0</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="P71" t="n">
+      <c r="P72" t="n">
         <v>105.8888888888889</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q72" t="n">
         <v>-1.282003861782607</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R72" t="n">
         <v>-1.293674458318001</v>
       </c>
-      <c r="S71" t="n">
+      <c r="S72" t="n">
         <v>1.892187939803744</v>
       </c>
-      <c r="T71" t="n">
+      <c r="T72" t="n">
         <v>-1.349727709386172</v>
       </c>
-      <c r="U71" t="n">
+      <c r="U72" t="n">
         <v>-2.1196044818734</v>
       </c>
-      <c r="V71" t="n">
+      <c r="V72" t="n">
         <v>0.01646601278680093</v>
       </c>
-      <c r="W71" t="n">
+      <c r="W72" t="n">
         <v>-0.01646601278680093</v>
       </c>
-      <c r="X71" t="n">
+      <c r="X72" t="n">
         <v>-1.478790039739221</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>79</v>
-      </c>
-      <c r="B72" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C72" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.0337609188</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1.2389</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.4048073246006572</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.326747376382805</v>
-      </c>
-      <c r="I72" t="n">
-        <v>25</v>
-      </c>
-      <c r="J72" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.04765443316208891</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.596301638584569e-05</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="n">
-        <v>73.30769230769231</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>-0.9699097385942955</v>
-      </c>
-      <c r="R72" t="n">
-        <v>-1.096556815287759</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.710076066429252</v>
-      </c>
-      <c r="T72" t="n">
-        <v>-1.030996052031666</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.9053435312929314</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.03479719005612086</v>
-      </c>
-      <c r="W72" t="n">
-        <v>-0.001036271256120866</v>
-      </c>
-      <c r="X72" t="n">
-        <v>-0.09306610117829944</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>60.1</v>
+        <v>49.7</v>
       </c>
       <c r="C73" t="n">
-        <v>110.1</v>
+        <v>114.5</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E73" t="n">
-        <v>0.048329946</v>
+        <v>0.0337609188</v>
       </c>
       <c r="F73" t="n">
-        <v>1.5248</v>
+        <v>1.2389</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5572271221183084</v>
+        <v>0.4048073246006572</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3654427610954278</v>
+        <v>0.326747376382805</v>
       </c>
       <c r="I73" t="n">
         <v>25</v>
@@ -5725,64 +5725,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04765671516166426</v>
+        <v>0.04765443316208891</v>
       </c>
       <c r="N73" t="n">
-        <v>4.362385959469624e-05</v>
+        <v>3.596301638584569e-05</v>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>59.56249999999999</v>
+        <v>73.30769230769231</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.8352301169694641</v>
+        <v>-0.9699097385942955</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.9487185830150782</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S73" t="n">
-        <v>1.566988165920721</v>
+        <v>1.710076066429252</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.8934521003102188</v>
+        <v>-1.030996052031666</v>
       </c>
       <c r="U73" t="n">
-        <v>1.263576023932817</v>
+        <v>0.9053435312929314</v>
       </c>
       <c r="V73" t="n">
-        <v>0.04920025791058652</v>
+        <v>0.03479719005612086</v>
       </c>
       <c r="W73" t="n">
-        <v>-0.0008703119105865215</v>
+        <v>-0.001036271256120866</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.07816151982302716</v>
+        <v>-0.09306610117829944</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>78.5</v>
+        <v>60.1</v>
       </c>
       <c r="C74" t="n">
-        <v>101.2</v>
+        <v>110.1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0741059172</v>
+        <v>0.048329946</v>
       </c>
       <c r="F74" t="n">
-        <v>2.0013</v>
+        <v>1.5248</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7853477744127004</v>
+        <v>0.5572271221183084</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3924188149766155</v>
+        <v>0.3654427610954278</v>
       </c>
       <c r="I74" t="n">
         <v>25</v>
@@ -5797,64 +5797,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M74" t="n">
-        <v>0.047661567326306</v>
+        <v>0.04765671516166426</v>
       </c>
       <c r="N74" t="n">
-        <v>5.38630247871673e-05</v>
+        <v>4.362385959469624e-05</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>45.38095238095238</v>
+        <v>59.56249999999999</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.5969507864024545</v>
+        <v>-0.8352301169694641</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.702321529227276</v>
+        <v>-0.9487185830150782</v>
       </c>
       <c r="S74" t="n">
-        <v>1.277560367164831</v>
+        <v>1.566988165920721</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.6501051088030437</v>
+        <v>-0.8934521003102188</v>
       </c>
       <c r="U74" t="n">
-        <v>1.513313792279472</v>
+        <v>1.263576023932817</v>
       </c>
       <c r="V74" t="n">
-        <v>0.07833373607075561</v>
+        <v>0.04920025791058652</v>
       </c>
       <c r="W74" t="n">
-        <v>-0.004227818870755615</v>
+        <v>-0.0008703119105865215</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.3796946180502508</v>
+        <v>-0.07816151982302716</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>92.7</v>
+        <v>78.5</v>
       </c>
       <c r="C75" t="n">
-        <v>95</v>
+        <v>101.2</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09399824279999999</v>
+        <v>0.0741059172</v>
       </c>
       <c r="F75" t="n">
-        <v>2.3825</v>
+        <v>2.0013</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9351299319309605</v>
+        <v>0.7853477744127004</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3924994467706026</v>
+        <v>0.3924188149766155</v>
       </c>
       <c r="I75" t="n">
         <v>25</v>
@@ -5869,64 +5869,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04766639277310587</v>
+        <v>0.047661567326306</v>
       </c>
       <c r="N75" t="n">
-        <v>6.044625848986535e-05</v>
+        <v>5.38630247871673e-05</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>38.12</v>
+        <v>45.38095238095238</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.4130613030300884</v>
+        <v>-0.5969507864024545</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.505203886197034</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S75" t="n">
-        <v>1.075936507357357</v>
+        <v>1.277560367164831</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.4623047131833761</v>
+        <v>-0.6501051088030437</v>
       </c>
       <c r="U75" t="n">
-        <v>1.514060261884583</v>
+        <v>1.513313792279472</v>
       </c>
       <c r="V75" t="n">
-        <v>0.09862896804750265</v>
+        <v>0.07833373607075561</v>
       </c>
       <c r="W75" t="n">
-        <v>-0.004630725247502659</v>
+        <v>-0.004227818870755615</v>
       </c>
       <c r="X75" t="n">
-        <v>-0.41587908751444</v>
+        <v>-0.3796946180502508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>122.8</v>
+        <v>92.7</v>
       </c>
       <c r="C76" t="n">
-        <v>81.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D76" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1361643696</v>
+        <v>0.09399824279999999</v>
       </c>
       <c r="F76" t="n">
-        <v>3.2402</v>
+        <v>2.3825</v>
       </c>
       <c r="G76" t="n">
-        <v>1.160690694459536</v>
+        <v>0.9351299319309605</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3582157565766113</v>
+        <v>0.3924994467706026</v>
       </c>
       <c r="I76" t="n">
         <v>25</v>
@@ -5941,64 +5941,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04768031564492836</v>
+        <v>0.04766639277310587</v>
       </c>
       <c r="N76" t="n">
-        <v>7.312195408049543e-05</v>
+        <v>6.044625848986535e-05</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>28.02941176470588</v>
+        <v>38.12</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.02326739813514343</v>
+        <v>-0.4130613030300884</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.06168918937898994</v>
+        <v>-0.505203886197034</v>
       </c>
       <c r="S76" t="n">
-        <v>0.6336648148764455</v>
+        <v>1.075936507357357</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.06422077598957351</v>
+        <v>-0.4623047131833761</v>
       </c>
       <c r="U76" t="n">
-        <v>1.196670167786856</v>
+        <v>1.514060261884583</v>
       </c>
       <c r="V76" t="n">
-        <v>0.143147541415851</v>
+        <v>0.09862896804750265</v>
       </c>
       <c r="W76" t="n">
-        <v>-0.006983171815851036</v>
+        <v>-0.004630725247502659</v>
       </c>
       <c r="X76" t="n">
-        <v>-0.6271490895079316</v>
+        <v>-0.41587908751444</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" t="n">
-        <v>142.2</v>
+        <v>122.8</v>
       </c>
       <c r="C77" t="n">
-        <v>75.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1633412088</v>
+        <v>0.1361643696</v>
       </c>
       <c r="F77" t="n">
-        <v>3.6214</v>
+        <v>3.2402</v>
       </c>
       <c r="G77" t="n">
-        <v>1.289720874540985</v>
+        <v>1.160690694459536</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3561387514610331</v>
+        <v>0.3582157565766113</v>
       </c>
       <c r="I77" t="n">
         <v>25</v>
@@ -6013,64 +6013,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04768786533280767</v>
+        <v>0.04768031564492836</v>
       </c>
       <c r="N77" t="n">
-        <v>8.105294333873126e-05</v>
+        <v>7.312195408049543e-05</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>25.07894736842105</v>
+        <v>28.02941176470588</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.2279618960496383</v>
+        <v>-0.02326739813514343</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1354284536512518</v>
+        <v>-0.06168918937898994</v>
       </c>
       <c r="S77" t="n">
-        <v>0.4385449505466317</v>
+        <v>0.6336648148764455</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1923515954908176</v>
+        <v>-0.06422077598957351</v>
       </c>
       <c r="U77" t="n">
-        <v>1.177441757853599</v>
+        <v>1.196670167786856</v>
       </c>
       <c r="V77" t="n">
-        <v>0.1627880884901223</v>
+        <v>0.143147541415851</v>
       </c>
       <c r="W77" t="n">
-        <v>0.0005531203098776416</v>
+        <v>-0.006983171815851036</v>
       </c>
       <c r="X77" t="n">
-        <v>0.04967497691245518</v>
+        <v>-0.6271490895079316</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" t="n">
-        <v>158.9</v>
+        <v>142.2</v>
       </c>
       <c r="C78" t="n">
-        <v>68.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1867357044</v>
+        <v>0.1633412088</v>
       </c>
       <c r="F78" t="n">
-        <v>4.0979</v>
+        <v>3.6214</v>
       </c>
       <c r="G78" t="n">
-        <v>1.331689863830518</v>
+        <v>1.289720874540985</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3249688532737545</v>
+        <v>0.3561387514610331</v>
       </c>
       <c r="I78" t="n">
         <v>25</v>
@@ -6085,64 +6085,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04769848005964131</v>
+        <v>0.04768786533280767</v>
       </c>
       <c r="N78" t="n">
-        <v>8.790692274016674e-05</v>
+        <v>8.105294333873126e-05</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>22.16279069767442</v>
+        <v>25.07894736842105</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.4442262884664352</v>
+        <v>0.2279618960496383</v>
       </c>
       <c r="R78" t="n">
-        <v>0.381825507439054</v>
+        <v>0.1354284536512518</v>
       </c>
       <c r="S78" t="n">
-        <v>0.2011491156120246</v>
+        <v>0.4385449505466317</v>
       </c>
       <c r="T78" t="n">
-        <v>0.4132154410435258</v>
+        <v>0.1923515954908176</v>
       </c>
       <c r="U78" t="n">
-        <v>0.8888783954297133</v>
+        <v>1.177441757853599</v>
       </c>
       <c r="V78" t="n">
-        <v>0.1866840874304858</v>
+        <v>0.1627880884901223</v>
       </c>
       <c r="W78" t="n">
-        <v>5.161696951416772e-05</v>
+        <v>0.0005531203098776416</v>
       </c>
       <c r="X78" t="n">
-        <v>0.004635649284826288</v>
+        <v>0.04967497691245518</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" t="n">
-        <v>167.4</v>
+        <v>158.9</v>
       </c>
       <c r="C79" t="n">
-        <v>63.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1986430824</v>
+        <v>0.1867357044</v>
       </c>
       <c r="F79" t="n">
-        <v>4.4791</v>
+        <v>4.0979</v>
       </c>
       <c r="G79" t="n">
-        <v>1.316757418027514</v>
+        <v>1.331689863830518</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2939781246293929</v>
+        <v>0.3249688532737545</v>
       </c>
       <c r="I79" t="n">
         <v>25</v>
@@ -6157,64 +6157,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04770791338970926</v>
+        <v>0.04769848005964131</v>
       </c>
       <c r="N79" t="n">
-        <v>9.14214200577211e-05</v>
+        <v>8.790692274016674e-05</v>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>20.27659574468085</v>
+        <v>22.16279069767442</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.5543009792174994</v>
+        <v>0.4442262884664352</v>
       </c>
       <c r="R79" t="n">
-        <v>0.5789431504692957</v>
+        <v>0.381825507439054</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0450532241481736</v>
+        <v>0.2011491156120246</v>
       </c>
       <c r="T79" t="n">
-        <v>0.5256311708158617</v>
+        <v>0.4132154410435258</v>
       </c>
       <c r="U79" t="n">
-        <v>0.6019737412068438</v>
+        <v>0.8888783954297133</v>
       </c>
       <c r="V79" t="n">
-        <v>0.2023965250899029</v>
+        <v>0.1866840874304858</v>
       </c>
       <c r="W79" t="n">
-        <v>-0.003753442689902908</v>
+        <v>5.161696951416772e-05</v>
       </c>
       <c r="X79" t="n">
-        <v>-0.3370915434372616</v>
+        <v>0.004635649284826288</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" t="n">
-        <v>196.5</v>
+        <v>167.4</v>
       </c>
       <c r="C80" t="n">
-        <v>55.4</v>
+        <v>63.3</v>
       </c>
       <c r="D80" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2394083412</v>
+        <v>0.1986430824</v>
       </c>
       <c r="F80" t="n">
-        <v>4.9556</v>
+        <v>4.4791</v>
       </c>
       <c r="G80" t="n">
-        <v>1.388921370669364</v>
+        <v>1.316757418027514</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2802730992552596</v>
+        <v>0.2939781246293929</v>
       </c>
       <c r="I80" t="n">
         <v>25</v>
@@ -6229,64 +6229,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04772088117375872</v>
+        <v>0.04770791338970926</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0001036238152248013</v>
+        <v>9.14214200577211e-05</v>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>18.32692307692308</v>
+        <v>20.27659574468085</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.9311449204946721</v>
+        <v>0.5543009792174994</v>
       </c>
       <c r="R80" t="n">
-        <v>0.8253402042570981</v>
+        <v>0.5789431504692957</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.2118545972194145</v>
+        <v>0.0450532241481736</v>
       </c>
       <c r="T80" t="n">
-        <v>0.9104897280364482</v>
+        <v>0.5256311708158617</v>
       </c>
       <c r="U80" t="n">
-        <v>0.475095938132125</v>
+        <v>0.6019737412068438</v>
       </c>
       <c r="V80" t="n">
-        <v>0.2282565787376935</v>
+        <v>0.2023965250899029</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01115176246230648</v>
+        <v>-0.003753442689902908</v>
       </c>
       <c r="X80" t="n">
-        <v>1.001524501913162</v>
+        <v>-0.3370915434372616</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" t="n">
-        <v>206.1</v>
+        <v>196.5</v>
       </c>
       <c r="C81" t="n">
-        <v>48</v>
+        <v>55.4</v>
       </c>
       <c r="D81" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2528566739999999</v>
+        <v>0.2394083412</v>
       </c>
       <c r="F81" t="n">
-        <v>5.432099999999999</v>
+        <v>4.9556</v>
       </c>
       <c r="G81" t="n">
-        <v>1.270996271119279</v>
+        <v>1.388921370669364</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2339788058245023</v>
+        <v>0.2802730992552596</v>
       </c>
       <c r="I81" t="n">
         <v>25</v>
@@ -6301,64 +6301,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04773515476040693</v>
+        <v>0.04772088117375872</v>
       </c>
       <c r="N81" t="n">
-        <v>0.000107710161015348</v>
+        <v>0.0001036238152248013</v>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>16.71929824561403</v>
+        <v>18.32692307692308</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.055464571225286</v>
+        <v>0.9311449204946721</v>
       </c>
       <c r="R81" t="n">
-        <v>1.0717372580449</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.4525024298928516</v>
+        <v>-0.2118545972194145</v>
       </c>
       <c r="T81" t="n">
-        <v>1.037453375779322</v>
+        <v>0.9104897280364482</v>
       </c>
       <c r="U81" t="n">
-        <v>0.04651459041153758</v>
+        <v>0.475095938132125</v>
       </c>
       <c r="V81" t="n">
-        <v>0.2524799201292948</v>
+        <v>0.2282565787376935</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0003767538707051821</v>
+        <v>0.01115176246230648</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0338357487417125</v>
+        <v>1.001524501913162</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" t="n">
-        <v>214.1</v>
+        <v>206.1</v>
       </c>
       <c r="C82" t="n">
-        <v>43.2</v>
+        <v>48</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E82" t="n">
-        <v>0.264063618</v>
+        <v>0.2528566739999999</v>
       </c>
       <c r="F82" t="n">
-        <v>5.717999999999999</v>
+        <v>5.432099999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>1.194595664240364</v>
+        <v>1.270996271119279</v>
       </c>
       <c r="H82" t="n">
-        <v>0.208918444253299</v>
+        <v>0.2339788058245023</v>
       </c>
       <c r="I82" t="n">
         <v>25</v>
@@ -6373,64 +6373,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>0.04774434521490476</v>
+        <v>0.04773515476040693</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0001111381613507411</v>
+        <v>0.000107710161015348</v>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>15.88333333333333</v>
+        <v>16.71929824561403</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.159064280167464</v>
+        <v>1.055464571225286</v>
       </c>
       <c r="R82" t="n">
-        <v>1.219575490317582</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.6085983213567026</v>
+        <v>-0.4525024298928516</v>
       </c>
       <c r="T82" t="n">
-        <v>1.143256415565051</v>
+        <v>1.037453375779322</v>
       </c>
       <c r="U82" t="n">
-        <v>-0.1854881628568751</v>
+        <v>0.04651459041153758</v>
       </c>
       <c r="V82" t="n">
-        <v>0.2681923577887119</v>
+        <v>0.2524799201292948</v>
       </c>
       <c r="W82" t="n">
-        <v>-0.004128739788711866</v>
+        <v>0.0003767538707051821</v>
       </c>
       <c r="X82" t="n">
-        <v>-0.3707964614916546</v>
+        <v>0.0338357487417125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>226</v>
+        <v>214.1</v>
       </c>
       <c r="C83" t="n">
-        <v>39.8</v>
+        <v>43.2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2807339472</v>
+        <v>0.264063618</v>
       </c>
       <c r="F83" t="n">
-        <v>5.8133</v>
+        <v>5.717999999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1.170055930141468</v>
+        <v>1.194595664240364</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2012722429844439</v>
+        <v>0.208918444253299</v>
       </c>
       <c r="I83" t="n">
         <v>25</v>
@@ -6445,64 +6445,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04774751302424034</v>
+        <v>0.04774434521490476</v>
       </c>
       <c r="N83" t="n">
-        <v>0.000116274269038896</v>
+        <v>0.0001111381613507411</v>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>15.62295081967213</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.313168847218954</v>
+        <v>1.159064280167464</v>
       </c>
       <c r="R83" t="n">
-        <v>1.268854901075142</v>
+        <v>1.219575490317582</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.7191662444769306</v>
+        <v>-0.6085983213567026</v>
       </c>
       <c r="T83" t="n">
-        <v>1.300638437246322</v>
+        <v>1.143256415565051</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.2562748409093275</v>
+        <v>-0.1854881628568751</v>
       </c>
       <c r="V83" t="n">
-        <v>0.279322001130799</v>
+        <v>0.2681923577887119</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001411946069201031</v>
+        <v>-0.004128739788711866</v>
       </c>
       <c r="X83" t="n">
-        <v>0.1268049412336869</v>
+        <v>-0.3707964614916546</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>234.2</v>
+        <v>226</v>
       </c>
       <c r="C84" t="n">
-        <v>36.4</v>
+        <v>39.8</v>
       </c>
       <c r="D84" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2922210648</v>
+        <v>0.2807339472</v>
       </c>
       <c r="F84" t="n">
-        <v>6.0039</v>
+        <v>5.8133</v>
       </c>
       <c r="G84" t="n">
-        <v>1.113887987818505</v>
+        <v>1.170055930141468</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1855274051563992</v>
+        <v>0.2012722429844439</v>
       </c>
       <c r="I84" t="n">
         <v>25</v>
@@ -6517,64 +6517,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04775400506763804</v>
+        <v>0.04774751302424034</v>
       </c>
       <c r="N84" t="n">
-        <v>0.000119838148302019</v>
+        <v>0.000116274269038896</v>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>15.12698412698413</v>
+        <v>15.62295081967213</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.419358548884686</v>
+        <v>1.313168847218954</v>
       </c>
       <c r="R84" t="n">
-        <v>1.367413722590263</v>
+        <v>1.268854901075142</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.8297341675971583</v>
+        <v>-0.7191662444769306</v>
       </c>
       <c r="T84" t="n">
-        <v>1.409086553026693</v>
+        <v>1.300638437246322</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.4020367332703901</v>
+        <v>-0.2562748409093275</v>
       </c>
       <c r="V84" t="n">
-        <v>0.290451644472886</v>
+        <v>0.279322001130799</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001769420327113969</v>
+        <v>0.001411946069201031</v>
       </c>
       <c r="X84" t="n">
-        <v>0.1589092143755473</v>
+        <v>0.1268049412336869</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>241</v>
+        <v>234.2</v>
       </c>
       <c r="C85" t="n">
-        <v>33.5</v>
+        <v>36.4</v>
       </c>
       <c r="D85" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3017469672</v>
+        <v>0.2922210648</v>
       </c>
       <c r="F85" t="n">
-        <v>6.0992</v>
+        <v>6.0039</v>
       </c>
       <c r="G85" t="n">
-        <v>1.058562095195014</v>
+        <v>1.113887987818505</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1735575313475561</v>
+        <v>0.1855274051563992</v>
       </c>
       <c r="I85" t="n">
         <v>25</v>
@@ -6589,64 +6589,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04775732928043611</v>
+        <v>0.04775400506763804</v>
       </c>
       <c r="N85" t="n">
-        <v>0.000122808196419885</v>
+        <v>0.000119838148302019</v>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>14.890625</v>
+        <v>15.12698412698413</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.507418301485538</v>
+        <v>1.419358548884686</v>
       </c>
       <c r="R85" t="n">
-        <v>1.416693133347823</v>
+        <v>1.367413722590263</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.9240421020232349</v>
+        <v>-0.8297341675971583</v>
       </c>
       <c r="T85" t="n">
-        <v>1.499019136844562</v>
+        <v>1.409086553026693</v>
       </c>
       <c r="U85" t="n">
-        <v>-0.5128509237215821</v>
+        <v>-0.4020367332703901</v>
       </c>
       <c r="V85" t="n">
-        <v>0.2999445755587838</v>
+        <v>0.290451644472886</v>
       </c>
       <c r="W85" t="n">
-        <v>0.00180239164121615</v>
+        <v>0.001769420327113969</v>
       </c>
       <c r="X85" t="n">
-        <v>0.1618703229039278</v>
+        <v>0.1589092143755473</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" t="n">
-        <v>253.8</v>
+        <v>241</v>
       </c>
       <c r="C86" t="n">
-        <v>30.3</v>
+        <v>33.5</v>
       </c>
       <c r="D86" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3196780776</v>
+        <v>0.3017469672</v>
       </c>
       <c r="F86" t="n">
-        <v>6.1945</v>
+        <v>6.0992</v>
       </c>
       <c r="G86" t="n">
-        <v>1.014341283102886</v>
+        <v>1.058562095195014</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1637486936964866</v>
+        <v>0.1735575313475561</v>
       </c>
       <c r="I86" t="n">
         <v>25</v>
@@ -6661,64 +6661,64 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04776070560617797</v>
+        <v>0.04775732928043611</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0001284331223211134</v>
+        <v>0.000122808196419885</v>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>14.66153846153846</v>
+        <v>14.890625</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.673177835793023</v>
+        <v>1.507418301485538</v>
       </c>
       <c r="R86" t="n">
-        <v>1.465972544105384</v>
+        <v>1.416693133347823</v>
       </c>
       <c r="S86" t="n">
-        <v>-1.028106029665802</v>
+        <v>-0.9240421020232349</v>
       </c>
       <c r="T86" t="n">
-        <v>1.668304000501728</v>
+        <v>1.499019136844562</v>
       </c>
       <c r="U86" t="n">
-        <v>-0.6036587652184089</v>
+        <v>-0.5128509237215821</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3104195339983952</v>
+        <v>0.2999445755587838</v>
       </c>
       <c r="W86" t="n">
-        <v>0.009258543601604829</v>
+        <v>0.00180239164121615</v>
       </c>
       <c r="X86" t="n">
-        <v>0.8314971109168278</v>
+        <v>0.1618703229039278</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" t="n">
-        <v>252</v>
+        <v>253.8</v>
       </c>
       <c r="C87" t="n">
-        <v>28.7</v>
+        <v>30.3</v>
       </c>
       <c r="D87" t="n">
         <v>0.65</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3171565152</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F87" t="n">
         <v>6.1945</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9532002598022061</v>
+        <v>1.014341283102886</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1538784824928899</v>
+        <v>0.1637486936964866</v>
       </c>
       <c r="I87" t="n">
         <v>25</v>
@@ -6736,61 +6736,61 @@
         <v>0.04776070560617797</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0001276395036888439</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
         <v>14.66153846153846</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.649867901281032</v>
+        <v>1.673177835793023</v>
       </c>
       <c r="R87" t="n">
         <v>1.465972544105384</v>
       </c>
       <c r="S87" t="n">
-        <v>-1.080137993487086</v>
+        <v>-1.028106029665802</v>
       </c>
       <c r="T87" t="n">
-        <v>1.644498316549938</v>
+        <v>1.668304000501728</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.6950347881887448</v>
+        <v>-0.6036587652184089</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3156570132182009</v>
+        <v>0.3104195339983952</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001499501981799101</v>
+        <v>0.009258543601604829</v>
       </c>
       <c r="X87" t="n">
-        <v>0.134668217738251</v>
+        <v>0.8314971109168278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" t="n">
-        <v>253.8</v>
+        <v>252</v>
       </c>
       <c r="C88" t="n">
-        <v>25.9</v>
+        <v>28.7</v>
       </c>
       <c r="D88" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3196780776</v>
+        <v>0.3171565152</v>
       </c>
       <c r="F88" t="n">
-        <v>6.3851</v>
+        <v>6.1945</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8670441990879458</v>
+        <v>0.9532002598022061</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1357917963834468</v>
+        <v>0.1538784824928899</v>
       </c>
       <c r="I88" t="n">
         <v>25</v>
@@ -6805,136 +6805,136 @@
         <v>9.529999999999999</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04776761455212097</v>
+        <v>0.04776070560617797</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0001284331223211134</v>
+        <v>0.0001276395036888439</v>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>14.22388059701492</v>
+        <v>14.66153846153846</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.673177835793023</v>
+        <v>1.649867901281032</v>
       </c>
       <c r="R88" t="n">
-        <v>1.564531365620505</v>
+        <v>1.465972544105384</v>
       </c>
       <c r="S88" t="n">
-        <v>-1.171193930174333</v>
+        <v>-1.080137993487086</v>
       </c>
       <c r="T88" t="n">
-        <v>1.668304000501728</v>
+        <v>1.644498316549938</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.862476944319251</v>
+        <v>-0.6950347881887448</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3248226018528608</v>
+        <v>0.3156570132182009</v>
       </c>
       <c r="W88" t="n">
-        <v>-0.005144524252860827</v>
+        <v>0.001499501981799101</v>
       </c>
       <c r="X88" t="n">
-        <v>-0.4620226719625603</v>
+        <v>0.134668217738251</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" t="n">
-        <v>235</v>
+        <v>253.8</v>
       </c>
       <c r="C89" t="n">
-        <v>45</v>
+        <v>25.9</v>
       </c>
       <c r="D89" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="E89" t="n">
-        <v>0.289167408</v>
+        <v>0.3196780776</v>
       </c>
       <c r="F89" t="n">
-        <v>6.3</v>
+        <v>6.3851</v>
       </c>
       <c r="G89" t="n">
-        <v>1.362669306945604</v>
+        <v>0.8670441990879458</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2162967153881911</v>
+        <v>0.1357917963834468</v>
       </c>
       <c r="I89" t="n">
-        <v>26.1</v>
+        <v>25</v>
       </c>
       <c r="J89" t="n">
-        <v>30.3</v>
+        <v>25.6</v>
       </c>
       <c r="K89" t="n">
-        <v>14.4</v>
+        <v>14.28</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M89" t="n">
-        <v>0.05009912673889635</v>
+        <v>0.04776761455212097</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0001177563481303008</v>
+        <v>0.0001284331223211134</v>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>15.87301587301587</v>
+        <v>14.22388059701492</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.429718519778904</v>
+        <v>1.673177835793023</v>
       </c>
       <c r="R89" t="n">
-        <v>1.367413722590263</v>
+        <v>1.564531365620505</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.5500623620577585</v>
+        <v>-1.171193930174333</v>
       </c>
       <c r="T89" t="n">
-        <v>1.380257447438019</v>
+        <v>1.668304000501728</v>
       </c>
       <c r="U89" t="n">
-        <v>-0.1171819170434544</v>
+        <v>-0.862476944319251</v>
       </c>
       <c r="V89" t="n">
-        <v>0.2854237228182894</v>
+        <v>0.3248226018528608</v>
       </c>
       <c r="W89" t="n">
-        <v>0.003743685181710643</v>
+        <v>-0.005144524252860827</v>
       </c>
       <c r="X89" t="n">
-        <v>1.088114873693792</v>
+        <v>-0.4620226719625603</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B90" t="n">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="C90" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="E90" t="n">
-        <v>0.248200848</v>
+        <v>0.373925808</v>
       </c>
       <c r="F90" t="n">
-        <v>5.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>1.429534261267854</v>
+        <v>0.8223057999802992</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2507954844329569</v>
+        <v>0.1027882249975374</v>
       </c>
       <c r="I90" t="n">
         <v>26.1</v>
@@ -6949,64 +6949,68 @@
         <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>0.05008115913195301</v>
+        <v>0.0501597448159378</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0001051491741838504</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
+        <v>0.0001444780074480226</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
       <c r="P90" t="n">
-        <v>17.54385964912281</v>
+        <v>12.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.054169574863508</v>
+        <v>2.206716336845239</v>
       </c>
       <c r="R90" t="n">
-        <v>1.0717372580449</v>
+        <v>2.205163705468791</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.2248625881747354</v>
+        <v>-1.330541819377014</v>
       </c>
       <c r="T90" t="n">
-        <v>0.993498436456575</v>
+        <v>2.180448504641006</v>
       </c>
       <c r="U90" t="n">
-        <v>0.202199324923697</v>
+        <v>-1.16801600876835</v>
       </c>
       <c r="V90" t="n">
-        <v>0.2491228255470082</v>
+        <v>0.3729636620802141</v>
       </c>
       <c r="W90" t="n">
-        <v>-0.0009219775470082348</v>
+        <v>0.0009621459197858284</v>
       </c>
       <c r="X90" t="n">
-        <v>-0.2679759203611685</v>
+        <v>0.3020853854234591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B91" t="n">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E91" t="n">
-        <v>0.225598608</v>
+        <v>0.289167408</v>
       </c>
       <c r="F91" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="G91" t="n">
-        <v>1.441102490090863</v>
+        <v>1.362669306945604</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2771350942482429</v>
+        <v>0.2162967153881911</v>
       </c>
       <c r="I91" t="n">
         <v>26.1</v>
@@ -7021,64 +7025,64 @@
         <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05006755436407894</v>
+        <v>0.05009912673889635</v>
       </c>
       <c r="N91" t="n">
-        <v>9.828835796959465e-05</v>
+        <v>0.0001177563481303008</v>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>19.23076923076923</v>
+        <v>15.87301587301587</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.8469701569791523</v>
+        <v>1.429718519778904</v>
       </c>
       <c r="R91" t="n">
-        <v>0.8253402042570981</v>
+        <v>1.367413722590263</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0297427238449216</v>
+        <v>-0.5500623620577585</v>
       </c>
       <c r="T91" t="n">
-        <v>0.7801141545357785</v>
+        <v>1.380257447438019</v>
       </c>
       <c r="U91" t="n">
-        <v>0.4460450483702424</v>
+        <v>-0.1171819170434544</v>
       </c>
       <c r="V91" t="n">
-        <v>0.2273422871842395</v>
+        <v>0.2857023611228601</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.001743679184239538</v>
+        <v>0.003465046877139888</v>
       </c>
       <c r="X91" t="n">
-        <v>-0.5068063053459895</v>
+        <v>1.087922320165488</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" t="n">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C92" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E92" t="n">
-        <v>0.215710128</v>
+        <v>0.248200848</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>1.46829226576438</v>
+        <v>1.429534261267854</v>
       </c>
       <c r="H92" t="n">
-        <v>0.293658453152876</v>
+        <v>0.2507954844329569</v>
       </c>
       <c r="I92" t="n">
         <v>26.1</v>
@@ -7093,64 +7097,64 @@
         <v>10</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05006246098625197</v>
+        <v>0.05008115913195301</v>
       </c>
       <c r="N92" t="n">
-        <v>9.530742574068222e-05</v>
+        <v>0.0001051491741838504</v>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>20</v>
+        <v>17.54385964912281</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7563204116547466</v>
+        <v>1.054169574863508</v>
       </c>
       <c r="R92" t="n">
-        <v>0.7267813827419771</v>
+        <v>1.0717372580449</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1003371857082876</v>
+        <v>-0.2248625881747354</v>
       </c>
       <c r="T92" t="n">
-        <v>0.6867585311954298</v>
+        <v>0.993498436456575</v>
       </c>
       <c r="U92" t="n">
-        <v>0.5990143001595716</v>
+        <v>0.202199324923697</v>
       </c>
       <c r="V92" t="n">
-        <v>0.2128219282757271</v>
+        <v>0.2493434857239626</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0028881997242729</v>
+        <v>-0.001142637723962669</v>
       </c>
       <c r="X92" t="n">
-        <v>0.8394651060759407</v>
+        <v>-0.3587544780312347</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C93" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D93" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="E93" t="n">
-        <v>0.204409008</v>
+        <v>0.225598608</v>
       </c>
       <c r="F93" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G93" t="n">
-        <v>1.434179304554842</v>
+        <v>1.441102490090863</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2926896539907841</v>
+        <v>0.2771350942482429</v>
       </c>
       <c r="I93" t="n">
         <v>26.1</v>
@@ -7165,64 +7169,64 @@
         <v>10</v>
       </c>
       <c r="M93" t="n">
-        <v>0.05005998901318298</v>
+        <v>0.05006755436407894</v>
       </c>
       <c r="N93" t="n">
-        <v>9.191496572416854e-05</v>
+        <v>9.828835796959465e-05</v>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>20.40816326530612</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6527207027125685</v>
+        <v>0.8469701569791523</v>
       </c>
       <c r="R93" t="n">
-        <v>0.6775019719844166</v>
+        <v>0.8253402042570981</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1653771404848922</v>
+        <v>-0.0297427238449216</v>
       </c>
       <c r="T93" t="n">
-        <v>0.5800663902350316</v>
+        <v>0.7801141545357785</v>
       </c>
       <c r="U93" t="n">
-        <v>0.5900453923355233</v>
+        <v>0.4460450483702424</v>
       </c>
       <c r="V93" t="n">
-        <v>0.2055617488214709</v>
+        <v>0.2275281604846241</v>
       </c>
       <c r="W93" t="n">
-        <v>-0.001152740821470877</v>
+        <v>-0.001929552484624147</v>
       </c>
       <c r="X93" t="n">
-        <v>-0.3350480535821428</v>
+        <v>-0.6058224579305274</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C94" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D94" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.198758448</v>
+        <v>0.215710128</v>
       </c>
       <c r="F94" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>1.43616158417413</v>
+        <v>1.46829226576438</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2992003300362772</v>
+        <v>0.293658453152876</v>
       </c>
       <c r="I94" t="n">
         <v>26.1</v>
@@ -7237,64 +7241,64 @@
         <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>0.05005756686056565</v>
+        <v>0.05006246098625197</v>
       </c>
       <c r="N94" t="n">
-        <v>9.022400269454441e-05</v>
+        <v>9.530742574068222e-05</v>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>20.83333333333334</v>
+        <v>20</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6009208482414795</v>
+        <v>0.7563204116547466</v>
       </c>
       <c r="R94" t="n">
-        <v>0.6282225612268562</v>
+        <v>0.7267813827419771</v>
       </c>
       <c r="S94" t="n">
-        <v>0.2304170952614968</v>
+        <v>0.1003371857082876</v>
       </c>
       <c r="T94" t="n">
-        <v>0.5267203197548325</v>
+        <v>0.6867585311954298</v>
       </c>
       <c r="U94" t="n">
-        <v>0.6503196530999328</v>
+        <v>0.5990143001595716</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1983015693672146</v>
+        <v>0.2129846103250651</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0004568786327853736</v>
+        <v>0.002725517674934841</v>
       </c>
       <c r="X94" t="n">
-        <v>0.1327933337544925</v>
+        <v>0.8557320052808777</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C95" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D95" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E95" t="n">
-        <v>0.191695248</v>
+        <v>0.204409008</v>
       </c>
       <c r="F95" t="n">
-        <v>4.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="G95" t="n">
-        <v>1.425273839399534</v>
+        <v>1.434179304554842</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3032497530637306</v>
+        <v>0.2926896539907841</v>
       </c>
       <c r="I95" t="n">
         <v>26.1</v>
@@ -7309,64 +7313,64 @@
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05005519453563236</v>
+        <v>0.05005998901318298</v>
       </c>
       <c r="N95" t="n">
-        <v>8.811470007620374e-05</v>
+        <v>9.191496572416854e-05</v>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
-        <v>21.27659574468085</v>
+        <v>20.40816326530612</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.5361710301526181</v>
+        <v>0.6527207027125685</v>
       </c>
       <c r="R95" t="n">
-        <v>0.5789431504692957</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2954570500381014</v>
+        <v>0.1653771404848922</v>
       </c>
       <c r="T95" t="n">
-        <v>0.4600377316545837</v>
+        <v>0.5800663902350316</v>
       </c>
       <c r="U95" t="n">
-        <v>0.6878082299845244</v>
+        <v>0.5900453923355233</v>
       </c>
       <c r="V95" t="n">
-        <v>0.1910413899129584</v>
+        <v>0.2057128352452856</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0006538580870416033</v>
+        <v>-0.00130382724528566</v>
       </c>
       <c r="X95" t="n">
-        <v>0.1900460843424441</v>
+        <v>-0.4093632242450288</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C96" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D96" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="E96" t="n">
-        <v>0.184632048</v>
+        <v>0.198758448</v>
       </c>
       <c r="F96" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G96" t="n">
-        <v>1.392092845473691</v>
+        <v>1.43616158417413</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3093539656608203</v>
+        <v>0.2992003300362772</v>
       </c>
       <c r="I96" t="n">
         <v>26.1</v>
@@ -7381,64 +7385,64 @@
         <v>10</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05005059939701022</v>
+        <v>0.05005756686056565</v>
       </c>
       <c r="N96" t="n">
-        <v>8.600963974014389e-05</v>
+        <v>9.022400269454441e-05</v>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>22.22222222222222</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.4714212120637569</v>
+        <v>0.6009208482414795</v>
       </c>
       <c r="R96" t="n">
-        <v>0.4803843289541749</v>
+        <v>0.6282225612268562</v>
       </c>
       <c r="S96" t="n">
-        <v>0.3279770274264037</v>
+        <v>0.2304170952614968</v>
       </c>
       <c r="T96" t="n">
-        <v>0.3933551435543348</v>
+        <v>0.5267203197548325</v>
       </c>
       <c r="U96" t="n">
-        <v>0.7443195506626694</v>
+        <v>0.6503196530999328</v>
       </c>
       <c r="V96" t="n">
-        <v>0.1874113001858302</v>
+        <v>0.1984410601655061</v>
       </c>
       <c r="W96" t="n">
-        <v>-0.00277925218583025</v>
+        <v>0.0003173878344938652</v>
       </c>
       <c r="X96" t="n">
-        <v>-0.8077991322352653</v>
+        <v>0.09965040056828239</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C97" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D97" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="E97" t="n">
-        <v>0.174743568</v>
+        <v>0.191695248</v>
       </c>
       <c r="F97" t="n">
-        <v>4.4</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>1.390731877376867</v>
+        <v>1.425273839399534</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3160754266765606</v>
+        <v>0.3032497530637306</v>
       </c>
       <c r="I97" t="n">
         <v>26.1</v>
@@ -7453,64 +7457,64 @@
         <v>10</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05004837659704858</v>
+        <v>0.05005519453563236</v>
       </c>
       <c r="N97" t="n">
-        <v>8.306797879109174e-05</v>
+        <v>8.811470007620374e-05</v>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>22.72727272727273</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.3807714667393511</v>
+        <v>0.5361710301526181</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4311049181966145</v>
+        <v>0.5789431504692957</v>
       </c>
       <c r="S97" t="n">
-        <v>0.458056936979613</v>
+        <v>0.2954570500381014</v>
       </c>
       <c r="T97" t="n">
-        <v>0.2999995202139865</v>
+        <v>0.4600377316545837</v>
       </c>
       <c r="U97" t="n">
-        <v>0.8065452075913366</v>
+        <v>0.6878082299845244</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1728909412773178</v>
+        <v>0.1911692850857266</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001852626722682216</v>
+        <v>0.0005259629142733702</v>
       </c>
       <c r="X97" t="n">
-        <v>0.538472279186673</v>
+        <v>0.1651368117967848</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C98" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D98" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E98" t="n">
-        <v>0.171918288</v>
+        <v>0.184632048</v>
       </c>
       <c r="F98" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G98" t="n">
-        <v>1.386249558536238</v>
+        <v>1.392092845473691</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3223836182642414</v>
+        <v>0.3093539656608203</v>
       </c>
       <c r="I98" t="n">
         <v>26.1</v>
@@ -7525,64 +7529,64 @@
         <v>10</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0500462036522252</v>
+        <v>0.05005059939701022</v>
       </c>
       <c r="N98" t="n">
-        <v>8.222829300503518e-05</v>
+        <v>8.600963974014389e-05</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>23.25581395348837</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.3548715395038066</v>
+        <v>0.4714212120637569</v>
       </c>
       <c r="R98" t="n">
-        <v>0.381825507439054</v>
+        <v>0.4803843289541749</v>
       </c>
       <c r="S98" t="n">
-        <v>0.4905769143679152</v>
+        <v>0.3279770274264037</v>
       </c>
       <c r="T98" t="n">
-        <v>0.2733264849738868</v>
+        <v>0.3933551435543348</v>
       </c>
       <c r="U98" t="n">
-        <v>0.8649449163237242</v>
+        <v>0.7443195506626694</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1692608515501897</v>
+        <v>0.1875333975458369</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002657436449810341</v>
+        <v>-0.002901349545836873</v>
       </c>
       <c r="X98" t="n">
-        <v>0.7723929728549906</v>
+        <v>-0.9109380165509685</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C99" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D99" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E99" t="n">
-        <v>0.166267728</v>
+        <v>0.174743568</v>
       </c>
       <c r="F99" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G99" t="n">
-        <v>1.358098229316051</v>
+        <v>1.390731877376867</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3233567212657265</v>
+        <v>0.3160754266765606</v>
       </c>
       <c r="I99" t="n">
         <v>26.1</v>
@@ -7597,64 +7601,64 @@
         <v>10</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05004408056903435</v>
+        <v>0.05004837659704858</v>
       </c>
       <c r="N99" t="n">
-        <v>8.0549408791129e-05</v>
+        <v>8.306797879109174e-05</v>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>23.80952380952381</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.3030716850327175</v>
+        <v>0.3807714667393511</v>
       </c>
       <c r="R99" t="n">
-        <v>0.3325460966814934</v>
+        <v>0.4311049181966145</v>
       </c>
       <c r="S99" t="n">
-        <v>0.5230968917562175</v>
+        <v>0.458056936979613</v>
       </c>
       <c r="T99" t="n">
-        <v>0.2199804144936874</v>
+        <v>0.2999995202139865</v>
       </c>
       <c r="U99" t="n">
-        <v>0.873953668049706</v>
+        <v>0.8065452075913366</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1656307618230616</v>
+        <v>0.1729898473862779</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006369661769383972</v>
+        <v>0.001753720613722143</v>
       </c>
       <c r="X99" t="n">
-        <v>0.1851363930259327</v>
+        <v>0.5506164466604453</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D100" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="E100" t="n">
-        <v>0.146490768</v>
+        <v>0.171918288</v>
       </c>
       <c r="F100" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G100" t="n">
-        <v>1.257919142884573</v>
+        <v>1.386249558536238</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3225433699704033</v>
+        <v>0.3223836182642414</v>
       </c>
       <c r="I100" t="n">
         <v>26.1</v>
@@ -7669,64 +7673,64 @@
         <v>10</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05003801055197939</v>
+        <v>0.0500462036522252</v>
       </c>
       <c r="N100" t="n">
-        <v>7.466611576101878e-05</v>
+        <v>8.222829300503518e-05</v>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>25.64102564102564</v>
+        <v>23.25581395348837</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.1217721943839059</v>
+        <v>0.3548715395038066</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1847078644088122</v>
+        <v>0.381825507439054</v>
       </c>
       <c r="S100" t="n">
-        <v>0.6531768013094268</v>
+        <v>0.4905769143679152</v>
       </c>
       <c r="T100" t="n">
-        <v>0.0332691678129906</v>
+        <v>0.2733264849738868</v>
       </c>
       <c r="U100" t="n">
-        <v>0.8664238588985786</v>
+        <v>0.8649449163237242</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1511104029145491</v>
+        <v>0.1693539598463881</v>
       </c>
       <c r="W100" t="n">
-        <v>-0.004619634914549142</v>
+        <v>0.002564328153611878</v>
       </c>
       <c r="X100" t="n">
-        <v>-1.342712652792875</v>
+        <v>0.8051232590670923</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C101" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D101" t="n">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="E101" t="n">
-        <v>0.029241648</v>
+        <v>0.166267728</v>
       </c>
       <c r="F101" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3552126732712135</v>
+        <v>1.358098229316051</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2089486313360079</v>
+        <v>0.3233567212657265</v>
       </c>
       <c r="I101" t="n">
         <v>26.1</v>
@@ -7741,64 +7745,64 @@
         <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05000722447806917</v>
+        <v>0.05004408056903435</v>
       </c>
       <c r="N101" t="n">
-        <v>3.04131703262001e-05</v>
+        <v>8.0549408791129e-05</v>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>58.8235294117647</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.9530747858911915</v>
+        <v>0.3030716850327175</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.8994391722575176</v>
+        <v>0.3325460966814934</v>
       </c>
       <c r="S101" t="n">
-        <v>1.758856032511705</v>
+        <v>0.5230968917562175</v>
       </c>
       <c r="T101" t="n">
-        <v>-1.073661794651142</v>
+        <v>0.2199804144936874</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.1852086981619343</v>
+        <v>0.873953668049706</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0276873521921932</v>
+        <v>0.1657180723064984</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001554295807806791</v>
+        <v>0.0005496556935015995</v>
       </c>
       <c r="X101" t="n">
-        <v>0.4517613806996653</v>
+        <v>0.1725756443041302</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B102" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C102" t="n">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D102" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="E102" t="n">
-        <v>0.012289968</v>
+        <v>0.146490768</v>
       </c>
       <c r="F102" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="G102" t="n">
-        <v>0.155727295166003</v>
+        <v>1.257919142884573</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1197902270507716</v>
+        <v>0.3225433699704033</v>
       </c>
       <c r="I102" t="n">
         <v>26.1</v>
@@ -7813,64 +7817,64 @@
         <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05000422482150884</v>
+        <v>0.05003801055197939</v>
       </c>
       <c r="N102" t="n">
-        <v>1.632401443759565e-05</v>
+        <v>7.466611576101878e-05</v>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>76.92307692307692</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.108474349304459</v>
+        <v>0.1217721943839059</v>
       </c>
       <c r="R102" t="n">
-        <v>-1.096556815287759</v>
+        <v>0.1847078644088122</v>
       </c>
       <c r="S102" t="n">
-        <v>1.921455919453217</v>
+        <v>0.6531768013094268</v>
       </c>
       <c r="T102" t="n">
-        <v>-1.233700006091739</v>
+        <v>0.0332691678129906</v>
       </c>
       <c r="U102" t="n">
-        <v>-1.01061559472332</v>
+        <v>0.8664238588985786</v>
       </c>
       <c r="V102" t="n">
-        <v>0.009536903556552623</v>
+        <v>0.1511745221469394</v>
       </c>
       <c r="W102" t="n">
-        <v>0.002753064443447377</v>
+        <v>-0.00468375414693939</v>
       </c>
       <c r="X102" t="n">
-        <v>0.8001875755438866</v>
+        <v>-1.470560387578074</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C103" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003814127999999999</v>
+        <v>0.029241648</v>
       </c>
       <c r="F103" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="G103" t="n">
-        <v>0.04912798966906962</v>
+        <v>0.3552126732712135</v>
       </c>
       <c r="H103" t="n">
-        <v>0.04093999139089136</v>
+        <v>0.2089486313360079</v>
       </c>
       <c r="I103" t="n">
         <v>26.1</v>
@@ -7885,64 +7889,64 @@
         <v>10</v>
       </c>
       <c r="M103" t="n">
-        <v>0.05000359987040934</v>
+        <v>0.05000722447806917</v>
       </c>
       <c r="N103" t="n">
-        <v>5.928788559003939e-06</v>
+        <v>3.04131703262001e-05</v>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>83.33333333333334</v>
+        <v>58.8235294117647</v>
       </c>
       <c r="Q103" t="n">
-        <v>-1.186174131011092</v>
+        <v>-0.9530747858911915</v>
       </c>
       <c r="R103" t="n">
-        <v>-1.14583622604532</v>
+        <v>-0.8994391722575176</v>
       </c>
       <c r="S103" t="n">
-        <v>1.986495874229821</v>
+        <v>1.758856032511705</v>
       </c>
       <c r="T103" t="n">
-        <v>-1.313719111812038</v>
+        <v>-1.073661794651142</v>
       </c>
       <c r="U103" t="n">
-        <v>-1.74059196465632</v>
+        <v>-0.1852086981619343</v>
       </c>
       <c r="V103" t="n">
-        <v>0.002276724102296401</v>
+        <v>0.02755434579068783</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001537403897703597</v>
+        <v>0.001687302209312166</v>
       </c>
       <c r="X103" t="n">
-        <v>0.4468516893831576</v>
+        <v>0.5297630304760633</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C104" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D104" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07020820800000001</v>
+        <v>0.012289968</v>
       </c>
       <c r="F104" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7719795666607646</v>
+        <v>0.155727295166003</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3216581527753186</v>
+        <v>0.1197902270507716</v>
       </c>
       <c r="I104" t="n">
         <v>26.1</v>
@@ -7957,352 +7961,352 @@
         <v>10</v>
       </c>
       <c r="M104" t="n">
-        <v>0.05001439792699698</v>
+        <v>0.05000422482150884</v>
       </c>
       <c r="N104" t="n">
-        <v>5.0197065446492e-05</v>
+        <v>1.632401443759565e-05</v>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>41.66666666666667</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.5775258409757961</v>
+        <v>-1.108474349304459</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.5544832969545946</v>
+        <v>-1.096556815287759</v>
       </c>
       <c r="S104" t="n">
-        <v>1.40113628124038</v>
+        <v>1.921455919453217</v>
       </c>
       <c r="T104" t="n">
-        <v>-0.6869027836696977</v>
+        <v>-1.233700006091739</v>
       </c>
       <c r="U104" t="n">
-        <v>0.8582287326663941</v>
+        <v>-1.01061559472332</v>
       </c>
       <c r="V104" t="n">
-        <v>0.06761833919060245</v>
+        <v>0.009374908091239087</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002589868809397558</v>
+        <v>0.002915059908760913</v>
       </c>
       <c r="X104" t="n">
-        <v>0.7527542075889573</v>
+        <v>0.9152426653397157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>62.2</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02851173495000001</v>
+        <v>0.003814127999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>2.31</v>
+        <v>1.2</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3582890282400774</v>
+        <v>0.04912798966906962</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1551034754286049</v>
+        <v>0.04093999139089136</v>
       </c>
       <c r="I105" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="J105" t="n">
-        <v>42.3</v>
+        <v>30.3</v>
       </c>
       <c r="K105" t="n">
-        <v>14.605</v>
+        <v>14.4</v>
       </c>
       <c r="L105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>0.05501002181421128</v>
+        <v>0.05000359987040934</v>
       </c>
       <c r="N105" t="n">
-        <v>2.491134462463197e-05</v>
+        <v>5.928788559003939e-06</v>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>52.38095238095238</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.8080351933721422</v>
+        <v>-1.186174131011092</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.702321529227276</v>
+        <v>-1.14583622604532</v>
       </c>
       <c r="S105" t="n">
-        <v>1.888935942064914</v>
+        <v>1.986495874229821</v>
       </c>
       <c r="T105" t="n">
-        <v>-1.080552791828362</v>
+        <v>-1.313719111812038</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.6836941005050191</v>
+        <v>-1.74059196465632</v>
       </c>
       <c r="V105" t="n">
-        <v>0.03371425319133897</v>
+        <v>0.00210313301145959</v>
       </c>
       <c r="W105" t="n">
-        <v>-0.005202518241338966</v>
+        <v>0.001710994988540408</v>
       </c>
       <c r="X105" t="n">
-        <v>-0.3147773524134123</v>
+        <v>0.5372018629834127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>86.2</v>
+        <v>30</v>
       </c>
       <c r="C106" t="n">
-        <v>110.5</v>
+        <v>124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06289774695</v>
+        <v>-0.000423792000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>2.97</v>
+        <v>1.1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7278233507291472</v>
+        <v>-0.005503044913247199</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2450583672488711</v>
+        <v>-0.005002768102951999</v>
       </c>
       <c r="I106" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="J106" t="n">
-        <v>42.3</v>
+        <v>30.3</v>
       </c>
       <c r="K106" t="n">
-        <v>14.605</v>
+        <v>14.4</v>
       </c>
       <c r="L106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M106" t="n">
-        <v>0.05501656568707283</v>
+        <v>0.05000302490849928</v>
       </c>
       <c r="N106" t="n">
-        <v>4.236415789825498e-05</v>
+        <v>-7.21485318561648e-07</v>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>40.74074074074074</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.497236066545608</v>
+        <v>-1.225024021864409</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.4066450646819131</v>
+        <v>-1.19511563680288</v>
       </c>
       <c r="S106" t="n">
-        <v>1.579996156876042</v>
+        <v>2.019015851618124</v>
       </c>
       <c r="T106" t="n">
-        <v>-0.7559197254269838</v>
+        <v>-1.353728664672187</v>
       </c>
       <c r="U106" t="n">
-        <v>0.1490864846021547</v>
+        <v>-2.165918896394137</v>
       </c>
       <c r="V106" t="n">
-        <v>0.06722636124446058</v>
+        <v>-0.001532754528430158</v>
       </c>
       <c r="W106" t="n">
-        <v>-0.004328614294460575</v>
+        <v>0.001108962528430157</v>
       </c>
       <c r="X106" t="n">
-        <v>-0.2619019643991623</v>
+        <v>0.3481814618052615</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C107" t="n">
-        <v>99.09999999999999</v>
+        <v>125</v>
       </c>
       <c r="D107" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.10272821085</v>
+        <v>-0.006074352000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>3.74</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1.066085402633594</v>
+        <v>-0.07951308174382696</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2850495728966829</v>
+        <v>-0.07951308174382696</v>
       </c>
       <c r="I107" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="J107" t="n">
-        <v>42.3</v>
+        <v>30.3</v>
       </c>
       <c r="K107" t="n">
-        <v>14.605</v>
+        <v>14.4</v>
       </c>
       <c r="L107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0550262664552121</v>
+        <v>0.05000249993750312</v>
       </c>
       <c r="N107" t="n">
-        <v>5.715690795572146e-05</v>
+        <v>-1.187032846924242e-05</v>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>32.35294117647059</v>
+        <v>100</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.1372270779715393</v>
+        <v>-1.276823876335498</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.06168918937898994</v>
+        <v>-1.244395047560441</v>
       </c>
       <c r="S107" t="n">
-        <v>1.209268414649396</v>
+        <v>2.051535829006426</v>
       </c>
       <c r="T107" t="n">
-        <v>-0.3798864235120536</v>
+        <v>-1.407074735152386</v>
       </c>
       <c r="U107" t="n">
-        <v>0.519315373377528</v>
+        <v>-2.855717320190221</v>
       </c>
       <c r="V107" t="n">
-        <v>0.1074408909082066</v>
+        <v>-0.005168642068319906</v>
       </c>
       <c r="W107" t="n">
-        <v>-0.004712680058206561</v>
+        <v>-0.0009057099316800944</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.2851397885943701</v>
+        <v>-0.284366152957692</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C108" t="n">
-        <v>91.3</v>
+        <v>105</v>
       </c>
       <c r="D108" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="E108" t="n">
-        <v>0.12995047035</v>
+        <v>0.07020820800000001</v>
       </c>
       <c r="F108" t="n">
-        <v>4.29</v>
+        <v>2.4</v>
       </c>
       <c r="G108" t="n">
-        <v>1.242445224808852</v>
+        <v>0.7719795666607646</v>
       </c>
       <c r="H108" t="n">
-        <v>0.289614271517215</v>
+        <v>0.3216581527753186</v>
       </c>
       <c r="I108" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="J108" t="n">
-        <v>42.3</v>
+        <v>30.3</v>
       </c>
       <c r="K108" t="n">
-        <v>14.605</v>
+        <v>14.4</v>
       </c>
       <c r="L108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M108" t="n">
-        <v>0.05503455732537511</v>
+        <v>0.05001439792699698</v>
       </c>
       <c r="N108" t="n">
-        <v>6.607483362026044e-05</v>
+        <v>5.0197065446492e-05</v>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
-        <v>28.2051282051282</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.1088222307661336</v>
+        <v>-0.5775258409757961</v>
       </c>
       <c r="R108" t="n">
-        <v>0.1847078644088122</v>
+        <v>-0.5544832969545946</v>
       </c>
       <c r="S108" t="n">
-        <v>0.9556125910206381</v>
+        <v>1.40113628124038</v>
       </c>
       <c r="T108" t="n">
-        <v>-0.1228852459442956</v>
+        <v>-0.6869027836696977</v>
       </c>
       <c r="U108" t="n">
-        <v>0.5615742468097804</v>
+        <v>0.8582287326663941</v>
       </c>
       <c r="V108" t="n">
-        <v>0.1349560954149801</v>
+        <v>0.06754910872947512</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.00500562506498009</v>
+        <v>0.002659099270524892</v>
       </c>
       <c r="X108" t="n">
-        <v>-0.3028643691450321</v>
+        <v>0.8348785890965044</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B109" t="n">
-        <v>155.5</v>
+        <v>35.3</v>
       </c>
       <c r="C109" t="n">
-        <v>83.59999999999999</v>
+        <v>134.5</v>
       </c>
       <c r="D109" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1621873566</v>
+        <v>-0.0100292535</v>
       </c>
       <c r="F109" t="n">
-        <v>5.06</v>
+        <v>1.32</v>
       </c>
       <c r="G109" t="n">
-        <v>1.41988081429252</v>
+        <v>-0.1412601005393772</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2806088565795494</v>
+        <v>-0.1070152276813464</v>
       </c>
       <c r="I109" t="n">
         <v>25.8</v>
@@ -8317,64 +8321,68 @@
         <v>11</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05504806990258605</v>
+        <v>0.05500327262990812</v>
       </c>
       <c r="N109" t="n">
-        <v>7.617501186748044e-05</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
+        <v>-1.461478750632609e-05</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
       <c r="P109" t="n">
-        <v>23.91304347826087</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.4001964121660095</v>
+        <v>-1.156389214690216</v>
       </c>
       <c r="R109" t="n">
-        <v>0.5296637397117354</v>
+        <v>-1.14583622604532</v>
       </c>
       <c r="S109" t="n">
-        <v>0.7052087651307103</v>
+        <v>2.360475614195297</v>
       </c>
       <c r="T109" t="n">
-        <v>0.1814582538069969</v>
+        <v>-1.444412353753241</v>
       </c>
       <c r="U109" t="n">
-        <v>0.4782042980591728</v>
+        <v>-3.11032552127963</v>
       </c>
       <c r="V109" t="n">
-        <v>0.1621185408896155</v>
+        <v>-0.01409906221780105</v>
       </c>
       <c r="W109" t="n">
-        <v>6.881571038450107e-05</v>
+        <v>0.004069808717801051</v>
       </c>
       <c r="X109" t="n">
-        <v>0.004163681147171985</v>
+        <v>0.2630912604104625</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>170.5</v>
+        <v>44.7</v>
       </c>
       <c r="C110" t="n">
-        <v>78.7</v>
+        <v>130.4</v>
       </c>
       <c r="D110" t="n">
-        <v>0.49</v>
+        <v>0.145</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1836786141</v>
+        <v>0.003438601200000008</v>
       </c>
       <c r="F110" t="n">
-        <v>5.39</v>
+        <v>1.595</v>
       </c>
       <c r="G110" t="n">
-        <v>1.513777145805587</v>
+        <v>0.04695566762060925</v>
       </c>
       <c r="H110" t="n">
-        <v>0.280849192171723</v>
+        <v>0.02943929004426912</v>
       </c>
       <c r="I110" t="n">
         <v>25.8</v>
@@ -8389,64 +8397,64 @@
         <v>11</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0550545411387653</v>
+        <v>0.05500477820153447</v>
       </c>
       <c r="N110" t="n">
-        <v>8.279833331028251e-05</v>
+        <v>4.022424762799586e-06</v>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>22.44897959183674</v>
+        <v>75.86206896551725</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.5944458664325933</v>
+        <v>-1.034659556683157</v>
       </c>
       <c r="R110" t="n">
-        <v>0.6775019719844166</v>
+        <v>-1.022637699151419</v>
       </c>
       <c r="S110" t="n">
-        <v>0.5458608759280292</v>
+        <v>2.227143706903258</v>
       </c>
       <c r="T110" t="n">
-        <v>0.3843539203078579</v>
+        <v>-1.317264402746034</v>
       </c>
       <c r="U110" t="n">
-        <v>0.4804292667187136</v>
+        <v>-1.847062670170805</v>
       </c>
       <c r="V110" t="n">
-        <v>0.1794037334643835</v>
+        <v>7.176178922785326e-05</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004274880635616485</v>
+        <v>0.003366839410772155</v>
       </c>
       <c r="X110" t="n">
-        <v>0.2586508198415076</v>
+        <v>0.2176480728210397</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>176.5</v>
+        <v>51.75</v>
       </c>
       <c r="C111" t="n">
-        <v>76.5</v>
+        <v>124</v>
       </c>
       <c r="D111" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1922751171</v>
+        <v>0.013539492225</v>
       </c>
       <c r="F111" t="n">
-        <v>5.720000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="G111" t="n">
-        <v>1.540327743141167</v>
+        <v>0.1758136864705707</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2692880669827215</v>
+        <v>0.08879479114675289</v>
       </c>
       <c r="I111" t="n">
         <v>25.8</v>
@@ -8461,64 +8469,64 @@
         <v>11</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0550614202504803</v>
+        <v>0.05500736314349198</v>
       </c>
       <c r="N111" t="n">
-        <v>8.543887741684227e-05</v>
+        <v>1.387856206794674e-05</v>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>21.15384615384615</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.6721456481392269</v>
+        <v>-0.9433623131778623</v>
       </c>
       <c r="R111" t="n">
-        <v>0.8253402042570981</v>
+        <v>-0.8501597614999573</v>
       </c>
       <c r="S111" t="n">
-        <v>0.4743169256737641</v>
+        <v>2.019015851618124</v>
       </c>
       <c r="T111" t="n">
-        <v>0.4655121869082029</v>
+        <v>-1.221903439490629</v>
       </c>
       <c r="U111" t="n">
-        <v>0.3733991719170772</v>
+        <v>-1.297563827615144</v>
       </c>
       <c r="V111" t="n">
-        <v>0.1871644321714222</v>
+        <v>0.02219207243434618</v>
       </c>
       <c r="W111" t="n">
-        <v>0.005110684928577802</v>
+        <v>-0.008652580209346172</v>
       </c>
       <c r="X111" t="n">
-        <v>0.3092209957197215</v>
+        <v>-0.5593428072239902</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>193</v>
+        <v>62.2</v>
       </c>
       <c r="C112" t="n">
-        <v>70.5</v>
+        <v>120</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21591550035</v>
+        <v>0.02851173495000001</v>
       </c>
       <c r="F112" t="n">
-        <v>5.94</v>
+        <v>2.31</v>
       </c>
       <c r="G112" t="n">
-        <v>1.594048591784952</v>
+        <v>0.3582890282400774</v>
       </c>
       <c r="H112" t="n">
-        <v>0.2683583487853454</v>
+        <v>0.1551034754286049</v>
       </c>
       <c r="I112" t="n">
         <v>25.8</v>
@@ -8533,64 +8541,64 @@
         <v>11</v>
       </c>
       <c r="M112" t="n">
-        <v>0.05506623284736301</v>
+        <v>0.05501002181421128</v>
       </c>
       <c r="N112" t="n">
-        <v>9.269753064970684e-05</v>
+        <v>2.491134462463197e-05</v>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>20.37037037037037</v>
+        <v>52.38095238095238</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.8858200478324691</v>
+        <v>-0.8080351933721422</v>
       </c>
       <c r="R112" t="n">
-        <v>0.9238990257722191</v>
+        <v>-0.702321529227276</v>
       </c>
       <c r="S112" t="n">
-        <v>0.2791970613439503</v>
+        <v>1.888935942064914</v>
       </c>
       <c r="T112" t="n">
-        <v>0.6886974200591505</v>
+        <v>-1.080552791828362</v>
       </c>
       <c r="U112" t="n">
-        <v>0.3647920661918813</v>
+        <v>-0.6836941005050191</v>
       </c>
       <c r="V112" t="n">
-        <v>0.2083299740997095</v>
+        <v>0.03601726658754517</v>
       </c>
       <c r="W112" t="n">
-        <v>0.007585526250290464</v>
+        <v>-0.007505531637545165</v>
       </c>
       <c r="X112" t="n">
-        <v>0.4589607876347086</v>
+        <v>-0.4851922818719778</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>197.5</v>
+        <v>86.2</v>
       </c>
       <c r="C113" t="n">
-        <v>68.2</v>
+        <v>110.5</v>
       </c>
       <c r="D113" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2223628776</v>
+        <v>0.06289774695</v>
       </c>
       <c r="F113" t="n">
-        <v>6.27</v>
+        <v>2.97</v>
       </c>
       <c r="G113" t="n">
-        <v>1.588090611336287</v>
+        <v>0.7278233507291472</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2532839890488496</v>
+        <v>0.2450583672488711</v>
       </c>
       <c r="I113" t="n">
         <v>25.8</v>
@@ -8605,64 +8613,64 @@
         <v>11</v>
       </c>
       <c r="M113" t="n">
-        <v>0.05507379140752887</v>
+        <v>0.05501656568707283</v>
       </c>
       <c r="N113" t="n">
-        <v>9.467928167403687e-05</v>
+        <v>4.236415789825498e-05</v>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>19.29824561403509</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.9440948841124444</v>
+        <v>-0.497236066545608</v>
       </c>
       <c r="R113" t="n">
-        <v>1.0717372580449</v>
+        <v>-0.4066450646819131</v>
       </c>
       <c r="S113" t="n">
-        <v>0.2044011133508551</v>
+        <v>1.579996156876042</v>
       </c>
       <c r="T113" t="n">
-        <v>0.7495661200094088</v>
+        <v>-0.7559197254269838</v>
       </c>
       <c r="U113" t="n">
-        <v>0.2252372974911668</v>
+        <v>0.1490864846021547</v>
       </c>
       <c r="V113" t="n">
-        <v>0.2164434318388863</v>
+        <v>0.06885210270139269</v>
       </c>
       <c r="W113" t="n">
-        <v>0.00591944576111364</v>
+        <v>-0.005954355751392693</v>
       </c>
       <c r="X113" t="n">
-        <v>0.3581549122946641</v>
+        <v>-0.3849170976302304</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="C114" t="n">
-        <v>58.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="E114" t="n">
-        <v>0.24170500935</v>
+        <v>0.10272821085</v>
       </c>
       <c r="F114" t="n">
-        <v>6.82</v>
+        <v>3.74</v>
       </c>
       <c r="G114" t="n">
-        <v>1.478179300395101</v>
+        <v>1.066085402633594</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2167418329025075</v>
+        <v>0.2850495728966829</v>
       </c>
       <c r="I114" t="n">
         <v>25.8</v>
@@ -8677,64 +8685,64 @@
         <v>11</v>
       </c>
       <c r="M114" t="n">
-        <v>0.05508729436085966</v>
+        <v>0.0550262664552121</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0001006363351997667</v>
+        <v>5.715690795572146e-05</v>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
-        <v>17.74193548387097</v>
+        <v>32.35294117647059</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.11891939295237</v>
+        <v>-0.1372270779715393</v>
       </c>
       <c r="R114" t="n">
-        <v>1.318134311832702</v>
+        <v>-0.06168918937898994</v>
       </c>
       <c r="S114" t="n">
-        <v>-0.1142946650545076</v>
+        <v>1.209268414649396</v>
       </c>
       <c r="T114" t="n">
-        <v>0.9321722198601842</v>
+        <v>-0.3798864235120536</v>
       </c>
       <c r="U114" t="n">
-        <v>-0.1130611269839822</v>
+        <v>0.519315373377528</v>
       </c>
       <c r="V114" t="n">
-        <v>0.2510138169884223</v>
+        <v>0.1082539060380097</v>
       </c>
       <c r="W114" t="n">
-        <v>-0.009308807638422373</v>
+        <v>-0.005525695188009702</v>
       </c>
       <c r="X114" t="n">
-        <v>-0.5632275922196863</v>
+        <v>-0.357206496044605</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C115" t="n">
-        <v>52.6</v>
+        <v>91.3</v>
       </c>
       <c r="D115" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="E115" t="n">
-        <v>0.25889801535</v>
+        <v>0.12995047035</v>
       </c>
       <c r="F115" t="n">
-        <v>7.260000000000001</v>
+        <v>4.29</v>
       </c>
       <c r="G115" t="n">
-        <v>1.426077354018782</v>
+        <v>1.242445224808852</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1964293876058929</v>
+        <v>0.289614271517215</v>
       </c>
       <c r="I115" t="n">
         <v>25.8</v>
@@ -8749,64 +8757,64 @@
         <v>11</v>
       </c>
       <c r="M115" t="n">
-        <v>0.05509891106002006</v>
+        <v>0.05503455732537511</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0001059506652933466</v>
+        <v>6.607483362026044e-05</v>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>16.66666666666666</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.274318956365637</v>
+        <v>0.1088222307661336</v>
       </c>
       <c r="R115" t="n">
-        <v>1.515251954862944</v>
+        <v>0.1847078644088122</v>
       </c>
       <c r="S115" t="n">
-        <v>-0.3029105339066609</v>
+        <v>0.9556125910206381</v>
       </c>
       <c r="T115" t="n">
-        <v>1.094488753060873</v>
+        <v>-0.1228852459442956</v>
       </c>
       <c r="U115" t="n">
-        <v>-0.3011088221873813</v>
+        <v>0.5615742468097804</v>
       </c>
       <c r="V115" t="n">
-        <v>0.2714738408524334</v>
+        <v>0.1352130346367477</v>
       </c>
       <c r="W115" t="n">
-        <v>-0.01257582550243347</v>
+        <v>-0.005262564286747706</v>
       </c>
       <c r="X115" t="n">
-        <v>-0.7608978714604681</v>
+        <v>-0.3401964974755903</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>238</v>
+        <v>155.5</v>
       </c>
       <c r="C116" t="n">
-        <v>47.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="E116" t="n">
-        <v>0.28038927285</v>
+        <v>0.1621873566</v>
       </c>
       <c r="F116" t="n">
-        <v>7.59</v>
+        <v>5.06</v>
       </c>
       <c r="G116" t="n">
-        <v>1.388836600375788</v>
+        <v>1.41988081429252</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1829824242919352</v>
+        <v>0.2806088565795494</v>
       </c>
       <c r="I116" t="n">
         <v>25.8</v>
@@ -8821,64 +8829,64 @@
         <v>11</v>
       </c>
       <c r="M116" t="n">
-        <v>0.05510809831594628</v>
+        <v>0.05504806990258605</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0001126236154714265</v>
+        <v>7.617501186748044e-05</v>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>15.94202898550725</v>
+        <v>23.91304347826087</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.468568410632221</v>
+        <v>0.4001964121660095</v>
       </c>
       <c r="R116" t="n">
-        <v>1.663090187135625</v>
+        <v>0.5296637397117354</v>
       </c>
       <c r="S116" t="n">
-        <v>-0.4752664140646632</v>
+        <v>0.7052087651307103</v>
       </c>
       <c r="T116" t="n">
-        <v>1.297384419561735</v>
+        <v>0.1814582538069969</v>
       </c>
       <c r="U116" t="n">
-        <v>-0.425597549258358</v>
+        <v>0.4782042980591728</v>
       </c>
       <c r="V116" t="n">
-        <v>0.2901700695557539</v>
+        <v>0.1618265333816557</v>
       </c>
       <c r="W116" t="n">
-        <v>-0.009780796705753936</v>
+        <v>0.000360823218344325</v>
       </c>
       <c r="X116" t="n">
-        <v>-0.5917851987653325</v>
+        <v>0.02332528182082697</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>247</v>
+        <v>170.5</v>
       </c>
       <c r="C117" t="n">
-        <v>40.5</v>
+        <v>78.7</v>
       </c>
       <c r="D117" t="n">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="E117" t="n">
-        <v>0.29328402735</v>
+        <v>0.1836786141</v>
       </c>
       <c r="F117" t="n">
-        <v>7.92</v>
+        <v>5.39</v>
       </c>
       <c r="G117" t="n">
-        <v>1.243861576746284</v>
+        <v>1.513777145805587</v>
       </c>
       <c r="H117" t="n">
-        <v>0.157053229387157</v>
+        <v>0.280849192171723</v>
       </c>
       <c r="I117" t="n">
         <v>25.8</v>
@@ -8893,64 +8901,64 @@
         <v>11</v>
       </c>
       <c r="M117" t="n">
-        <v>0.05511769225938256</v>
+        <v>0.0550545411387653</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0001166445049204666</v>
+        <v>8.279833331028251e-05</v>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>15.27777777777778</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.585118083192171</v>
+        <v>0.5944458664325933</v>
       </c>
       <c r="R117" t="n">
-        <v>1.810928419408307</v>
+        <v>0.6775019719844166</v>
       </c>
       <c r="S117" t="n">
-        <v>-0.6964022603051189</v>
+        <v>0.5458608759280292</v>
       </c>
       <c r="T117" t="n">
-        <v>1.419121819462252</v>
+        <v>0.3843539203078579</v>
       </c>
       <c r="U117" t="n">
-        <v>-0.6656437509402361</v>
+        <v>0.4804292667187136</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3141576837411462</v>
+        <v>0.1787623962193244</v>
       </c>
       <c r="W117" t="n">
-        <v>-0.02087365639114624</v>
+        <v>0.004916217880675589</v>
       </c>
       <c r="X117" t="n">
-        <v>-1.262956512441033</v>
+        <v>0.317807063762504</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>231</v>
+        <v>176.5</v>
       </c>
       <c r="C118" t="n">
-        <v>46.6</v>
+        <v>76.5</v>
       </c>
       <c r="D118" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="E118" t="n">
-        <v>0.27036001935</v>
+        <v>0.1922751171</v>
       </c>
       <c r="F118" t="n">
-        <v>7.37</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>1.319340831954297</v>
+        <v>1.540327743141167</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1790150382570281</v>
+        <v>0.2692880669827215</v>
       </c>
       <c r="I118" t="n">
         <v>25.8</v>
@@ -8965,38 +8973,614 @@
         <v>11</v>
       </c>
       <c r="M118" t="n">
-        <v>0.05510192827841871</v>
+        <v>0.0550614202504803</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0001095052196449467</v>
+        <v>8.543887741684227e-05</v>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
+        <v>21.15384615384615</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.6721456481392269</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.8253402042570981</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.4743169256737641</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.4655121869082029</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.3733991719170772</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.1863662530035838</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.005908864096416167</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.3819763066309918</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>146</v>
+      </c>
+      <c r="B119" t="n">
+        <v>193</v>
+      </c>
+      <c r="C119" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.21591550035</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.594048591784952</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.2683583487853454</v>
+      </c>
+      <c r="I119" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L119" t="n">
+        <v>11</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.05506623284736301</v>
+      </c>
+      <c r="N119" t="n">
+        <v>9.269753064970684e-05</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="n">
+        <v>20.37037037037037</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.8858200478324691</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.9238990257722191</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.2791970613439503</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.6886974200591505</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.3647920661918813</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0.2071040442333823</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0.008811456116617711</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0.5696132807502028</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>147</v>
+      </c>
+      <c r="B120" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.2223628776</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.588090611336287</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.2532839890488496</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J120" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K120" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.05507379140752887</v>
+      </c>
+      <c r="N120" t="n">
+        <v>9.467928167403687e-05</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="n">
+        <v>19.29824561403509</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.9440948841124444</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.0717372580449</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.2044011133508551</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.7495661200094088</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.2252372974911668</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0.2150535308714717</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0.007309346728528315</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.4725099819002379</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>149</v>
+      </c>
+      <c r="B121" t="n">
+        <v>211</v>
+      </c>
+      <c r="C121" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.24170500935</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.478179300395101</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2167418329025075</v>
+      </c>
+      <c r="I121" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L121" t="n">
+        <v>11</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.05508729436085966</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.0001006363351997667</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="n">
+        <v>17.74193548387097</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1.11891939295237</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.318134311832702</v>
+      </c>
+      <c r="S121" t="n">
+        <v>-0.1142946650545076</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.9321722198601842</v>
+      </c>
+      <c r="U121" t="n">
+        <v>-0.1130611269839822</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.2489252565468091</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-0.007220247196809165</v>
+      </c>
+      <c r="X121" t="n">
+        <v>-0.4667501760402125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>150</v>
+      </c>
+      <c r="B122" t="n">
+        <v>223</v>
+      </c>
+      <c r="C122" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.25889801535</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7.260000000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.426077354018782</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.1964293876058929</v>
+      </c>
+      <c r="I122" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L122" t="n">
+        <v>11</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.05509891106002006</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.0001059506652933466</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1.274318956365637</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.515251954862944</v>
+      </c>
+      <c r="S122" t="n">
+        <v>-0.3029105339066609</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.094488753060873</v>
+      </c>
+      <c r="U122" t="n">
+        <v>-0.3011088221873813</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0.2689717880689476</v>
+      </c>
+      <c r="W122" t="n">
+        <v>-0.01007377271894766</v>
+      </c>
+      <c r="X122" t="n">
+        <v>-0.6512152647676427</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>151</v>
+      </c>
+      <c r="B123" t="n">
+        <v>238</v>
+      </c>
+      <c r="C123" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.28038927285</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.388836600375788</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.1829824242919352</v>
+      </c>
+      <c r="I123" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L123" t="n">
+        <v>11</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.05510809831594628</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.0001126236154714265</v>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="n">
+        <v>15.94202898550725</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1.468568410632221</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.663090187135625</v>
+      </c>
+      <c r="S123" t="n">
+        <v>-0.4752664140646632</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.297384419561735</v>
+      </c>
+      <c r="U123" t="n">
+        <v>-0.425597549258358</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.2872901703219363</v>
+      </c>
+      <c r="W123" t="n">
+        <v>-0.006900897471936285</v>
+      </c>
+      <c r="X123" t="n">
+        <v>-0.4461059326729379</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>152</v>
+      </c>
+      <c r="B124" t="n">
+        <v>247</v>
+      </c>
+      <c r="C124" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.29328402735</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.243861576746284</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.157053229387157</v>
+      </c>
+      <c r="I124" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L124" t="n">
+        <v>11</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.05511769225938256</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.0001166445049204666</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1.585118083192171</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.810928419408307</v>
+      </c>
+      <c r="S124" t="n">
+        <v>-0.6964022603051189</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.419121819462252</v>
+      </c>
+      <c r="U124" t="n">
+        <v>-0.6656437509402361</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0.3107930003823745</v>
+      </c>
+      <c r="W124" t="n">
+        <v>-0.01750897303237448</v>
+      </c>
+      <c r="X124" t="n">
+        <v>-1.131861004531216</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>153</v>
+      </c>
+      <c r="B125" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.3140589096</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.690000000000001</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.14121957209414</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.1313256124389114</v>
+      </c>
+      <c r="I125" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L125" t="n">
+        <v>11</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.05514165848068047</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.0001231502225938371</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="n">
+        <v>13.92405063291139</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.772892555649869</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.15588429471123</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-0.8850181291572721</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.615254297079752</v>
+      </c>
+      <c r="U125" t="n">
+        <v>-0.903823792759221</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0.330839531904513</v>
+      </c>
+      <c r="W125" t="n">
+        <v>-0.01678062230451299</v>
+      </c>
+      <c r="X125" t="n">
+        <v>-1.084777044497465</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>154</v>
+      </c>
+      <c r="B126" t="n">
+        <v>231</v>
+      </c>
+      <c r="C126" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.27036001935</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.319340831954297</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.1790150382570281</v>
+      </c>
+      <c r="I126" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J126" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>14.605</v>
+      </c>
+      <c r="L126" t="n">
+        <v>11</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.05510192827841871</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.0001095052196449467</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="n">
         <v>16.41791044776119</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q126" t="n">
         <v>1.377918665307815</v>
       </c>
-      <c r="R118" t="n">
+      <c r="R126" t="n">
         <v>1.564531365620505</v>
       </c>
-      <c r="S118" t="n">
+      <c r="S126" t="n">
         <v>-0.4980303982364747</v>
       </c>
-      <c r="T118" t="n">
+      <c r="T126" t="n">
         <v>1.202699775194666</v>
       </c>
-      <c r="U118" t="n">
+      <c r="U126" t="n">
         <v>-0.4623266475501716</v>
       </c>
-      <c r="V118" t="n">
-        <v>0.2926393827807208</v>
-      </c>
-      <c r="W118" t="n">
-        <v>-0.02227936343072079</v>
-      </c>
-      <c r="X118" t="n">
-        <v>-1.348008542950067</v>
+      <c r="V126" t="n">
+        <v>0.2897095792987461</v>
+      </c>
+      <c r="W126" t="n">
+        <v>-0.0193495599487461</v>
+      </c>
+      <c r="X126" t="n">
+        <v>-1.250845056436451</v>
       </c>
     </row>
   </sheetData>
